--- a/build_model/input/BIOMASS_RBA.xlsx
+++ b/build_model/input/BIOMASS_RBA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejm6426/Documents/scRBA/build_model/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73852E46-4873-E345-90B5-E8D0F877046B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78749243-8929-0F45-B060-4298737CC095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBABioRxns" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="485">
   <si>
     <t>rxn_id</t>
   </si>
@@ -4155,6 +4155,12 @@
   </si>
   <si>
     <t>hdcea</t>
+  </si>
+  <si>
+    <t>Total varbiom from kapp calculations</t>
+  </si>
+  <si>
+    <t>amount from sheet below</t>
   </si>
 </sst>
 </file>
@@ -4350,7 +4356,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4492,12 +4498,6 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4507,6 +4507,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -4514,7 +4523,7 @@
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FA81D386-83CA-2644-8497-75AC01D4946D}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill>
@@ -4528,16 +4537,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4555,6 +4554,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -4851,38 +4853,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C0F3E509-47ED-294D-80DD-CFD493369AA3}" name="ExtraRxns2511" displayName="ExtraRxns2511" ref="X5:Z17" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C0F3E509-47ED-294D-80DD-CFD493369AA3}" name="ExtraRxns2511" displayName="ExtraRxns2511" ref="X5:Z17" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="X5:Z17" xr:uid="{FE7B857A-6163-784B-9297-DC54E624BDF2}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F5018EEF-D7DA-5F4D-8739-C1CC54AF082E}" name="rxn description or data (optional)" dataDxfId="26" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{4DBE0BFD-D45C-894F-8934-910CDB550998}" name="name" dataDxfId="25" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{D55D4CED-07A9-3744-818A-42B81B1DCE1A}" name="stoichiometry" dataDxfId="24" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{F5018EEF-D7DA-5F4D-8739-C1CC54AF082E}" name="rxn description or data (optional)" dataDxfId="25" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{4DBE0BFD-D45C-894F-8934-910CDB550998}" name="name" dataDxfId="24" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{D55D4CED-07A9-3744-818A-42B81B1DCE1A}" name="stoichiometry" dataDxfId="23" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{01763AE5-B7A4-C64B-AD56-C7C56568C074}" name="biomassComponents2612" displayName="biomassComponents2612" ref="P5:V14" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" dataCellStyle="Percent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{01763AE5-B7A4-C64B-AD56-C7C56568C074}" name="biomassComponents2612" displayName="biomassComponents2612" ref="P5:V14" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" dataCellStyle="Percent">
   <autoFilter ref="P5:V14" xr:uid="{FF498876-BCFA-DE44-AB80-834F76DB6419}"/>
   <tableColumns count="7">
-    <tableColumn id="4" xr3:uid="{157AF8C9-2BF1-A24F-A008-E2511B8767B2}" name="rxn name" dataDxfId="21" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{157AF8C9-2BF1-A24F-A008-E2511B8767B2}" name="rxn name" dataDxfId="20" dataCellStyle="Percent">
       <calculatedColumnFormula>O6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BCD92397-1C82-8348-A978-05B0CB2AD8EA}" name="product name" dataDxfId="20" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{BCD92397-1C82-8348-A978-05B0CB2AD8EA}" name="product name" dataDxfId="19" dataCellStyle="Percent">
       <calculatedColumnFormula>SUBSTITUTE(LOWER(biomassComponents2612[[#This Row],[rxn name]]),"biosyn-","BIO-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DB4182DF-660B-A749-AABA-40B7F3C720D0}" name="original coeffs from input" dataDxfId="19" dataCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{DB4182DF-660B-A749-AABA-40B7F3C720D0}" name="original coeffs from input" dataDxfId="18" dataCellStyle="Percent">
       <calculatedColumnFormula array="1">SUM(_xlfn._xlws.FILTER(-mets2713[MW for biomass normalization (g/mol)]*mets2713[normalized coeffs]/1000,mets2713[category]=_xlfn.TEXTAFTER(O6,"BIOSYN-"),""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D82D6910-D5D0-A244-8671-03CEE1409563}" name="pre-determined coeffs" dataDxfId="18" dataCellStyle="Percent"/>
-    <tableColumn id="1" xr3:uid="{792B1EC8-637D-AE4B-A1D3-0323A667081C}" name="normalized coeffs" dataDxfId="17" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{D82D6910-D5D0-A244-8671-03CEE1409563}" name="pre-determined coeffs" dataDxfId="17" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{792B1EC8-637D-AE4B-A1D3-0323A667081C}" name="normalized coeffs" dataDxfId="16" dataCellStyle="Percent">
       <calculatedColumnFormula array="1">IF(biomassComponents2612[[#This Row],[pre-determined coeffs]]&lt;&gt;"",biomassComponents2612[[#This Row],[pre-determined coeffs]]*IF(SUM(biomassComponents2612[pre-determined coeffs])&gt;1,1/SUM(biomassComponents2612[pre-determined coeffs]),1)*(1-SUM(_xlfn._xlws.FILTER(biomassComponents2612[original coeffs from input],biomassComponents2612[pre-determined coeffs]=""))),biomassComponents2612[[#This Row],[original coeffs from input]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{223ED0EC-00A9-EA41-90D9-FA9A479A63AF}" name="stoichiometry (if needed)" dataDxfId="16" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{223ED0EC-00A9-EA41-90D9-FA9A479A63AF}" name="stoichiometry (if needed)" dataDxfId="15" dataCellStyle="Percent">
       <calculatedColumnFormula array="1">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-[1]!mets[MW for biomass normalization (g/mol)]*[1]!mets[normalized coeffs]*(biomassComponents2612[[#This Row],[normalized coeffs]]/biomassComponents2612[[#This Row],[original coeffs from input]])/(1000*biomassComponents2612[[#This Row],[normalized coeffs]]),6)&amp;" BIO-"&amp;[1]!mets[name],[1]!mets[category]=_xlfn.TEXTAFTER(O6,"BIOSYN-"),""))&amp;" --&gt; "&amp;biomassComponents2612[[#This Row],[product name]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{38AAF5B7-6799-FA4C-B87A-F81B4CFF12DD}" name="new GSM coeffs" dataDxfId="15" dataCellStyle="Percent">
+    <tableColumn id="7" xr3:uid="{38AAF5B7-6799-FA4C-B87A-F81B4CFF12DD}" name="new GSM coeffs" dataDxfId="14" dataCellStyle="Percent">
       <calculatedColumnFormula array="1">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER((-mets2713[normalized coeffs]*biomassComponents2612[[#This Row],[normalized coeffs]]/biomassComponents2612[[#This Row],[original coeffs from input]])&amp;" BIO-"&amp;mets2713[name],mets2713[category]=_xlfn.TEXTAFTER(P6,"BIOSYN-"),""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4891,47 +4893,47 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2B1B8A99-D019-364E-B479-31FED72F0D28}" name="mets2713" displayName="mets2713" ref="A5:M95" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2B1B8A99-D019-364E-B479-31FED72F0D28}" name="mets2713" displayName="mets2713" ref="A5:M95" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A5:M95" xr:uid="{A59107F0-EED3-5F4B-9DA5-382606291CC5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:M95">
     <sortCondition ref="D5:D95"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{B2FC23D8-FC54-B041-A858-29396B407CE3}" name="pasted JSON metabolite keys and values from GSM biomass rxn"/>
-    <tableColumn id="2" xr3:uid="{21D10AD7-1D35-2A46-B8EF-79A6D70D5B45}" name="name" dataDxfId="13">
+    <tableColumn id="2" xr3:uid="{21D10AD7-1D35-2A46-B8EF-79A6D70D5B45}" name="name" dataDxfId="12">
       <calculatedColumnFormula>SUBSTITUTE(_xlfn.TEXTBEFORE(mets2713[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4E4026AA-D599-2C4C-92A4-C95CF70C7C1B}" name="name w/o location" dataDxfId="12">
+    <tableColumn id="3" xr3:uid="{4E4026AA-D599-2C4C-92A4-C95CF70C7C1B}" name="name w/o location" dataDxfId="11">
       <calculatedColumnFormula>_xlfn.TEXTBEFORE(mets2713[[#This Row],[name]],"_",-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9F7B0518-AC5B-5348-8725-EA09B6FECB7C}" name="category" dataDxfId="11">
+    <tableColumn id="4" xr3:uid="{9F7B0518-AC5B-5348-8725-EA09B6FECB7C}" name="category" dataDxfId="10">
       <calculatedColumnFormula>_xlfn.XLOOKUP(mets2713[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8C51D09F-8642-D94D-8BA0-15212C7D5094}" name="MW for biomass normalization (g/mol)" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{8C51D09F-8642-D94D-8BA0-15212C7D5094}" name="MW for biomass normalization (g/mol)" dataDxfId="9">
       <calculatedColumnFormula>_xlfn.XLOOKUP(mets2713[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{19167507-6454-6F4D-AD6B-6C9AEA7065B5}" name="raw (GSM) coefficient" dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{19167507-6454-6F4D-AD6B-6C9AEA7065B5}" name="raw (GSM) coefficient" dataDxfId="8">
       <calculatedColumnFormula>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets2713[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FE61D089-B2D2-914F-A854-C2D395D0A7EC}" name="coeff. w/o GAM" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{FE61D089-B2D2-914F-A854-C2D395D0A7EC}" name="coeff. w/o GAM" dataDxfId="7">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.id,mets2713[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets2713[[#This Row],[raw (GSM) coefficient]])*(ABS(mets2713[[#This Row],[raw (GSM) coefficient]])-$J$2),mets2713[[#This Row],[raw (GSM) coefficient]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6106706A-24A4-B349-BB82-BB3A886479E4}" name="coeffs after extra operations" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{6106706A-24A4-B349-BB82-BB3A886479E4}" name="coeffs after extra operations" dataDxfId="6">
       <calculatedColumnFormula>mets2713[[#This Row],[coeff. w/o GAM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{FEAE8E31-B137-CC46-9CBE-533B680D0D9F}" name="normalized coeffs" dataDxfId="7">
+    <tableColumn id="9" xr3:uid="{FEAE8E31-B137-CC46-9CBE-533B680D0D9F}" name="normalized coeffs" dataDxfId="5">
       <calculatedColumnFormula>H6/($H$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{DD0B9EA5-B606-8648-9646-464B4D4B754F}" name="normalized coeff. w/ updated GAM" dataDxfId="6">
+    <tableColumn id="10" xr3:uid="{DD0B9EA5-B606-8648-9646-464B4D4B754F}" name="normalized coeff. w/ updated GAM" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.id,mets2713[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets2713[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{584247CA-83EC-444B-8E28-A8A70D1A47F0}" name="biomass equation name">
       <calculatedColumnFormula array="1">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets2713[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets2713[[#This Row],[name]],TRUE,mets2713[[#This Row],[category]]&amp;"-"&amp;mets2713[[#This Row],[name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{8C9C5065-9670-254B-9A52-B076DE6B8F41}" name="biomass equation" dataDxfId="5">
+    <tableColumn id="12" xr3:uid="{8C9C5065-9670-254B-9A52-B076DE6B8F41}" name="biomass equation" dataDxfId="3">
       <calculatedColumnFormula array="1">IF(IsElementOfSet_DIY(mets2713[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets2713[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets2713[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets2713[[#This Row],[category]]="DNA")+(mets2713[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets2713[[#This Row],[name]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{9239BE10-54C3-B341-8336-29E7A083E000}" name="new GSM coeffs" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{9239BE10-54C3-B341-8336-29E7A083E000}" name="new GSM coeffs" dataDxfId="2">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets2713[[#This Row],[name w/o location]],4)="trna","PROT",mets2713[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents2612[normalized coeffs],biomassComponents2612[original coeffs from input]),(biomassComponents2612[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets2713[[#This Row],[name w/o location]]="ppi",((biomassComponents2612[rxn name]="BIOSYN-DNA"))+((biomassComponents2612[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets2713[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets2713[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets2713[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5282,7 +5284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
@@ -6002,8 +6004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F168A7-6B4E-494D-BA75-6693E50B2433}">
   <dimension ref="A1:AG95"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6040,14 +6042,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="58" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
       <c r="G1" s="59" t="s">
         <v>353</v>
       </c>
@@ -6065,19 +6067,23 @@
       <c r="P1" s="59"/>
       <c r="Q1" s="59"/>
       <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
+      <c r="S1" s="88" t="s">
+        <v>483</v>
+      </c>
+      <c r="T1" s="88" t="s">
+        <v>484</v>
+      </c>
       <c r="U1" s="59"/>
       <c r="V1" s="59"/>
       <c r="W1" s="59"/>
     </row>
     <row r="2" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
       <c r="G2">
         <v>10.74</v>
       </c>
@@ -6098,8 +6104,14 @@
       <c r="P2" s="60"/>
       <c r="Q2" s="60"/>
       <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
+      <c r="S2">
+        <f>(0.234247532065353+32.0229+332.718782996797)/1000</f>
+        <v>0.36497593052886235</v>
+      </c>
+      <c r="T2" s="60">
+        <f>0.391*SUM(T6,T12:T13)</f>
+        <v>0.36497593052886229</v>
+      </c>
       <c r="U2" s="60"/>
       <c r="V2" s="61" t="s">
         <v>357</v>
@@ -6311,11 +6323,11 @@
       <c r="A4" s="57"/>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
-      <c r="D4" s="84" t="str">
+      <c r="D4" s="87" t="str">
         <f>HYPERLINK("[BIOMASS_RBA.xlsx]metaboliteInfo!A1","click here to add new metabolite MWs and categories")</f>
         <v>click here to add new metabolite MWs and categories</v>
       </c>
-      <c r="E4" s="84"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="63"/>
       <c r="H4" s="29" t="s">
         <v>359</v>
@@ -6500,7 +6512,7 @@
         <f t="array" ref="R6">SUM(_xlfn._xlws.FILTER(-mets2713[MW for biomass normalization (g/mol)]*mets2713[normalized coeffs]/1000,mets2713[category]=_xlfn.TEXTAFTER(O6,"BIOSYN-"),""))</f>
         <v>0.31746572507670373</v>
       </c>
-      <c r="S6" s="85">
+      <c r="S6" s="83">
         <v>31.006451467927871</v>
       </c>
       <c r="T6" s="76" cm="1">
@@ -6562,7 +6574,7 @@
         <v>-0.96820600000000001</v>
       </c>
       <c r="I7" s="72">
-        <f t="shared" ref="I6:I37" si="1">H7/($H$3)</f>
+        <f t="shared" ref="I7:I37" si="1">H7/($H$3)</f>
         <v>-0.98478171252806845</v>
       </c>
       <c r="J7" s="37" cm="1">
@@ -6597,7 +6609,7 @@
         <f t="array" ref="R7">SUM(_xlfn._xlws.FILTER(-mets2713[MW for biomass normalization (g/mol)]*mets2713[normalized coeffs]/1000,mets2713[category]=_xlfn.TEXTAFTER(O7,"BIOSYN-"),""))</f>
         <v>4.9151190302627306E-3</v>
       </c>
-      <c r="S7" s="85"/>
+      <c r="S7" s="83"/>
       <c r="T7" s="76" cm="1">
         <f t="array" ref="T7">IF(biomassComponents2612[[#This Row],[pre-determined coeffs]]&lt;&gt;"",biomassComponents2612[[#This Row],[pre-determined coeffs]]*IF(SUM(biomassComponents2612[pre-determined coeffs])&gt;1,1/SUM(biomassComponents2612[pre-determined coeffs]),1)*(1-SUM(_xlfn._xlws.FILTER(biomassComponents2612[original coeffs from input],biomassComponents2612[pre-determined coeffs]=""))),biomassComponents2612[[#This Row],[original coeffs from input]])</f>
         <v>4.9151190302627306E-3</v>
@@ -6693,7 +6705,7 @@
         <f t="array" ref="R8">SUM(_xlfn._xlws.FILTER(-mets2713[MW for biomass normalization (g/mol)]*mets2713[normalized coeffs]/1000,mets2713[category]=_xlfn.TEXTAFTER(O8,"BIOSYN-"),""))</f>
         <v>4.0811287671974495E-3</v>
       </c>
-      <c r="S8" s="86">
+      <c r="S8" s="84">
         <v>0.25538285833653501</v>
       </c>
       <c r="T8" s="76" cm="1">
@@ -6792,7 +6804,7 @@
         <f t="array" ref="R9">SUM(_xlfn._xlws.FILTER(-mets2713[MW for biomass normalization (g/mol)]*mets2713[normalized coeffs]/1000,mets2713[category]=_xlfn.TEXTAFTER(O9,"BIOSYN-"),""))</f>
         <v>0.15360349420842423</v>
       </c>
-      <c r="S9" s="85">
+      <c r="S9" s="83">
         <v>2.0974824071256464</v>
       </c>
       <c r="T9" s="76" cm="1">
@@ -7080,7 +7092,7 @@
         <f t="array" ref="R12">SUM(_xlfn._xlws.FILTER(-mets2713[MW for biomass normalization (g/mol)]*mets2713[normalized coeffs]/1000,mets2713[category]=_xlfn.TEXTAFTER(O12,"BIOSYN-"),""))</f>
         <v>0.42244284313498565</v>
       </c>
-      <c r="S12" s="87">
+      <c r="S12" s="85">
         <v>58.068009171159375</v>
       </c>
       <c r="T12" s="76" cm="1">
@@ -7101,6 +7113,13 @@
       <c r="Z12" s="77" t="s">
         <v>58</v>
       </c>
+      <c r="AB12" t="str" cm="1">
+        <f t="array" ref="AB12:AC77">_xlfn.LET(_xlpm.macros,_xlfn._xlws.FILTER(_xlfn.HSTACK(_xlfn.ANCHORARRAY(O6),biomassComponents2612[stoichiometry (if needed)]),biomassComponents2612[stoichiometry (if needed)]&lt;&gt;""),_xlfn.VSTACK(_xlfn._xlws.FILTER(ExtraRxns2511[[name]:[stoichiometry]],ExtraRxns2511[stoichiometry]&lt;&gt;""),_xlpm.macros,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(mets2713[[biomass equation name]:[biomass equation]],ISNUMBER(MATCH(mets2713[category],_xlfn.TEXTAFTER(biomassComponents2612[rxn name],"BIOSYN-"),0))*(mets2713[biomass equation]&lt;&gt;"")))))</f>
+        <v>BIOSYN-BIODILAERO</v>
+      </c>
+      <c r="AC12" t="str">
+        <v>0.933442277567423 BIO-varbiom + 0.00491511903026273 BIO-cofactor + 0.00244129187799933 BIO-dna + 0.020050549978631 BIO-lipid + 0.0257857478364828 BIO-metal + 0.010314301982428 BIO-pi + 0.00305071172677345 BIO-so4 + 81.26 MET-h2o_c + 81.26 MET-atp_c --&gt; 81.26 MET-adp_c + 81.26 MET-h_c + 81.26 MET-pi_c</v>
+      </c>
     </row>
     <row r="13" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="71" t="s">
@@ -7170,7 +7189,7 @@
         <f t="array" ref="R13">SUM(_xlfn._xlws.FILTER(-mets2713[MW for biomass normalization (g/mol)]*mets2713[normalized coeffs]/1000,mets2713[category]=_xlfn.TEXTAFTER(O13,"BIOSYN-"),""))</f>
         <v>5.8340928236741987E-2</v>
       </c>
-      <c r="S13" s="85">
+      <c r="S13" s="83">
         <v>8.5726740954505853</v>
       </c>
       <c r="T13" s="76" cm="1">
@@ -7193,6 +7212,12 @@
       <c r="Z13" s="77" t="s">
         <v>62</v>
       </c>
+      <c r="AB13" t="str">
+        <v>BIOSYN-BIODILAERO-NOGAM</v>
+      </c>
+      <c r="AC13" t="str">
+        <v xml:space="preserve">0.933442277567423 BIO-varbiom + 0.00491511903026273 BIO-cofactor + 0.00244129187799933 BIO-dna + 0.020050549978631 BIO-lipid + 0.0257857478364828 BIO-metal + 0.010314301982428 BIO-pi + 0.00305071172677345 BIO-so4 --&gt; </v>
+      </c>
     </row>
     <row r="14" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="71" t="s">
@@ -7262,7 +7287,7 @@
         <f t="array" ref="R14">SUM(_xlfn._xlws.FILTER(-mets2713[MW for biomass normalization (g/mol)]*mets2713[normalized coeffs]/1000,mets2713[category]=_xlfn.TEXTAFTER(O14,"BIOSYN-"),""))</f>
         <v>3.0507117267734502E-3</v>
       </c>
-      <c r="S14" s="85"/>
+      <c r="S14" s="83"/>
       <c r="T14" s="76" cm="1">
         <f t="array" ref="T14">IF(biomassComponents2612[[#This Row],[pre-determined coeffs]]&lt;&gt;"",biomassComponents2612[[#This Row],[pre-determined coeffs]]*IF(SUM(biomassComponents2612[pre-determined coeffs])&gt;1,1/SUM(biomassComponents2612[pre-determined coeffs]),1)*(1-SUM(_xlfn._xlws.FILTER(biomassComponents2612[original coeffs from input],biomassComponents2612[pre-determined coeffs]=""))),biomassComponents2612[[#This Row],[original coeffs from input]])</f>
         <v>3.0507117267734502E-3</v>
@@ -7283,6 +7308,12 @@
       </c>
       <c r="Z14" s="77" t="s">
         <v>64</v>
+      </c>
+      <c r="AB14" t="str">
+        <v>BIOSYN-PROTTOBIO</v>
+      </c>
+      <c r="AC14" t="str">
+        <v>BIO-prot --&gt; BIO-varbiom</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="16" x14ac:dyDescent="0.2">
@@ -7354,12 +7385,11 @@
         <f t="array" ref="Z15">_xlfn.LET(_xlpm.RNAmass,_xlfn.XLOOKUP("BIOSYN-RNA",biomassComponents2612[rxn name],biomassComponents2612[normalized coeffs],0),_xlpm.coeff,1/_xlpm.RNAmass,_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-mets2713[MW for biomass normalization (g/mol)]*mets2713[normalized coeffs]/(1000),6)*_xlpm.coeff&amp;" BIO-"&amp;mets2713[name],mets2713[category]="RNA",""))&amp;" --&gt; "&amp;SUBSTITUTE(LOWER(ExtraRxns2511[[#This Row],[name]]),"biosyn-","BIO-"))</f>
         <v>0.171130581725472 BIO-atp_c + 0.154120026183165 BIO-ctp_c + 0.179477224473634 BIO-gtp_c + 0.207189542720821 BIO-utp_c --&gt; BIO-trna</v>
       </c>
-      <c r="AB15" t="str" cm="1">
-        <f t="array" ref="AB15:AC80">_xlfn.LET(_xlpm.macros,_xlfn._xlws.FILTER(_xlfn.HSTACK(_xlfn.ANCHORARRAY(O6),biomassComponents2612[stoichiometry (if needed)]),biomassComponents2612[stoichiometry (if needed)]&lt;&gt;""),_xlfn.VSTACK(_xlfn._xlws.FILTER(ExtraRxns2511[[name]:[stoichiometry]],ExtraRxns2511[stoichiometry]&lt;&gt;""),_xlpm.macros,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(mets2713[[biomass equation name]:[biomass equation]],ISNUMBER(MATCH(mets2713[category],_xlfn.TEXTAFTER(biomassComponents2612[rxn name],"BIOSYN-"),0))*(mets2713[biomass equation]&lt;&gt;"")))))</f>
-        <v>BIOSYN-BIODILAERO</v>
+      <c r="AB15" t="str">
+        <v>BIOSYN-RNATOBIO</v>
       </c>
       <c r="AC15" t="str">
-        <v>0.933442277567423 BIO-varbiom + 0.00491511903026273 BIO-cofactor + 0.00244129187799933 BIO-dna + 0.020050549978631 BIO-lipid + 0.0257857478364828 BIO-metal + 0.010314301982428 BIO-pi + 0.00305071172677345 BIO-so4 + 81.26 MET-h2o_c + 81.26 MET-atp_c --&gt; 81.26 MET-adp_c + 81.26 MET-h_c + 81.26 MET-pi_c</v>
+        <v>BIO-rna --&gt; BIO-varbiom</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="16" x14ac:dyDescent="0.2">
@@ -7432,10 +7462,10 @@
         <v>0.171130581725472 BIO-atp_c + 0.154120026183165 BIO-ctp_c + 0.179477224473634 BIO-gtp_c + 0.207189542720821 BIO-utp_c --&gt; BIO-rrna</v>
       </c>
       <c r="AB16" t="str">
-        <v>BIOSYN-BIODILAERO-NOGAM</v>
+        <v>BIOSYN-CARBTOBIO</v>
       </c>
       <c r="AC16" t="str">
-        <v xml:space="preserve">0.933442277567423 BIO-varbiom + 0.00491511903026273 BIO-cofactor + 0.00244129187799933 BIO-dna + 0.020050549978631 BIO-lipid + 0.0257857478364828 BIO-metal + 0.010314301982428 BIO-pi + 0.00305071172677345 BIO-so4 --&gt; </v>
+        <v>BIO-carb --&gt; BIO-varbiom</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -7508,10 +7538,10 @@
         <v>0.171130581725472 BIO-atp_c + 0.154120026183165 BIO-ctp_c + 0.179477224473634 BIO-gtp_c + 0.207189542720821 BIO-utp_c --&gt; BIO-mrna</v>
       </c>
       <c r="AB17" t="str">
-        <v>BIOSYN-PROTTOBIO</v>
+        <v>BIOSYN-PROTMODELED</v>
       </c>
       <c r="AC17" t="str">
-        <v>BIO-prot --&gt; BIO-varbiom</v>
+        <v>BIO-protmodeled --&gt; BIO-prot</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -7576,10 +7606,10 @@
       <c r="U18" s="73"/>
       <c r="V18" s="73"/>
       <c r="AB18" t="str">
-        <v>BIOSYN-RNATOBIO</v>
+        <v>BIOSYN-PROTDUMMY</v>
       </c>
       <c r="AC18" t="str">
-        <v>BIO-rna --&gt; BIO-varbiom</v>
+        <v>BIO-protdummy --&gt; BIO-prot</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -7644,10 +7674,10 @@
       <c r="U19" s="73"/>
       <c r="V19" s="73"/>
       <c r="AB19" t="str">
-        <v>BIOSYN-CARBTOBIO</v>
+        <v>BIOSYN-PROTCYT</v>
       </c>
       <c r="AC19" t="str">
-        <v>BIO-carb --&gt; BIO-varbiom</v>
+        <v>BIO-protcyt --&gt; BIO-protmodeled</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -7712,10 +7742,10 @@
       <c r="U20" s="73"/>
       <c r="V20" s="73"/>
       <c r="AB20" t="str">
-        <v>BIOSYN-PROTMODELED</v>
+        <v>BIOSYN-PROTMITO</v>
       </c>
       <c r="AC20" t="str">
-        <v>BIO-protmodeled --&gt; BIO-prot</v>
+        <v>BIO-protmito --&gt; BIO-protmodeled</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -7780,10 +7810,10 @@
       <c r="U21" s="73"/>
       <c r="V21" s="73"/>
       <c r="AB21" t="str">
-        <v>BIOSYN-PROTDUMMY</v>
+        <v>BIOSYN-TRNA</v>
       </c>
       <c r="AC21" t="str">
-        <v>BIO-protdummy --&gt; BIO-prot</v>
+        <v>0.171130581725472 BIO-atp_c + 0.154120026183165 BIO-ctp_c + 0.179477224473634 BIO-gtp_c + 0.207189542720821 BIO-utp_c --&gt; BIO-trna</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -7848,10 +7878,10 @@
       <c r="U22" s="73"/>
       <c r="V22" s="73"/>
       <c r="AB22" t="str">
-        <v>BIOSYN-PROTCYT</v>
+        <v>BIOSYN-RRNA</v>
       </c>
       <c r="AC22" t="str">
-        <v>BIO-protcyt --&gt; BIO-protmodeled</v>
+        <v>0.171130581725472 BIO-atp_c + 0.154120026183165 BIO-ctp_c + 0.179477224473634 BIO-gtp_c + 0.207189542720821 BIO-utp_c --&gt; BIO-rrna</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -7916,10 +7946,10 @@
       <c r="U23" s="73"/>
       <c r="V23" s="73"/>
       <c r="AB23" t="str">
-        <v>BIOSYN-PROTMITO</v>
+        <v>BIOSYN-MRNA</v>
       </c>
       <c r="AC23" t="str">
-        <v>BIO-protmito --&gt; BIO-protmodeled</v>
+        <v>0.171130581725472 BIO-atp_c + 0.154120026183165 BIO-ctp_c + 0.179477224473634 BIO-gtp_c + 0.207189542720821 BIO-utp_c --&gt; BIO-mrna</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -7984,10 +8014,10 @@
       <c r="U24" s="73"/>
       <c r="V24" s="73"/>
       <c r="AB24" t="str">
-        <v>BIOSYN-TRNA</v>
+        <v>BIOSYN-CARB</v>
       </c>
       <c r="AC24" t="str">
-        <v>0.171130581725472 BIO-atp_c + 0.154120026183165 BIO-ctp_c + 0.179477224473634 BIO-gtp_c + 0.207189542720821 BIO-utp_c --&gt; BIO-trna</v>
+        <v>0.502962 BIO-13BDglucan_en + 0.132358 BIO-16BDglucan_en + 0.014902 BIO-chtn_c + 0.02566 BIO-tre_c + 0.324118 BIO-mannan_c --&gt; BIO-carb</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -8052,10 +8082,10 @@
       <c r="U25" s="73"/>
       <c r="V25" s="73"/>
       <c r="AB25" t="str">
-        <v>BIOSYN-RRNA</v>
+        <v>BIOSYN-COFACTOR</v>
       </c>
       <c r="AC25" t="str">
-        <v>0.171130581725472 BIO-atp_c + 0.154120026183165 BIO-ctp_c + 0.179477224473634 BIO-gtp_c + 0.207189542720821 BIO-utp_c --&gt; BIO-rrna</v>
+        <v>0.030019 BIO-coa_c + 0.001619 BIO-fad_c + 0.000176 BIO-hemeA_c + 0.363258 BIO-nad_c + 0.020593 BIO-nadh_c + 0.087331 BIO-nadp_c + 0.414236 BIO-nadph_c + 0.076898 BIO-ribflv_c + 0.005781 BIO-thf_c + 0.000087 BIO-thmpp_c --&gt; BIO-cofactor</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -8120,10 +8150,10 @@
       <c r="U26" s="73"/>
       <c r="V26" s="73"/>
       <c r="AB26" t="str">
-        <v>BIOSYN-MRNA</v>
+        <v>BIOSYN-DNA</v>
       </c>
       <c r="AC26" t="str">
-        <v>0.171130581725472 BIO-atp_c + 0.154120026183165 BIO-ctp_c + 0.179477224473634 BIO-gtp_c + 0.207189542720821 BIO-utp_c --&gt; BIO-mrna</v>
+        <v>0.302672 BIO-datp_c + 0.1886 BIO-dctp_c + 0.214794 BIO-dgtp_c + 0.293934 BIO-dttp_c --&gt; BIO-dna</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -8188,10 +8218,10 @@
       <c r="U27" s="73"/>
       <c r="V27" s="73"/>
       <c r="AB27" t="str">
-        <v>BIOSYN-CARB</v>
+        <v>BIOSYN-LIPID</v>
       </c>
       <c r="AC27" t="str">
-        <v>0.502962 BIO-13BDglucan_en + 0.132358 BIO-16BDglucan_en + 0.014902 BIO-chtn_c + 0.02566 BIO-tre_c + 0.324118 BIO-mannan_c --&gt; BIO-carb</v>
+        <v>0.025801 BIO-ergst161_rm + 0.009885 BIO-ergst181_rm + 0.086307 BIO-ergst_c + 0.501165 BIO-glycogen_c + 0.000585 BIO-hdca_c + 0.001703 BIO-hdcea_c + 0.028812 BIO-ipc_g + 0.00018 BIO-ocdca_c + 0.000693 BIO-ocdcea_c + 0.048766 BIO-pail_c + 0.165913 BIO-pc_c + 0.042201 BIO-pe_c + 0.038289 BIO-ps_c + 0.0497 BIO-tag_c --&gt; BIO-lipid</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -8256,10 +8286,10 @@
       <c r="U28" s="73"/>
       <c r="V28" s="73"/>
       <c r="AB28" t="str">
-        <v>BIOSYN-COFACTOR</v>
+        <v>BIOSYN-METAL</v>
       </c>
       <c r="AC28" t="str">
-        <v>0.030019 BIO-coa_c + 0.001619 BIO-fad_c + 0.000176 BIO-hemeA_c + 0.363258 BIO-nad_c + 0.020593 BIO-nadh_c + 0.087331 BIO-nadp_c + 0.414236 BIO-nadph_c + 0.076898 BIO-ribflv_c + 0.005781 BIO-thf_c + 0.000087 BIO-thmpp_c --&gt; BIO-cofactor</v>
+        <v>0.002033 BIO-ca2_c + 0.000286 BIO-cu2_c + 0.001463 BIO-fe2_c + 0.93097 BIO-k_c + 0.060981 BIO-mg2_c + 0.000204 BIO-mn2_c + 0.004064 BIO-zn2_c --&gt; BIO-metal</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -8324,10 +8354,10 @@
       <c r="U29" s="73"/>
       <c r="V29" s="73"/>
       <c r="AB29" t="str">
-        <v>BIOSYN-DNA</v>
+        <v>BIOSYN-PI</v>
       </c>
       <c r="AC29" t="str">
-        <v>0.302672 BIO-datp_c + 0.1886 BIO-dctp_c + 0.214794 BIO-dgtp_c + 0.293934 BIO-dttp_c --&gt; BIO-dna</v>
+        <v>1 BIO-pi_c --&gt; BIO-pi</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -8392,10 +8422,10 @@
       <c r="U30" s="73"/>
       <c r="V30" s="73"/>
       <c r="AB30" t="str">
-        <v>BIOSYN-LIPID</v>
+        <v>BIOSYN-RNA</v>
       </c>
       <c r="AC30" t="str">
-        <v>0.025801 BIO-ergst161_rm + 0.009885 BIO-ergst181_rm + 0.086307 BIO-ergst_c + 0.501165 BIO-glycogen_c + 0.000585 BIO-hdca_c + 0.001703 BIO-hdcea_c + 0.028812 BIO-ipc_g + 0.00018 BIO-ocdca_c + 0.000693 BIO-ocdcea_c + 0.048766 BIO-pail_c + 0.165913 BIO-pc_c + 0.042201 BIO-pe_c + 0.038289 BIO-ps_c + 0.0497 BIO-tag_c --&gt; BIO-lipid</v>
+        <v>0.15 BIO-trna + 0.05 BIO-mrna + 0.80 BIO-rrna --&gt; BIO-rna</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -8460,10 +8490,10 @@
       <c r="U31" s="73"/>
       <c r="V31" s="73"/>
       <c r="AB31" t="str">
-        <v>BIOSYN-METAL</v>
+        <v>BIOSYN-SO4</v>
       </c>
       <c r="AC31" t="str">
-        <v>0.002033 BIO-ca2_c + 0.000286 BIO-cu2_c + 0.001463 BIO-fe2_c + 0.93097 BIO-k_c + 0.060981 BIO-mg2_c + 0.000204 BIO-mn2_c + 0.004064 BIO-zn2_c --&gt; BIO-metal</v>
+        <v>0.003051 BIO-so4_c --&gt; BIO-so4</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -8528,10 +8558,10 @@
       <c r="U32" s="73"/>
       <c r="V32" s="73"/>
       <c r="AB32" t="str">
-        <v>BIOSYN-PI</v>
+        <v>BIOSYN-CARB-13BDglucan_en</v>
       </c>
       <c r="AC32" t="str">
-        <v>1 BIO-pi_c --&gt; BIO-pi</v>
+        <v>MET-13BDglucan_en --&gt; 0.162141 BIO-13BDglucan_en</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -8596,10 +8626,10 @@
       <c r="U33" s="73"/>
       <c r="V33" s="73"/>
       <c r="AB33" t="str">
-        <v>BIOSYN-RNA</v>
+        <v>BIOSYN-CARB-16BDglucan_en</v>
       </c>
       <c r="AC33" t="str">
-        <v>0.15 BIO-trna + 0.05 BIO-mrna + 0.80 BIO-rrna --&gt; BIO-rna</v>
+        <v>MET-16BDglucan_en --&gt; 0.162141 BIO-16BDglucan_en</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -8664,10 +8694,10 @@
       <c r="U34" s="73"/>
       <c r="V34" s="73"/>
       <c r="AB34" t="str">
-        <v>BIOSYN-SO4</v>
+        <v>BIOSYN-CARB-chtn_c</v>
       </c>
       <c r="AC34" t="str">
-        <v>0.003051 BIO-so4_c --&gt; BIO-so4</v>
+        <v>MET-chtn_c --&gt; 0.203193 BIO-chtn_c</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -8732,10 +8762,10 @@
       <c r="U35" s="73"/>
       <c r="V35" s="73"/>
       <c r="AB35" t="str">
-        <v>BIOSYN-CARB-13BDglucan_en</v>
+        <v>BIOSYN-CARB-mannan_c</v>
       </c>
       <c r="AC35" t="str">
-        <v>MET-13BDglucan_en --&gt; 0.162141 BIO-13BDglucan_en</v>
+        <v>MET-mannan_c --&gt; 0.162141 BIO-mannan_c</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -8800,10 +8830,10 @@
       <c r="U36" s="73"/>
       <c r="V36" s="73"/>
       <c r="AB36" t="str">
-        <v>BIOSYN-CARB-16BDglucan_en</v>
+        <v>BIOSYN-CARB-tre_c</v>
       </c>
       <c r="AC36" t="str">
-        <v>MET-16BDglucan_en --&gt; 0.162141 BIO-16BDglucan_en</v>
+        <v>MET-tre_c --&gt; 0.342296 BIO-tre_c</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -8868,10 +8898,10 @@
       <c r="U37" s="73"/>
       <c r="V37" s="73"/>
       <c r="AB37" t="str">
-        <v>BIOSYN-CARB-chtn_c</v>
+        <v>BIOSYN-COFACTOR-coa_c</v>
       </c>
       <c r="AC37" t="str">
-        <v>MET-chtn_c --&gt; 0.203193 BIO-chtn_c</v>
+        <v>MET-coa_c --&gt; 0.763502 BIO-coa_c</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -8936,10 +8966,10 @@
       <c r="U38" s="73"/>
       <c r="V38" s="73"/>
       <c r="AB38" t="str">
-        <v>BIOSYN-CARB-mannan_c</v>
+        <v>BIOSYN-COFACTOR-fad_c</v>
       </c>
       <c r="AC38" t="str">
-        <v>MET-mannan_c --&gt; 0.162141 BIO-mannan_c</v>
+        <v>MET-fad_c --&gt; 0.782526 BIO-fad_c</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9004,10 +9034,10 @@
       <c r="U39" s="73"/>
       <c r="V39" s="73"/>
       <c r="AB39" t="str">
-        <v>BIOSYN-CARB-tre_c</v>
+        <v>BIOSYN-COFACTOR-hemeA_c</v>
       </c>
       <c r="AC39" t="str">
-        <v>MET-tre_c --&gt; 0.342296 BIO-tre_c</v>
+        <v>MET-hemeA_c --&gt; 0.850821 BIO-hemeA_c</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9072,10 +9102,10 @@
       <c r="U40" s="73"/>
       <c r="V40" s="73"/>
       <c r="AB40" t="str">
-        <v>BIOSYN-COFACTOR-coa_c</v>
+        <v>BIOSYN-COFACTOR-nad_c</v>
       </c>
       <c r="AC40" t="str">
-        <v>MET-coa_c --&gt; 0.763502 BIO-coa_c</v>
+        <v>MET-nad_c --&gt; 0.662417 BIO-nad_c</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9140,10 +9170,10 @@
       <c r="U41" s="73"/>
       <c r="V41" s="73"/>
       <c r="AB41" t="str">
-        <v>BIOSYN-COFACTOR-fad_c</v>
+        <v>BIOSYN-COFACTOR-nadh_c</v>
       </c>
       <c r="AC41" t="str">
-        <v>MET-fad_c --&gt; 0.782526 BIO-fad_c</v>
+        <v>MET-nadh_c --&gt; 0.663425 BIO-nadh_c</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9208,10 +9238,10 @@
       <c r="U42" s="73"/>
       <c r="V42" s="73"/>
       <c r="AB42" t="str">
-        <v>BIOSYN-COFACTOR-hemeA_c</v>
+        <v>BIOSYN-COFACTOR-nadp_c</v>
       </c>
       <c r="AC42" t="str">
-        <v>MET-hemeA_c --&gt; 0.850821 BIO-hemeA_c</v>
+        <v>MET-nadp_c --&gt; 0.740381 BIO-nadp_c</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9276,10 +9306,10 @@
       <c r="U43" s="73"/>
       <c r="V43" s="73"/>
       <c r="AB43" t="str">
-        <v>BIOSYN-COFACTOR-nad_c</v>
+        <v>BIOSYN-COFACTOR-nadph_c</v>
       </c>
       <c r="AC43" t="str">
-        <v>MET-nad_c --&gt; 0.662417 BIO-nad_c</v>
+        <v>MET-nadph_c --&gt; 0.741389 BIO-nadph_c</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9344,10 +9374,10 @@
       <c r="U44" s="73"/>
       <c r="V44" s="73"/>
       <c r="AB44" t="str">
-        <v>BIOSYN-COFACTOR-nadh_c</v>
+        <v>BIOSYN-COFACTOR-ribflv_c</v>
       </c>
       <c r="AC44" t="str">
-        <v>MET-nadh_c --&gt; 0.663425 BIO-nadh_c</v>
+        <v>MET-ribflv_c --&gt; 0.375356 BIO-ribflv_c</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9412,10 +9442,10 @@
       <c r="U45" s="73"/>
       <c r="V45" s="73"/>
       <c r="AB45" t="str">
-        <v>BIOSYN-COFACTOR-nadp_c</v>
+        <v>BIOSYN-COFACTOR-thf_c</v>
       </c>
       <c r="AC45" t="str">
-        <v>MET-nadp_c --&gt; 0.740381 BIO-nadp_c</v>
+        <v>MET-thf_c --&gt; 0.443413 BIO-thf_c</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9480,10 +9510,10 @@
       <c r="U46" s="73"/>
       <c r="V46" s="73"/>
       <c r="AB46" t="str">
-        <v>BIOSYN-COFACTOR-nadph_c</v>
+        <v>BIOSYN-COFACTOR-thmpp_c</v>
       </c>
       <c r="AC46" t="str">
-        <v>MET-nadph_c --&gt; 0.741389 BIO-nadph_c</v>
+        <v>MET-thmpp_c --&gt; 0.422291 BIO-thmpp_c</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9548,10 +9578,10 @@
       <c r="U47" s="73"/>
       <c r="V47" s="73"/>
       <c r="AB47" t="str">
-        <v>BIOSYN-COFACTOR-ribflv_c</v>
+        <v>BIOSYN-DNA-datp_c</v>
       </c>
       <c r="AC47" t="str">
-        <v>MET-ribflv_c --&gt; 0.375356 BIO-ribflv_c</v>
+        <v>MET-datp_c --&gt; MET-ppi_c + 0.312199 BIO-datp_c</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9616,10 +9646,10 @@
       <c r="U48" s="73"/>
       <c r="V48" s="73"/>
       <c r="AB48" t="str">
-        <v>BIOSYN-COFACTOR-thf_c</v>
+        <v>BIOSYN-DNA-dctp_c</v>
       </c>
       <c r="AC48" t="str">
-        <v>MET-thf_c --&gt; 0.443413 BIO-thf_c</v>
+        <v>MET-dctp_c --&gt; MET-ppi_c + 0.288174 BIO-dctp_c</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9684,10 +9714,10 @@
       <c r="U49" s="73"/>
       <c r="V49" s="73"/>
       <c r="AB49" t="str">
-        <v>BIOSYN-COFACTOR-thmpp_c</v>
+        <v>BIOSYN-DNA-dgtp_c</v>
       </c>
       <c r="AC49" t="str">
-        <v>MET-thmpp_c --&gt; 0.422291 BIO-thmpp_c</v>
+        <v>MET-dgtp_c --&gt; MET-ppi_c + 0.328198 BIO-dgtp_c</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9752,10 +9782,10 @@
       <c r="U50" s="73"/>
       <c r="V50" s="73"/>
       <c r="AB50" t="str">
-        <v>BIOSYN-DNA-datp_c</v>
+        <v>BIOSYN-DNA-dttp_c</v>
       </c>
       <c r="AC50" t="str">
-        <v>MET-datp_c --&gt; MET-ppi_c + 0.312199 BIO-datp_c</v>
+        <v>MET-dttp_c --&gt; MET-ppi_c + 0.303185 BIO-dttp_c</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9820,10 +9850,10 @@
       <c r="U51" s="73"/>
       <c r="V51" s="73"/>
       <c r="AB51" t="str">
-        <v>BIOSYN-DNA-dctp_c</v>
+        <v>BIOSYN-LIPID-ergst_c</v>
       </c>
       <c r="AC51" t="str">
-        <v>MET-dctp_c --&gt; MET-ppi_c + 0.288174 BIO-dctp_c</v>
+        <v>MET-ergst_c --&gt; 0.396648 BIO-ergst_c</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9888,10 +9918,10 @@
       <c r="U52" s="73"/>
       <c r="V52" s="73"/>
       <c r="AB52" t="str">
-        <v>BIOSYN-DNA-dgtp_c</v>
+        <v>BIOSYN-LIPID-ergst161_rm</v>
       </c>
       <c r="AC52" t="str">
-        <v>MET-dgtp_c --&gt; MET-ppi_c + 0.328198 BIO-dgtp_c</v>
+        <v>MET-ergst161_rm --&gt; 0.633041 BIO-ergst161_rm</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9956,10 +9986,10 @@
       <c r="U53" s="73"/>
       <c r="V53" s="73"/>
       <c r="AB53" t="str">
-        <v>BIOSYN-DNA-dttp_c</v>
+        <v>BIOSYN-LIPID-ergst181_rm</v>
       </c>
       <c r="AC53" t="str">
-        <v>MET-dttp_c --&gt; MET-ppi_c + 0.303185 BIO-dttp_c</v>
+        <v>MET-ergst181_rm --&gt; 0.661094 BIO-ergst181_rm</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -10024,10 +10054,10 @@
       <c r="U54" s="73"/>
       <c r="V54" s="73"/>
       <c r="AB54" t="str">
-        <v>BIOSYN-LIPID-ergst_c</v>
+        <v>BIOSYN-LIPID-glycogen_c</v>
       </c>
       <c r="AC54" t="str">
-        <v>MET-ergst_c --&gt; 0.396648 BIO-ergst_c</v>
+        <v>MET-glycogen_c --&gt; 0.162141 BIO-glycogen_c</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -10092,10 +10122,10 @@
       <c r="U55" s="73"/>
       <c r="V55" s="73"/>
       <c r="AB55" t="str">
-        <v>BIOSYN-LIPID-ergst161_rm</v>
+        <v>BIOSYN-LIPID-hdca_c</v>
       </c>
       <c r="AC55" t="str">
-        <v>MET-ergst161_rm --&gt; 0.633041 BIO-ergst161_rm</v>
+        <v>MET-hdca_c --&gt; 0.255415 BIO-hdca_c</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -10160,10 +10190,10 @@
       <c r="U56" s="73"/>
       <c r="V56" s="73"/>
       <c r="AB56" t="str">
-        <v>BIOSYN-LIPID-ergst181_rm</v>
+        <v>BIOSYN-LIPID-hdcea_c</v>
       </c>
       <c r="AC56" t="str">
-        <v>MET-ergst181_rm --&gt; 0.661094 BIO-ergst181_rm</v>
+        <v>MET-hdcea_c --&gt; 0.253399 BIO-hdcea_c</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -10228,10 +10258,10 @@
       <c r="U57" s="73"/>
       <c r="V57" s="73"/>
       <c r="AB57" t="str">
-        <v>BIOSYN-LIPID-glycogen_c</v>
+        <v>BIOSYN-LIPID-ipc_g</v>
       </c>
       <c r="AC57" t="str">
-        <v>MET-glycogen_c --&gt; 0.162141 BIO-glycogen_c</v>
+        <v>MET-ipc_g --&gt; 0.915263 BIO-ipc_g</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -10296,10 +10326,10 @@
       <c r="U58" s="73"/>
       <c r="V58" s="73"/>
       <c r="AB58" t="str">
-        <v>BIOSYN-LIPID-hdca_c</v>
+        <v>BIOSYN-LIPID-ocdca_c</v>
       </c>
       <c r="AC58" t="str">
-        <v>MET-hdca_c --&gt; 0.255415 BIO-hdca_c</v>
+        <v>MET-ocdca_c --&gt; 0.283469 BIO-ocdca_c</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -10364,10 +10394,10 @@
       <c r="U59" s="73"/>
       <c r="V59" s="73"/>
       <c r="AB59" t="str">
-        <v>BIOSYN-LIPID-hdcea_c</v>
+        <v>BIOSYN-LIPID-ocdcea_c</v>
       </c>
       <c r="AC59" t="str">
-        <v>MET-hdcea_c --&gt; 0.253399 BIO-hdcea_c</v>
+        <v>MET-ocdcea_c --&gt; 0.281453 BIO-ocdcea_c</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -10432,10 +10462,10 @@
       <c r="U60" s="73"/>
       <c r="V60" s="73"/>
       <c r="AB60" t="str">
-        <v>BIOSYN-LIPID-ipc_g</v>
+        <v>BIOSYN-LIPID-pail_c</v>
       </c>
       <c r="AC60" t="str">
-        <v>MET-ipc_g --&gt; 0.915263 BIO-ipc_g</v>
+        <v>MET-pail_c --&gt; 0.862149 BIO-pail_c</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -10500,10 +10530,10 @@
       <c r="U61" s="73"/>
       <c r="V61" s="73"/>
       <c r="AB61" t="str">
-        <v>BIOSYN-LIPID-ocdca_c</v>
+        <v>BIOSYN-LIPID-pc_c</v>
       </c>
       <c r="AC61" t="str">
-        <v>MET-ocdca_c --&gt; 0.283469 BIO-ocdca_c</v>
+        <v>MET-pc_c --&gt; 0.786166 BIO-pc_c</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -10568,10 +10598,10 @@
       <c r="U62" s="73"/>
       <c r="V62" s="73"/>
       <c r="AB62" t="str">
-        <v>BIOSYN-LIPID-ocdcea_c</v>
+        <v>BIOSYN-LIPID-pe_c</v>
       </c>
       <c r="AC62" t="str">
-        <v>MET-ocdcea_c --&gt; 0.281453 BIO-ocdcea_c</v>
+        <v>MET-pe_c --&gt; 0.744086 BIO-pe_c</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -10636,10 +10666,10 @@
       <c r="U63" s="73"/>
       <c r="V63" s="73"/>
       <c r="AB63" t="str">
-        <v>BIOSYN-LIPID-pail_c</v>
+        <v>BIOSYN-LIPID-ps_c</v>
       </c>
       <c r="AC63" t="str">
-        <v>MET-pail_c --&gt; 0.862149 BIO-pail_c</v>
+        <v>MET-ps_c --&gt; 0.786079 BIO-ps_c</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -10704,10 +10734,10 @@
       <c r="U64" s="73"/>
       <c r="V64" s="73"/>
       <c r="AB64" t="str">
-        <v>BIOSYN-LIPID-pc_c</v>
+        <v>BIOSYN-LIPID-tag_c</v>
       </c>
       <c r="AC64" t="str">
-        <v>MET-pc_c --&gt; 0.786166 BIO-pc_c</v>
+        <v>MET-tag_c --&gt; 0.885513 BIO-tag_c</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -10772,10 +10802,10 @@
       <c r="U65" s="73"/>
       <c r="V65" s="73"/>
       <c r="AB65" t="str">
-        <v>BIOSYN-LIPID-pe_c</v>
+        <v>BIOSYN-METAL-ca2_c</v>
       </c>
       <c r="AC65" t="str">
-        <v>MET-pe_c --&gt; 0.744086 BIO-pe_c</v>
+        <v>MET-ca2_c --&gt; 0.040078 BIO-ca2_c</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -10840,10 +10870,10 @@
       <c r="U66" s="73"/>
       <c r="V66" s="73"/>
       <c r="AB66" t="str">
-        <v>BIOSYN-LIPID-ps_c</v>
+        <v>BIOSYN-METAL-cu2_c</v>
       </c>
       <c r="AC66" t="str">
-        <v>MET-ps_c --&gt; 0.786079 BIO-ps_c</v>
+        <v>MET-cu2_c --&gt; 0.063546 BIO-cu2_c</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -10908,10 +10938,10 @@
       <c r="U67" s="73"/>
       <c r="V67" s="73"/>
       <c r="AB67" t="str">
-        <v>BIOSYN-LIPID-tag_c</v>
+        <v>BIOSYN-METAL-fe2_c</v>
       </c>
       <c r="AC67" t="str">
-        <v>MET-tag_c --&gt; 0.885513 BIO-tag_c</v>
+        <v>MET-fe2_c --&gt; 0.055845 BIO-fe2_c</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -10976,10 +11006,10 @@
       <c r="U68" s="73"/>
       <c r="V68" s="73"/>
       <c r="AB68" t="str">
-        <v>BIOSYN-METAL-ca2_c</v>
+        <v>BIOSYN-METAL-k_c</v>
       </c>
       <c r="AC68" t="str">
-        <v>MET-ca2_c --&gt; 0.040078 BIO-ca2_c</v>
+        <v>MET-k_c --&gt; 0.039098 BIO-k_c</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -11044,10 +11074,10 @@
       <c r="U69" s="73"/>
       <c r="V69" s="73"/>
       <c r="AB69" t="str">
-        <v>BIOSYN-METAL-cu2_c</v>
+        <v>BIOSYN-METAL-mg2_c</v>
       </c>
       <c r="AC69" t="str">
-        <v>MET-cu2_c --&gt; 0.063546 BIO-cu2_c</v>
+        <v>MET-mg2_c --&gt; 0.024305 BIO-mg2_c</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -11083,7 +11113,7 @@
         <v>-0.10565499999999872</v>
       </c>
       <c r="I70" s="72">
-        <f t="shared" ref="I70:I101" si="3">H70/($H$3)</f>
+        <f t="shared" ref="I70:I95" si="3">H70/($H$3)</f>
         <v>-0.10746381641629138</v>
       </c>
       <c r="J70" s="37" cm="1">
@@ -11112,10 +11142,10 @@
       <c r="U70" s="73"/>
       <c r="V70" s="73"/>
       <c r="AB70" t="str">
-        <v>BIOSYN-METAL-fe2_c</v>
+        <v>BIOSYN-METAL-mn2_c</v>
       </c>
       <c r="AC70" t="str">
-        <v>MET-fe2_c --&gt; 0.055845 BIO-fe2_c</v>
+        <v>MET-mn2_c --&gt; 0.054938 BIO-mn2_c</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -11180,10 +11210,10 @@
       <c r="U71" s="73"/>
       <c r="V71" s="73"/>
       <c r="AB71" t="str">
-        <v>BIOSYN-METAL-k_c</v>
+        <v>BIOSYN-METAL-zn2_c</v>
       </c>
       <c r="AC71" t="str">
-        <v>MET-k_c --&gt; 0.039098 BIO-k_c</v>
+        <v>MET-zn2_c --&gt; 0.06538 BIO-zn2_c</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -11248,10 +11278,10 @@
       <c r="U72" s="73"/>
       <c r="V72" s="73"/>
       <c r="AB72" t="str">
-        <v>BIOSYN-METAL-mg2_c</v>
+        <v>BIOSYN-PI-pi_c</v>
       </c>
       <c r="AC72" t="str">
-        <v>MET-mg2_c --&gt; 0.024305 BIO-mg2_c</v>
+        <v>MET-pi_c --&gt; 0.095979 BIO-pi_c</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -11316,10 +11346,10 @@
       <c r="U73" s="73"/>
       <c r="V73" s="73"/>
       <c r="AB73" t="str">
-        <v>BIOSYN-METAL-mn2_c</v>
+        <v>BIOSYN-RNA-atp_c</v>
       </c>
       <c r="AC73" t="str">
-        <v>MET-mn2_c --&gt; 0.054938 BIO-mn2_c</v>
+        <v>MET-atp_c --&gt; MET-ppi_c + 0.328198 BIO-atp_c</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -11384,10 +11414,10 @@
       <c r="U74" s="73"/>
       <c r="V74" s="73"/>
       <c r="AB74" t="str">
-        <v>BIOSYN-METAL-zn2_c</v>
+        <v>BIOSYN-RNA-ctp_c</v>
       </c>
       <c r="AC74" t="str">
-        <v>MET-zn2_c --&gt; 0.06538 BIO-zn2_c</v>
+        <v>MET-ctp_c --&gt; MET-ppi_c + 0.304173 BIO-ctp_c</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -11452,10 +11482,10 @@
       <c r="U75" s="73"/>
       <c r="V75" s="73"/>
       <c r="AB75" t="str">
-        <v>BIOSYN-PI-pi_c</v>
+        <v>BIOSYN-RNA-gtp_c</v>
       </c>
       <c r="AC75" t="str">
-        <v>MET-pi_c --&gt; 0.095979 BIO-pi_c</v>
+        <v>MET-gtp_c --&gt; MET-ppi_c + 0.344197 BIO-gtp_c</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -11520,10 +11550,10 @@
       <c r="U76" s="73"/>
       <c r="V76" s="73"/>
       <c r="AB76" t="str">
-        <v>BIOSYN-RNA-atp_c</v>
+        <v>BIOSYN-RNA-utp_c</v>
       </c>
       <c r="AC76" t="str">
-        <v>MET-atp_c --&gt; MET-ppi_c + 0.328198 BIO-atp_c</v>
+        <v>MET-utp_c --&gt; MET-ppi_c + 0.305158 BIO-utp_c</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -11588,10 +11618,10 @@
       <c r="U77" s="73"/>
       <c r="V77" s="73"/>
       <c r="AB77" t="str">
-        <v>BIOSYN-RNA-ctp_c</v>
+        <v>BIOSYN-SO4-so4_c</v>
       </c>
       <c r="AC77" t="str">
-        <v>MET-ctp_c --&gt; MET-ppi_c + 0.304173 BIO-ctp_c</v>
+        <v>MET-so4_c --&gt; 0.096063 BIO-so4_c</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -11655,12 +11685,6 @@
       <c r="T78" s="73"/>
       <c r="U78" s="73"/>
       <c r="V78" s="73"/>
-      <c r="AB78" t="str">
-        <v>BIOSYN-RNA-gtp_c</v>
-      </c>
-      <c r="AC78" t="str">
-        <v>MET-gtp_c --&gt; MET-ppi_c + 0.344197 BIO-gtp_c</v>
-      </c>
     </row>
     <row r="79" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="71" t="s">
@@ -11723,12 +11747,6 @@
       <c r="T79" s="73"/>
       <c r="U79" s="73"/>
       <c r="V79" s="73"/>
-      <c r="AB79" t="str">
-        <v>BIOSYN-RNA-utp_c</v>
-      </c>
-      <c r="AC79" t="str">
-        <v>MET-utp_c --&gt; MET-ppi_c + 0.305158 BIO-utp_c</v>
-      </c>
     </row>
     <row r="80" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="71" t="s">
@@ -11791,12 +11809,6 @@
       <c r="T80" s="73"/>
       <c r="U80" s="73"/>
       <c r="V80" s="73"/>
-      <c r="AB80" t="str">
-        <v>BIOSYN-SO4-so4_c</v>
-      </c>
-      <c r="AC80" t="str">
-        <v>MET-so4_c --&gt; 0.096063 BIO-so4_c</v>
-      </c>
     </row>
     <row r="81" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="71" t="s">
@@ -12735,12 +12747,12 @@
     <mergeCell ref="D4:E4"/>
   </mergeCells>
   <conditionalFormatting sqref="S6:S14">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>NOT(_xlfn.ISFORMULA(S6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T14">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>NOT(_xlfn.ISFORMULA(T6))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12770,11 +12782,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" ht="77" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
       <c r="D1" t="s">
         <v>224</v>
       </c>

--- a/build_model/input/BIOMASS_RBA.xlsx
+++ b/build_model/input/BIOMASS_RBA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejm6426/Documents/scRBA/build_model/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78749243-8929-0F45-B060-4298737CC095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B7D051-4975-4E40-9649-B494CB6E1062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4507,14 +4507,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5284,14 +5284,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A41" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.83203125" customWidth="1"/>
     <col min="2" max="2" width="58.1640625" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -6005,7 +6006,7 @@
   <dimension ref="A1:AG95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6042,14 +6043,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="58" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="87" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
       <c r="G1" s="59" t="s">
         <v>353</v>
       </c>
@@ -6067,10 +6068,10 @@
       <c r="P1" s="59"/>
       <c r="Q1" s="59"/>
       <c r="R1" s="59"/>
-      <c r="S1" s="88" t="s">
+      <c r="S1" s="86" t="s">
         <v>483</v>
       </c>
-      <c r="T1" s="88" t="s">
+      <c r="T1" s="86" t="s">
         <v>484</v>
       </c>
       <c r="U1" s="59"/>
@@ -6078,12 +6079,12 @@
       <c r="W1" s="59"/>
     </row>
     <row r="2" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2">
         <v>10.74</v>
       </c>
@@ -6323,11 +6324,11 @@
       <c r="A4" s="57"/>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
-      <c r="D4" s="87" t="str">
+      <c r="D4" s="88" t="str">
         <f>HYPERLINK("[BIOMASS_RBA.xlsx]metaboliteInfo!A1","click here to add new metabolite MWs and categories")</f>
         <v>click here to add new metabolite MWs and categories</v>
       </c>
-      <c r="E4" s="87"/>
+      <c r="E4" s="88"/>
       <c r="F4" s="63"/>
       <c r="H4" s="29" t="s">
         <v>359</v>
@@ -12782,11 +12783,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" ht="77" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="87" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
       <c r="D1" t="s">
         <v>224</v>
       </c>

--- a/build_model/input/BIOMASS_RBA.xlsx
+++ b/build_model/input/BIOMASS_RBA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejm6426/Documents/scRBA/build_model/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B7D051-4975-4E40-9649-B494CB6E1062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BB9D30-9609-6349-8ADB-3156CD617DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="1920" windowWidth="30240" windowHeight="17240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBABioRxns" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <definedName name="TextSplitArray_DIY" comment="Like TEXTSPLIT but for an array; input cells and then a string to split them by. If the input array is a row, it's split vertically; otherwise, it's split horizontally." localSheetId="1">_xlfn.LAMBDA(_xlpm.cells,_xlop.delimiter,_xlfn.LET(_xlpm.str,'batch-Rabinowitz'!IfBlank_DIY(_xlpm.delimiter," "),_xlpm.n,MAX((LEN(_xlpm.cells)-LEN(SUBSTITUTE(_xlpm.cells,_xlpm.str,""))+1)/LEN(_xlpm.str)),_xlfn.TEXTBEFORE(IFERROR(_xlfn.TEXTAFTER(_xlpm.cells,_xlpm.str,IF(COLUMNS(_xlpm.cells)&gt;1,_xlfn.SEQUENCE(_xlpm.n,1,0),_xlfn.SEQUENCE(1,_xlpm.n,0)),,,""),_xlpm.cells),_xlpm.str,,,1,"")))</definedName>
     <definedName name="TextSplitArray_DIY" comment="Like TEXTSPLIT but for an array; input cells and then a string to split them by. If the input array is a row, it's split vertically; otherwise, it's split horizontally.">_xlfn.LAMBDA(_xlpm.cells,_xlop.delimiter,_xlfn.LET(_xlpm.str,IfBlank_DIY(_xlpm.delimiter," "),_xlpm.n,MAX((LEN(_xlpm.cells)-LEN(SUBSTITUTE(_xlpm.cells,_xlpm.str,""))+1)/LEN(_xlpm.str)),_xlfn.TEXTBEFORE(IFERROR(_xlfn.TEXTAFTER(_xlpm.cells,_xlpm.str,IF(COLUMNS(_xlpm.cells)&gt;1,_xlfn.SEQUENCE(_xlpm.n,1,0),_xlfn.SEQUENCE(1,_xlpm.n,0)),,,""),_xlpm.cells),_xlpm.str,,,1,"")))</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -5282,10 +5282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5989,6 +5989,15 @@
       </c>
       <c r="B71" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" t="str" cm="1">
+        <f t="array" ref="A72:B72">'batch-Rabinowitz'!Y7:Z7</f>
+        <v>BIOSYN-BIODILAERO-NOGAM</v>
+      </c>
+      <c r="B72" t="str">
+        <v xml:space="preserve">0.933442277567423 BIO-varbiom + 0.00491511903026273 BIO-cofactor + 0.00244129187799933 BIO-dna + 0.020050549978631 BIO-lipid + 0.0257857478364828 BIO-metal + 0.010314301982428 BIO-pi + 0.00305071172677345 BIO-so4 --&gt; </v>
       </c>
     </row>
   </sheetData>
@@ -6005,8 +6014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F168A7-6B4E-494D-BA75-6693E50B2433}">
   <dimension ref="A1:AG95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView topLeftCell="O1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="T12" activeCellId="2" sqref="T6 T13 T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14596,7 +14605,7 @@
   <dimension ref="A1:K111"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="J16" sqref="I16:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/build_model/input/BIOMASS_RBA.xlsx
+++ b/build_model/input/BIOMASS_RBA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejm6426/Documents/scRBA/build_model/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BB9D30-9609-6349-8ADB-3156CD617DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A104147-8E93-E04A-B712-2E0C3337CA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1920" windowWidth="30240" windowHeight="17240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBABioRxns" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="487">
   <si>
     <t>rxn_id</t>
   </si>
@@ -4161,6 +4161,12 @@
   </si>
   <si>
     <t>amount from sheet below</t>
+  </si>
+  <si>
+    <t>BIOSYN-BIODILAERO-NOGAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933442277567423 BIO-varbiom + 0.020050549978631 BIO-lipid + 0.002441292 BIO-dna + 0.025785748 BIO-metal + 0.004915119 BIO-cofactor + 0.003050712 BIO-so4 + 0.010314302 BIO-pi --&gt; </t>
   </si>
 </sst>
 </file>
@@ -5284,8 +5290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5992,12 +5998,11 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" t="str" cm="1">
-        <f t="array" ref="A72:B72">'batch-Rabinowitz'!Y7:Z7</f>
-        <v>BIOSYN-BIODILAERO-NOGAM</v>
-      </c>
-      <c r="B72" t="str">
-        <v xml:space="preserve">0.933442277567423 BIO-varbiom + 0.00491511903026273 BIO-cofactor + 0.00244129187799933 BIO-dna + 0.020050549978631 BIO-lipid + 0.0257857478364828 BIO-metal + 0.010314301982428 BIO-pi + 0.00305071172677345 BIO-so4 --&gt; </v>
+      <c r="A72" t="s">
+        <v>485</v>
+      </c>
+      <c r="B72" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -6014,7 +6019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F168A7-6B4E-494D-BA75-6693E50B2433}">
   <dimension ref="A1:AG95"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="T12" activeCellId="2" sqref="T6 T13 T12"/>
     </sheetView>
   </sheetViews>

--- a/build_model/input/BIOMASS_RBA.xlsx
+++ b/build_model/input/BIOMASS_RBA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejm6426/Documents/scRBA/build_model/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A104147-8E93-E04A-B712-2E0C3337CA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E667E14-E7B2-EC4F-BB16-C854DB60B59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19400" yWindow="0" windowWidth="19000" windowHeight="21600" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBABioRxns" sheetId="1" r:id="rId1"/>
@@ -4950,6 +4950,9 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA2C806C-897B-5147-A380-91890FB6F1D0}" name="metaboliteInfo" displayName="metaboliteInfo" ref="A2:E118" totalsRowShown="0">
   <autoFilter ref="A2:E118" xr:uid="{EB067577-3D81-D244-B73F-3CC89BC642F7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E118">
+    <sortCondition ref="A2:A118"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{03663191-5848-1A4B-801E-1B9D39F1DF45}" name="name w/o location"/>
     <tableColumn id="2" xr3:uid="{94E1A5A2-0D76-E04F-A11D-E4E1E5C300E2}" name="suggested category"/>
@@ -5290,7 +5293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A47" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
@@ -6019,8 +6022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F168A7-6B4E-494D-BA75-6693E50B2433}">
   <dimension ref="A1:AG95"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="T12" activeCellId="2" sqref="T6 T13 T12"/>
+    <sheetView topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6161,10 +6164,10 @@
       <c r="M3" s="60" t="str" cm="1">
         <f t="array" ref="M3">_xlfn.TEXTJOIN(","&amp;CHAR(10),TRUE,CHAR(34)&amp;mets2713[name]&amp;CHAR(34)&amp;":"&amp;mets2713[new GSM coeffs])</f>
         <v>"ppi_c":0.264813826117498,
-"13BDglucan_en":-0.919439505863855,
-"16BDglucan_en":-0.241957714720377,
-"chtn_c":-0.0217380286103675,
-"tre_c":-0.0222194920897025,
+"13BDglucan_en":-0.740000460729238,
+"16BDglucan_en":-0.19473692312345,
+"chtn_c":-0.017495605838585,
+"tre_c":-0.017883106260592,
 "coa_c":-0.000193252805064555,
 "fad_c":-1.01712002665556E-05,
 "hemeA_c":-1.01712002665555E-06,
@@ -6202,20 +6205,20 @@
 "trnatrp_c":0.0329353835364267,
 "trnatyr_c":0.0993140208257246,
 "trnaval_c":0.37141350828929,
-"ergst161_rm":-0.000817194541622674,
-"ergst181_rm":-0.000299792896016896,
-"ergst_c":-0.00436279652928043,
-"glycogen_c":-0.0619748125598507,
-"hdca_c":-4.59381496996661E-05,
-"hdcea_c":-0.00013476075706694,
-"ipc_g":-0.000631184866104661,
-"ocdca_c":-1.27458450033756E-05,
-"ocdcea_c":-4.93901493880803E-05,
-"pail_c":-0.00113411466686286,
-"pc_c":-0.00423148777190191,
-"pe_c":-0.00113716835889491,
-"ps_c":-0.000976650373383654,
-"tag_c":-0.00112535189842304,
+"ergst161_rm":-0.00163820600737148,
+"ergst181_rm":-0.000600986054369585,
+"ergst_c":-0.0087459706583634,
+"glycogen_c":-0.356764836266206,
+"hdca_c":-9.20908657271374E-05,
+"hdcea_c":-0.000270150950037701,
+"ipc_g":-0.00126531784874801,
+"ocdca_c":-2.55512228607087E-05,
+"ocdcea_c":-0.000099010988585246,
+"pail_c":-0.00227352651746014,
+"pc_c":-0.00848273983118381,
+"pe_c":-0.00227964816460385,
+"ps_c":-0.0019578624517018,
+"tag_c":-0.0022559600517434,
 "ca2_c":-0.00130801635427904,
 "cu2_c":-0.000115951683038733,
 "fe2_c":-0.000675367697699289,
@@ -6223,7 +6226,7 @@
 "mg2_c":-0.0646959535354799,
 "mn2_c":-9.56092825056222E-05,
 "zn2_c":-0.00160298116200915,
-"mannan_c":-0.592503961856914,
+"mannan_c":-0.476870095271867,
 "pi_c":91.8925361835837,
 "alatrna_c":-0.495049166480429,
 "argtrna_c":-0.19558750285563,
@@ -6261,11 +6264,12 @@
       <c r="U3" s="60"/>
       <c r="V3" s="60" t="str" cm="1">
         <f t="array" ref="V3">_xlfn.LET(_xlpm.eqn,_xlfn.TEXTJOIN(" + ",TRUE,biomassComponents2612[new GSM coeffs])&amp;" + "&amp;K2,_xlpm.reactants,"-"&amp;SUBSTITUTE(_xlfn.TEXTBEFORE(_xlpm.eqn," --&gt; ")," + "," + -"),_xlpm.products,_xlfn.TEXTAFTER(_xlpm.eqn," --&gt; "),_xlpm.rxnarray,_xlfn.TEXTSPLIT(_xlpm.reactants&amp;" + "&amp;_xlpm.products,," + "),_xlfn.TEXTJOIN(","&amp;CHAR(10),TRUE,_xlfn.UNIQUE(_xlfn.BYROW(_xlfn.TEXTAFTER(_xlfn.TEXTAFTER(_xlpm.rxnarray," "),"-"),_xlfn.LAMBDA(_xlpm.r,CHAR(34)&amp;_xlpm.r&amp;CHAR(34)&amp;":"&amp;SUM(_xlfn._xlws.FILTER(_xlfn.NUMBERVALUE(_xlfn.TEXTBEFORE(_xlpm.rxnarray," ")),_xlfn.TEXTAFTER(_xlfn.TEXTAFTER(_xlpm.rxnarray," "),"-")=_xlpm.r)))))))</f>
-        <v>"13BDglucan_en":-0.919439505863855,
-"16BDglucan_en":-0.241957714720377,
-"chtn_c":-0.0217380286103675,
-"tre_c":-0.0222194920897025,
-"mannan_c":-0.592503961856914,
+        <v>"13BDglucan_en":-0.740000460729238,
+"16BDglucan_en":-0.19473692312345,
+"chtn_c":-0.017495605838585,
+"tre_c":-0.017883106260592,
+"glycogen_c":-0.356764836266206,
+"mannan_c":-0.476870095271867,
 "coa_c":-0.000193252805064555,
 "fad_c":-1.01712002665556E-05,
 "hemeA_c":-1.01712002665555E-06,
@@ -6280,20 +6284,19 @@
 "dctp_c":-0.00159774083749446,
 "dgtp_c":-0.00159774083749446,
 "dttp_c":-0.00236679811799446,
-"ergst161_rm":-0.000817194541622674,
-"ergst181_rm":-0.000299792896016896,
-"ergst_c":-0.00436279652928043,
-"glycogen_c":-0.0619748125598507,
-"hdca_c":-4.59381496996661E-05,
-"hdcea_c":-0.00013476075706694,
-"ipc_g":-0.000631184866104661,
-"ocdca_c":-1.27458450033756E-05,
-"ocdcea_c":-4.93901493880803E-05,
-"pail_c":-0.00113411466686286,
-"pc_c":-0.00423148777190191,
-"pe_c":-0.00113716835889491,
-"ps_c":-0.000976650373383654,
-"tag_c":-0.00112535189842304,
+"ergst161_rm":-0.00163820600737148,
+"ergst181_rm":-0.000600986054369585,
+"ergst_c":-0.0087459706583634,
+"hdca_c":-9.20908657271374E-05,
+"hdcea_c":-0.000270150950037701,
+"ipc_g":-0.00126531784874801,
+"ocdca_c":-2.55512228607087E-05,
+"ocdcea_c":-0.000099010988585246,
+"pail_c":-0.00227352651746014,
+"pc_c":-0.00848273983118381,
+"pe_c":-0.00227964816460385,
+"ps_c":-0.0019578624517018,
+"tag_c":-0.0022559600517434,
 "ca2_c":-0.00130801635427904,
 "cu2_c":-0.000115951683038733,
 "fe2_c":-0.000675367697699289,
@@ -6525,7 +6528,7 @@
       </c>
       <c r="R6" s="76" cm="1">
         <f t="array" ref="R6">SUM(_xlfn._xlws.FILTER(-mets2713[MW for biomass normalization (g/mol)]*mets2713[normalized coeffs]/1000,mets2713[category]=_xlfn.TEXTAFTER(O6,"BIOSYN-"),""))</f>
-        <v>0.31746572507670373</v>
+        <v>0.39444641575707901</v>
       </c>
       <c r="S6" s="83">
         <v>31.006451467927871</v>
@@ -6536,11 +6539,11 @@
       </c>
       <c r="U6" s="75" t="str" cm="1">
         <f t="array" ref="U6">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-mets2713[MW for biomass normalization (g/mol)]*mets2713[normalized coeffs]*(biomassComponents2612[[#This Row],[normalized coeffs]]/biomassComponents2612[[#This Row],[original coeffs from input]])/(1000*biomassComponents2612[[#This Row],[normalized coeffs]]),6)&amp;" BIO-"&amp;mets2713[name],mets2713[category]=_xlfn.TEXTAFTER(O6,"BIOSYN-"),""))&amp;" --&gt; "&amp;biomassComponents2612[[#This Row],[product name]]</f>
-        <v>0.502962 BIO-13BDglucan_en + 0.132358 BIO-16BDglucan_en + 0.014902 BIO-chtn_c + 0.02566 BIO-tre_c + 0.324118 BIO-mannan_c --&gt; BIO-carb</v>
+        <v>0.404803 BIO-13BDglucan_en + 0.106527 BIO-16BDglucan_en + 0.011994 BIO-chtn_c + 0.020652 BIO-tre_c + 0.195161 BIO-glycogen_c + 0.260863 BIO-mannan_c --&gt; BIO-carb</v>
       </c>
       <c r="V6" s="75" t="str" cm="1">
         <f t="array" ref="V6">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER((-mets2713[normalized coeffs]*biomassComponents2612[[#This Row],[normalized coeffs]]/biomassComponents2612[[#This Row],[original coeffs from input]])&amp;" BIO-"&amp;mets2713[name],mets2713[category]=_xlfn.TEXTAFTER(P6,"BIOSYN-"),""))</f>
-        <v>0.919439505863855 BIO-13BDglucan_en + 0.241957714720377 BIO-16BDglucan_en + 0.0217380286103675 BIO-chtn_c + 0.0222194920897025 BIO-tre_c + 0.592503961856914 BIO-mannan_c</v>
+        <v>0.740000460729238 BIO-13BDglucan_en + 0.19473692312345 BIO-16BDglucan_en + 0.017495605838585 BIO-chtn_c + 0.017883106260592 BIO-tre_c + 0.356764836266206 BIO-glycogen_c + 0.476870095271867 BIO-mannan_c</v>
       </c>
       <c r="Y6" s="77" t="s">
         <v>18</v>
@@ -6606,7 +6609,7 @@
       </c>
       <c r="M7" s="73" cm="1">
         <f t="array" ref="M7">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets2713[[#This Row],[name w/o location]],4)="trna","PROT",mets2713[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents2612[normalized coeffs],biomassComponents2612[original coeffs from input]),(biomassComponents2612[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets2713[[#This Row],[name w/o location]]="ppi",((biomassComponents2612[rxn name]="BIOSYN-DNA"))+((biomassComponents2612[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets2713[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets2713[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets2713[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-0.91943950586385526</v>
+        <v>-0.74000046072923786</v>
       </c>
       <c r="N7" s="73"/>
       <c r="O7" s="74" t="str">
@@ -6702,7 +6705,7 @@
       </c>
       <c r="M8" s="73" cm="1">
         <f t="array" ref="M8">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets2713[[#This Row],[name w/o location]],4)="trna","PROT",mets2713[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents2612[normalized coeffs],biomassComponents2612[original coeffs from input]),(biomassComponents2612[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets2713[[#This Row],[name w/o location]]="ppi",((biomassComponents2612[rxn name]="BIOSYN-DNA"))+((biomassComponents2612[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets2713[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets2713[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets2713[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-0.24195771472037716</v>
+        <v>-0.1947369231234502</v>
       </c>
       <c r="N8" s="73"/>
       <c r="O8" s="74" t="str">
@@ -6801,7 +6804,7 @@
       </c>
       <c r="M9" s="73" cm="1">
         <f t="array" ref="M9">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets2713[[#This Row],[name w/o location]],4)="trna","PROT",mets2713[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents2612[normalized coeffs],biomassComponents2612[original coeffs from input]),(biomassComponents2612[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets2713[[#This Row],[name w/o location]]="ppi",((biomassComponents2612[rxn name]="BIOSYN-DNA"))+((biomassComponents2612[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets2713[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets2713[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets2713[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-2.1738028610367537E-2</v>
+        <v>-1.7495605838584956E-2</v>
       </c>
       <c r="N9" s="73"/>
       <c r="O9" s="74" t="str">
@@ -6817,7 +6820,7 @@
       </c>
       <c r="R9" s="76" cm="1">
         <f t="array" ref="R9">SUM(_xlfn._xlws.FILTER(-mets2713[MW for biomass normalization (g/mol)]*mets2713[normalized coeffs]/1000,mets2713[category]=_xlfn.TEXTAFTER(O9,"BIOSYN-"),""))</f>
-        <v>0.15360349420842423</v>
+        <v>7.6622803528048983E-2</v>
       </c>
       <c r="S9" s="83">
         <v>2.0974824071256464</v>
@@ -6828,11 +6831,11 @@
       </c>
       <c r="U9" s="75" t="str" cm="1">
         <f t="array" ref="U9">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-mets2713[MW for biomass normalization (g/mol)]*mets2713[normalized coeffs]*(biomassComponents2612[[#This Row],[normalized coeffs]]/biomassComponents2612[[#This Row],[original coeffs from input]])/(1000*biomassComponents2612[[#This Row],[normalized coeffs]]),6)&amp;" BIO-"&amp;mets2713[name],mets2713[category]=_xlfn.TEXTAFTER(O9,"BIOSYN-"),""))&amp;" --&gt; "&amp;biomassComponents2612[[#This Row],[product name]]</f>
-        <v>0.025801 BIO-ergst161_rm + 0.009885 BIO-ergst181_rm + 0.086307 BIO-ergst_c + 0.501165 BIO-glycogen_c + 0.000585 BIO-hdca_c + 0.001703 BIO-hdcea_c + 0.028812 BIO-ipc_g + 0.00018 BIO-ocdca_c + 0.000693 BIO-ocdcea_c + 0.048766 BIO-pail_c + 0.165913 BIO-pc_c + 0.042201 BIO-pe_c + 0.038289 BIO-ps_c + 0.0497 BIO-tag_c --&gt; BIO-lipid</v>
+        <v>0.051722 BIO-ergst161_rm + 0.019815 BIO-ergst181_rm + 0.173016 BIO-ergst_c + 0.001173 BIO-hdca_c + 0.003414 BIO-hdcea_c + 0.057759 BIO-ipc_g + 0.000361 BIO-ocdca_c + 0.00139 BIO-ocdcea_c + 0.097759 BIO-pail_c + 0.332601 BIO-pc_c + 0.084599 BIO-pe_c + 0.076758 BIO-ps_c + 0.099632 BIO-tag_c --&gt; BIO-lipid</v>
       </c>
       <c r="V9" s="75" t="str" cm="1">
         <f t="array" ref="V9">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER((-mets2713[normalized coeffs]*biomassComponents2612[[#This Row],[normalized coeffs]]/biomassComponents2612[[#This Row],[original coeffs from input]])&amp;" BIO-"&amp;mets2713[name],mets2713[category]=_xlfn.TEXTAFTER(P9,"BIOSYN-"),""))</f>
-        <v>0.000817194541622674 BIO-ergst161_rm + 0.000299792896016896 BIO-ergst181_rm + 0.00436279652928043 BIO-ergst_c + 0.0619748125598507 BIO-glycogen_c + 4.59381496996661E-05 BIO-hdca_c + 0.00013476075706694 BIO-hdcea_c + 0.000631184866104661 BIO-ipc_g + 1.27458450033756E-05 BIO-ocdca_c + 4.93901493880803E-05 BIO-ocdcea_c + 0.00113411466686286 BIO-pail_c + 0.00423148777190191 BIO-pc_c + 0.00113716835889491 BIO-pe_c + 0.000976650373383654 BIO-ps_c + 0.00112535189842304 BIO-tag_c</v>
+        <v>0.00163820600737148 BIO-ergst161_rm + 0.000600986054369585 BIO-ergst181_rm + 0.0087459706583634 BIO-ergst_c + 9.20908657271374E-05 BIO-hdca_c + 0.000270150950037701 BIO-hdcea_c + 0.00126531784874801 BIO-ipc_g + 2.55512228607087E-05 BIO-ocdca_c + 0.000099010988585246 BIO-ocdcea_c + 0.00227352651746014 BIO-pail_c + 0.00848273983118381 BIO-pc_c + 0.00227964816460385 BIO-pe_c + 0.0019578624517018 BIO-ps_c + 0.0022559600517434 BIO-tag_c</v>
       </c>
       <c r="X9" s="78"/>
       <c r="Y9" t="s">
@@ -6898,7 +6901,7 @@
       </c>
       <c r="M10" s="73" cm="1">
         <f t="array" ref="M10">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets2713[[#This Row],[name w/o location]],4)="trna","PROT",mets2713[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents2612[normalized coeffs],biomassComponents2612[original coeffs from input]),(biomassComponents2612[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets2713[[#This Row],[name w/o location]]="ppi",((biomassComponents2612[rxn name]="BIOSYN-DNA"))+((biomassComponents2612[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets2713[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets2713[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets2713[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-2.2219492089702485E-2</v>
+        <v>-1.7883106260591967E-2</v>
       </c>
       <c r="N10" s="73"/>
       <c r="O10" s="74" t="str">
@@ -8032,7 +8035,7 @@
         <v>BIOSYN-CARB</v>
       </c>
       <c r="AC24" t="str">
-        <v>0.502962 BIO-13BDglucan_en + 0.132358 BIO-16BDglucan_en + 0.014902 BIO-chtn_c + 0.02566 BIO-tre_c + 0.324118 BIO-mannan_c --&gt; BIO-carb</v>
+        <v>0.404803 BIO-13BDglucan_en + 0.106527 BIO-16BDglucan_en + 0.011994 BIO-chtn_c + 0.020652 BIO-tre_c + 0.195161 BIO-glycogen_c + 0.260863 BIO-mannan_c --&gt; BIO-carb</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -8236,7 +8239,7 @@
         <v>BIOSYN-LIPID</v>
       </c>
       <c r="AC27" t="str">
-        <v>0.025801 BIO-ergst161_rm + 0.009885 BIO-ergst181_rm + 0.086307 BIO-ergst_c + 0.501165 BIO-glycogen_c + 0.000585 BIO-hdca_c + 0.001703 BIO-hdcea_c + 0.028812 BIO-ipc_g + 0.00018 BIO-ocdca_c + 0.000693 BIO-ocdcea_c + 0.048766 BIO-pail_c + 0.165913 BIO-pc_c + 0.042201 BIO-pe_c + 0.038289 BIO-ps_c + 0.0497 BIO-tag_c --&gt; BIO-lipid</v>
+        <v>0.051722 BIO-ergst161_rm + 0.019815 BIO-ergst181_rm + 0.173016 BIO-ergst_c + 0.001173 BIO-hdca_c + 0.003414 BIO-hdcea_c + 0.057759 BIO-ipc_g + 0.000361 BIO-ocdca_c + 0.00139 BIO-ocdcea_c + 0.097759 BIO-pail_c + 0.332601 BIO-pc_c + 0.084599 BIO-pe_c + 0.076758 BIO-ps_c + 0.099632 BIO-tag_c --&gt; BIO-lipid</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -8777,10 +8780,10 @@
       <c r="U35" s="73"/>
       <c r="V35" s="73"/>
       <c r="AB35" t="str">
-        <v>BIOSYN-CARB-mannan_c</v>
+        <v>BIOSYN-CARB-glycogen_c</v>
       </c>
       <c r="AC35" t="str">
-        <v>MET-mannan_c --&gt; 0.162141 BIO-mannan_c</v>
+        <v>MET-glycogen_c --&gt; 0.162141 BIO-glycogen_c</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -8845,10 +8848,10 @@
       <c r="U36" s="73"/>
       <c r="V36" s="73"/>
       <c r="AB36" t="str">
-        <v>BIOSYN-CARB-tre_c</v>
+        <v>BIOSYN-CARB-mannan_c</v>
       </c>
       <c r="AC36" t="str">
-        <v>MET-tre_c --&gt; 0.342296 BIO-tre_c</v>
+        <v>MET-mannan_c --&gt; 0.162141 BIO-mannan_c</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -8913,10 +8916,10 @@
       <c r="U37" s="73"/>
       <c r="V37" s="73"/>
       <c r="AB37" t="str">
-        <v>BIOSYN-COFACTOR-coa_c</v>
+        <v>BIOSYN-CARB-tre_c</v>
       </c>
       <c r="AC37" t="str">
-        <v>MET-coa_c --&gt; 0.763502 BIO-coa_c</v>
+        <v>MET-tre_c --&gt; 0.342296 BIO-tre_c</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -8981,10 +8984,10 @@
       <c r="U38" s="73"/>
       <c r="V38" s="73"/>
       <c r="AB38" t="str">
-        <v>BIOSYN-COFACTOR-fad_c</v>
+        <v>BIOSYN-COFACTOR-coa_c</v>
       </c>
       <c r="AC38" t="str">
-        <v>MET-fad_c --&gt; 0.782526 BIO-fad_c</v>
+        <v>MET-coa_c --&gt; 0.763502 BIO-coa_c</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9049,10 +9052,10 @@
       <c r="U39" s="73"/>
       <c r="V39" s="73"/>
       <c r="AB39" t="str">
-        <v>BIOSYN-COFACTOR-hemeA_c</v>
+        <v>BIOSYN-COFACTOR-fad_c</v>
       </c>
       <c r="AC39" t="str">
-        <v>MET-hemeA_c --&gt; 0.850821 BIO-hemeA_c</v>
+        <v>MET-fad_c --&gt; 0.782526 BIO-fad_c</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9117,10 +9120,10 @@
       <c r="U40" s="73"/>
       <c r="V40" s="73"/>
       <c r="AB40" t="str">
-        <v>BIOSYN-COFACTOR-nad_c</v>
+        <v>BIOSYN-COFACTOR-hemeA_c</v>
       </c>
       <c r="AC40" t="str">
-        <v>MET-nad_c --&gt; 0.662417 BIO-nad_c</v>
+        <v>MET-hemeA_c --&gt; 0.850821 BIO-hemeA_c</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9185,10 +9188,10 @@
       <c r="U41" s="73"/>
       <c r="V41" s="73"/>
       <c r="AB41" t="str">
-        <v>BIOSYN-COFACTOR-nadh_c</v>
+        <v>BIOSYN-COFACTOR-nad_c</v>
       </c>
       <c r="AC41" t="str">
-        <v>MET-nadh_c --&gt; 0.663425 BIO-nadh_c</v>
+        <v>MET-nad_c --&gt; 0.662417 BIO-nad_c</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9253,10 +9256,10 @@
       <c r="U42" s="73"/>
       <c r="V42" s="73"/>
       <c r="AB42" t="str">
-        <v>BIOSYN-COFACTOR-nadp_c</v>
+        <v>BIOSYN-COFACTOR-nadh_c</v>
       </c>
       <c r="AC42" t="str">
-        <v>MET-nadp_c --&gt; 0.740381 BIO-nadp_c</v>
+        <v>MET-nadh_c --&gt; 0.663425 BIO-nadh_c</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9321,10 +9324,10 @@
       <c r="U43" s="73"/>
       <c r="V43" s="73"/>
       <c r="AB43" t="str">
-        <v>BIOSYN-COFACTOR-nadph_c</v>
+        <v>BIOSYN-COFACTOR-nadp_c</v>
       </c>
       <c r="AC43" t="str">
-        <v>MET-nadph_c --&gt; 0.741389 BIO-nadph_c</v>
+        <v>MET-nadp_c --&gt; 0.740381 BIO-nadp_c</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9389,10 +9392,10 @@
       <c r="U44" s="73"/>
       <c r="V44" s="73"/>
       <c r="AB44" t="str">
-        <v>BIOSYN-COFACTOR-ribflv_c</v>
+        <v>BIOSYN-COFACTOR-nadph_c</v>
       </c>
       <c r="AC44" t="str">
-        <v>MET-ribflv_c --&gt; 0.375356 BIO-ribflv_c</v>
+        <v>MET-nadph_c --&gt; 0.741389 BIO-nadph_c</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9457,10 +9460,10 @@
       <c r="U45" s="73"/>
       <c r="V45" s="73"/>
       <c r="AB45" t="str">
-        <v>BIOSYN-COFACTOR-thf_c</v>
+        <v>BIOSYN-COFACTOR-ribflv_c</v>
       </c>
       <c r="AC45" t="str">
-        <v>MET-thf_c --&gt; 0.443413 BIO-thf_c</v>
+        <v>MET-ribflv_c --&gt; 0.375356 BIO-ribflv_c</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9525,10 +9528,10 @@
       <c r="U46" s="73"/>
       <c r="V46" s="73"/>
       <c r="AB46" t="str">
-        <v>BIOSYN-COFACTOR-thmpp_c</v>
+        <v>BIOSYN-COFACTOR-thf_c</v>
       </c>
       <c r="AC46" t="str">
-        <v>MET-thmpp_c --&gt; 0.422291 BIO-thmpp_c</v>
+        <v>MET-thf_c --&gt; 0.443413 BIO-thf_c</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9593,10 +9596,10 @@
       <c r="U47" s="73"/>
       <c r="V47" s="73"/>
       <c r="AB47" t="str">
-        <v>BIOSYN-DNA-datp_c</v>
+        <v>BIOSYN-COFACTOR-thmpp_c</v>
       </c>
       <c r="AC47" t="str">
-        <v>MET-datp_c --&gt; MET-ppi_c + 0.312199 BIO-datp_c</v>
+        <v>MET-thmpp_c --&gt; 0.422291 BIO-thmpp_c</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9649,7 +9652,7 @@
       </c>
       <c r="M48" s="73" cm="1">
         <f t="array" ref="M48">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets2713[[#This Row],[name w/o location]],4)="trna","PROT",mets2713[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents2612[normalized coeffs],biomassComponents2612[original coeffs from input]),(biomassComponents2612[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets2713[[#This Row],[name w/o location]]="ppi",((biomassComponents2612[rxn name]="BIOSYN-DNA"))+((biomassComponents2612[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets2713[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets2713[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets2713[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-8.1719454162267372E-4</v>
+        <v>-1.638206007371477E-3</v>
       </c>
       <c r="N48" s="73"/>
       <c r="O48" s="73"/>
@@ -9661,10 +9664,10 @@
       <c r="U48" s="73"/>
       <c r="V48" s="73"/>
       <c r="AB48" t="str">
-        <v>BIOSYN-DNA-dctp_c</v>
+        <v>BIOSYN-DNA-datp_c</v>
       </c>
       <c r="AC48" t="str">
-        <v>MET-dctp_c --&gt; MET-ppi_c + 0.288174 BIO-dctp_c</v>
+        <v>MET-datp_c --&gt; MET-ppi_c + 0.312199 BIO-datp_c</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9717,7 +9720,7 @@
       </c>
       <c r="M49" s="73" cm="1">
         <f t="array" ref="M49">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets2713[[#This Row],[name w/o location]],4)="trna","PROT",mets2713[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents2612[normalized coeffs],biomassComponents2612[original coeffs from input]),(biomassComponents2612[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets2713[[#This Row],[name w/o location]]="ppi",((biomassComponents2612[rxn name]="BIOSYN-DNA"))+((biomassComponents2612[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets2713[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets2713[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets2713[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-2.9979289601689637E-4</v>
+        <v>-6.0098605436958487E-4</v>
       </c>
       <c r="N49" s="73"/>
       <c r="O49" s="73"/>
@@ -9729,10 +9732,10 @@
       <c r="U49" s="73"/>
       <c r="V49" s="73"/>
       <c r="AB49" t="str">
-        <v>BIOSYN-DNA-dgtp_c</v>
+        <v>BIOSYN-DNA-dctp_c</v>
       </c>
       <c r="AC49" t="str">
-        <v>MET-dgtp_c --&gt; MET-ppi_c + 0.328198 BIO-dgtp_c</v>
+        <v>MET-dctp_c --&gt; MET-ppi_c + 0.288174 BIO-dctp_c</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9785,7 +9788,7 @@
       </c>
       <c r="M50" s="73" cm="1">
         <f t="array" ref="M50">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets2713[[#This Row],[name w/o location]],4)="trna","PROT",mets2713[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents2612[normalized coeffs],biomassComponents2612[original coeffs from input]),(biomassComponents2612[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets2713[[#This Row],[name w/o location]]="ppi",((biomassComponents2612[rxn name]="BIOSYN-DNA"))+((biomassComponents2612[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets2713[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets2713[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets2713[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-4.3627965292804315E-3</v>
+        <v>-8.7459706583634007E-3</v>
       </c>
       <c r="N50" s="73"/>
       <c r="O50" s="73"/>
@@ -9797,10 +9800,10 @@
       <c r="U50" s="73"/>
       <c r="V50" s="73"/>
       <c r="AB50" t="str">
-        <v>BIOSYN-DNA-dttp_c</v>
+        <v>BIOSYN-DNA-dgtp_c</v>
       </c>
       <c r="AC50" t="str">
-        <v>MET-dttp_c --&gt; MET-ppi_c + 0.303185 BIO-dttp_c</v>
+        <v>MET-dgtp_c --&gt; MET-ppi_c + 0.328198 BIO-dgtp_c</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9817,7 +9820,7 @@
       </c>
       <c r="D51" t="str">
         <f>_xlfn.XLOOKUP(mets2713[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
-        <v>LIPID</v>
+        <v>CARB</v>
       </c>
       <c r="E51" s="37">
         <f>_xlfn.XLOOKUP(mets2713[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
@@ -9845,7 +9848,7 @@
       </c>
       <c r="K51" t="str" cm="1">
         <f t="array" ref="K51">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets2713[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets2713[[#This Row],[name]],TRUE,mets2713[[#This Row],[category]]&amp;"-"&amp;mets2713[[#This Row],[name]])</f>
-        <v>BIOSYN-LIPID-glycogen_c</v>
+        <v>BIOSYN-CARB-glycogen_c</v>
       </c>
       <c r="L51" s="73" t="str" cm="1">
         <f t="array" ref="L51">IF(IsElementOfSet_DIY(mets2713[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets2713[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets2713[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets2713[[#This Row],[category]]="DNA")+(mets2713[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets2713[[#This Row],[name]]))</f>
@@ -9853,7 +9856,7 @@
       </c>
       <c r="M51" s="73" cm="1">
         <f t="array" ref="M51">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets2713[[#This Row],[name w/o location]],4)="trna","PROT",mets2713[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents2612[normalized coeffs],biomassComponents2612[original coeffs from input]),(biomassComponents2612[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets2713[[#This Row],[name w/o location]]="ppi",((biomassComponents2612[rxn name]="BIOSYN-DNA"))+((biomassComponents2612[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets2713[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets2713[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets2713[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-6.1974812559850739E-2</v>
+        <v>-0.3567648362662057</v>
       </c>
       <c r="N51" s="73"/>
       <c r="O51" s="73"/>
@@ -9865,10 +9868,10 @@
       <c r="U51" s="73"/>
       <c r="V51" s="73"/>
       <c r="AB51" t="str">
-        <v>BIOSYN-LIPID-ergst_c</v>
+        <v>BIOSYN-DNA-dttp_c</v>
       </c>
       <c r="AC51" t="str">
-        <v>MET-ergst_c --&gt; 0.396648 BIO-ergst_c</v>
+        <v>MET-dttp_c --&gt; MET-ppi_c + 0.303185 BIO-dttp_c</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9921,7 +9924,7 @@
       </c>
       <c r="M52" s="73" cm="1">
         <f t="array" ref="M52">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets2713[[#This Row],[name w/o location]],4)="trna","PROT",mets2713[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents2612[normalized coeffs],biomassComponents2612[original coeffs from input]),(biomassComponents2612[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets2713[[#This Row],[name w/o location]]="ppi",((biomassComponents2612[rxn name]="BIOSYN-DNA"))+((biomassComponents2612[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets2713[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets2713[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets2713[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-4.5938149699666135E-5</v>
+        <v>-9.2090865727137447E-5</v>
       </c>
       <c r="N52" s="73"/>
       <c r="O52" s="73"/>
@@ -9933,10 +9936,10 @@
       <c r="U52" s="73"/>
       <c r="V52" s="73"/>
       <c r="AB52" t="str">
-        <v>BIOSYN-LIPID-ergst161_rm</v>
+        <v>BIOSYN-LIPID-ergst_c</v>
       </c>
       <c r="AC52" t="str">
-        <v>MET-ergst161_rm --&gt; 0.633041 BIO-ergst161_rm</v>
+        <v>MET-ergst_c --&gt; 0.396648 BIO-ergst_c</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -9989,7 +9992,7 @@
       </c>
       <c r="M53" s="73" cm="1">
         <f t="array" ref="M53">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets2713[[#This Row],[name w/o location]],4)="trna","PROT",mets2713[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents2612[normalized coeffs],biomassComponents2612[original coeffs from input]),(biomassComponents2612[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets2713[[#This Row],[name w/o location]]="ppi",((biomassComponents2612[rxn name]="BIOSYN-DNA"))+((biomassComponents2612[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets2713[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets2713[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets2713[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-1.347607570669397E-4</v>
+        <v>-2.7015095003770094E-4</v>
       </c>
       <c r="N53" s="73"/>
       <c r="O53" s="73"/>
@@ -10001,10 +10004,10 @@
       <c r="U53" s="73"/>
       <c r="V53" s="73"/>
       <c r="AB53" t="str">
-        <v>BIOSYN-LIPID-ergst181_rm</v>
+        <v>BIOSYN-LIPID-ergst161_rm</v>
       </c>
       <c r="AC53" t="str">
-        <v>MET-ergst181_rm --&gt; 0.661094 BIO-ergst181_rm</v>
+        <v>MET-ergst161_rm --&gt; 0.633041 BIO-ergst161_rm</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -10057,7 +10060,7 @@
       </c>
       <c r="M54" s="73" cm="1">
         <f t="array" ref="M54">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets2713[[#This Row],[name w/o location]],4)="trna","PROT",mets2713[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents2612[normalized coeffs],biomassComponents2612[original coeffs from input]),(biomassComponents2612[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets2713[[#This Row],[name w/o location]]="ppi",((biomassComponents2612[rxn name]="BIOSYN-DNA"))+((biomassComponents2612[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets2713[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets2713[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets2713[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-6.3118486610466132E-4</v>
+        <v>-1.26531784874801E-3</v>
       </c>
       <c r="N54" s="73"/>
       <c r="O54" s="73"/>
@@ -10069,10 +10072,10 @@
       <c r="U54" s="73"/>
       <c r="V54" s="73"/>
       <c r="AB54" t="str">
-        <v>BIOSYN-LIPID-glycogen_c</v>
+        <v>BIOSYN-LIPID-ergst181_rm</v>
       </c>
       <c r="AC54" t="str">
-        <v>MET-glycogen_c --&gt; 0.162141 BIO-glycogen_c</v>
+        <v>MET-ergst181_rm --&gt; 0.661094 BIO-ergst181_rm</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -10125,7 +10128,7 @@
       </c>
       <c r="M55" s="73" cm="1">
         <f t="array" ref="M55">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets2713[[#This Row],[name w/o location]],4)="trna","PROT",mets2713[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents2612[normalized coeffs],biomassComponents2612[original coeffs from input]),(biomassComponents2612[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets2713[[#This Row],[name w/o location]]="ppi",((biomassComponents2612[rxn name]="BIOSYN-DNA"))+((biomassComponents2612[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets2713[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets2713[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets2713[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-1.2745845003375576E-5</v>
+        <v>-2.5551222860708657E-5</v>
       </c>
       <c r="N55" s="73"/>
       <c r="O55" s="73"/>
@@ -10193,7 +10196,7 @@
       </c>
       <c r="M56" s="73" cm="1">
         <f t="array" ref="M56">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets2713[[#This Row],[name w/o location]],4)="trna","PROT",mets2713[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents2612[normalized coeffs],biomassComponents2612[original coeffs from input]),(biomassComponents2612[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets2713[[#This Row],[name w/o location]]="ppi",((biomassComponents2612[rxn name]="BIOSYN-DNA"))+((biomassComponents2612[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets2713[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets2713[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets2713[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-4.939014938808035E-5</v>
+        <v>-9.9010988585246043E-5</v>
       </c>
       <c r="N56" s="73"/>
       <c r="O56" s="73"/>
@@ -10261,7 +10264,7 @@
       </c>
       <c r="M57" s="73" cm="1">
         <f t="array" ref="M57">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets2713[[#This Row],[name w/o location]],4)="trna","PROT",mets2713[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents2612[normalized coeffs],biomassComponents2612[original coeffs from input]),(biomassComponents2612[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets2713[[#This Row],[name w/o location]]="ppi",((biomassComponents2612[rxn name]="BIOSYN-DNA"))+((biomassComponents2612[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets2713[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets2713[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets2713[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-1.1341146668628558E-3</v>
+        <v>-2.2735265174601386E-3</v>
       </c>
       <c r="N57" s="73"/>
       <c r="O57" s="73"/>
@@ -10329,7 +10332,7 @@
       </c>
       <c r="M58" s="73" cm="1">
         <f t="array" ref="M58">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets2713[[#This Row],[name w/o location]],4)="trna","PROT",mets2713[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents2612[normalized coeffs],biomassComponents2612[original coeffs from input]),(biomassComponents2612[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets2713[[#This Row],[name w/o location]]="ppi",((biomassComponents2612[rxn name]="BIOSYN-DNA"))+((biomassComponents2612[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets2713[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets2713[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets2713[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-4.2314877719019052E-3</v>
+        <v>-8.4827398311838071E-3</v>
       </c>
       <c r="N58" s="73"/>
       <c r="O58" s="73"/>
@@ -10397,7 +10400,7 @@
       </c>
       <c r="M59" s="73" cm="1">
         <f t="array" ref="M59">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets2713[[#This Row],[name w/o location]],4)="trna","PROT",mets2713[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents2612[normalized coeffs],biomassComponents2612[original coeffs from input]),(biomassComponents2612[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets2713[[#This Row],[name w/o location]]="ppi",((biomassComponents2612[rxn name]="BIOSYN-DNA"))+((biomassComponents2612[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets2713[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets2713[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets2713[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-1.1371683588949145E-3</v>
+        <v>-2.2796481646038501E-3</v>
       </c>
       <c r="N59" s="73"/>
       <c r="O59" s="73"/>
@@ -10465,7 +10468,7 @@
       </c>
       <c r="M60" s="73" cm="1">
         <f t="array" ref="M60">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets2713[[#This Row],[name w/o location]],4)="trna","PROT",mets2713[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents2612[normalized coeffs],biomassComponents2612[original coeffs from input]),(biomassComponents2612[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets2713[[#This Row],[name w/o location]]="ppi",((biomassComponents2612[rxn name]="BIOSYN-DNA"))+((biomassComponents2612[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets2713[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets2713[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets2713[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-9.7665037338365355E-4</v>
+        <v>-1.9578624517018008E-3</v>
       </c>
       <c r="N60" s="73"/>
       <c r="O60" s="73"/>
@@ -10533,7 +10536,7 @@
       </c>
       <c r="M61" s="73" cm="1">
         <f t="array" ref="M61">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets2713[[#This Row],[name w/o location]],4)="trna","PROT",mets2713[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents2612[normalized coeffs],biomassComponents2612[original coeffs from input]),(biomassComponents2612[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets2713[[#This Row],[name w/o location]]="ppi",((biomassComponents2612[rxn name]="BIOSYN-DNA"))+((biomassComponents2612[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets2713[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets2713[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets2713[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-1.1253518984230351E-3</v>
+        <v>-2.2559600517434017E-3</v>
       </c>
       <c r="N61" s="73"/>
       <c r="O61" s="73"/>
@@ -11077,7 +11080,7 @@
       </c>
       <c r="M69" s="73" cm="1">
         <f t="array" ref="M69">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets2713[[#This Row],[name w/o location]],4)="trna","PROT",mets2713[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents2612[normalized coeffs],biomassComponents2612[original coeffs from input]),(biomassComponents2612[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets2713[[#This Row],[name w/o location]]="ppi",((biomassComponents2612[rxn name]="BIOSYN-DNA"))+((biomassComponents2612[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets2713[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets2713[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets2713[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-0.59250396185691379</v>
+        <v>-0.47687009527186708</v>
       </c>
       <c r="N69" s="73"/>
       <c r="O69" s="73"/>
@@ -12790,8 +12793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042FF932-C48A-D446-979E-E5F082761A47}">
   <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -12825,1324 +12828,1351 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="C3">
-        <v>424.177302</v>
+        <v>162.14060000000001</v>
       </c>
       <c r="D3">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>424.177302</v>
+        <v>162.14060000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="C4">
-        <v>18.015280000000001</v>
+        <v>162.14060000000001</v>
       </c>
       <c r="D4">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>18.015280000000001</v>
+        <v>162.14060000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>332</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="C5">
-        <v>1.0079400000000001</v>
+        <v>458.44785999999999</v>
       </c>
       <c r="D5">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>1.0079400000000001</v>
+        <v>458.44785999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>230</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
       </c>
       <c r="C6">
-        <v>174.95126200000001</v>
+        <v>424.177302</v>
       </c>
       <c r="D6">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>174.95126200000001</v>
+        <v>424.177302</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="C7">
-        <v>162.14060000000001</v>
+        <v>72.085840000000005</v>
       </c>
       <c r="D7">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>162.14060000000001</v>
+        <v>72.085840000000005</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C8">
-        <v>162.14060000000001</v>
+        <v>399.44531999999998</v>
       </c>
       <c r="D8">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>162.14060000000001</v>
+        <v>399.44531999999998</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="C9">
-        <v>2619.1368040000002</v>
+        <v>158.20156</v>
       </c>
       <c r="D9">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>2619.1368040000002</v>
+        <v>158.20156</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="C10">
-        <v>203.19252</v>
+        <v>115.11058</v>
       </c>
       <c r="D10">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>203.19252</v>
+        <v>115.11058</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="B11" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="C11">
-        <v>2280.41334042176</v>
+        <v>115.0874</v>
       </c>
       <c r="D11">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>2280.41334042176</v>
+        <v>115.0874</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>240</v>
+        <v>304</v>
       </c>
       <c r="B12" t="s">
-        <v>235</v>
+        <v>305</v>
       </c>
       <c r="C12">
-        <v>810.70299999999997</v>
+        <v>503.14926300000002</v>
       </c>
       <c r="D12">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>810.70299999999997</v>
+        <v>328.19800099999998</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B13" t="s">
         <v>242</v>
       </c>
       <c r="C13">
-        <v>399.44531999999998</v>
+        <v>243.30269999999999</v>
       </c>
       <c r="D13">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>399.44531999999998</v>
+        <v>243.30269999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="B14" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="C14">
-        <v>243.30269999999999</v>
+        <v>40.078000000000003</v>
       </c>
       <c r="D14">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>243.30269999999999</v>
+        <v>40.078000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>244</v>
+        <v>333</v>
       </c>
       <c r="B15" t="s">
-        <v>242</v>
+        <v>334</v>
       </c>
       <c r="C15">
-        <v>763.50236299999995</v>
+        <v>328.19800099999998</v>
       </c>
       <c r="D15">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>763.50236299999995</v>
+        <v>328.19800099999998</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B16" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C16">
-        <v>782.52592200000004</v>
+        <v>203.19252</v>
       </c>
       <c r="D16">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>782.52592200000004</v>
+        <v>203.19252</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>335</v>
       </c>
       <c r="B17" t="s">
-        <v>242</v>
+        <v>334</v>
       </c>
       <c r="C17">
-        <v>850.82126000000005</v>
+        <v>144970.98955999999</v>
       </c>
       <c r="D17">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>850.82126000000005</v>
+        <v>144970.98955999999</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B18" t="s">
         <v>242</v>
       </c>
       <c r="C18">
-        <v>662.41716199999996</v>
+        <v>763.50236299999995</v>
       </c>
       <c r="D18">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>662.41716199999996</v>
+        <v>763.50236299999995</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>479</v>
+        <v>306</v>
       </c>
       <c r="B19" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="C19">
-        <v>663.42510200000004</v>
+        <v>479.12456300000002</v>
       </c>
       <c r="D19">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>663.42510200000004</v>
+        <v>304.17330100000004</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="B20" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="C20">
-        <v>740.38118299999996</v>
+        <v>63.545999999999999</v>
       </c>
       <c r="D20">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>740.38118299999996</v>
+        <v>63.545999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="B21" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="C21">
-        <v>245.126</v>
+        <v>104.15084</v>
       </c>
       <c r="D21">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>245.126</v>
+        <v>104.15084</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B22" t="s">
-        <v>242</v>
+        <v>27</v>
       </c>
       <c r="C22">
-        <v>375.35595999999998</v>
+        <v>487.14986299999998</v>
       </c>
       <c r="D22">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>375.35595999999998</v>
+        <v>312.19860099999994</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s">
-        <v>242</v>
+        <v>27</v>
       </c>
       <c r="C23">
-        <v>148.26967999999999</v>
+        <v>463.12516299999999</v>
       </c>
       <c r="D23">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>148.26967999999999</v>
+        <v>288.173901</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s">
-        <v>242</v>
+        <v>27</v>
       </c>
       <c r="C24">
-        <v>443.41334000000001</v>
+        <v>503.14926300000002</v>
       </c>
       <c r="D24">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>443.41334000000001</v>
+        <v>328.19800099999998</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C25">
-        <v>422.29056200000002</v>
+        <v>339.57481999999999</v>
       </c>
       <c r="D25">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>422.29056200000002</v>
+        <v>339.57481999999999</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26">
-        <v>487.14986299999998</v>
+        <v>478.136503</v>
       </c>
       <c r="D26">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>312.19860099999994</v>
+        <v>303.18524100000002</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="C27">
-        <v>463.12516299999999</v>
+        <v>398.66424000000001</v>
       </c>
       <c r="D27">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>288.173901</v>
+        <v>398.66424000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>256</v>
+        <v>336</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="C28">
-        <v>503.14926300000002</v>
+        <v>396.648359999999</v>
       </c>
       <c r="D28">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>328.19800099999998</v>
+        <v>396.648359999999</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>257</v>
+        <v>480</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="C29">
-        <v>478.136503</v>
+        <v>633.04128000000003</v>
       </c>
       <c r="D29">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>303.18524100000002</v>
+        <v>633.04128000000003</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>258</v>
+        <v>481</v>
       </c>
       <c r="B30" t="s">
         <v>259</v>
       </c>
       <c r="C30">
-        <v>339.57481999999999</v>
+        <v>661.09443999999996</v>
       </c>
       <c r="D30">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>339.57481999999999</v>
+        <v>661.09443999999996</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>260</v>
+        <v>337</v>
       </c>
       <c r="B31" t="s">
-        <v>259</v>
+        <v>334</v>
       </c>
       <c r="C31">
-        <v>398.66424000000001</v>
+        <v>65560.645239999998</v>
       </c>
       <c r="D31">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>398.66424000000001</v>
+        <v>65560.645239999998</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B32" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C32">
-        <v>255.41533999999999</v>
+        <v>782.52592200000004</v>
       </c>
       <c r="D32">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>255.41533999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+        <v>782.52592200000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C33">
-        <v>915.26344200000005</v>
+        <v>55.844999999999999</v>
       </c>
       <c r="D33">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>915.26344200000005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+        <v>55.844999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="B34" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C34">
-        <v>279.43673999999999</v>
+        <v>55.844999999999999</v>
       </c>
       <c r="D34">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>279.43673999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+        <v>55.844999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="B35" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C35">
-        <v>277.42086</v>
+        <v>2619.1368040000002</v>
       </c>
       <c r="D35">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>277.42086</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2619.1368040000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C36">
-        <v>283.46850000000001</v>
+        <v>129.13715999999999</v>
       </c>
       <c r="D36">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>283.46850000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+        <v>129.13715999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="B37" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C37">
-        <v>281.45262000000002</v>
+        <v>129.11398</v>
       </c>
       <c r="D37">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>281.45262000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+        <v>129.11398</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>267</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C38">
-        <v>862.14885442176001</v>
+        <v>162.14060000000001</v>
       </c>
       <c r="D38">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>862.14885442176001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+        <v>162.14060000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="B39" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C39">
-        <v>786.16573442176002</v>
+        <v>58.059260000000002</v>
       </c>
       <c r="D39">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>786.16573442176002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+        <v>58.059260000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="B40" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C40">
-        <v>744.08599442176001</v>
+        <v>2280.41334042176</v>
       </c>
       <c r="D40">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>744.08599442176001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2280.41334042176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="B41" t="s">
-        <v>259</v>
+        <v>334</v>
       </c>
       <c r="C41">
-        <v>786.07881442175994</v>
+        <v>306.31554</v>
       </c>
       <c r="D41">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>786.07881442175994</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+        <v>306.31554</v>
+      </c>
+      <c r="E41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="B42" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="C42">
-        <v>885.51292863263996</v>
+        <v>519.14866300000006</v>
       </c>
       <c r="D42">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>885.51292863263996</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+        <v>344.19740100000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="B43" t="s">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="C43">
-        <v>367.62797999999998</v>
+        <v>1.0079400000000001</v>
       </c>
       <c r="D43">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>367.62797999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1.0079400000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="B44" t="s">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="C44">
-        <v>40.078000000000003</v>
+        <v>18.015280000000001</v>
       </c>
       <c r="D44">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>40.078000000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+        <v>18.015280000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B45" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C45">
-        <v>63.545999999999999</v>
+        <v>255.41533999999999</v>
       </c>
       <c r="D45">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>63.545999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+        <v>255.41533999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>276</v>
+        <v>482</v>
       </c>
       <c r="B46" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C46">
-        <v>55.844999999999999</v>
+        <v>253.39946</v>
       </c>
       <c r="D46">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>55.844999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+        <v>253.39946</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="B47" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="C47">
-        <v>39.098300000000002</v>
+        <v>850.82126000000005</v>
       </c>
       <c r="D47">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>39.098300000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+        <v>850.82126000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="B48" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C48">
-        <v>24.305</v>
+        <v>138.14722</v>
       </c>
       <c r="D48">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>24.305</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+        <v>138.14722</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="B49" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C49">
-        <v>54.938043999999998</v>
+        <v>114.16558000000001</v>
       </c>
       <c r="D49">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>54.938043999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+        <v>114.16558000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="B50" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C50">
-        <v>65.38</v>
+        <v>915.26344200000005</v>
       </c>
       <c r="D50">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>65.38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+        <v>915.26344200000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B51" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C51">
-        <v>95.979301000000007</v>
+        <v>39.098300000000002</v>
       </c>
       <c r="D51">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>95.979301000000007</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+        <v>39.098300000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B52" t="s">
         <v>284</v>
       </c>
       <c r="C52">
-        <v>72.085840000000005</v>
+        <v>114.16558000000001</v>
       </c>
       <c r="D52">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>72.085840000000005</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+        <v>114.16558000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="B53" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="C53">
-        <v>158.20156</v>
+        <v>279.43673999999999</v>
       </c>
       <c r="D53">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>158.20156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+        <v>279.43673999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B54" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="C54">
-        <v>115.11058</v>
+        <v>277.42086</v>
       </c>
       <c r="D54">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>115.11058</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+        <v>277.42086</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B55" t="s">
         <v>284</v>
       </c>
       <c r="C55">
-        <v>115.0874</v>
+        <v>130.18816000000001</v>
       </c>
       <c r="D55">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>115.0874</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+        <v>130.18816000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="B56" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="C56">
-        <v>104.15084</v>
+        <v>162.14060000000001</v>
       </c>
       <c r="D56">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>104.15084</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+        <v>162.14060000000001</v>
+      </c>
+      <c r="E56" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B57" t="s">
         <v>284</v>
       </c>
       <c r="C57">
-        <v>129.13715999999999</v>
+        <v>132.20400000000001</v>
       </c>
       <c r="D57">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>129.13715999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+        <v>132.20400000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="B58" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C58">
-        <v>129.11398</v>
+        <v>24.305</v>
       </c>
       <c r="D58">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>129.11398</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+        <v>24.305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="B59" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="C59">
-        <v>58.059260000000002</v>
+        <v>455.42403999999999</v>
       </c>
       <c r="D59">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>58.059260000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+        <v>455.42403999999999</v>
+      </c>
+      <c r="E59" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B60" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C60">
-        <v>138.14722</v>
+        <v>54.938043999999998</v>
       </c>
       <c r="D60">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>138.14722</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+        <v>54.938043999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="B61" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="C61">
-        <v>114.16558000000001</v>
+        <v>22.98977</v>
       </c>
       <c r="D61">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>114.16558000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+        <v>22.98977</v>
+      </c>
+      <c r="E61" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="B62" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="C62">
-        <v>114.16558000000001</v>
+        <v>662.41716199999996</v>
       </c>
       <c r="D62">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>114.16558000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+        <v>662.41716199999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>295</v>
+        <v>479</v>
       </c>
       <c r="B63" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="C63">
-        <v>130.18816000000001</v>
+        <v>663.42510200000004</v>
       </c>
       <c r="D63">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>130.18816000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+        <v>663.42510200000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="B64" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="C64">
-        <v>132.20400000000001</v>
+        <v>740.38118299999996</v>
       </c>
       <c r="D64">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>132.20400000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+        <v>740.38118299999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>297</v>
+        <v>478</v>
       </c>
       <c r="B65" t="s">
-        <v>284</v>
-      </c>
-      <c r="C65">
-        <v>148.18180000000001</v>
+        <v>242</v>
+      </c>
+      <c r="C65" s="49">
+        <v>741.38912300000004</v>
       </c>
       <c r="D65">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>148.18180000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+        <v>741.38912300000004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="B66" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="C66">
-        <v>97.115179999999995</v>
+        <v>283.46850000000001</v>
       </c>
       <c r="D66">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>97.115179999999995</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+        <v>283.46850000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="B67" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="C67">
-        <v>88.085239999999999</v>
+        <v>281.45262000000002</v>
       </c>
       <c r="D67">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>88.085239999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+        <v>281.45262000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="B68" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="C68">
-        <v>102.11181999999999</v>
+        <v>810.70299999999997</v>
       </c>
       <c r="D68">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>102.11181999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+        <v>810.70299999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="B69" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="C69">
-        <v>187.21784</v>
+        <v>69581.537779999999</v>
       </c>
       <c r="D69">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>187.21784</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+        <v>69581.537779999999</v>
+      </c>
+      <c r="E69" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="B70" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="C70">
-        <v>164.18119999999999</v>
+        <v>862.14885442176001</v>
       </c>
       <c r="D70">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>164.18119999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+        <v>862.14885442176001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="B71" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="C71">
-        <v>100.139</v>
+        <v>786.16573442176002</v>
       </c>
       <c r="D71">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>100.139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+        <v>786.16573442176002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="B72" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="C72">
-        <v>503.14926300000002</v>
+        <v>744.08599442176001</v>
       </c>
       <c r="D72">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>328.19800099999998</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+        <v>744.08599442176001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B73" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="C73">
-        <v>479.12456300000002</v>
+        <v>148.18180000000001</v>
       </c>
       <c r="D73">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>304.17330100000004</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+        <v>148.18180000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="B74" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C74">
-        <v>519.14866300000006</v>
+        <v>95.979301000000007</v>
       </c>
       <c r="D74">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>344.19740100000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+        <v>95.979301000000007</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>308</v>
-      </c>
-      <c r="B75" t="s">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="C75">
-        <v>480.10932300000002</v>
+        <v>174.95126200000001</v>
       </c>
       <c r="D75">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>305.15806099999998</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+        <v>174.95126200000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B76" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="C76">
-        <v>96.062600000000003</v>
+        <v>97.115179999999995</v>
       </c>
       <c r="D76">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>96.062600000000003</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+        <v>97.115179999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="B77" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>786.07881442175994</v>
       </c>
       <c r="D77">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+        <v>786.07881442175994</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="B78" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>318.51510000000002</v>
       </c>
       <c r="D78">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+        <v>318.51510000000002</v>
+      </c>
+      <c r="E78" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="B79" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>90.167360000000002</v>
       </c>
       <c r="D79">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+        <v>90.167360000000002</v>
+      </c>
+      <c r="E79" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>315</v>
+        <v>249</v>
       </c>
       <c r="B80" t="s">
-        <v>312</v>
+        <v>242</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>245.126</v>
       </c>
       <c r="D80">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+        <v>245.126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="B81" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>795.22648000000004</v>
       </c>
       <c r="D81">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+        <v>795.22648000000004</v>
+      </c>
+      <c r="E81" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="B82" t="s">
-        <v>312</v>
+        <v>242</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>375.35595999999998</v>
       </c>
       <c r="D82">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+        <v>375.35595999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="B83" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>88.085239999999999</v>
       </c>
       <c r="D83">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+        <v>88.085239999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B84" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>96.062600000000003</v>
       </c>
       <c r="D84">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+        <v>96.062600000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>320</v>
+        <v>251</v>
       </c>
       <c r="B85" t="s">
-        <v>312</v>
+        <v>242</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>148.26967999999999</v>
       </c>
       <c r="D85">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+        <v>148.26967999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="B86" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>885.51292863263996</v>
       </c>
       <c r="D86">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+        <v>885.51292863263996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="B87" t="s">
-        <v>312</v>
+        <v>242</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>443.41334000000001</v>
       </c>
       <c r="D87">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+        <v>443.41334000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="B88" t="s">
-        <v>312</v>
+        <v>242</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>422.29056200000002</v>
       </c>
       <c r="D88">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+        <v>422.29056200000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="B89" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>102.11181999999999</v>
       </c>
       <c r="D89">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102.11181999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="B90" t="s">
-        <v>312</v>
+        <v>235</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>342.29647999999997</v>
       </c>
       <c r="D90">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+        <v>342.29647999999997</v>
+      </c>
+      <c r="E90" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B91" t="s">
         <v>312</v>
@@ -14155,9 +14185,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="B92" t="s">
         <v>312</v>
@@ -14170,9 +14200,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B93" t="s">
         <v>312</v>
@@ -14185,9 +14215,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B94" t="s">
         <v>312</v>
@@ -14200,9 +14230,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="B95" t="s">
         <v>312</v>
@@ -14215,9 +14245,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B96" t="s">
         <v>312</v>
@@ -14230,367 +14260,340 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B97" t="s">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="C97">
-        <v>458.44785999999999</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>458.44785999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B98" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="C98">
-        <v>328.19800099999998</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>328.19800099999998</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B99" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="C99">
-        <v>144970.98955999999</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>144970.98955999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B100" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="C100">
-        <v>396.648359999999</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>396.648359999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B101" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="C101">
-        <v>65560.645239999998</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>65560.645239999998</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B102" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="C102">
-        <v>55.844999999999999</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>55.844999999999999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B103" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="C103">
-        <v>162.14060000000001</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>162.14060000000001</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B104" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="C104">
-        <v>306.31554</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>306.31554</v>
-      </c>
-      <c r="E104" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="B105" t="s">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="C105">
-        <v>162.14060000000001</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>162.14060000000001</v>
-      </c>
-      <c r="E105" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="B106" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="C106">
-        <v>455.42403999999999</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>455.42403999999999</v>
-      </c>
-      <c r="E106" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="B107" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="C107">
-        <v>22.98977</v>
+        <v>0</v>
       </c>
       <c r="D107">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>22.98977</v>
-      </c>
-      <c r="E107" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B108" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="C108">
-        <v>69581.537779999999</v>
+        <v>0</v>
       </c>
       <c r="D108">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>69581.537779999999</v>
-      </c>
-      <c r="E108" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="B109" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="C109">
-        <v>318.51510000000002</v>
+        <v>0</v>
       </c>
       <c r="D109">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>318.51510000000002</v>
-      </c>
-      <c r="E109" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B110" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="C110">
-        <v>90.167360000000002</v>
+        <v>0</v>
       </c>
       <c r="D110">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>90.167360000000002</v>
-      </c>
-      <c r="E110" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="B111" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C111">
-        <v>795.22648000000004</v>
+        <v>187.21784</v>
       </c>
       <c r="D111">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>795.22648000000004</v>
-      </c>
-      <c r="E111" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+        <v>187.21784</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>349</v>
+        <v>272</v>
       </c>
       <c r="B112" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="C112">
-        <v>342.29647999999997</v>
+        <v>367.62797999999998</v>
       </c>
       <c r="D112">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>342.29647999999997</v>
-      </c>
-      <c r="E112" t="s">
-        <v>341</v>
+        <v>367.62797999999998</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="B113" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C113">
-        <v>384.63765999999998</v>
+        <v>164.18119999999999</v>
       </c>
       <c r="D113">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>384.63765999999998</v>
-      </c>
-      <c r="E113" t="s">
-        <v>341</v>
+        <v>164.18119999999999</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="B114" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="C114">
-        <v>64359.575239999998</v>
+        <v>480.10932300000002</v>
       </c>
       <c r="D114">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>64359.575239999998</v>
-      </c>
-      <c r="E114" t="s">
-        <v>341</v>
+        <v>305.15806099999998</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>478</v>
+        <v>303</v>
       </c>
       <c r="B115" t="s">
-        <v>242</v>
-      </c>
-      <c r="C115" s="49">
-        <v>741.38912300000004</v>
+        <v>284</v>
+      </c>
+      <c r="C115">
+        <v>100.139</v>
       </c>
       <c r="D115">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>741.38912300000004</v>
+        <v>100.139</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>480</v>
+        <v>280</v>
       </c>
       <c r="B116" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C116">
-        <v>633.04128000000003</v>
+        <v>65.38</v>
       </c>
       <c r="D116">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>633.04128000000003</v>
+        <v>65.38</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>481</v>
+        <v>350</v>
       </c>
       <c r="B117" t="s">
-        <v>259</v>
+        <v>334</v>
       </c>
       <c r="C117">
-        <v>661.09443999999996</v>
+        <v>384.63765999999998</v>
       </c>
       <c r="D117">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>661.09443999999996</v>
+        <v>384.63765999999998</v>
+      </c>
+      <c r="E117" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>482</v>
+        <v>351</v>
       </c>
       <c r="B118" t="s">
-        <v>259</v>
+        <v>334</v>
       </c>
       <c r="C118">
-        <v>253.39946</v>
+        <v>64359.575239999998</v>
       </c>
       <c r="D118">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>253.39946</v>
+        <v>64359.575239999998</v>
+      </c>
+      <c r="E118" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -14609,8 +14612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5455B0F7-CD7B-1440-98EA-12626AC5D91D}">
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J16" sqref="I16:J19"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/build_model/input/BIOMASS_RBA.xlsx
+++ b/build_model/input/BIOMASS_RBA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejm6426/Documents/scRBA/build_model/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E667E14-E7B2-EC4F-BB16-C854DB60B59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9182E1-9930-264B-8122-C90E8ECA0601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19400" yWindow="0" windowWidth="19000" windowHeight="21600" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19400" yWindow="0" windowWidth="19000" windowHeight="21600" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBABioRxns" sheetId="1" r:id="rId1"/>
@@ -4951,7 +4951,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA2C806C-897B-5147-A380-91890FB6F1D0}" name="metaboliteInfo" displayName="metaboliteInfo" ref="A2:E118" totalsRowShown="0">
   <autoFilter ref="A2:E118" xr:uid="{EB067577-3D81-D244-B73F-3CC89BC642F7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E118">
-    <sortCondition ref="A2:A118"/>
+    <sortCondition ref="B2:B118"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{03663191-5848-1A4B-801E-1B9D39F1DF45}" name="name w/o location"/>
@@ -6022,7 +6022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F168A7-6B4E-494D-BA75-6693E50B2433}">
   <dimension ref="A1:AG95"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
@@ -12793,8 +12793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042FF932-C48A-D446-979E-E5F082761A47}">
   <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A71" sqref="A54:D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -12858,1313 +12858,1319 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>332</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C5">
-        <v>458.44785999999999</v>
+        <v>203.19252</v>
       </c>
       <c r="D5">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>458.44785999999999</v>
+        <v>203.19252</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="C6">
-        <v>424.177302</v>
+        <v>2619.1368040000002</v>
       </c>
       <c r="D6">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>424.177302</v>
+        <v>2619.1368040000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="C7">
-        <v>72.085840000000005</v>
+        <v>162.14060000000001</v>
       </c>
       <c r="D7">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>72.085840000000005</v>
+        <v>162.14060000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B8" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C8">
-        <v>399.44531999999998</v>
+        <v>2280.41334042176</v>
       </c>
       <c r="D8">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>399.44531999999998</v>
+        <v>2280.41334042176</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>342</v>
       </c>
       <c r="B9" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="C9">
-        <v>158.20156</v>
+        <v>162.14060000000001</v>
       </c>
       <c r="D9">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>158.20156</v>
+        <v>162.14060000000001</v>
+      </c>
+      <c r="E9" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B10" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="C10">
-        <v>115.11058</v>
+        <v>810.70299999999997</v>
       </c>
       <c r="D10">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>115.11058</v>
+        <v>810.70299999999997</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>349</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="C11">
-        <v>115.0874</v>
+        <v>342.29647999999997</v>
       </c>
       <c r="D11">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>115.0874</v>
+        <v>342.29647999999997</v>
+      </c>
+      <c r="E11" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="B12" t="s">
-        <v>305</v>
+        <v>242</v>
       </c>
       <c r="C12">
-        <v>503.14926300000002</v>
+        <v>458.44785999999999</v>
       </c>
       <c r="D12">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>328.19800099999998</v>
+        <v>458.44785999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B13" t="s">
         <v>242</v>
       </c>
       <c r="C13">
-        <v>243.30269999999999</v>
+        <v>399.44531999999998</v>
       </c>
       <c r="D13">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>243.30269999999999</v>
+        <v>399.44531999999998</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="B14" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="C14">
-        <v>40.078000000000003</v>
+        <v>243.30269999999999</v>
       </c>
       <c r="D14">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>40.078000000000003</v>
+        <v>243.30269999999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="B15" t="s">
-        <v>334</v>
+        <v>242</v>
       </c>
       <c r="C15">
-        <v>328.19800099999998</v>
+        <v>763.50236299999995</v>
       </c>
       <c r="D15">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>328.19800099999998</v>
+        <v>763.50236299999995</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B16" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C16">
-        <v>203.19252</v>
+        <v>782.52592200000004</v>
       </c>
       <c r="D16">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>203.19252</v>
+        <v>782.52592200000004</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>335</v>
+        <v>246</v>
       </c>
       <c r="B17" t="s">
-        <v>334</v>
+        <v>242</v>
       </c>
       <c r="C17">
-        <v>144970.98955999999</v>
+        <v>850.82126000000005</v>
       </c>
       <c r="D17">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>144970.98955999999</v>
+        <v>850.82126000000005</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B18" t="s">
         <v>242</v>
       </c>
       <c r="C18">
-        <v>763.50236299999995</v>
+        <v>662.41716199999996</v>
       </c>
       <c r="D18">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>763.50236299999995</v>
+        <v>662.41716199999996</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>306</v>
+        <v>479</v>
       </c>
       <c r="B19" t="s">
-        <v>305</v>
+        <v>242</v>
       </c>
       <c r="C19">
-        <v>479.12456300000002</v>
+        <v>663.42510200000004</v>
       </c>
       <c r="D19">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>304.17330100000004</v>
+        <v>663.42510200000004</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="C20">
-        <v>63.545999999999999</v>
+        <v>740.38118299999996</v>
       </c>
       <c r="D20">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>63.545999999999999</v>
+        <v>740.38118299999996</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>288</v>
+        <v>478</v>
       </c>
       <c r="B21" t="s">
-        <v>284</v>
-      </c>
-      <c r="C21">
-        <v>104.15084</v>
+        <v>242</v>
+      </c>
+      <c r="C21" s="49">
+        <v>741.38912300000004</v>
       </c>
       <c r="D21">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>104.15084</v>
+        <v>741.38912300000004</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="C22">
-        <v>487.14986299999998</v>
+        <v>245.126</v>
       </c>
       <c r="D22">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>312.19860099999994</v>
+        <v>245.126</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="C23">
-        <v>463.12516299999999</v>
+        <v>375.35595999999998</v>
       </c>
       <c r="D23">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>288.173901</v>
+        <v>375.35595999999998</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="C24">
-        <v>503.14926300000002</v>
+        <v>148.26967999999999</v>
       </c>
       <c r="D24">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>328.19800099999998</v>
+        <v>148.26967999999999</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C25">
-        <v>339.57481999999999</v>
+        <v>443.41334000000001</v>
       </c>
       <c r="D25">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>339.57481999999999</v>
+        <v>443.41334000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="C26">
-        <v>478.136503</v>
+        <v>422.29056200000002</v>
       </c>
       <c r="D26">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>303.18524100000002</v>
+        <v>422.29056200000002</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s">
-        <v>259</v>
+        <v>27</v>
       </c>
       <c r="C27">
-        <v>398.66424000000001</v>
+        <v>487.14986299999998</v>
       </c>
       <c r="D27">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>398.66424000000001</v>
+        <v>312.19860099999994</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>336</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s">
-        <v>259</v>
+        <v>27</v>
       </c>
       <c r="C28">
-        <v>396.648359999999</v>
+        <v>463.12516299999999</v>
       </c>
       <c r="D28">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>396.648359999999</v>
+        <v>288.173901</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>480</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s">
-        <v>259</v>
+        <v>27</v>
       </c>
       <c r="C29">
-        <v>633.04128000000003</v>
+        <v>503.14926300000002</v>
       </c>
       <c r="D29">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>633.04128000000003</v>
+        <v>328.19800099999998</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>481</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>27</v>
       </c>
       <c r="C30">
-        <v>661.09443999999996</v>
+        <v>478.136503</v>
       </c>
       <c r="D30">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>661.09443999999996</v>
+        <v>303.18524100000002</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>337</v>
+        <v>230</v>
       </c>
       <c r="B31" t="s">
-        <v>334</v>
+        <v>41</v>
       </c>
       <c r="C31">
-        <v>65560.645239999998</v>
+        <v>424.177302</v>
       </c>
       <c r="D31">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>65560.645239999998</v>
+        <v>424.177302</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B32" t="s">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="C32">
-        <v>782.52592200000004</v>
+        <v>1.0079400000000001</v>
       </c>
       <c r="D32">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>782.52592200000004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1.0079400000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="B33" t="s">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="C33">
-        <v>55.844999999999999</v>
+        <v>18.015280000000001</v>
       </c>
       <c r="D33">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>55.844999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+        <v>18.015280000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="B34" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="C34">
-        <v>55.844999999999999</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>55.844999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>237</v>
+        <v>313</v>
       </c>
       <c r="B35" t="s">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="C35">
-        <v>2619.1368040000002</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>2619.1368040000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="B36" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="C36">
-        <v>129.13715999999999</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>129.13715999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="B37" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="C37">
-        <v>129.11398</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>129.11398</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="B38" t="s">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="C38">
-        <v>162.14060000000001</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>162.14060000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B39" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="C39">
-        <v>58.059260000000002</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>58.059260000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>239</v>
+        <v>318</v>
       </c>
       <c r="B40" t="s">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="C40">
-        <v>2280.41334042176</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>2280.41334042176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="B41" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="C41">
-        <v>306.31554</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>306.31554</v>
-      </c>
-      <c r="E41" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="B42" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C42">
-        <v>519.14866300000006</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>344.19740100000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>232</v>
+        <v>321</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>312</v>
       </c>
       <c r="C43">
-        <v>1.0079400000000001</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>1.0079400000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>312</v>
       </c>
       <c r="C44">
-        <v>18.015280000000001</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>18.015280000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>261</v>
+        <v>323</v>
       </c>
       <c r="B45" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="C45">
-        <v>255.41533999999999</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>255.41533999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>482</v>
+        <v>324</v>
       </c>
       <c r="B46" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="C46">
-        <v>253.39946</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>253.39946</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>246</v>
+        <v>325</v>
       </c>
       <c r="B47" t="s">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="C47">
-        <v>850.82126000000005</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>850.82126000000005</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="B48" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="C48">
-        <v>138.14722</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>138.14722</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="B49" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="C49">
-        <v>114.16558000000001</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>114.16558000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>262</v>
+        <v>328</v>
       </c>
       <c r="B50" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="C50">
-        <v>915.26344200000005</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>915.26344200000005</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="B51" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="C51">
-        <v>39.098300000000002</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>39.098300000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="B52" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="C52">
-        <v>114.16558000000001</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>114.16558000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>263</v>
+        <v>331</v>
       </c>
       <c r="B53" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="C53">
-        <v>279.43673999999999</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>279.43673999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B54" t="s">
         <v>259</v>
       </c>
       <c r="C54">
-        <v>277.42086</v>
+        <v>339.57481999999999</v>
       </c>
       <c r="D54">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>277.42086</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+        <v>339.57481999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="B55" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="C55">
-        <v>130.18816000000001</v>
+        <v>398.66424000000001</v>
       </c>
       <c r="D55">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>130.18816000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+        <v>398.66424000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B56" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="C56">
-        <v>162.14060000000001</v>
+        <v>396.648359999999</v>
       </c>
       <c r="D56">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>162.14060000000001</v>
-      </c>
-      <c r="E56" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+        <v>396.648359999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>296</v>
+        <v>480</v>
       </c>
       <c r="B57" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="C57">
-        <v>132.20400000000001</v>
+        <v>633.04128000000003</v>
       </c>
       <c r="D57">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>132.20400000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+        <v>633.04128000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>278</v>
+        <v>481</v>
       </c>
       <c r="B58" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C58">
-        <v>24.305</v>
+        <v>661.09443999999996</v>
       </c>
       <c r="D58">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>24.305</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+        <v>661.09443999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>343</v>
+        <v>261</v>
       </c>
       <c r="B59" t="s">
-        <v>334</v>
+        <v>259</v>
       </c>
       <c r="C59">
-        <v>455.42403999999999</v>
+        <v>255.41533999999999</v>
       </c>
       <c r="D59">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>455.42403999999999</v>
-      </c>
-      <c r="E59" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+        <v>255.41533999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>279</v>
+        <v>482</v>
       </c>
       <c r="B60" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C60">
-        <v>54.938043999999998</v>
+        <v>253.39946</v>
       </c>
       <c r="D60">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>54.938043999999998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+        <v>253.39946</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>344</v>
+        <v>262</v>
       </c>
       <c r="B61" t="s">
-        <v>334</v>
+        <v>259</v>
       </c>
       <c r="C61">
-        <v>22.98977</v>
+        <v>915.26344200000005</v>
       </c>
       <c r="D61">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>22.98977</v>
-      </c>
-      <c r="E61" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+        <v>915.26344200000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="B62" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C62">
-        <v>662.41716199999996</v>
+        <v>279.43673999999999</v>
       </c>
       <c r="D62">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>662.41716199999996</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+        <v>279.43673999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>479</v>
+        <v>264</v>
       </c>
       <c r="B63" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C63">
-        <v>663.42510200000004</v>
+        <v>277.42086</v>
       </c>
       <c r="D63">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>663.42510200000004</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+        <v>277.42086</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="B64" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C64">
-        <v>740.38118299999996</v>
+        <v>283.46850000000001</v>
       </c>
       <c r="D64">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>740.38118299999996</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+        <v>283.46850000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>478</v>
+        <v>266</v>
       </c>
       <c r="B65" t="s">
-        <v>242</v>
-      </c>
-      <c r="C65" s="49">
-        <v>741.38912300000004</v>
+        <v>259</v>
+      </c>
+      <c r="C65">
+        <v>281.45262000000002</v>
       </c>
       <c r="D65">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>741.38912300000004</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+        <v>281.45262000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B66" t="s">
         <v>259</v>
       </c>
       <c r="C66">
-        <v>283.46850000000001</v>
+        <v>862.14885442176001</v>
       </c>
       <c r="D66">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>283.46850000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+        <v>862.14885442176001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B67" t="s">
         <v>259</v>
       </c>
       <c r="C67">
-        <v>281.45262000000002</v>
+        <v>786.16573442176002</v>
       </c>
       <c r="D67">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>281.45262000000002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+        <v>786.16573442176002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="B68" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="C68">
-        <v>810.70299999999997</v>
+        <v>744.08599442176001</v>
       </c>
       <c r="D68">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>810.70299999999997</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+        <v>744.08599442176001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
       <c r="B69" t="s">
-        <v>334</v>
+        <v>259</v>
       </c>
       <c r="C69">
-        <v>69581.537779999999</v>
+        <v>786.07881442175994</v>
       </c>
       <c r="D69">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>69581.537779999999</v>
-      </c>
-      <c r="E69" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+        <v>786.07881442175994</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B70" t="s">
         <v>259</v>
       </c>
       <c r="C70">
-        <v>862.14885442176001</v>
+        <v>885.51292863263996</v>
       </c>
       <c r="D70">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>862.14885442176001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+        <v>885.51292863263996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B71" t="s">
         <v>259</v>
       </c>
       <c r="C71">
-        <v>786.16573442176002</v>
+        <v>367.62797999999998</v>
       </c>
       <c r="D71">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>786.16573442176002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+        <v>367.62797999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B72" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C72">
-        <v>744.08599442176001</v>
+        <v>40.078000000000003</v>
       </c>
       <c r="D72">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>744.08599442176001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+        <v>40.078000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B73" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C73">
-        <v>148.18180000000001</v>
+        <v>63.545999999999999</v>
       </c>
       <c r="D73">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>148.18180000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+        <v>63.545999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B74" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C74">
-        <v>95.979301000000007</v>
+        <v>55.844999999999999</v>
       </c>
       <c r="D74">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>95.979301000000007</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+        <v>55.844999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>233</v>
+        <v>338</v>
+      </c>
+      <c r="B75" t="s">
+        <v>274</v>
       </c>
       <c r="C75">
-        <v>174.95126200000001</v>
+        <v>55.844999999999999</v>
       </c>
       <c r="D75">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>174.95126200000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+        <v>55.844999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="B76" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C76">
-        <v>97.115179999999995</v>
+        <v>39.098300000000002</v>
       </c>
       <c r="D76">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>97.115179999999995</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+        <v>39.098300000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B77" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C77">
-        <v>786.07881442175994</v>
+        <v>24.305</v>
       </c>
       <c r="D77">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>786.07881442175994</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+        <v>24.305</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>346</v>
+        <v>279</v>
       </c>
       <c r="B78" t="s">
-        <v>334</v>
+        <v>274</v>
       </c>
       <c r="C78">
-        <v>318.51510000000002</v>
+        <v>54.938043999999998</v>
       </c>
       <c r="D78">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>318.51510000000002</v>
-      </c>
-      <c r="E78" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+        <v>54.938043999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>347</v>
+        <v>280</v>
       </c>
       <c r="B79" t="s">
-        <v>334</v>
+        <v>274</v>
       </c>
       <c r="C79">
-        <v>90.167360000000002</v>
+        <v>65.38</v>
       </c>
       <c r="D79">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>90.167360000000002</v>
-      </c>
-      <c r="E79" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+        <v>65.38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
       <c r="B80" t="s">
-        <v>242</v>
+        <v>334</v>
       </c>
       <c r="C80">
-        <v>245.126</v>
+        <v>328.19800099999998</v>
       </c>
       <c r="D80">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>245.126</v>
+        <v>328.19800099999998</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B81" t="s">
         <v>334</v>
       </c>
       <c r="C81">
-        <v>795.22648000000004</v>
+        <v>144970.98955999999</v>
       </c>
       <c r="D81">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>795.22648000000004</v>
-      </c>
-      <c r="E81" t="s">
-        <v>341</v>
+        <v>144970.98955999999</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>250</v>
+        <v>337</v>
       </c>
       <c r="B82" t="s">
-        <v>242</v>
+        <v>334</v>
       </c>
       <c r="C82">
-        <v>375.35595999999998</v>
+        <v>65560.645239999998</v>
       </c>
       <c r="D82">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>375.35595999999998</v>
+        <v>65560.645239999998</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="B83" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="C83">
-        <v>88.085239999999999</v>
+        <v>306.31554</v>
       </c>
       <c r="D83">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>88.085239999999999</v>
+        <v>306.31554</v>
+      </c>
+      <c r="E83" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="B84" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="C84">
-        <v>96.062600000000003</v>
+        <v>455.42403999999999</v>
       </c>
       <c r="D84">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>96.062600000000003</v>
+        <v>455.42403999999999</v>
+      </c>
+      <c r="E84" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>251</v>
+        <v>344</v>
       </c>
       <c r="B85" t="s">
-        <v>242</v>
+        <v>334</v>
       </c>
       <c r="C85">
-        <v>148.26967999999999</v>
+        <v>22.98977</v>
       </c>
       <c r="D85">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>148.26967999999999</v>
+        <v>22.98977</v>
+      </c>
+      <c r="E85" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="B86" t="s">
-        <v>259</v>
+        <v>334</v>
       </c>
       <c r="C86">
-        <v>885.51292863263996</v>
+        <v>69581.537779999999</v>
       </c>
       <c r="D86">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>885.51292863263996</v>
+        <v>69581.537779999999</v>
+      </c>
+      <c r="E86" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>252</v>
+        <v>346</v>
       </c>
       <c r="B87" t="s">
-        <v>242</v>
+        <v>334</v>
       </c>
       <c r="C87">
-        <v>443.41334000000001</v>
+        <v>318.51510000000002</v>
       </c>
       <c r="D87">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>443.41334000000001</v>
+        <v>318.51510000000002</v>
+      </c>
+      <c r="E87" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>253</v>
+        <v>347</v>
       </c>
       <c r="B88" t="s">
-        <v>242</v>
+        <v>334</v>
       </c>
       <c r="C88">
-        <v>422.29056200000002</v>
+        <v>90.167360000000002</v>
       </c>
       <c r="D88">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>422.29056200000002</v>
+        <v>90.167360000000002</v>
+      </c>
+      <c r="E88" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="B89" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="C89">
-        <v>102.11181999999999</v>
+        <v>795.22648000000004</v>
       </c>
       <c r="D89">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>102.11181999999999</v>
+        <v>795.22648000000004</v>
+      </c>
+      <c r="E89" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B90" t="s">
-        <v>235</v>
+        <v>334</v>
       </c>
       <c r="C90">
-        <v>342.29647999999997</v>
+        <v>384.63765999999998</v>
       </c>
       <c r="D90">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>342.29647999999997</v>
+        <v>384.63765999999998</v>
       </c>
       <c r="E90" t="s">
         <v>341</v>
@@ -14172,428 +14178,422 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="B91" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>64359.575239999998</v>
       </c>
       <c r="D91">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
+        <v>64359.575239999998</v>
+      </c>
+      <c r="E91" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="B92" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>95.979301000000007</v>
       </c>
       <c r="D92">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
+        <v>95.979301000000007</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="B93" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>72.085840000000005</v>
       </c>
       <c r="D93">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
+        <v>72.085840000000005</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="B94" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>158.20156</v>
       </c>
       <c r="D94">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
+        <v>158.20156</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="B95" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>115.11058</v>
       </c>
       <c r="D95">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
+        <v>115.11058</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="B96" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>115.0874</v>
       </c>
       <c r="D96">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
+        <v>115.0874</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="B97" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>104.15084</v>
       </c>
       <c r="D97">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
+        <v>104.15084</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="B98" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>129.13715999999999</v>
       </c>
       <c r="D98">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
+        <v>129.13715999999999</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="B99" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>129.11398</v>
       </c>
       <c r="D99">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
+        <v>129.11398</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="B100" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>58.059260000000002</v>
       </c>
       <c r="D100">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
+        <v>58.059260000000002</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="B101" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>138.14722</v>
       </c>
       <c r="D101">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
+        <v>138.14722</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="B102" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>114.16558000000001</v>
       </c>
       <c r="D102">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
+        <v>114.16558000000001</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="B103" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>114.16558000000001</v>
       </c>
       <c r="D103">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
+        <v>114.16558000000001</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="B104" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>130.18816000000001</v>
       </c>
       <c r="D104">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
+        <v>130.18816000000001</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="B105" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>132.20400000000001</v>
       </c>
       <c r="D105">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
+        <v>132.20400000000001</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="B106" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>148.18180000000001</v>
       </c>
       <c r="D106">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
+        <v>148.18180000000001</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="B107" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>97.115179999999995</v>
       </c>
       <c r="D107">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
+        <v>97.115179999999995</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="B108" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>88.085239999999999</v>
       </c>
       <c r="D108">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
+        <v>88.085239999999999</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="B109" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>102.11181999999999</v>
       </c>
       <c r="D109">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
+        <v>102.11181999999999</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="B110" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>187.21784</v>
       </c>
       <c r="D110">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>0</v>
+        <v>187.21784</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B111" t="s">
         <v>284</v>
       </c>
       <c r="C111">
-        <v>187.21784</v>
+        <v>164.18119999999999</v>
       </c>
       <c r="D111">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>187.21784</v>
+        <v>164.18119999999999</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="B112" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C112">
-        <v>367.62797999999998</v>
+        <v>100.139</v>
       </c>
       <c r="D112">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>367.62797999999998</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+        <v>100.139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B113" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="C113">
-        <v>164.18119999999999</v>
+        <v>503.14926300000002</v>
       </c>
       <c r="D113">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>164.18119999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+        <v>328.19800099999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B114" t="s">
         <v>305</v>
       </c>
       <c r="C114">
-        <v>480.10932300000002</v>
+        <v>479.12456300000002</v>
       </c>
       <c r="D114">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>305.15806099999998</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+        <v>304.17330100000004</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B115" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="C115">
-        <v>100.139</v>
+        <v>519.14866300000006</v>
       </c>
       <c r="D115">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>100.139</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+        <v>344.19740100000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="B116" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="C116">
-        <v>65.38</v>
+        <v>480.10932300000002</v>
       </c>
       <c r="D116">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>65.38</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+        <v>305.15806099999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="B117" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="C117">
-        <v>384.63765999999998</v>
+        <v>96.062600000000003</v>
       </c>
       <c r="D117">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>384.63765999999998</v>
-      </c>
-      <c r="E117" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+        <v>96.062600000000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>351</v>
-      </c>
-      <c r="B118" t="s">
-        <v>334</v>
+        <v>233</v>
       </c>
       <c r="C118">
-        <v>64359.575239999998</v>
+        <v>174.95126200000001</v>
       </c>
       <c r="D118">
         <f>IF(IFERROR(MATCH(metaboliteInfo[[#This Row],[name w/o location]],{"atp","ctp","gtp","utp","datp","dctp","dgtp","dttp"},0),0)&gt;0,metaboliteInfo[[#This Row],[MW (g/mol)]]-174.951262,metaboliteInfo[[#This Row],[MW (g/mol)]])</f>
-        <v>64359.575239999998</v>
-      </c>
-      <c r="E118" t="s">
-        <v>341</v>
+        <v>174.95126200000001</v>
       </c>
     </row>
   </sheetData>
@@ -14612,7 +14612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5455B0F7-CD7B-1440-98EA-12626AC5D91D}">
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>

--- a/build_model/input/BIOMASS_RBA.xlsx
+++ b/build_model/input/BIOMASS_RBA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejm6426/Documents/scRBA/build_model/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9182E1-9930-264B-8122-C90E8ECA0601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96B042F-AB85-EC4F-B988-815A1525A204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19400" yWindow="0" windowWidth="19000" windowHeight="21600" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16020" yWindow="500" windowWidth="22380" windowHeight="19500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBABioRxns" sheetId="1" r:id="rId1"/>
@@ -82,6 +82,24 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C3CBE6C1-B68C-D247-BDA0-6F2E4D4CD51B}</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{C3CBE6C1-B68C-D247-BDA0-6F2E4D4CD51B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Calculated from sheet below</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
@@ -105,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="529">
   <si>
     <t>rxn_id</t>
   </si>
@@ -4167,6 +4185,132 @@
   </si>
   <si>
     <t xml:space="preserve">0.933442277567423 BIO-varbiom + 0.020050549978631 BIO-lipid + 0.002441292 BIO-dna + 0.025785748 BIO-metal + 0.004915119 BIO-cofactor + 0.003050712 BIO-so4 + 0.010314302 BIO-pi --&gt; </t>
+  </si>
+  <si>
+    <t>Protein synthesis (coefficients in gram per gDW) (Accounted for via dummy protein but used for MW calculations)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>alatrna_c</t>
+  </si>
+  <si>
+    <t>C3H6NO</t>
+  </si>
+  <si>
+    <t>argtrna_c</t>
+  </si>
+  <si>
+    <t>C6H14N4O</t>
+  </si>
+  <si>
+    <t>asntrna_c</t>
+  </si>
+  <si>
+    <t>C4H7N2O2</t>
+  </si>
+  <si>
+    <t>asptrna_c</t>
+  </si>
+  <si>
+    <t>C4H5NO3</t>
+  </si>
+  <si>
+    <t>cystrna_c</t>
+  </si>
+  <si>
+    <t>C3H6NOS</t>
+  </si>
+  <si>
+    <t>glntrna_c</t>
+  </si>
+  <si>
+    <t>C5H9N2O2</t>
+  </si>
+  <si>
+    <t>glutrna_c</t>
+  </si>
+  <si>
+    <t>C5H7NO3</t>
+  </si>
+  <si>
+    <t>glytrna_c</t>
+  </si>
+  <si>
+    <t>C2H4NO</t>
+  </si>
+  <si>
+    <t>histrna_c</t>
+  </si>
+  <si>
+    <t>C6H8N3O</t>
+  </si>
+  <si>
+    <t>iletrna_c</t>
+  </si>
+  <si>
+    <t>C6H12NO</t>
+  </si>
+  <si>
+    <t>leutrna_c</t>
+  </si>
+  <si>
+    <t>lystrna_c</t>
+  </si>
+  <si>
+    <t>C6H14N2O</t>
+  </si>
+  <si>
+    <t>mettrna_c</t>
+  </si>
+  <si>
+    <t>C5H10NOS</t>
+  </si>
+  <si>
+    <t>phetrna_c</t>
+  </si>
+  <si>
+    <t>C9H10NO</t>
+  </si>
+  <si>
+    <t>protrna_c</t>
+  </si>
+  <si>
+    <t>C5H7NO</t>
+  </si>
+  <si>
+    <t>sertrna_c</t>
+  </si>
+  <si>
+    <t>C3H6NO2</t>
+  </si>
+  <si>
+    <t>thrtrna_c</t>
+  </si>
+  <si>
+    <t>C4H8NO2</t>
+  </si>
+  <si>
+    <t>trptrna_c</t>
+  </si>
+  <si>
+    <t>C11H11N2O</t>
+  </si>
+  <si>
+    <t>tyrtrna_c</t>
+  </si>
+  <si>
+    <t>C9H10NO2</t>
+  </si>
+  <si>
+    <t>valtrna_c</t>
+  </si>
+  <si>
+    <t>C5H10NO</t>
+  </si>
+  <si>
+    <t>GSM stoichiometric coefficients:</t>
   </si>
 </sst>
 </file>
@@ -4181,7 +4325,7 @@
     <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="169" formatCode="0.000000000000000%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4257,8 +4401,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4331,8 +4481,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4355,14 +4511,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4522,11 +4759,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FA81D386-83CA-2644-8497-75AC01D4946D}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{2758787E-00E6-2749-AF85-401C19BF14C0}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="28">
@@ -4854,6 +5102,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Eric Mooney" id="{546D743F-4A9A-5B4E-AA42-270DDAA6CCC7}" userId="748a42cd58a083a8" providerId="Windows Live"/>
   <person displayName="Mooney, Eric James" id="{51CB5DC0-7941-6F46-AD5C-9798DD0A314C}" userId="S::ejm6426@psu.edu::459e8eda-b576-4c3c-9900-d76ade15b4ba" providerId="AD"/>
 </personList>
 </file>
@@ -5289,12 +5538,20 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A3" dT="2024-03-18T21:25:50.00" personId="{546D743F-4A9A-5B4E-AA42-270DDAA6CCC7}" id="{C3CBE6C1-B68C-D247-BDA0-6F2E4D4CD51B}">
+    <text>Calculated from sheet below</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6022,7 +6279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F168A7-6B4E-494D-BA75-6693E50B2433}">
   <dimension ref="A1:AG95"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
@@ -12793,7 +13050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042FF932-C48A-D446-979E-E5F082761A47}">
   <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="A71" sqref="A54:D71"/>
     </sheetView>
   </sheetViews>
@@ -14609,11 +14866,2689 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5455B0F7-CD7B-1440-98EA-12626AC5D91D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5455B0F7-CD7B-1440-98EA-12626AC5D91D}">
+  <dimension ref="A1:K135"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" customWidth="1"/>
+    <col min="1015" max="1024" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="98" t="s">
+        <v>528</v>
+      </c>
+      <c r="B3" t="str" cm="1">
+        <f t="array" ref="B3">_xlfn.LET(_xlpm.r,C37:D135,_xlpm.ppi,-SUM(D75:D78,D47:D50),_xlpm.gam,_xlfn.HSTACK(SUBSTITUTE(B16:B20,"MET-",""),SIGN(C16:C20)*J16),_xlpm.mets,_xlfn._xlws.FILTER(_xlpm.r,(_xlfn.CHOOSECOLS(_xlpm.r,1)&lt;&gt;"")*(_xlfn.CHOOSECOLS(_xlpm.r,1)&lt;&gt;"Metabolite")),_xlpm.gamonly,_xlfn._xlws.FILTER(_xlpm.gam,ISNA(_xlfn.XLOOKUP(_xlfn.CHOOSECOLS(_xlpm.gam,1),_xlfn.CHOOSECOLS(_xlpm.mets,1),_xlfn.CHOOSECOLS(_xlpm.mets,2))),""),_xlpm.trna,SUBSTITUTE(_xlfn._xlws.FILTER(_xlfn.HSTACK("trna"&amp;_xlfn.CHOOSECOLS(_xlpm.mets,1),-_xlfn.CHOOSECOLS(_xlpm.mets,2)),RIGHT(_xlfn.CHOOSECOLS(_xlpm.mets,1),6)="trna_c"),"trna_","_"),_xlpm.pregam,_xlfn.VSTACK(_xlfn.HSTACK(_xlfn.CHOOSECOLS(_xlpm.mets,1),_xlfn.CHOOSECOLS(_xlpm.mets,2)+_xlfn.XLOOKUP(_xlfn.CHOOSECOLS(_xlpm.mets,1),SUBSTITUTE(_xlfn.CHOOSECOLS(_xlpm.gam,1),"MET-",""),_xlfn.CHOOSECOLS(_xlpm.gam,2),0)),_xlpm.trna,_xlpm.gamonly,_xlfn.HSTACK("ppi_c",_xlpm.ppi)),_xlpm.all,_xlfn._xlws.SORT(_xlpm.pregam),_xlfn.TEXTJOIN(","&amp;CHAR(10),TRUE,CHAR(34)&amp;_xlfn.CHOOSECOLS(_xlpm.all,1)&amp;CHAR(34)&amp;":"&amp;_xlfn.CHOOSECOLS(_xlpm.all,2)))</f>
+        <v>"13BDglucan_en":-0.968205660560579,
+"16BDglucan_en":-0.254790963305416,
+"adp_c":81.26,
+"alatrna_c":-0.370407,
+"argtrna_c":-0.146343,
+"asntrna_c":-0.175915,
+"asptrna_c":-0.175915,
+"atp_c":-81.3020108491332,
+"ca2_c":-0.00128579410545924,
+"chtn_c":-0.0228907502852135,
+"coa_c":-0.00019,
+"ctp_c":-0.0408232066260222,
+"cu2_c":-0.000113531738617747,
+"cystrna_c":-0.005308,
+"datp_c":-0.0038897789986954,
+"dctp_c":-0.00262576371268718,
+"dgtp_c":-0.00262576371268718,
+"dttp_c":-0.0038897789986954,
+"ergst_c":-0.0328598938347088,
+"ergst161_rm":-0.00615466318335084,
+"ergst181_rm":-0.00225839920385258,
+"fad_c":-0.00001,
+"fe2_c":-0.000664393955308241,
+"glntrna_c":-0.293444,
+"glutrna_c":-0.293444,
+"glycogen_c":-0.466785899918391,
+"glytrna_c":-0.337044,
+"gtp_c":-0.0420108491332355,
+"h_c":81.26,
+"h2o_c":-81.26,
+"hdca_c":-0.000346114820513805,
+"hdcea_c":-0.00101485809872084,
+"hemeA_c":-0.000001,
+"histrna_c":-0.073171,
+"iletrna_c":-0.223306,
+"ipc_g":-0.00475377693945438,
+"k_c":-0.603649819062125,
+"leutrna_c":-0.30368,
+"lystrna_c":-0.249086,
+"mannan_c":-0.62393026814313,
+"mettrna_c":-0.04322,
+"mg2_c":-0.0636067346125432,
+"mn2_c":-9.38003110532938E-05,
+"nad_c":-0.00265,
+"nadh_c":-0.00015,
+"nadp_c":-0.00057,
+"nadph_c":-0.0027,
+"ocdca_c":-9.64177000002742E-05,
+"ocdcea_c":-0.00037207343205234,
+"pail_c":-0.00854161932053711,
+"pc_c":-0.0318709943475266,
+"pe_c":-0.00856510568335769,
+"phetrna_c":-0.142552,
+"pi_c":81.1543450928121,
+"ppi_c":0.192581124769835,
+"protrna_c":-0.159991,
+"ps_c":-0.00735617606027733,
+"ribflv_c":-0.00099,
+"sertrna_c":-0.202075,
+"so4_c":-0.0312229450439893,
+"tag_c":-0.00847610472951128,
+"thf_c":-0.000063,
+"thmpp_c":-0.000001,
+"thrtrna_c":-0.211174,
+"tre_c":-0.0233977684161514,
+"trnaala_c":0.370407,
+"trnaarg_c":0.146343,
+"trnaasn_c":0.175915,
+"trnaasp_c":0.175915,
+"trnacys_c":0.005308,
+"trnagln_c":0.293444,
+"trnaglu_c":0.293444,
+"trnagly_c":0.337044,
+"trnahis_c":0.073171,
+"trnaile_c":0.223306,
+"trnaleu_c":0.30368,
+"trnalys_c":0.249086,
+"trnamet_c":0.04322,
+"trnaphe_c":0.142552,
+"trnapro_c":0.159991,
+"trnaser_c":0.202075,
+"trnathr_c":0.211174,
+"trnatrp_c":0.024643,
+"trnatyr_c":0.074309,
+"trnaval_c":0.2779,
+"trptrna_c":-0.024643,
+"tyrtrna_c":-0.074309,
+"utp_c":-0.0547051344545771,
+"valtrna_c":-0.2779,
+"zn2_c":-0.00157638593326997</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="str">
+        <f>_xlfn.CONCAT(E8:E14) &amp; _xlfn.CONCAT(E16:E20)</f>
+        <v>0.933442277567423 BIO-varbiom + 0.020050549978631 BIO-lipid + 0.002441292 BIO-dna + 0.025785748 BIO-metal + 0.004915119 BIO-cofactor + 0.003050712 BIO-so4 + 0.010314302 BIO-pi + 81.26 MET-atp_c + 81.26 MET-h2o_c --&gt; 81.26 MET-adp_c + 81.26 MET-pi_c + 81.26 MET-h_c</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-0.93344227756742304</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" ref="E8:E14" si="0">-C8 &amp; " " &amp; B8 &amp; " +" &amp; " "</f>
+        <v xml:space="preserve">0.933442277567423 BIO-varbiom + </v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="9">
+        <v>-2.0050549978631E-2</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.020050549978631 BIO-lipid + </v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="12">
+        <v>-2.4412919999999999E-3</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.002441292 BIO-dna + </v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="15">
+        <v>-2.5785748000000001E-2</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.025785748 BIO-metal + </v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="18">
+        <v>-4.9151189999999999E-3</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.004915119 BIO-cofactor + </v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="21">
+        <v>-3.0507120000000001E-3</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.003050712 BIO-so4 + </v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="24">
+        <v>-1.0314301999999999E-2</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.010314302 BIO-pi + </v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14">
+        <v>10.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B16" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="27">
+        <f>-J16</f>
+        <v>-81.260000000000005</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="str">
+        <f>-C16 &amp; " " &amp; B16 &amp; " +" &amp; " "</f>
+        <v xml:space="preserve">81.26 MET-atp_c + </v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="29">
+        <v>92</v>
+      </c>
+      <c r="J16" s="29">
+        <f>I16-$I$14</f>
+        <v>81.260000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="27">
+        <f>C16</f>
+        <v>-81.260000000000005</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" t="str">
+        <f>-C17 &amp; " " &amp; B17 &amp; " --&gt; "</f>
+        <v xml:space="preserve">81.26 MET-h2o_c --&gt; </v>
+      </c>
+      <c r="H17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="29">
+        <v>46.9</v>
+      </c>
+      <c r="J17" s="29">
+        <f>I17-$I$14</f>
+        <v>36.159999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="27">
+        <f>-C16</f>
+        <v>81.260000000000005</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" t="str">
+        <f>C18 &amp; " " &amp; B18 &amp; " +" &amp; " "</f>
+        <v xml:space="preserve">81.26 MET-adp_c + </v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="29">
+        <v>76</v>
+      </c>
+      <c r="J18" s="29">
+        <f>I18-$I$14</f>
+        <v>65.260000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="27">
+        <f>-C16</f>
+        <v>81.260000000000005</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" t="str">
+        <f>C19 &amp; " " &amp; B19 &amp; " +" &amp; " "</f>
+        <v xml:space="preserve">81.26 MET-pi_c + </v>
+      </c>
+      <c r="H19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="29">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="J19" s="29">
+        <f>I19-$I$14</f>
+        <v>125.96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="27">
+        <f>-C16</f>
+        <v>81.260000000000005</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" t="str">
+        <f>C20 &amp; " " &amp; B20</f>
+        <v>81.26 MET-h_c</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="str">
+        <f>"BIO-prot --&gt; " &amp; $B$8</f>
+        <v>BIO-prot --&gt; BIO-varbiom</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="str">
+        <f>"BIO-rna --&gt; " &amp; $B$8</f>
+        <v>BIO-rna --&gt; BIO-varbiom</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="str">
+        <f>"BIO-carb --&gt; " &amp; $B$8</f>
+        <v>BIO-carb --&gt; BIO-varbiom</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="str">
+        <f>_xlfn.CONCAT(H37:H42) &amp; " --&gt; BIO-carb"</f>
+        <v>0.275869 BIO-mannan_c + 0.385281 BIO-13BDglucan_en + 0.10139 BIO-16BDglucan_en + 0.011415 BIO-chtn_c + 0.206388 BIO-glycogen_c + 0.019656 BIO-tre_c --&gt; BIO-carb</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" ref="B37:B42" si="1">"MET-" &amp; C37 &amp; " --&gt; " &amp; ROUND(F37/1000,6) &amp; " BIO-" &amp;C37</f>
+        <v>MET-mannan_c --&gt; 0.180156 BIO-mannan_c</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="31">
+        <v>-0.62393026814313002</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="30">
+        <v>180.15588</v>
+      </c>
+      <c r="G37" s="32">
+        <f t="shared" ref="G37:G42" si="2">F37*D37/SUMPRODUCT($D$37:$D$42,$F$37:$F$42)</f>
+        <v>0.27586919179839525</v>
+      </c>
+      <c r="H37" t="str">
+        <f>ROUND(G37,6) &amp; " BIO-" &amp; C37 &amp; " + "</f>
+        <v xml:space="preserve">0.275869 BIO-mannan_c + </v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="1"/>
+        <v>MET-13BDglucan_en --&gt; 0.162141 BIO-13BDglucan_en</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="31">
+        <v>-0.968205660560579</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="30">
+        <v>162.14060000000001</v>
+      </c>
+      <c r="G38" s="32">
+        <f t="shared" si="2"/>
+        <v>0.38528144999383934</v>
+      </c>
+      <c r="H38" t="str">
+        <f>ROUND(G38,6) &amp; " BIO-" &amp; C38 &amp; " + "</f>
+        <v xml:space="preserve">0.385281 BIO-13BDglucan_en + </v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="1"/>
+        <v>MET-16BDglucan_en --&gt; 0.162141 BIO-16BDglucan_en</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="31">
+        <v>-0.25479096330541601</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="30">
+        <v>162.14060000000001</v>
+      </c>
+      <c r="G39" s="32">
+        <f t="shared" si="2"/>
+        <v>0.10138985526153685</v>
+      </c>
+      <c r="H39" t="str">
+        <f>ROUND(G39,6) &amp; " BIO-" &amp; C39 &amp; " + "</f>
+        <v xml:space="preserve">0.10139 BIO-16BDglucan_en + </v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="1"/>
+        <v>MET-chtn_c --&gt; 0.203193 BIO-chtn_c</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="31">
+        <v>-2.28907502852135E-2</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="30">
+        <v>203.19252</v>
+      </c>
+      <c r="G40" s="32">
+        <f t="shared" si="2"/>
+        <v>1.1415276902002594E-2</v>
+      </c>
+      <c r="H40" t="str">
+        <f>ROUND(G40,6) &amp; " BIO-" &amp; C40 &amp; " + "</f>
+        <v xml:space="preserve">0.011415 BIO-chtn_c + </v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="1"/>
+        <v>MET-glycogen_c --&gt; 0.180156 BIO-glycogen_c</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="31">
+        <v>-0.46678589991839098</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="30">
+        <v>180.15588</v>
+      </c>
+      <c r="G41" s="32">
+        <f t="shared" si="2"/>
+        <v>0.20638820638820618</v>
+      </c>
+      <c r="H41" t="str">
+        <f>ROUND(G41,6) &amp; " BIO-" &amp; C41 &amp; " + "</f>
+        <v xml:space="preserve">0.206388 BIO-glycogen_c + </v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="1"/>
+        <v>MET-tre_c --&gt; 0.342296 BIO-tre_c</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="31">
+        <v>-2.3397768416151401E-2</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" s="30">
+        <v>342.29647999999997</v>
+      </c>
+      <c r="G42" s="32">
+        <f t="shared" si="2"/>
+        <v>1.965601965601969E-2</v>
+      </c>
+      <c r="H42" t="str">
+        <f>ROUND(G42,6) &amp; " BIO-" &amp; C42</f>
+        <v>0.019656 BIO-tre_c</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="str">
+        <f>"MET-" &amp; C47 &amp; " --&gt; " &amp; ROUND(I47/1000,6) &amp; " BIO-" &amp; C47 &amp; " + MET-ppi_c"</f>
+        <v>MET-atp_c --&gt; 0.328198 BIO-atp_c + MET-ppi_c</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="34">
+        <v>-4.2010849133235502E-2</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47" s="35">
+        <v>503.14926300000002</v>
+      </c>
+      <c r="G47" s="36">
+        <f>D47 * I47 / SUMPRODUCT($D$47:$D$50, $I$47:$I$50)</f>
+        <v>0.24037884466987722</v>
+      </c>
+      <c r="H47" t="str">
+        <f>ROUND(G47,6) &amp; " BIO-" &amp; C47 &amp; " + "</f>
+        <v xml:space="preserve">0.240379 BIO-atp_c + </v>
+      </c>
+      <c r="I47" s="37">
+        <f>F47 - 174.951262</f>
+        <v>328.19800099999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="str">
+        <f>"MET-" &amp; C48 &amp; " --&gt; " &amp; ROUND(I48/1000,6) &amp; " BIO-" &amp; C48 &amp; " + MET-ppi_c"</f>
+        <v>MET-ctp_c --&gt; 0.304173 BIO-ctp_c + MET-ppi_c</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="34">
+        <v>-4.08232066260222E-2</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="35">
+        <v>479.12456300000002</v>
+      </c>
+      <c r="G48" s="36">
+        <f>D48 * I48 / SUMPRODUCT($D$47:$D$50, $I$47:$I$50)</f>
+        <v>0.21648462535782112</v>
+      </c>
+      <c r="H48" t="str">
+        <f>ROUND(G48,6) &amp; " BIO-" &amp; C48 &amp; " + "</f>
+        <v xml:space="preserve">0.216485 BIO-ctp_c + </v>
+      </c>
+      <c r="I48" s="37">
+        <f>F48 - 174.951262</f>
+        <v>304.17330100000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="str">
+        <f>"MET-" &amp; C49 &amp; " --&gt; " &amp; ROUND(I49/1000,6) &amp; " BIO-" &amp; C49 &amp; " + MET-ppi_c"</f>
+        <v>MET-gtp_c --&gt; 0.344197 BIO-gtp_c + MET-ppi_c</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="34">
+        <v>-4.2010849133235502E-2</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" s="35">
+        <v>519.14866300000006</v>
+      </c>
+      <c r="G49" s="36">
+        <f>D49 * I49 / SUMPRODUCT($D$47:$D$50, $I$47:$I$50)</f>
+        <v>0.25209712837572845</v>
+      </c>
+      <c r="H49" t="str">
+        <f>ROUND(G49,6) &amp; " BIO-" &amp; C49 &amp; " + "</f>
+        <v xml:space="preserve">0.252097 BIO-gtp_c + </v>
+      </c>
+      <c r="I49" s="37">
+        <f>F49 - 174.951262</f>
+        <v>344.19740100000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="str">
+        <f>"MET-" &amp; C50 &amp; " --&gt; " &amp; ROUND(I50/1000,6) &amp; " BIO-" &amp; C50 &amp; " + MET-ppi_c"</f>
+        <v>MET-utp_c --&gt; 0.305158 BIO-utp_c + MET-ppi_c</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="34">
+        <v>-5.4705134454577101E-2</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" s="35">
+        <v>480.10932300000002</v>
+      </c>
+      <c r="G50" s="36">
+        <f>D50 * I50 / SUMPRODUCT($D$47:$D$50, $I$47:$I$50)</f>
+        <v>0.29103940159657327</v>
+      </c>
+      <c r="H50" t="str">
+        <f>ROUND(G50,6) &amp; " BIO-" &amp; C50</f>
+        <v>0.291039 BIO-utp_c</v>
+      </c>
+      <c r="I50" s="37">
+        <f>F50 - 174.951262</f>
+        <v>305.15806099999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="str">
+        <f>_xlfn.CONCAT(H47:H50) &amp; " --&gt; BIO-trna"</f>
+        <v>0.240379 BIO-atp_c + 0.216485 BIO-ctp_c + 0.252097 BIO-gtp_c + 0.291039 BIO-utp_c --&gt; BIO-trna</v>
+      </c>
+      <c r="G51" s="38"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="str">
+        <f>_xlfn.CONCAT(H47:H50) &amp; " --&gt; BIO-mrna"</f>
+        <v>0.240379 BIO-atp_c + 0.216485 BIO-ctp_c + 0.252097 BIO-gtp_c + 0.291039 BIO-utp_c --&gt; BIO-mrna</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" t="str">
+        <f>_xlfn.CONCAT(H47:H50) &amp; " --&gt; BIO-rrna"</f>
+        <v>0.240379 BIO-atp_c + 0.216485 BIO-ctp_c + 0.252097 BIO-gtp_c + 0.291039 BIO-utp_c --&gt; BIO-rrna</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" t="str">
+        <f>_xlfn.CONCAT(H58:H70) &amp; " --&gt; BIO-lipid"</f>
+        <v>0.053728 BIO-ergst161_rm + 0.020589 BIO-ergst181_rm + 0.179737 BIO-ergst_c + 0.001219 BIO-hdca_c + 0.003546 BIO-hdcea_c + 0.000377 BIO-ocdca_c + 0.001444 BIO-ocdcea_c + 0.096746 BIO-pail_c + 0.327591 BIO-pc_c + 0.083068 BIO-pe_c + 0.075603 BIO-ps_c + 0.096351 BIO-tag_c + 0.06 BIO-ipc_g --&gt; BIO-lipid</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" ref="B58:B70" si="3">"MET-" &amp; C58 &amp; " --&gt; " &amp; ROUND(F58/1000,6) &amp; " BIO-" &amp;C58</f>
+        <v>MET-ergst161_rm --&gt; 0.633041 BIO-ergst161_rm</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="39">
+        <v>-6.15466318335084E-3</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" s="40">
+        <v>633.04128000000003</v>
+      </c>
+      <c r="G58" s="41">
+        <f t="shared" ref="G58:G70" si="4">F58*D58/SUMPRODUCT($D$58:$D$70,$F$58:$F$70)</f>
+        <v>5.3728245241183956E-2</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" ref="H58:H69" si="5">ROUND(G58,6) &amp; " BIO-" &amp; C58 &amp; " + "</f>
+        <v xml:space="preserve">0.053728 BIO-ergst161_rm + </v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="3"/>
+        <v>MET-ergst181_rm --&gt; 0.661094 BIO-ergst181_rm</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="39">
+        <v>-2.2583992038525801E-3</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" s="40">
+        <v>661.09443999999996</v>
+      </c>
+      <c r="G59" s="41">
+        <f t="shared" si="4"/>
+        <v>2.0588777090519761E-2</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">0.020589 BIO-ergst181_rm + </v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="3"/>
+        <v>MET-ergst_c --&gt; 0.396648 BIO-ergst_c</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="39">
+        <v>-3.2859893834708803E-2</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" s="40">
+        <v>396.64836000000003</v>
+      </c>
+      <c r="G60" s="41">
+        <f t="shared" si="4"/>
+        <v>0.17973727535036441</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">0.179737 BIO-ergst_c + </v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="3"/>
+        <v>MET-hdca_c --&gt; 0.255415 BIO-hdca_c</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="39">
+        <v>-3.4611482051380503E-4</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F61" s="40">
+        <v>255.41533999999999</v>
+      </c>
+      <c r="G61" s="41">
+        <f t="shared" si="4"/>
+        <v>1.2190836537722593E-3</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">0.001219 BIO-hdca_c + </v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="3"/>
+        <v>MET-hdcea_c --&gt; 0.253399 BIO-hdcea_c</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" s="39">
+        <v>-1.0148580987208401E-3</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" s="40">
+        <v>253.39946</v>
+      </c>
+      <c r="G62" s="41">
+        <f t="shared" si="4"/>
+        <v>3.5463152680111176E-3</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">0.003546 BIO-hdcea_c + </v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="3"/>
+        <v>MET-ocdca_c --&gt; 0.283469 BIO-ocdca_c</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63" s="39">
+        <v>-9.6417700000274198E-5</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F63" s="40">
+        <v>283.46850000000001</v>
+      </c>
+      <c r="G63" s="41">
+        <f t="shared" si="4"/>
+        <v>3.7690153652322636E-4</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">0.000377 BIO-ocdca_c + </v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="3"/>
+        <v>MET-ocdcea_c --&gt; 0.281453 BIO-ocdcea_c</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="39">
+        <v>-3.7207343205233998E-4</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F64" s="40">
+        <v>281.45262000000002</v>
+      </c>
+      <c r="G64" s="41">
+        <f t="shared" si="4"/>
+        <v>1.4441100521992063E-3</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">0.001444 BIO-ocdcea_c + </v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="3"/>
+        <v>MET-pail_c --&gt; 0.821351 BIO-pail_c</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" s="39">
+        <v>-8.5416193205371093E-3</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F65" s="40">
+        <v>821.35056941845403</v>
+      </c>
+      <c r="G65" s="41">
+        <f t="shared" si="4"/>
+        <v>9.6746465937940604E-2</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">0.096746 BIO-pail_c + </v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="3"/>
+        <v>MET-pc_c --&gt; 0.745367 BIO-pc_c</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="39">
+        <v>-3.1870994347526597E-2</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F66" s="40">
+        <v>745.36744941845404</v>
+      </c>
+      <c r="G66" s="41">
+        <f t="shared" si="4"/>
+        <v>0.32759130887220633</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">0.327591 BIO-pc_c + </v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="3"/>
+        <v>MET-pe_c --&gt; 0.703288 BIO-pe_c</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" s="39">
+        <v>-8.5651056833576898E-3</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F67" s="40">
+        <v>703.28770941845403</v>
+      </c>
+      <c r="G67" s="41">
+        <f t="shared" si="4"/>
+        <v>8.306768144883965E-2</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">0.083068 BIO-pe_c + </v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="3"/>
+        <v>MET-ps_c --&gt; 0.745281 BIO-ps_c</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" s="39">
+        <v>-7.3561760602773299E-3</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F68" s="40">
+        <v>745.28052941845397</v>
+      </c>
+      <c r="G68" s="41">
+        <f t="shared" si="4"/>
+        <v>7.5602860075155043E-2</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">0.075603 BIO-ps_c + </v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="3"/>
+        <v>MET-tag_c --&gt; 0.824316 BIO-tag_c</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69" s="39">
+        <v>-8.4761047295112794E-3</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" s="40">
+        <v>824.31550112768105</v>
+      </c>
+      <c r="G69" s="41">
+        <f t="shared" si="4"/>
+        <v>9.6350975473284264E-2</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">0.096351 BIO-tag_c + </v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="3"/>
+        <v>MET-ipc_g --&gt; 0.915263 BIO-ipc_g</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" s="39">
+        <v>-4.7537769394543801E-3</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F70" s="40">
+        <v>915.26344200000005</v>
+      </c>
+      <c r="G70" s="41">
+        <f t="shared" si="4"/>
+        <v>6.0000000000000039E-2</v>
+      </c>
+      <c r="H70" t="str">
+        <f>ROUND(G70,6) &amp; " BIO-" &amp; C70</f>
+        <v>0.06 BIO-ipc_g</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" t="str">
+        <f>_xlfn.CONCAT(H75:H78) &amp; " --&gt; BIO-dna"</f>
+        <v>0.302676 BIO-datp_c + 0.188596 BIO-dctp_c + 0.21479 BIO-dgtp_c + 0.293938 BIO-dttp_c --&gt; BIO-dna</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" t="str">
+        <f>"MET-" &amp; C75 &amp; " --&gt; " &amp; ROUND(I75/1000,6) &amp; " BIO-" &amp; C75 &amp; " + MET-ppi_c"</f>
+        <v>MET-datp_c --&gt; 0.312199 BIO-datp_c + MET-ppi_c</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" s="42">
+        <v>-3.8897789986953998E-3</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F75" s="43">
+        <v>487.14986299999998</v>
+      </c>
+      <c r="G75" s="44">
+        <f>D75 * I75 / SUMPRODUCT($D$75:$D$78, $I$75:$I$78)</f>
+        <v>0.30267619979510973</v>
+      </c>
+      <c r="H75" t="str">
+        <f>ROUND(G75,6) &amp; " BIO-" &amp; C75 &amp; " + "</f>
+        <v xml:space="preserve">0.302676 BIO-datp_c + </v>
+      </c>
+      <c r="I75" s="37">
+        <f>F75 - 174.951262</f>
+        <v>312.19860099999994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" t="str">
+        <f>"MET-" &amp; C76 &amp; " --&gt; " &amp; ROUND(I76/1000,6) &amp; " BIO-" &amp; C76 &amp; " + MET-ppi_c"</f>
+        <v>MET-dctp_c --&gt; 0.288174 BIO-dctp_c + MET-ppi_c</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D76" s="42">
+        <v>-2.6257637126871798E-3</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F76" s="43">
+        <v>463.12516299999999</v>
+      </c>
+      <c r="G76" s="44">
+        <f>D76 * I76 / SUMPRODUCT($D$75:$D$78, $I$75:$I$78)</f>
+        <v>0.18859608824416774</v>
+      </c>
+      <c r="H76" t="str">
+        <f>ROUND(G76,6) &amp; " BIO-" &amp; C76 &amp; " + "</f>
+        <v xml:space="preserve">0.188596 BIO-dctp_c + </v>
+      </c>
+      <c r="I76" s="37">
+        <f>F76 - 174.951262</f>
+        <v>288.173901</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" t="str">
+        <f>"MET-" &amp; C77 &amp; " --&gt; " &amp; ROUND(I77/1000,6) &amp; " BIO-" &amp; C77 &amp; " + MET-ppi_c"</f>
+        <v>MET-dgtp_c --&gt; 0.328198 BIO-dgtp_c + MET-ppi_c</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D77" s="42">
+        <v>-2.6257637126871798E-3</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F77" s="43">
+        <v>503.14926300000002</v>
+      </c>
+      <c r="G77" s="44">
+        <f>D77 * I77 / SUMPRODUCT($D$75:$D$78, $I$75:$I$78)</f>
+        <v>0.21478995475775386</v>
+      </c>
+      <c r="H77" t="str">
+        <f>ROUND(G77,6) &amp; " BIO-" &amp; C77 &amp; " + "</f>
+        <v xml:space="preserve">0.21479 BIO-dgtp_c + </v>
+      </c>
+      <c r="I77" s="37">
+        <f>F77 - 174.951262</f>
+        <v>328.19800099999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" t="str">
+        <f>"MET-" &amp; C78 &amp; " --&gt; " &amp; ROUND(I78/1000,6) &amp; " BIO-" &amp; C78 &amp; " + MET-ppi_c"</f>
+        <v>MET-dttp_c --&gt; 0.303185 BIO-dttp_c + MET-ppi_c</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D78" s="42">
+        <v>-3.8897789986953998E-3</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F78" s="43">
+        <v>478.136503</v>
+      </c>
+      <c r="G78" s="44">
+        <f>D78 * I78 / SUMPRODUCT($D$75:$D$78, $I$75:$I$78)</f>
+        <v>0.29393775720296877</v>
+      </c>
+      <c r="H78" t="str">
+        <f>ROUND(G78,6) &amp; " BIO-" &amp; C78</f>
+        <v>0.293938 BIO-dttp_c</v>
+      </c>
+      <c r="I78" s="37">
+        <f>F78 - 174.951262</f>
+        <v>303.18524100000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G79" s="38"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" t="str">
+        <f>_xlfn.CONCAT(H83:H89) &amp; " --&gt; BIO-metal"</f>
+        <v>0.002033 BIO-ca2_c + 0.000285 BIO-cu2_c + 0.001464 BIO-fe2_c + 0.93097 BIO-k_c + 0.060981 BIO-mg2_c + 0.000203 BIO-mn2_c + 0.004065 BIO-zn2_c --&gt; BIO-metal</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" ref="B83:B89" si="6">"MET-" &amp; C83 &amp; " --&gt; " &amp; ROUND(F83/1000,6) &amp; " BIO-" &amp;C83</f>
+        <v>MET-ca2_c --&gt; 0.040078 BIO-ca2_c</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D83" s="45">
+        <v>-1.2857941054592399E-3</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" s="46">
+        <v>40.078000000000003</v>
+      </c>
+      <c r="G83" s="47">
+        <f t="shared" ref="G83:G89" si="7">F83*D83/SUMPRODUCT($D$83:$D$89,$F$83:$F$89)</f>
+        <v>2.0326855841938385E-3</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" ref="H83:H88" si="8">ROUND(G83,6) &amp; " BIO-" &amp; C83 &amp; " + "</f>
+        <v xml:space="preserve">0.002033 BIO-ca2_c + </v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="6"/>
+        <v>MET-cu2_c --&gt; 0.063546 BIO-cu2_c</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" s="45">
+        <v>-1.13531738617747E-4</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F84" s="46">
+        <v>63.545999999999999</v>
+      </c>
+      <c r="G84" s="47">
+        <f t="shared" si="7"/>
+        <v>2.8457598178713701E-4</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">0.000285 BIO-cu2_c + </v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="6"/>
+        <v>MET-fe2_c --&gt; 0.055845 BIO-fe2_c</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85" s="45">
+        <v>-6.6439395530824103E-4</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F85" s="46">
+        <v>55.844999999999999</v>
+      </c>
+      <c r="G85" s="47">
+        <f t="shared" si="7"/>
+        <v>1.4635336206195644E-3</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">0.001464 BIO-fe2_c + </v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="6"/>
+        <v>MET-k_c --&gt; 0.039098 BIO-k_c</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D86" s="45">
+        <v>-0.603649819062125</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F86" s="46">
+        <v>39.098300000000002</v>
+      </c>
+      <c r="G86" s="47">
+        <f t="shared" si="7"/>
+        <v>0.93096999756077725</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">0.93097 BIO-k_c + </v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="6"/>
+        <v>MET-mg2_c --&gt; 0.024305 BIO-mg2_c</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87" s="45">
+        <v>-6.3606734612543195E-2</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F87" s="46">
+        <v>24.305</v>
+      </c>
+      <c r="G87" s="47">
+        <f t="shared" si="7"/>
+        <v>6.0980567525815141E-2</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">0.060981 BIO-mg2_c + </v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="6"/>
+        <v>MET-mn2_c --&gt; 0.054938 BIO-mn2_c</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D88" s="45">
+        <v>-9.3800311053293802E-5</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F88" s="46">
+        <v>54.938043999999998</v>
+      </c>
+      <c r="G88" s="47">
+        <f t="shared" si="7"/>
+        <v>2.0326855841938381E-4</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">0.000203 BIO-mn2_c + </v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="6"/>
+        <v>MET-zn2_c --&gt; 0.06538 BIO-zn2_c</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D89" s="45">
+        <v>-1.57638593326997E-3</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F89" s="46">
+        <v>65.38</v>
+      </c>
+      <c r="G89" s="47">
+        <f t="shared" si="7"/>
+        <v>4.0653711683876683E-3</v>
+      </c>
+      <c r="H89" t="str">
+        <f>ROUND(G89,6) &amp; " BIO-" &amp; C89</f>
+        <v>0.004065 BIO-zn2_c</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" t="str">
+        <f>_xlfn.CONCAT(H94:H103) &amp; " --&gt; BIO-cofactor"</f>
+        <v>0.030019 BIO-coa_c + 0.001619 BIO-fad_c + 0.000176 BIO-hemeA_c + 0.363258 BIO-nad_c + 0.020593 BIO-nadh_c + 0.087331 BIO-nadp_c + 0.414236 BIO-nadph_c + 0.076898 BIO-ribflv_c + 0.005781 BIO-thf_c + 0.000087 BIO-thmpp_c --&gt; BIO-cofactor</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" ref="B94:B103" si="9">"MET-" &amp; C94 &amp; " --&gt; " &amp; ROUND(F94/1000,6) &amp; " BIO-" &amp;C94</f>
+        <v>MET-coa_c --&gt; 0.763502 BIO-coa_c</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D94" s="48">
+        <v>-1.9000000000000001E-4</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F94" s="49">
+        <v>763.50236299999995</v>
+      </c>
+      <c r="G94" s="50">
+        <f t="shared" ref="G94:G103" si="10">F94*D94/SUMPRODUCT($D$94:$D$103,$F$94:$F$103)</f>
+        <v>3.0019409990825689E-2</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" ref="H94:H102" si="11">ROUND(G94,6) &amp; " BIO-" &amp; C94 &amp; " + "</f>
+        <v xml:space="preserve">0.030019 BIO-coa_c + </v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="9"/>
+        <v>MET-fad_c --&gt; 0.782526 BIO-fad_c</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D95" s="48">
+        <v>-1.0000000000000001E-5</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F95" s="49">
+        <v>782.52592200000004</v>
+      </c>
+      <c r="G95" s="50">
+        <f t="shared" si="10"/>
+        <v>1.6193357307173048E-3</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">0.001619 BIO-fad_c + </v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="9"/>
+        <v>MET-hemeA_c --&gt; 0.850821 BIO-hemeA_c</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D96" s="48">
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F96" s="49">
+        <v>850.82126000000005</v>
+      </c>
+      <c r="G96" s="50">
+        <f t="shared" si="10"/>
+        <v>1.7606640598570713E-4</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">0.000176 BIO-hemeA_c + </v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="9"/>
+        <v>MET-nad_c --&gt; 0.662417 BIO-nad_c</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D97" s="48">
+        <v>-2.65E-3</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F97" s="49">
+        <v>662.41716199999996</v>
+      </c>
+      <c r="G97" s="50">
+        <f t="shared" si="10"/>
+        <v>0.36325835791640726</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">0.363258 BIO-nad_c + </v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="9"/>
+        <v>MET-nadh_c --&gt; 0.663425 BIO-nadh_c</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D98" s="48">
+        <v>-1.4999999999999999E-4</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="F98" s="49">
+        <v>663.42510200000004</v>
+      </c>
+      <c r="G98" s="50">
+        <f t="shared" si="10"/>
+        <v>2.0593080857518976E-2</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">0.020593 BIO-nadh_c + </v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="9"/>
+        <v>MET-nadp_c --&gt; 0.740381 BIO-nadp_c</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D99" s="48">
+        <v>-5.6999999999999998E-4</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="F99" s="49">
+        <v>740.38118299999996</v>
+      </c>
+      <c r="G99" s="50">
+        <f t="shared" si="10"/>
+        <v>8.7330992118892267E-2</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">0.087331 BIO-nadp_c + </v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="9"/>
+        <v>MET-nadph_c --&gt; 0.741389 BIO-nadph_c</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D100" s="48">
+        <v>-2.7000000000000001E-3</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="F100" s="49">
+        <v>741.38912300000004</v>
+      </c>
+      <c r="G100" s="50">
+        <f t="shared" si="10"/>
+        <v>0.4142362868006666</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">0.414236 BIO-nadph_c + </v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>206</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="9"/>
+        <v>MET-ribflv_c --&gt; 0.375356 BIO-ribflv_c</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D101" s="48">
+        <v>-9.8999999999999999E-4</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="F101" s="49">
+        <v>375.35595999999998</v>
+      </c>
+      <c r="G101" s="50">
+        <f t="shared" si="10"/>
+        <v>7.6898288947422039E-2</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">0.076898 BIO-ribflv_c + </v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>209</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="9"/>
+        <v>MET-thf_c --&gt; 0.443413 BIO-thf_c</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D102" s="48">
+        <v>-6.3E-5</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="F102" s="49">
+        <v>443.41334000000001</v>
+      </c>
+      <c r="G102" s="50">
+        <f t="shared" si="10"/>
+        <v>5.7807936861084767E-3</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">0.005781 BIO-thf_c + </v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>212</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="9"/>
+        <v>MET-thmpp_c --&gt; 0.422291 BIO-thmpp_c</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D103" s="48">
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F103" s="49">
+        <v>422.29056200000002</v>
+      </c>
+      <c r="G103" s="50">
+        <f t="shared" si="10"/>
+        <v>8.738754545581575E-5</v>
+      </c>
+      <c r="H103" t="str">
+        <f>ROUND(G103,6) &amp; " BIO-" &amp; C103</f>
+        <v>0.000087 BIO-thmpp_c</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A105" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>216</v>
+      </c>
+      <c r="B107" t="str">
+        <f>"MET-" &amp; C107 &amp; " --&gt; " &amp; ROUND(F107/1000,6) &amp; " BIO-so4"</f>
+        <v>MET-so4_c --&gt; 0.096063 BIO-so4</v>
+      </c>
+      <c r="C107" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="D107" s="52">
+        <v>-3.12229450439893E-2</v>
+      </c>
+      <c r="E107" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="F107" s="51">
+        <v>96.062600000000003</v>
+      </c>
+      <c r="G107" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A109" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" t="str">
+        <f>"MET-" &amp; C111 &amp; " --&gt; " &amp; ROUND(F111/1000,6) &amp; " BIO-pi"</f>
+        <v>MET-pi_c --&gt; 0.095979 BIO-pi</v>
+      </c>
+      <c r="C111" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="D111" s="55">
+        <v>-0.10565490718788401</v>
+      </c>
+      <c r="E111" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="F111" s="54">
+        <v>95.979301000000007</v>
+      </c>
+      <c r="G111" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A113" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D113" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B114" t="str">
+        <f>_xlfn.CONCAT(H116:H135) &amp; " --&gt; BIO-protmodeled"</f>
+        <v>0.082301 BIO-alatrna_c + 0.071361 BIO-argtrna_c + 0.062416 BIO-asntrna_c + 0.062403 BIO-asptrna_c + 0.001704 BIO-cystrna_c + 0.116803 BIO-glntrna_c + 0.116782 BIO-glutrna_c + 0.060316 BIO-glytrna_c + 0.031157 BIO-histrna_c + 0.07858 BIO-iletrna_c + 0.106863 BIO-leutrna_c + 0.099953 BIO-lystrna_c + 0.017612 BIO-mettrna_c + 0.06511 BIO-phetrna_c + 0.047892 BIO-protrna_c + 0.054865 BIO-sertrna_c + 0.066465 BIO-thrtrna_c + 0.014221 BIO-trptrna_c + 0.037605 BIO-tyrtrna_c + 0.085777 BIO-valtrna_c --&gt; BIO-protmodeled</v>
+      </c>
+      <c r="D114" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B116" t="str">
+        <f t="shared" ref="B116:B135" si="12">"MET-" &amp; C116 &amp; " --&gt; " &amp; ROUND(F116/1000,6) &amp; " BIO-" &amp;C116</f>
+        <v>MET-alatrna_c --&gt; 0.072086 BIO-alatrna_c</v>
+      </c>
+      <c r="C116" s="89" t="s">
+        <v>489</v>
+      </c>
+      <c r="D116" s="90">
+        <v>-0.37040699999999999</v>
+      </c>
+      <c r="E116" s="90" t="s">
+        <v>490</v>
+      </c>
+      <c r="F116" s="91">
+        <v>72.085840000000005</v>
+      </c>
+      <c r="G116" s="92">
+        <f>F116*D116/SUMPRODUCT($D$121:$D$140,$F$121:$F$140)</f>
+        <v>8.2301208600424405E-2</v>
+      </c>
+      <c r="H116" t="str">
+        <f t="shared" ref="H116:H134" si="13">ROUND(G116,6) &amp; " BIO-" &amp; C116 &amp; " + "</f>
+        <v xml:space="preserve">0.082301 BIO-alatrna_c + </v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B117" t="str">
+        <f t="shared" si="12"/>
+        <v>MET-argtrna_c --&gt; 0.158202 BIO-argtrna_c</v>
+      </c>
+      <c r="C117" s="93" t="s">
+        <v>491</v>
+      </c>
+      <c r="D117" s="92">
+        <v>-0.146343</v>
+      </c>
+      <c r="E117" s="92" t="s">
+        <v>492</v>
+      </c>
+      <c r="F117" s="94">
+        <v>158.20156</v>
+      </c>
+      <c r="G117" s="92">
+        <f t="shared" ref="G117:G135" si="14">F117*D117/SUMPRODUCT($D$121:$D$140,$F$121:$F$140)</f>
+        <v>7.1360811374249836E-2</v>
+      </c>
+      <c r="H117" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">0.071361 BIO-argtrna_c + </v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B118" t="str">
+        <f t="shared" si="12"/>
+        <v>MET-asntrna_c --&gt; 0.115111 BIO-asntrna_c</v>
+      </c>
+      <c r="C118" s="93" t="s">
+        <v>493</v>
+      </c>
+      <c r="D118" s="92">
+        <v>-0.17591499999999999</v>
+      </c>
+      <c r="E118" s="92" t="s">
+        <v>494</v>
+      </c>
+      <c r="F118" s="94">
+        <v>115.11058</v>
+      </c>
+      <c r="G118" s="92">
+        <f t="shared" si="14"/>
+        <v>6.2415891604222985E-2</v>
+      </c>
+      <c r="H118" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">0.062416 BIO-asntrna_c + </v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B119" t="str">
+        <f t="shared" si="12"/>
+        <v>MET-asptrna_c --&gt; 0.115087 BIO-asptrna_c</v>
+      </c>
+      <c r="C119" s="93" t="s">
+        <v>495</v>
+      </c>
+      <c r="D119" s="92">
+        <v>-0.17591499999999999</v>
+      </c>
+      <c r="E119" s="92" t="s">
+        <v>496</v>
+      </c>
+      <c r="F119" s="94">
+        <v>115.0874</v>
+      </c>
+      <c r="G119" s="92">
+        <f t="shared" si="14"/>
+        <v>6.2403322817171564E-2</v>
+      </c>
+      <c r="H119" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">0.062403 BIO-asptrna_c + </v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B120" t="str">
+        <f t="shared" si="12"/>
+        <v>MET-cystrna_c --&gt; 0.104151 BIO-cystrna_c</v>
+      </c>
+      <c r="C120" s="93" t="s">
+        <v>497</v>
+      </c>
+      <c r="D120" s="92">
+        <v>-5.3080000000000002E-3</v>
+      </c>
+      <c r="E120" s="92" t="s">
+        <v>498</v>
+      </c>
+      <c r="F120" s="94">
+        <v>104.15084</v>
+      </c>
+      <c r="G120" s="92">
+        <f t="shared" si="14"/>
+        <v>1.7040045696544201E-3</v>
+      </c>
+      <c r="H120" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">0.001704 BIO-cystrna_c + </v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B121" t="str">
+        <f t="shared" si="12"/>
+        <v>MET-glntrna_c --&gt; 0.129137 BIO-glntrna_c</v>
+      </c>
+      <c r="C121" s="93" t="s">
+        <v>499</v>
+      </c>
+      <c r="D121" s="92">
+        <v>-0.29344399999999998</v>
+      </c>
+      <c r="E121" s="92" t="s">
+        <v>500</v>
+      </c>
+      <c r="F121" s="94">
+        <v>129.13715999999999</v>
+      </c>
+      <c r="G121" s="92">
+        <f t="shared" si="14"/>
+        <v>0.11680287401593546</v>
+      </c>
+      <c r="H121" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">0.116803 BIO-glntrna_c + </v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B122" t="str">
+        <f t="shared" si="12"/>
+        <v>MET-glutrna_c --&gt; 0.129114 BIO-glutrna_c</v>
+      </c>
+      <c r="C122" s="93" t="s">
+        <v>501</v>
+      </c>
+      <c r="D122" s="92">
+        <v>-0.29344399999999998</v>
+      </c>
+      <c r="E122" s="92" t="s">
+        <v>502</v>
+      </c>
+      <c r="F122" s="94">
+        <v>129.11398</v>
+      </c>
+      <c r="G122" s="92">
+        <f t="shared" si="14"/>
+        <v>0.11678190800878702</v>
+      </c>
+      <c r="H122" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">0.116782 BIO-glutrna_c + </v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B123" t="str">
+        <f t="shared" si="12"/>
+        <v>MET-glytrna_c --&gt; 0.058059 BIO-glytrna_c</v>
+      </c>
+      <c r="C123" s="93" t="s">
+        <v>503</v>
+      </c>
+      <c r="D123" s="92">
+        <v>-0.33704400000000001</v>
+      </c>
+      <c r="E123" s="92" t="s">
+        <v>504</v>
+      </c>
+      <c r="F123" s="94">
+        <v>58.059260000000002</v>
+      </c>
+      <c r="G123" s="92">
+        <f t="shared" si="14"/>
+        <v>6.031636496686088E-2</v>
+      </c>
+      <c r="H123" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">0.060316 BIO-glytrna_c + </v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B124" t="str">
+        <f t="shared" si="12"/>
+        <v>MET-histrna_c --&gt; 0.138147 BIO-histrna_c</v>
+      </c>
+      <c r="C124" s="93" t="s">
+        <v>505</v>
+      </c>
+      <c r="D124" s="92">
+        <v>-7.3171E-2</v>
+      </c>
+      <c r="E124" s="92" t="s">
+        <v>506</v>
+      </c>
+      <c r="F124" s="94">
+        <v>138.14722</v>
+      </c>
+      <c r="G124" s="92">
+        <f t="shared" si="14"/>
+        <v>3.115718436648153E-2</v>
+      </c>
+      <c r="H124" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">0.031157 BIO-histrna_c + </v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B125" t="str">
+        <f t="shared" si="12"/>
+        <v>MET-iletrna_c --&gt; 0.114166 BIO-iletrna_c</v>
+      </c>
+      <c r="C125" s="93" t="s">
+        <v>507</v>
+      </c>
+      <c r="D125" s="92">
+        <v>-0.223306</v>
+      </c>
+      <c r="E125" s="92" t="s">
+        <v>508</v>
+      </c>
+      <c r="F125" s="94">
+        <v>114.16558000000001</v>
+      </c>
+      <c r="G125" s="92">
+        <f t="shared" si="14"/>
+        <v>7.8580112013378445E-2</v>
+      </c>
+      <c r="H125" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">0.07858 BIO-iletrna_c + </v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B126" t="str">
+        <f t="shared" si="12"/>
+        <v>MET-leutrna_c --&gt; 0.114166 BIO-leutrna_c</v>
+      </c>
+      <c r="C126" s="93" t="s">
+        <v>509</v>
+      </c>
+      <c r="D126" s="92">
+        <v>-0.30368000000000001</v>
+      </c>
+      <c r="E126" s="92" t="s">
+        <v>508</v>
+      </c>
+      <c r="F126" s="94">
+        <v>114.16558000000001</v>
+      </c>
+      <c r="G126" s="92">
+        <f t="shared" si="14"/>
+        <v>0.10686326572605648</v>
+      </c>
+      <c r="H126" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">0.106863 BIO-leutrna_c + </v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B127" t="str">
+        <f t="shared" si="12"/>
+        <v>MET-lystrna_c --&gt; 0.130188 BIO-lystrna_c</v>
+      </c>
+      <c r="C127" s="93" t="s">
+        <v>510</v>
+      </c>
+      <c r="D127" s="92">
+        <v>-0.249086</v>
+      </c>
+      <c r="E127" s="92" t="s">
+        <v>511</v>
+      </c>
+      <c r="F127" s="94">
+        <v>130.18816000000001</v>
+      </c>
+      <c r="G127" s="92">
+        <f t="shared" si="14"/>
+        <v>9.9953468997277528E-2</v>
+      </c>
+      <c r="H127" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">0.099953 BIO-lystrna_c + </v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B128" t="str">
+        <f t="shared" si="12"/>
+        <v>MET-mettrna_c --&gt; 0.132204 BIO-mettrna_c</v>
+      </c>
+      <c r="C128" s="93" t="s">
+        <v>512</v>
+      </c>
+      <c r="D128" s="92">
+        <v>-4.3220000000000001E-2</v>
+      </c>
+      <c r="E128" s="92" t="s">
+        <v>513</v>
+      </c>
+      <c r="F128" s="94">
+        <v>132.20400000000001</v>
+      </c>
+      <c r="G128" s="92">
+        <f t="shared" si="14"/>
+        <v>1.7611908559119122E-2</v>
+      </c>
+      <c r="H128" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">0.017612 BIO-mettrna_c + </v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B129" t="str">
+        <f t="shared" si="12"/>
+        <v>MET-phetrna_c --&gt; 0.148182 BIO-phetrna_c</v>
+      </c>
+      <c r="C129" s="93" t="s">
+        <v>514</v>
+      </c>
+      <c r="D129" s="92">
+        <v>-0.14255200000000001</v>
+      </c>
+      <c r="E129" s="92" t="s">
+        <v>515</v>
+      </c>
+      <c r="F129" s="94">
+        <v>148.18180000000001</v>
+      </c>
+      <c r="G129" s="92">
+        <f t="shared" si="14"/>
+        <v>6.5109632596383638E-2</v>
+      </c>
+      <c r="H129" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">0.06511 BIO-phetrna_c + </v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B130" t="str">
+        <f t="shared" si="12"/>
+        <v>MET-protrna_c --&gt; 0.097115 BIO-protrna_c</v>
+      </c>
+      <c r="C130" s="93" t="s">
+        <v>516</v>
+      </c>
+      <c r="D130" s="92">
+        <v>-0.15999099999999999</v>
+      </c>
+      <c r="E130" s="92" t="s">
+        <v>517</v>
+      </c>
+      <c r="F130" s="94">
+        <v>97.115179999999995</v>
+      </c>
+      <c r="G130" s="92">
+        <f t="shared" si="14"/>
+        <v>4.7891642978105928E-2</v>
+      </c>
+      <c r="H130" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">0.047892 BIO-protrna_c + </v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B131" t="str">
+        <f t="shared" si="12"/>
+        <v>MET-sertrna_c --&gt; 0.088085 BIO-sertrna_c</v>
+      </c>
+      <c r="C131" s="93" t="s">
+        <v>518</v>
+      </c>
+      <c r="D131" s="92">
+        <v>-0.202075</v>
+      </c>
+      <c r="E131" s="92" t="s">
+        <v>519</v>
+      </c>
+      <c r="F131" s="94">
+        <v>88.085239999999999</v>
+      </c>
+      <c r="G131" s="92">
+        <f t="shared" si="14"/>
+        <v>5.4864672779765193E-2</v>
+      </c>
+      <c r="H131" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">0.054865 BIO-sertrna_c + </v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B132" t="str">
+        <f t="shared" si="12"/>
+        <v>MET-thrtrna_c --&gt; 0.102112 BIO-thrtrna_c</v>
+      </c>
+      <c r="C132" s="93" t="s">
+        <v>520</v>
+      </c>
+      <c r="D132" s="92">
+        <v>-0.211174</v>
+      </c>
+      <c r="E132" s="92" t="s">
+        <v>521</v>
+      </c>
+      <c r="F132" s="94">
+        <v>102.11181999999999</v>
+      </c>
+      <c r="G132" s="92">
+        <f t="shared" si="14"/>
+        <v>6.6465079285381035E-2</v>
+      </c>
+      <c r="H132" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">0.066465 BIO-thrtrna_c + </v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B133" t="str">
+        <f t="shared" si="12"/>
+        <v>MET-trptrna_c --&gt; 0.187218 BIO-trptrna_c</v>
+      </c>
+      <c r="C133" s="93" t="s">
+        <v>522</v>
+      </c>
+      <c r="D133" s="92">
+        <v>-2.4643000000000002E-2</v>
+      </c>
+      <c r="E133" s="92" t="s">
+        <v>523</v>
+      </c>
+      <c r="F133" s="94">
+        <v>187.21784</v>
+      </c>
+      <c r="G133" s="92">
+        <f t="shared" si="14"/>
+        <v>1.4220598382575047E-2</v>
+      </c>
+      <c r="H133" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">0.014221 BIO-trptrna_c + </v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B134" t="str">
+        <f t="shared" si="12"/>
+        <v>MET-tyrtrna_c --&gt; 0.164181 BIO-tyrtrna_c</v>
+      </c>
+      <c r="C134" s="93" t="s">
+        <v>524</v>
+      </c>
+      <c r="D134" s="92">
+        <v>-7.4309E-2</v>
+      </c>
+      <c r="E134" s="92" t="s">
+        <v>525</v>
+      </c>
+      <c r="F134" s="94">
+        <v>164.18119999999999</v>
+      </c>
+      <c r="G134" s="92">
+        <f t="shared" si="14"/>
+        <v>3.7604680783665134E-2</v>
+      </c>
+      <c r="H134" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">0.037605 BIO-tyrtrna_c + </v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B135" t="str">
+        <f t="shared" si="12"/>
+        <v>MET-valtrna_c --&gt; 0.100139 BIO-valtrna_c</v>
+      </c>
+      <c r="C135" s="95" t="s">
+        <v>526</v>
+      </c>
+      <c r="D135" s="96">
+        <v>-0.27789999999999998</v>
+      </c>
+      <c r="E135" s="96" t="s">
+        <v>527</v>
+      </c>
+      <c r="F135" s="97">
+        <v>100.139</v>
+      </c>
+      <c r="G135" s="92">
+        <f t="shared" si="14"/>
+        <v>8.577660654022766E-2</v>
+      </c>
+      <c r="H135" t="str">
+        <f>ROUND(G135,6) &amp; " BIO-" &amp; C135</f>
+        <v>0.085777 BIO-valtrna_c</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C96FC5D-487C-4448-9947-73226B174E09}">
   <dimension ref="A1:K111"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14667,2033 +17602,6 @@
       </c>
       <c r="B6" t="str">
         <f>_xlfn.CONCAT(E8:E14) &amp; _xlfn.CONCAT(E16:E20)</f>
-        <v>0.933442277567423 BIO-varbiom + 0.020050549978631 BIO-lipid + 0.002441292 BIO-dna + 0.025785748 BIO-metal + 0.004915119 BIO-cofactor + 0.003050712 BIO-so4 + 0.010314302 BIO-pi + 81.26 MET-atp_c + 81.26 MET-h2o_c --&gt; 81.26 MET-adp_c + 81.26 MET-pi_c + 81.26 MET-h_c</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="6">
-        <v>-0.93344227756742304</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" ref="E8:E14" si="0">-C8 &amp; " " &amp; B8 &amp; " +" &amp; " "</f>
-        <v xml:space="preserve">0.933442277567423 BIO-varbiom + </v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="9">
-        <v>-2.0050549978631E-2</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">0.020050549978631 BIO-lipid + </v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="12">
-        <v>-2.4412919999999999E-3</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">0.002441292 BIO-dna + </v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="15">
-        <v>-2.5785748000000001E-2</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">0.025785748 BIO-metal + </v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="18">
-        <v>-4.9151189999999999E-3</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">0.004915119 BIO-cofactor + </v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B13" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="21">
-        <v>-3.0507120000000001E-3</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">0.003050712 BIO-so4 + </v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B14" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="24">
-        <v>-1.0314301999999999E-2</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">0.010314302 BIO-pi + </v>
-      </c>
-      <c r="H14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14">
-        <v>10.74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B16" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="27">
-        <f>-J16</f>
-        <v>-81.260000000000005</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" t="str">
-        <f>-C16 &amp; " " &amp; B16 &amp; " +" &amp; " "</f>
-        <v xml:space="preserve">81.26 MET-atp_c + </v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="29">
-        <v>92</v>
-      </c>
-      <c r="J16" s="29">
-        <f>I16-$I$14</f>
-        <v>81.260000000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="27">
-        <f>C16</f>
-        <v>-81.260000000000005</v>
-      </c>
-      <c r="D17" s="26"/>
-      <c r="E17" t="str">
-        <f>-C17 &amp; " " &amp; B17 &amp; " --&gt; "</f>
-        <v xml:space="preserve">81.26 MET-h2o_c --&gt; </v>
-      </c>
-      <c r="H17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="29">
-        <v>46.9</v>
-      </c>
-      <c r="J17" s="29">
-        <f>I17-$I$14</f>
-        <v>36.159999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="27">
-        <f>-C16</f>
-        <v>81.260000000000005</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" t="str">
-        <f>C18 &amp; " " &amp; B18 &amp; " +" &amp; " "</f>
-        <v xml:space="preserve">81.26 MET-adp_c + </v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="29">
-        <v>76</v>
-      </c>
-      <c r="J18" s="29">
-        <f>I18-$I$14</f>
-        <v>65.260000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="27">
-        <f>-C16</f>
-        <v>81.260000000000005</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" t="str">
-        <f>C19 &amp; " " &amp; B19 &amp; " +" &amp; " "</f>
-        <v xml:space="preserve">81.26 MET-pi_c + </v>
-      </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="29">
-        <v>136.69999999999999</v>
-      </c>
-      <c r="J19" s="29">
-        <f>I19-$I$14</f>
-        <v>125.96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="27">
-        <f>-C16</f>
-        <v>81.260000000000005</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" t="str">
-        <f>C20 &amp; " " &amp; B20</f>
-        <v>81.26 MET-h_c</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" t="str">
-        <f>"BIO-prot --&gt; " &amp; $B$8</f>
-        <v>BIO-prot --&gt; BIO-varbiom</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" t="str">
-        <f>"BIO-rna --&gt; " &amp; $B$8</f>
-        <v>BIO-rna --&gt; BIO-varbiom</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" t="str">
-        <f>"BIO-carb --&gt; " &amp; $B$8</f>
-        <v>BIO-carb --&gt; BIO-varbiom</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" t="str">
-        <f>_xlfn.CONCAT(H37:H42) &amp; " --&gt; BIO-carb"</f>
-        <v>0.275869 BIO-mannan_c + 0.385281 BIO-13BDglucan_en + 0.10139 BIO-16BDglucan_en + 0.011415 BIO-chtn_c + 0.206388 BIO-glycogen_c + 0.019656 BIO-tre_c --&gt; BIO-carb</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" t="str">
-        <f t="shared" ref="B37:B42" si="1">"MET-" &amp; C37 &amp; " --&gt; " &amp; ROUND(F37/1000,6) &amp; " BIO-" &amp;C37</f>
-        <v>MET-mannan_c --&gt; 0.180156 BIO-mannan_c</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="31">
-        <v>-0.62393026814313002</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="30">
-        <v>180.15588</v>
-      </c>
-      <c r="G37" s="32">
-        <f t="shared" ref="G37:G42" si="2">F37*D37/SUMPRODUCT($D$37:$D$42,$F$37:$F$42)</f>
-        <v>0.27586919179839525</v>
-      </c>
-      <c r="H37" t="str">
-        <f>ROUND(G37,6) &amp; " BIO-" &amp; C37 &amp; " + "</f>
-        <v xml:space="preserve">0.275869 BIO-mannan_c + </v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" t="str">
-        <f t="shared" si="1"/>
-        <v>MET-13BDglucan_en --&gt; 0.162141 BIO-13BDglucan_en</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="31">
-        <v>-0.968205660560579</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" s="30">
-        <v>162.14060000000001</v>
-      </c>
-      <c r="G38" s="32">
-        <f t="shared" si="2"/>
-        <v>0.38528144999383934</v>
-      </c>
-      <c r="H38" t="str">
-        <f>ROUND(G38,6) &amp; " BIO-" &amp; C38 &amp; " + "</f>
-        <v xml:space="preserve">0.385281 BIO-13BDglucan_en + </v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" t="str">
-        <f t="shared" si="1"/>
-        <v>MET-16BDglucan_en --&gt; 0.162141 BIO-16BDglucan_en</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="31">
-        <v>-0.25479096330541601</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39" s="30">
-        <v>162.14060000000001</v>
-      </c>
-      <c r="G39" s="32">
-        <f t="shared" si="2"/>
-        <v>0.10138985526153685</v>
-      </c>
-      <c r="H39" t="str">
-        <f>ROUND(G39,6) &amp; " BIO-" &amp; C39 &amp; " + "</f>
-        <v xml:space="preserve">0.10139 BIO-16BDglucan_en + </v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" t="str">
-        <f t="shared" si="1"/>
-        <v>MET-chtn_c --&gt; 0.203193 BIO-chtn_c</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="31">
-        <v>-2.28907502852135E-2</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40" s="30">
-        <v>203.19252</v>
-      </c>
-      <c r="G40" s="32">
-        <f t="shared" si="2"/>
-        <v>1.1415276902002594E-2</v>
-      </c>
-      <c r="H40" t="str">
-        <f>ROUND(G40,6) &amp; " BIO-" &amp; C40 &amp; " + "</f>
-        <v xml:space="preserve">0.011415 BIO-chtn_c + </v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" t="str">
-        <f t="shared" si="1"/>
-        <v>MET-glycogen_c --&gt; 0.180156 BIO-glycogen_c</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="31">
-        <v>-0.46678589991839098</v>
-      </c>
-      <c r="E41" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F41" s="30">
-        <v>180.15588</v>
-      </c>
-      <c r="G41" s="32">
-        <f t="shared" si="2"/>
-        <v>0.20638820638820618</v>
-      </c>
-      <c r="H41" t="str">
-        <f>ROUND(G41,6) &amp; " BIO-" &amp; C41 &amp; " + "</f>
-        <v xml:space="preserve">0.206388 BIO-glycogen_c + </v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" t="str">
-        <f t="shared" si="1"/>
-        <v>MET-tre_c --&gt; 0.342296 BIO-tre_c</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="31">
-        <v>-2.3397768416151401E-2</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="F42" s="30">
-        <v>342.29647999999997</v>
-      </c>
-      <c r="G42" s="32">
-        <f t="shared" si="2"/>
-        <v>1.965601965601969E-2</v>
-      </c>
-      <c r="H42" t="str">
-        <f>ROUND(G42,6) &amp; " BIO-" &amp; C42</f>
-        <v>0.019656 BIO-tre_c</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" t="str">
-        <f>"MET-" &amp; C47 &amp; " --&gt; " &amp; ROUND(I47/1000,6) &amp; " BIO-" &amp; C47 &amp; " + MET-ppi_c"</f>
-        <v>MET-atp_c --&gt; 0.328198 BIO-atp_c + MET-ppi_c</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="34">
-        <v>-4.2010849133235502E-2</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F47" s="35">
-        <v>503.14926300000002</v>
-      </c>
-      <c r="G47" s="36">
-        <f>D47 * I47 / SUMPRODUCT($D$47:$D$50, $I$47:$I$50)</f>
-        <v>0.24037884466987722</v>
-      </c>
-      <c r="H47" t="str">
-        <f>ROUND(G47,6) &amp; " BIO-" &amp; C47 &amp; " + "</f>
-        <v xml:space="preserve">0.240379 BIO-atp_c + </v>
-      </c>
-      <c r="I47" s="37">
-        <f>F47 - 174.951262</f>
-        <v>328.19800099999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" t="str">
-        <f>"MET-" &amp; C48 &amp; " --&gt; " &amp; ROUND(I48/1000,6) &amp; " BIO-" &amp; C48 &amp; " + MET-ppi_c"</f>
-        <v>MET-ctp_c --&gt; 0.304173 BIO-ctp_c + MET-ppi_c</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="34">
-        <v>-4.08232066260222E-2</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="F48" s="35">
-        <v>479.12456300000002</v>
-      </c>
-      <c r="G48" s="36">
-        <f>D48 * I48 / SUMPRODUCT($D$47:$D$50, $I$47:$I$50)</f>
-        <v>0.21648462535782112</v>
-      </c>
-      <c r="H48" t="str">
-        <f>ROUND(G48,6) &amp; " BIO-" &amp; C48 &amp; " + "</f>
-        <v xml:space="preserve">0.216485 BIO-ctp_c + </v>
-      </c>
-      <c r="I48" s="37">
-        <f>F48 - 174.951262</f>
-        <v>304.17330100000004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" t="str">
-        <f>"MET-" &amp; C49 &amp; " --&gt; " &amp; ROUND(I49/1000,6) &amp; " BIO-" &amp; C49 &amp; " + MET-ppi_c"</f>
-        <v>MET-gtp_c --&gt; 0.344197 BIO-gtp_c + MET-ppi_c</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="34">
-        <v>-4.2010849133235502E-2</v>
-      </c>
-      <c r="E49" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F49" s="35">
-        <v>519.14866300000006</v>
-      </c>
-      <c r="G49" s="36">
-        <f>D49 * I49 / SUMPRODUCT($D$47:$D$50, $I$47:$I$50)</f>
-        <v>0.25209712837572845</v>
-      </c>
-      <c r="H49" t="str">
-        <f>ROUND(G49,6) &amp; " BIO-" &amp; C49 &amp; " + "</f>
-        <v xml:space="preserve">0.252097 BIO-gtp_c + </v>
-      </c>
-      <c r="I49" s="37">
-        <f>F49 - 174.951262</f>
-        <v>344.19740100000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50" t="str">
-        <f>"MET-" &amp; C50 &amp; " --&gt; " &amp; ROUND(I50/1000,6) &amp; " BIO-" &amp; C50 &amp; " + MET-ppi_c"</f>
-        <v>MET-utp_c --&gt; 0.305158 BIO-utp_c + MET-ppi_c</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="34">
-        <v>-5.4705134454577101E-2</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="F50" s="35">
-        <v>480.10932300000002</v>
-      </c>
-      <c r="G50" s="36">
-        <f>D50 * I50 / SUMPRODUCT($D$47:$D$50, $I$47:$I$50)</f>
-        <v>0.29103940159657327</v>
-      </c>
-      <c r="H50" t="str">
-        <f>ROUND(G50,6) &amp; " BIO-" &amp; C50</f>
-        <v>0.291039 BIO-utp_c</v>
-      </c>
-      <c r="I50" s="37">
-        <f>F50 - 174.951262</f>
-        <v>305.15806099999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" t="str">
-        <f>_xlfn.CONCAT(H47:H50) &amp; " --&gt; BIO-trna"</f>
-        <v>0.240379 BIO-atp_c + 0.216485 BIO-ctp_c + 0.252097 BIO-gtp_c + 0.291039 BIO-utp_c --&gt; BIO-trna</v>
-      </c>
-      <c r="G51" s="38"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>104</v>
-      </c>
-      <c r="B52" t="str">
-        <f>_xlfn.CONCAT(H47:H50) &amp; " --&gt; BIO-mrna"</f>
-        <v>0.240379 BIO-atp_c + 0.216485 BIO-ctp_c + 0.252097 BIO-gtp_c + 0.291039 BIO-utp_c --&gt; BIO-mrna</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>105</v>
-      </c>
-      <c r="B53" t="str">
-        <f>_xlfn.CONCAT(H47:H50) &amp; " --&gt; BIO-rrna"</f>
-        <v>0.240379 BIO-atp_c + 0.216485 BIO-ctp_c + 0.252097 BIO-gtp_c + 0.291039 BIO-utp_c --&gt; BIO-rrna</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" t="str">
-        <f>_xlfn.CONCAT(H58:H70) &amp; " --&gt; BIO-lipid"</f>
-        <v>0.053728 BIO-ergst161_rm + 0.020589 BIO-ergst181_rm + 0.179737 BIO-ergst_c + 0.001219 BIO-hdca_c + 0.003546 BIO-hdcea_c + 0.000377 BIO-ocdca_c + 0.001444 BIO-ocdcea_c + 0.096746 BIO-pail_c + 0.327591 BIO-pc_c + 0.083068 BIO-pe_c + 0.075603 BIO-ps_c + 0.096351 BIO-tag_c + 0.06 BIO-ipc_g --&gt; BIO-lipid</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>108</v>
-      </c>
-      <c r="B58" t="str">
-        <f t="shared" ref="B58:B70" si="3">"MET-" &amp; C58 &amp; " --&gt; " &amp; ROUND(F58/1000,6) &amp; " BIO-" &amp;C58</f>
-        <v>MET-ergst161_rm --&gt; 0.633041 BIO-ergst161_rm</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D58" s="39">
-        <v>-6.15466318335084E-3</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F58" s="40">
-        <v>633.04128000000003</v>
-      </c>
-      <c r="G58" s="41">
-        <f t="shared" ref="G58:G70" si="4">F58*D58/SUMPRODUCT($D$58:$D$70,$F$58:$F$70)</f>
-        <v>5.3728245241183956E-2</v>
-      </c>
-      <c r="H58" t="str">
-        <f t="shared" ref="H58:H69" si="5">ROUND(G58,6) &amp; " BIO-" &amp; C58 &amp; " + "</f>
-        <v xml:space="preserve">0.053728 BIO-ergst161_rm + </v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>111</v>
-      </c>
-      <c r="B59" t="str">
-        <f t="shared" si="3"/>
-        <v>MET-ergst181_rm --&gt; 0.661094 BIO-ergst181_rm</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="39">
-        <v>-2.2583992038525801E-3</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F59" s="40">
-        <v>661.09443999999996</v>
-      </c>
-      <c r="G59" s="41">
-        <f t="shared" si="4"/>
-        <v>2.0588777090519761E-2</v>
-      </c>
-      <c r="H59" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">0.020589 BIO-ergst181_rm + </v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>114</v>
-      </c>
-      <c r="B60" t="str">
-        <f t="shared" si="3"/>
-        <v>MET-ergst_c --&gt; 0.396648 BIO-ergst_c</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D60" s="39">
-        <v>-3.2859893834708803E-2</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F60" s="40">
-        <v>396.64836000000003</v>
-      </c>
-      <c r="G60" s="41">
-        <f t="shared" si="4"/>
-        <v>0.17973727535036441</v>
-      </c>
-      <c r="H60" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">0.179737 BIO-ergst_c + </v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>117</v>
-      </c>
-      <c r="B61" t="str">
-        <f t="shared" si="3"/>
-        <v>MET-hdca_c --&gt; 0.255415 BIO-hdca_c</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D61" s="39">
-        <v>-3.4611482051380503E-4</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F61" s="40">
-        <v>255.41533999999999</v>
-      </c>
-      <c r="G61" s="41">
-        <f t="shared" si="4"/>
-        <v>1.2190836537722593E-3</v>
-      </c>
-      <c r="H61" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">0.001219 BIO-hdca_c + </v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" t="str">
-        <f t="shared" si="3"/>
-        <v>MET-hdcea_c --&gt; 0.253399 BIO-hdcea_c</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D62" s="39">
-        <v>-1.0148580987208401E-3</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F62" s="40">
-        <v>253.39946</v>
-      </c>
-      <c r="G62" s="41">
-        <f t="shared" si="4"/>
-        <v>3.5463152680111176E-3</v>
-      </c>
-      <c r="H62" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">0.003546 BIO-hdcea_c + </v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" t="str">
-        <f t="shared" si="3"/>
-        <v>MET-ocdca_c --&gt; 0.283469 BIO-ocdca_c</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D63" s="39">
-        <v>-9.6417700000274198E-5</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F63" s="40">
-        <v>283.46850000000001</v>
-      </c>
-      <c r="G63" s="41">
-        <f t="shared" si="4"/>
-        <v>3.7690153652322636E-4</v>
-      </c>
-      <c r="H63" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">0.000377 BIO-ocdca_c + </v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" t="str">
-        <f t="shared" si="3"/>
-        <v>MET-ocdcea_c --&gt; 0.281453 BIO-ocdcea_c</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D64" s="39">
-        <v>-3.7207343205233998E-4</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F64" s="40">
-        <v>281.45262000000002</v>
-      </c>
-      <c r="G64" s="41">
-        <f t="shared" si="4"/>
-        <v>1.4441100521992063E-3</v>
-      </c>
-      <c r="H64" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">0.001444 BIO-ocdcea_c + </v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>129</v>
-      </c>
-      <c r="B65" t="str">
-        <f t="shared" si="3"/>
-        <v>MET-pail_c --&gt; 0.821351 BIO-pail_c</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D65" s="39">
-        <v>-8.5416193205371093E-3</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F65" s="40">
-        <v>821.35056941845403</v>
-      </c>
-      <c r="G65" s="41">
-        <f t="shared" si="4"/>
-        <v>9.6746465937940604E-2</v>
-      </c>
-      <c r="H65" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">0.096746 BIO-pail_c + </v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" t="str">
-        <f t="shared" si="3"/>
-        <v>MET-pc_c --&gt; 0.745367 BIO-pc_c</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D66" s="39">
-        <v>-3.1870994347526597E-2</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F66" s="40">
-        <v>745.36744941845404</v>
-      </c>
-      <c r="G66" s="41">
-        <f t="shared" si="4"/>
-        <v>0.32759130887220633</v>
-      </c>
-      <c r="H66" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">0.327591 BIO-pc_c + </v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67" t="str">
-        <f t="shared" si="3"/>
-        <v>MET-pe_c --&gt; 0.703288 BIO-pe_c</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D67" s="39">
-        <v>-8.5651056833576898E-3</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F67" s="40">
-        <v>703.28770941845403</v>
-      </c>
-      <c r="G67" s="41">
-        <f t="shared" si="4"/>
-        <v>8.306768144883965E-2</v>
-      </c>
-      <c r="H67" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">0.083068 BIO-pe_c + </v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>138</v>
-      </c>
-      <c r="B68" t="str">
-        <f t="shared" si="3"/>
-        <v>MET-ps_c --&gt; 0.745281 BIO-ps_c</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D68" s="39">
-        <v>-7.3561760602773299E-3</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F68" s="40">
-        <v>745.28052941845397</v>
-      </c>
-      <c r="G68" s="41">
-        <f t="shared" si="4"/>
-        <v>7.5602860075155043E-2</v>
-      </c>
-      <c r="H68" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">0.075603 BIO-ps_c + </v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>141</v>
-      </c>
-      <c r="B69" t="str">
-        <f t="shared" si="3"/>
-        <v>MET-tag_c --&gt; 0.824316 BIO-tag_c</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D69" s="39">
-        <v>-8.4761047295112794E-3</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F69" s="40">
-        <v>824.31550112768105</v>
-      </c>
-      <c r="G69" s="41">
-        <f t="shared" si="4"/>
-        <v>9.6350975473284264E-2</v>
-      </c>
-      <c r="H69" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">0.096351 BIO-tag_c + </v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>144</v>
-      </c>
-      <c r="B70" t="str">
-        <f t="shared" si="3"/>
-        <v>MET-ipc_g --&gt; 0.915263 BIO-ipc_g</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D70" s="39">
-        <v>-4.7537769394543801E-3</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F70" s="40">
-        <v>915.26344200000005</v>
-      </c>
-      <c r="G70" s="41">
-        <f t="shared" si="4"/>
-        <v>6.0000000000000039E-2</v>
-      </c>
-      <c r="H70" t="str">
-        <f>ROUND(G70,6) &amp; " BIO-" &amp; C70</f>
-        <v>0.06 BIO-ipc_g</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>148</v>
-      </c>
-      <c r="B73" t="str">
-        <f>_xlfn.CONCAT(H75:H78) &amp; " --&gt; BIO-dna"</f>
-        <v>0.302676 BIO-datp_c + 0.188596 BIO-dctp_c + 0.21479 BIO-dgtp_c + 0.293938 BIO-dttp_c --&gt; BIO-dna</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>149</v>
-      </c>
-      <c r="B75" t="str">
-        <f>"MET-" &amp; C75 &amp; " --&gt; " &amp; ROUND(I75/1000,6) &amp; " BIO-" &amp; C75 &amp; " + MET-ppi_c"</f>
-        <v>MET-datp_c --&gt; 0.312199 BIO-datp_c + MET-ppi_c</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D75" s="42">
-        <v>-3.8897789986953998E-3</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="F75" s="43">
-        <v>487.14986299999998</v>
-      </c>
-      <c r="G75" s="44">
-        <f>D75 * I75 / SUMPRODUCT($D$75:$D$78, $I$75:$I$78)</f>
-        <v>0.30267619979510973</v>
-      </c>
-      <c r="H75" t="str">
-        <f>ROUND(G75,6) &amp; " BIO-" &amp; C75 &amp; " + "</f>
-        <v xml:space="preserve">0.302676 BIO-datp_c + </v>
-      </c>
-      <c r="I75" s="37">
-        <f>F75 - 174.951262</f>
-        <v>312.19860099999994</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
-        <v>152</v>
-      </c>
-      <c r="B76" t="str">
-        <f>"MET-" &amp; C76 &amp; " --&gt; " &amp; ROUND(I76/1000,6) &amp; " BIO-" &amp; C76 &amp; " + MET-ppi_c"</f>
-        <v>MET-dctp_c --&gt; 0.288174 BIO-dctp_c + MET-ppi_c</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D76" s="42">
-        <v>-2.6257637126871798E-3</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="F76" s="43">
-        <v>463.12516299999999</v>
-      </c>
-      <c r="G76" s="44">
-        <f>D76 * I76 / SUMPRODUCT($D$75:$D$78, $I$75:$I$78)</f>
-        <v>0.18859608824416774</v>
-      </c>
-      <c r="H76" t="str">
-        <f>ROUND(G76,6) &amp; " BIO-" &amp; C76 &amp; " + "</f>
-        <v xml:space="preserve">0.188596 BIO-dctp_c + </v>
-      </c>
-      <c r="I76" s="37">
-        <f>F76 - 174.951262</f>
-        <v>288.173901</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
-        <v>155</v>
-      </c>
-      <c r="B77" t="str">
-        <f>"MET-" &amp; C77 &amp; " --&gt; " &amp; ROUND(I77/1000,6) &amp; " BIO-" &amp; C77 &amp; " + MET-ppi_c"</f>
-        <v>MET-dgtp_c --&gt; 0.328198 BIO-dgtp_c + MET-ppi_c</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D77" s="42">
-        <v>-2.6257637126871798E-3</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F77" s="43">
-        <v>503.14926300000002</v>
-      </c>
-      <c r="G77" s="44">
-        <f>D77 * I77 / SUMPRODUCT($D$75:$D$78, $I$75:$I$78)</f>
-        <v>0.21478995475775386</v>
-      </c>
-      <c r="H77" t="str">
-        <f>ROUND(G77,6) &amp; " BIO-" &amp; C77 &amp; " + "</f>
-        <v xml:space="preserve">0.21479 BIO-dgtp_c + </v>
-      </c>
-      <c r="I77" s="37">
-        <f>F77 - 174.951262</f>
-        <v>328.19800099999998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>157</v>
-      </c>
-      <c r="B78" t="str">
-        <f>"MET-" &amp; C78 &amp; " --&gt; " &amp; ROUND(I78/1000,6) &amp; " BIO-" &amp; C78 &amp; " + MET-ppi_c"</f>
-        <v>MET-dttp_c --&gt; 0.303185 BIO-dttp_c + MET-ppi_c</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D78" s="42">
-        <v>-3.8897789986953998E-3</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F78" s="43">
-        <v>478.136503</v>
-      </c>
-      <c r="G78" s="44">
-        <f>D78 * I78 / SUMPRODUCT($D$75:$D$78, $I$75:$I$78)</f>
-        <v>0.29393775720296877</v>
-      </c>
-      <c r="H78" t="str">
-        <f>ROUND(G78,6) &amp; " BIO-" &amp; C78</f>
-        <v>0.293938 BIO-dttp_c</v>
-      </c>
-      <c r="I78" s="37">
-        <f>F78 - 174.951262</f>
-        <v>303.18524100000002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="G79" s="38"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A80" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>161</v>
-      </c>
-      <c r="B81" t="str">
-        <f>_xlfn.CONCAT(H83:H89) &amp; " --&gt; BIO-metal"</f>
-        <v>0.002033 BIO-ca2_c + 0.000285 BIO-cu2_c + 0.001464 BIO-fe2_c + 0.93097 BIO-k_c + 0.060981 BIO-mg2_c + 0.000203 BIO-mn2_c + 0.004065 BIO-zn2_c --&gt; BIO-metal</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C82" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
-        <v>162</v>
-      </c>
-      <c r="B83" t="str">
-        <f t="shared" ref="B83:B89" si="6">"MET-" &amp; C83 &amp; " --&gt; " &amp; ROUND(F83/1000,6) &amp; " BIO-" &amp;C83</f>
-        <v>MET-ca2_c --&gt; 0.040078 BIO-ca2_c</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D83" s="45">
-        <v>-1.2857941054592399E-3</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F83" s="46">
-        <v>40.078000000000003</v>
-      </c>
-      <c r="G83" s="47">
-        <f t="shared" ref="G83:G89" si="7">F83*D83/SUMPRODUCT($D$83:$D$89,$F$83:$F$89)</f>
-        <v>2.0326855841938385E-3</v>
-      </c>
-      <c r="H83" t="str">
-        <f t="shared" ref="H83:H88" si="8">ROUND(G83,6) &amp; " BIO-" &amp; C83 &amp; " + "</f>
-        <v xml:space="preserve">0.002033 BIO-ca2_c + </v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
-        <v>165</v>
-      </c>
-      <c r="B84" t="str">
-        <f t="shared" si="6"/>
-        <v>MET-cu2_c --&gt; 0.063546 BIO-cu2_c</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="D84" s="45">
-        <v>-1.13531738617747E-4</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="F84" s="46">
-        <v>63.545999999999999</v>
-      </c>
-      <c r="G84" s="47">
-        <f t="shared" si="7"/>
-        <v>2.8457598178713701E-4</v>
-      </c>
-      <c r="H84" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">0.000285 BIO-cu2_c + </v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>168</v>
-      </c>
-      <c r="B85" t="str">
-        <f t="shared" si="6"/>
-        <v>MET-fe2_c --&gt; 0.055845 BIO-fe2_c</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D85" s="45">
-        <v>-6.6439395530824103E-4</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="F85" s="46">
-        <v>55.844999999999999</v>
-      </c>
-      <c r="G85" s="47">
-        <f t="shared" si="7"/>
-        <v>1.4635336206195644E-3</v>
-      </c>
-      <c r="H85" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">0.001464 BIO-fe2_c + </v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>171</v>
-      </c>
-      <c r="B86" t="str">
-        <f t="shared" si="6"/>
-        <v>MET-k_c --&gt; 0.039098 BIO-k_c</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D86" s="45">
-        <v>-0.603649819062125</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="F86" s="46">
-        <v>39.098300000000002</v>
-      </c>
-      <c r="G86" s="47">
-        <f t="shared" si="7"/>
-        <v>0.93096999756077725</v>
-      </c>
-      <c r="H86" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">0.93097 BIO-k_c + </v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>174</v>
-      </c>
-      <c r="B87" t="str">
-        <f t="shared" si="6"/>
-        <v>MET-mg2_c --&gt; 0.024305 BIO-mg2_c</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="D87" s="45">
-        <v>-6.3606734612543195E-2</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F87" s="46">
-        <v>24.305</v>
-      </c>
-      <c r="G87" s="47">
-        <f t="shared" si="7"/>
-        <v>6.0980567525815141E-2</v>
-      </c>
-      <c r="H87" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">0.060981 BIO-mg2_c + </v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>177</v>
-      </c>
-      <c r="B88" t="str">
-        <f t="shared" si="6"/>
-        <v>MET-mn2_c --&gt; 0.054938 BIO-mn2_c</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D88" s="45">
-        <v>-9.3800311053293802E-5</v>
-      </c>
-      <c r="E88" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="F88" s="46">
-        <v>54.938043999999998</v>
-      </c>
-      <c r="G88" s="47">
-        <f t="shared" si="7"/>
-        <v>2.0326855841938381E-4</v>
-      </c>
-      <c r="H88" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">0.000203 BIO-mn2_c + </v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>180</v>
-      </c>
-      <c r="B89" t="str">
-        <f t="shared" si="6"/>
-        <v>MET-zn2_c --&gt; 0.06538 BIO-zn2_c</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D89" s="45">
-        <v>-1.57638593326997E-3</v>
-      </c>
-      <c r="E89" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="F89" s="46">
-        <v>65.38</v>
-      </c>
-      <c r="G89" s="47">
-        <f t="shared" si="7"/>
-        <v>4.0653711683876683E-3</v>
-      </c>
-      <c r="H89" t="str">
-        <f>ROUND(G89,6) &amp; " BIO-" &amp; C89</f>
-        <v>0.004065 BIO-zn2_c</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A91" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
-        <v>184</v>
-      </c>
-      <c r="B92" t="str">
-        <f>_xlfn.CONCAT(H94:H103) &amp; " --&gt; BIO-cofactor"</f>
-        <v>0.030019 BIO-coa_c + 0.001619 BIO-fad_c + 0.000176 BIO-hemeA_c + 0.363258 BIO-nad_c + 0.020593 BIO-nadh_c + 0.087331 BIO-nadp_c + 0.414236 BIO-nadph_c + 0.076898 BIO-ribflv_c + 0.005781 BIO-thf_c + 0.000087 BIO-thmpp_c --&gt; BIO-cofactor</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C93" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
-        <v>185</v>
-      </c>
-      <c r="B94" t="str">
-        <f t="shared" ref="B94:B103" si="9">"MET-" &amp; C94 &amp; " --&gt; " &amp; ROUND(F94/1000,6) &amp; " BIO-" &amp;C94</f>
-        <v>MET-coa_c --&gt; 0.763502 BIO-coa_c</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="D94" s="48">
-        <v>-1.9000000000000001E-4</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="F94" s="49">
-        <v>763.50236299999995</v>
-      </c>
-      <c r="G94" s="50">
-        <f t="shared" ref="G94:G103" si="10">F94*D94/SUMPRODUCT($D$94:$D$103,$F$94:$F$103)</f>
-        <v>3.0019409990825689E-2</v>
-      </c>
-      <c r="H94" t="str">
-        <f t="shared" ref="H94:H102" si="11">ROUND(G94,6) &amp; " BIO-" &amp; C94 &amp; " + "</f>
-        <v xml:space="preserve">0.030019 BIO-coa_c + </v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
-        <v>188</v>
-      </c>
-      <c r="B95" t="str">
-        <f t="shared" si="9"/>
-        <v>MET-fad_c --&gt; 0.782526 BIO-fad_c</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="D95" s="48">
-        <v>-1.0000000000000001E-5</v>
-      </c>
-      <c r="E95" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="F95" s="49">
-        <v>782.52592200000004</v>
-      </c>
-      <c r="G95" s="50">
-        <f t="shared" si="10"/>
-        <v>1.6193357307173048E-3</v>
-      </c>
-      <c r="H95" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">0.001619 BIO-fad_c + </v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
-        <v>191</v>
-      </c>
-      <c r="B96" t="str">
-        <f t="shared" si="9"/>
-        <v>MET-hemeA_c --&gt; 0.850821 BIO-hemeA_c</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="D96" s="48">
-        <v>-9.9999999999999995E-7</v>
-      </c>
-      <c r="E96" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="F96" s="49">
-        <v>850.82126000000005</v>
-      </c>
-      <c r="G96" s="50">
-        <f t="shared" si="10"/>
-        <v>1.7606640598570713E-4</v>
-      </c>
-      <c r="H96" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">0.000176 BIO-hemeA_c + </v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>194</v>
-      </c>
-      <c r="B97" t="str">
-        <f t="shared" si="9"/>
-        <v>MET-nad_c --&gt; 0.662417 BIO-nad_c</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D97" s="48">
-        <v>-2.65E-3</v>
-      </c>
-      <c r="E97" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="F97" s="49">
-        <v>662.41716199999996</v>
-      </c>
-      <c r="G97" s="50">
-        <f t="shared" si="10"/>
-        <v>0.36325835791640726</v>
-      </c>
-      <c r="H97" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">0.363258 BIO-nad_c + </v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
-        <v>197</v>
-      </c>
-      <c r="B98" t="str">
-        <f t="shared" si="9"/>
-        <v>MET-nadh_c --&gt; 0.663425 BIO-nadh_c</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D98" s="48">
-        <v>-1.4999999999999999E-4</v>
-      </c>
-      <c r="E98" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="F98" s="49">
-        <v>663.42510200000004</v>
-      </c>
-      <c r="G98" s="50">
-        <f t="shared" si="10"/>
-        <v>2.0593080857518976E-2</v>
-      </c>
-      <c r="H98" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">0.020593 BIO-nadh_c + </v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
-        <v>200</v>
-      </c>
-      <c r="B99" t="str">
-        <f t="shared" si="9"/>
-        <v>MET-nadp_c --&gt; 0.740381 BIO-nadp_c</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="D99" s="48">
-        <v>-5.6999999999999998E-4</v>
-      </c>
-      <c r="E99" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="F99" s="49">
-        <v>740.38118299999996</v>
-      </c>
-      <c r="G99" s="50">
-        <f t="shared" si="10"/>
-        <v>8.7330992118892267E-2</v>
-      </c>
-      <c r="H99" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">0.087331 BIO-nadp_c + </v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
-        <v>203</v>
-      </c>
-      <c r="B100" t="str">
-        <f t="shared" si="9"/>
-        <v>MET-nadph_c --&gt; 0.741389 BIO-nadph_c</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="D100" s="48">
-        <v>-2.7000000000000001E-3</v>
-      </c>
-      <c r="E100" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="F100" s="49">
-        <v>741.38912300000004</v>
-      </c>
-      <c r="G100" s="50">
-        <f t="shared" si="10"/>
-        <v>0.4142362868006666</v>
-      </c>
-      <c r="H100" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">0.414236 BIO-nadph_c + </v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
-        <v>206</v>
-      </c>
-      <c r="B101" t="str">
-        <f t="shared" si="9"/>
-        <v>MET-ribflv_c --&gt; 0.375356 BIO-ribflv_c</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="D101" s="48">
-        <v>-9.8999999999999999E-4</v>
-      </c>
-      <c r="E101" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="F101" s="49">
-        <v>375.35595999999998</v>
-      </c>
-      <c r="G101" s="50">
-        <f t="shared" si="10"/>
-        <v>7.6898288947422039E-2</v>
-      </c>
-      <c r="H101" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">0.076898 BIO-ribflv_c + </v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A102" t="s">
-        <v>209</v>
-      </c>
-      <c r="B102" t="str">
-        <f t="shared" si="9"/>
-        <v>MET-thf_c --&gt; 0.443413 BIO-thf_c</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D102" s="48">
-        <v>-6.3E-5</v>
-      </c>
-      <c r="E102" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="F102" s="49">
-        <v>443.41334000000001</v>
-      </c>
-      <c r="G102" s="50">
-        <f t="shared" si="10"/>
-        <v>5.7807936861084767E-3</v>
-      </c>
-      <c r="H102" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">0.005781 BIO-thf_c + </v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
-        <v>212</v>
-      </c>
-      <c r="B103" t="str">
-        <f t="shared" si="9"/>
-        <v>MET-thmpp_c --&gt; 0.422291 BIO-thmpp_c</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D103" s="48">
-        <v>-9.9999999999999995E-7</v>
-      </c>
-      <c r="E103" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="F103" s="49">
-        <v>422.29056200000002</v>
-      </c>
-      <c r="G103" s="50">
-        <f t="shared" si="10"/>
-        <v>8.738754545581575E-5</v>
-      </c>
-      <c r="H103" t="str">
-        <f>ROUND(G103,6) &amp; " BIO-" &amp; C103</f>
-        <v>0.000087 BIO-thmpp_c</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A105" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C106" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A107" t="s">
-        <v>216</v>
-      </c>
-      <c r="B107" t="str">
-        <f>"MET-" &amp; C107 &amp; " --&gt; " &amp; ROUND(F107/1000,6) &amp; " BIO-so4"</f>
-        <v>MET-so4_c --&gt; 0.096063 BIO-so4</v>
-      </c>
-      <c r="C107" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="D107" s="52">
-        <v>-3.12229450439893E-2</v>
-      </c>
-      <c r="E107" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="F107" s="51">
-        <v>96.062600000000003</v>
-      </c>
-      <c r="G107" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A109" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A111" t="s">
-        <v>220</v>
-      </c>
-      <c r="B111" t="str">
-        <f>"MET-" &amp; C111 &amp; " --&gt; " &amp; ROUND(F111/1000,6) &amp; " BIO-pi"</f>
-        <v>MET-pi_c --&gt; 0.095979 BIO-pi</v>
-      </c>
-      <c r="C111" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="D111" s="55">
-        <v>-0.10565490718788401</v>
-      </c>
-      <c r="E111" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="F111" s="54">
-        <v>95.979301000000007</v>
-      </c>
-      <c r="G111" s="56">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C96FC5D-487C-4448-9947-73226B174E09}">
-  <dimension ref="A1:K111"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
-    <col min="2" max="2" width="42.5" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="31.83203125" customWidth="1"/>
-    <col min="1015" max="1024" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="str">
-        <f>_xlfn.CONCAT(E8:E14) &amp; _xlfn.CONCAT(E16:E20)</f>
         <v>0.8831 BIO-varbiom + 0.0697 BIO-lipid + 0.0039 BIO-dna + 0.0254 BIO-metal + 0.0048 BIO-cofactor + 0.003 BIO-so4 + 0.0101 BIO-pi + 81.26 MET-atp_c + 81.26 MET-h2o_c --&gt; 81.26 MET-adp_c + 81.26 MET-pi_c + 81.26 MET-h_c</v>
       </c>
     </row>

--- a/build_model/input/BIOMASS_RBA.xlsx
+++ b/build_model/input/BIOMASS_RBA.xlsx
@@ -1,47 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejm6426/Documents/scRBA/build_model/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96B042F-AB85-EC4F-B988-815A1525A204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDE142A-74B0-0643-A0C9-57302C8598C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16020" yWindow="500" windowWidth="22380" windowHeight="19500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBABioRxns" sheetId="1" r:id="rId1"/>
     <sheet name="batch-Rabinowitz" sheetId="5" r:id="rId2"/>
-    <sheet name="metaboliteInfo" sheetId="4" r:id="rId3"/>
-    <sheet name="RBABiomass" sheetId="7" r:id="rId4"/>
-    <sheet name="RBABiomass-HVD" sheetId="3" r:id="rId5"/>
+    <sheet name="MFA" sheetId="9" r:id="rId3"/>
+    <sheet name="batch-Rabinowitz-MFA" sheetId="8" r:id="rId4"/>
+    <sheet name="metaboliteInfo" sheetId="4" r:id="rId5"/>
+    <sheet name="RBABiomass" sheetId="7" r:id="rId6"/>
+    <sheet name="RBABiomass-HVD" sheetId="3" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="Duplicates_DIY" comment="Returns all values in an array with duplicates (including duplicates) as a column. Case-sensitive by default, but set 2nd argument to false to make it case-insensitive." localSheetId="1">_xlfn.LAMBDA(_xlpm.array,_xlop.match_case,_xlfn.LET(_xlpm.col,_xlfn.TOCOL(_xlpm.array),IF('batch-Rabinowitz'!IfBlank_DIY(_xlpm.match_case,TRUE),_xlfn._xlws.FILTER(_xlpm.col,_xlfn.BYROW(--EXACT(_xlpm.col,TRANSPOSE(_xlpm.col)),_xlfn.LAMBDA(_xlpm.r,_xlfn.XMATCH(1,_xlpm.r,0,1)&lt;&gt;_xlfn.XMATCH(1,_xlpm.r,0,-1)))),_xlfn.LET(_xlpm.x,_xlfn.UNIQUE(_xlfn.VSTACK(_xlfn.UNIQUE(_xlpm.col),_xlfn.UNIQUE(_xlpm.col,,TRUE)),,TRUE),_xlfn._xlws.FILTER(_xlpm.col,ISNUMBER(MATCH(_xlpm.col,_xlpm.x,0)),_xlpm.col)))))</definedName>
+    <definedName name="Duplicates_DIY" comment="Returns all values in an array with duplicates (including duplicates) as a column. Case-sensitive by default, but set 2nd argument to false to make it case-insensitive." localSheetId="3">_xlfn.LAMBDA(_xlpm.array,_xlop.match_case,_xlfn.LET(_xlpm.col,_xlfn.TOCOL(_xlpm.array),IF('batch-Rabinowitz-MFA'!IfBlank_DIY(_xlpm.match_case,TRUE),_xlfn._xlws.FILTER(_xlpm.col,_xlfn.BYROW(--EXACT(_xlpm.col,TRANSPOSE(_xlpm.col)),_xlfn.LAMBDA(_xlpm.r,_xlfn.XMATCH(1,_xlpm.r,0,1)&lt;&gt;_xlfn.XMATCH(1,_xlpm.r,0,-1)))),_xlfn.LET(_xlpm.x,_xlfn.UNIQUE(_xlfn.VSTACK(_xlfn.UNIQUE(_xlpm.col),_xlfn.UNIQUE(_xlpm.col,,TRUE)),,TRUE),_xlfn._xlws.FILTER(_xlpm.col,ISNUMBER(MATCH(_xlpm.col,_xlpm.x,0)),_xlpm.col)))))</definedName>
     <definedName name="Duplicates_DIY" comment="Returns all values in an array with duplicates (including duplicates) as a column. Case-sensitive by default, but set 2nd argument to false to make it case-insensitive.">_xlfn.LAMBDA(_xlpm.array,_xlop.match_case,_xlfn.LET(_xlpm.col,_xlfn.TOCOL(_xlpm.array),IF(IfBlank_DIY(_xlpm.match_case,TRUE),_xlfn._xlws.FILTER(_xlpm.col,_xlfn.BYROW(--EXACT(_xlpm.col,TRANSPOSE(_xlpm.col)),_xlfn.LAMBDA(_xlpm.r,_xlfn.XMATCH(1,_xlpm.r,0,1)&lt;&gt;_xlfn.XMATCH(1,_xlpm.r,0,-1)))),_xlfn.LET(_xlpm.x,_xlfn.UNIQUE(_xlfn.VSTACK(_xlfn.UNIQUE(_xlpm.col),_xlfn.UNIQUE(_xlpm.col,,TRUE)),,TRUE),_xlfn._xlws.FILTER(_xlpm.col,ISNUMBER(MATCH(_xlpm.col,_xlpm.x,0)),_xlpm.col)))))</definedName>
     <definedName name="IfBlank_DIY" comment="Return a default value if the input is blank." localSheetId="1">_xlfn.LAMBDA(_xlpm.value,_xlpm.default,IF(_xlpm.value="",_xlpm.default,_xlpm.value))</definedName>
+    <definedName name="IfBlank_DIY" comment="Return a default value if the input is blank." localSheetId="3">_xlfn.LAMBDA(_xlpm.value,_xlpm.default,IF(_xlpm.value="",_xlpm.default,_xlpm.value))</definedName>
     <definedName name="IfBlank_DIY" comment="Return a default value if the input is blank.">_xlfn.LAMBDA(_xlpm.value,_xlpm.default,IF(_xlpm.value="",_xlpm.default,_xlpm.value))</definedName>
     <definedName name="IsElementOfSet_CaseInsensitive_DIY" comment="Checks if a value is an element of a set. Case-insensitive version." localSheetId="1">_xlfn.LAMBDA(_xlpm.element,_xlpm.array,OR(_xlpm.element=_xlpm.array))</definedName>
+    <definedName name="IsElementOfSet_CaseInsensitive_DIY" comment="Checks if a value is an element of a set. Case-insensitive version." localSheetId="3">_xlfn.LAMBDA(_xlpm.element,_xlpm.array,OR(_xlpm.element=_xlpm.array))</definedName>
     <definedName name="IsElementOfSet_CaseInsensitive_DIY" comment="Checks if a value is an element of a set. Case-insensitive version.">_xlfn.LAMBDA(_xlpm.element,_xlpm.array,OR(_xlpm.element=_xlpm.array))</definedName>
     <definedName name="IsElementOfSet_DIY" localSheetId="1">_xlfn.LAMBDA(_xlpm.element,_xlpm.array,OR(EXACT(_xlpm.element,_xlpm.array)))</definedName>
+    <definedName name="IsElementOfSet_DIY" localSheetId="3">_xlfn.LAMBDA(_xlpm.element,_xlpm.array,OR(EXACT(_xlpm.element,_xlpm.array)))</definedName>
     <definedName name="IsElementOfSet_DIY" comment="Checks if a value is an element of a set (case-sensitive).">_xlfn.LAMBDA(_xlpm.element,_xlpm.array,OR(EXACT(_xlpm.element,_xlpm.array)))</definedName>
     <definedName name="IsSubset_DIY" localSheetId="1">_xlfn.LAMBDA(_xlpm.x,_xlpm.y,AND(COUNTIF(_xlpm.y,_xlpm.x)&gt;=COUNTIF(_xlpm.x,_xlpm.x)))</definedName>
+    <definedName name="IsSubset_DIY" localSheetId="3">_xlfn.LAMBDA(_xlpm.x,_xlpm.y,AND(COUNTIF(_xlpm.y,_xlpm.x)&gt;=COUNTIF(_xlpm.x,_xlpm.x)))</definedName>
     <definedName name="IsSubset_DIY">_xlfn.LAMBDA(_xlpm.x,_xlpm.y,AND(COUNTIF(_xlpm.y,_xlpm.x)&gt;=COUNTIF(_xlpm.x,_xlpm.x)))</definedName>
     <definedName name="LongestNumAtEnd_DIY" comment="Checks the end of a string for the longest number, including extra zeros (e.g., &quot;04&quot; in t04) unless the optional 2nd argument is set to 1 or TRUE." localSheetId="1">_xlfn.LAMBDA(_xlpm.t,_xlop.min_digits,_xlfn.LET(_xlpm.n,RIGHT(_xlpm.t,_xlfn.SEQUENCE(LEN(_xlpm.t))),_xlpm.sortcol,IF(NOT(ISERROR(_xlfn.NUMBERVALUE(_xlpm.n)+TEXT(LEFT(_xlpm.n,1),0))),LEN(_xlpm.n),0),_xlpm.nmax,_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn.HSTACK(_xlpm.n,_xlpm.sortcol),2,-1),1),IF(_xlfn.CHOOSECOLS(_xlpm.nmax,2)=0,"",IF('batch-Rabinowitz'!IfBlank_DIY(_xlpm.min_digits,FALSE),_xlfn.NUMBERVALUE(_xlfn.CHOOSECOLS(_xlpm.nmax,1)),_xlfn.CHOOSECOLS(_xlpm.nmax,1)))))</definedName>
+    <definedName name="LongestNumAtEnd_DIY" comment="Checks the end of a string for the longest number, including extra zeros (e.g., &quot;04&quot; in t04) unless the optional 2nd argument is set to 1 or TRUE." localSheetId="3">_xlfn.LAMBDA(_xlpm.t,_xlop.min_digits,_xlfn.LET(_xlpm.n,RIGHT(_xlpm.t,_xlfn.SEQUENCE(LEN(_xlpm.t))),_xlpm.sortcol,IF(NOT(ISERROR(_xlfn.NUMBERVALUE(_xlpm.n)+TEXT(LEFT(_xlpm.n,1),0))),LEN(_xlpm.n),0),_xlpm.nmax,_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn.HSTACK(_xlpm.n,_xlpm.sortcol),2,-1),1),IF(_xlfn.CHOOSECOLS(_xlpm.nmax,2)=0,"",IF('batch-Rabinowitz-MFA'!IfBlank_DIY(_xlpm.min_digits,FALSE),_xlfn.NUMBERVALUE(_xlfn.CHOOSECOLS(_xlpm.nmax,1)),_xlfn.CHOOSECOLS(_xlpm.nmax,1)))))</definedName>
     <definedName name="LongestNumAtEnd_DIY" comment="Checks the end of a string for the longest number, including extra zeros (e.g., &quot;04&quot; in t04) unless the optional 2nd argument is set to 1 or TRUE.">_xlfn.LAMBDA(_xlpm.t,_xlop.min_digits,_xlfn.LET(_xlpm.n,RIGHT(_xlpm.t,_xlfn.SEQUENCE(LEN(_xlpm.t))),_xlpm.sortcol,IF(NOT(ISERROR(_xlfn.NUMBERVALUE(_xlpm.n)+TEXT(LEFT(_xlpm.n,1),0))),LEN(_xlpm.n),0),_xlpm.nmax,_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn.HSTACK(_xlpm.n,_xlpm.sortcol),2,-1),1),IF(_xlfn.CHOOSECOLS(_xlpm.nmax,2)=0,"",IF(IfBlank_DIY(_xlpm.min_digits,FALSE),_xlfn.NUMBERVALUE(_xlfn.CHOOSECOLS(_xlpm.nmax,1)),_xlfn.CHOOSECOLS(_xlpm.nmax,1)))))</definedName>
     <definedName name="LongestNumAtStart_DIY" comment="Checks the start of a string for the longest number, including extra zeros (e.g., &quot;04&quot; in 04t) unless the optional 2nd argument is set to 1 or TRUE." localSheetId="1">_xlfn.LAMBDA(_xlpm.t,_xlop.min_digits,_xlfn.LET(_xlpm.n,LEFT(_xlpm.t,_xlfn.SEQUENCE(LEN(_xlpm.t))),_xlpm.sortcol,IF(NOT(ISERROR(_xlfn.NUMBERVALUE(_xlpm.n)+TEXT(RIGHT(_xlpm.n,1),0))),LEN(_xlpm.n),0),_xlpm.nmax,_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn.HSTACK(_xlpm.n,_xlpm.sortcol),2,-1),1),IF(_xlfn.CHOOSECOLS(_xlpm.nmax,2)=0,"",IF('batch-Rabinowitz'!IfBlank_DIY(_xlpm.min_digits,FALSE),_xlfn.NUMBERVALUE(_xlfn.CHOOSECOLS(_xlpm.nmax,1)),_xlfn.CHOOSECOLS(_xlpm.nmax,1)))))</definedName>
+    <definedName name="LongestNumAtStart_DIY" comment="Checks the start of a string for the longest number, including extra zeros (e.g., &quot;04&quot; in 04t) unless the optional 2nd argument is set to 1 or TRUE." localSheetId="3">_xlfn.LAMBDA(_xlpm.t,_xlop.min_digits,_xlfn.LET(_xlpm.n,LEFT(_xlpm.t,_xlfn.SEQUENCE(LEN(_xlpm.t))),_xlpm.sortcol,IF(NOT(ISERROR(_xlfn.NUMBERVALUE(_xlpm.n)+TEXT(RIGHT(_xlpm.n,1),0))),LEN(_xlpm.n),0),_xlpm.nmax,_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn.HSTACK(_xlpm.n,_xlpm.sortcol),2,-1),1),IF(_xlfn.CHOOSECOLS(_xlpm.nmax,2)=0,"",IF('batch-Rabinowitz-MFA'!IfBlank_DIY(_xlpm.min_digits,FALSE),_xlfn.NUMBERVALUE(_xlfn.CHOOSECOLS(_xlpm.nmax,1)),_xlfn.CHOOSECOLS(_xlpm.nmax,1)))))</definedName>
     <definedName name="LongestNumAtStart_DIY" comment="Checks the start of a string for the longest number, including extra zeros (e.g., &quot;04&quot; in 04t) unless the optional 2nd argument is set to 1 or TRUE.">_xlfn.LAMBDA(_xlpm.t,_xlop.min_digits,_xlfn.LET(_xlpm.n,LEFT(_xlpm.t,_xlfn.SEQUENCE(LEN(_xlpm.t))),_xlpm.sortcol,IF(NOT(ISERROR(_xlfn.NUMBERVALUE(_xlpm.n)+TEXT(RIGHT(_xlpm.n,1),0))),LEN(_xlpm.n),0),_xlpm.nmax,_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn.HSTACK(_xlpm.n,_xlpm.sortcol),2,-1),1),IF(_xlfn.CHOOSECOLS(_xlpm.nmax,2)=0,"",IF(IfBlank_DIY(_xlpm.min_digits,FALSE),_xlfn.NUMBERVALUE(_xlfn.CHOOSECOLS(_xlpm.nmax,1)),_xlfn.CHOOSECOLS(_xlpm.nmax,1)))))</definedName>
     <definedName name="nonblanks_DIY" comment="Returns all non-blank rows of an array." localSheetId="1">_xlfn.LAMBDA(_xlpm.array,_xlop.num_rows_dropped,_xlop.num_cols_dropped,_xlfn.DROP(_xlfn._xlws.FILTER(_xlpm.array,NOT(ISBLANK(_xlpm.array))),IFERROR(_xlfn.NUMBERVALUE(_xlpm.num_rows_dropped),0),IFERROR(_xlfn.NUMBERVALUE(_xlpm.num_cols_dropped),0)))</definedName>
+    <definedName name="nonblanks_DIY" comment="Returns all non-blank rows of an array." localSheetId="3">_xlfn.LAMBDA(_xlpm.array,_xlop.num_rows_dropped,_xlop.num_cols_dropped,_xlfn.DROP(_xlfn._xlws.FILTER(_xlpm.array,NOT(ISBLANK(_xlpm.array))),IFERROR(_xlfn.NUMBERVALUE(_xlpm.num_rows_dropped),0),IFERROR(_xlfn.NUMBERVALUE(_xlpm.num_cols_dropped),0)))</definedName>
     <definedName name="nonblanks_DIY" comment="Returns all non-blank rows of an array.">_xlfn.LAMBDA(_xlpm.array,_xlop.num_rows_dropped,_xlop.num_cols_dropped,_xlfn.DROP(_xlfn._xlws.FILTER(_xlpm.array,NOT(ISBLANK(_xlpm.array))),IFERROR(_xlfn.NUMBERVALUE(_xlpm.num_rows_dropped),0),IFERROR(_xlfn.NUMBERVALUE(_xlpm.num_cols_dropped),0)))</definedName>
     <definedName name="TEXTBETWEEN_DIY" localSheetId="1">_xlfn.LAMBDA(_xlpm.cells,_xlpm.delim,_xlop.adj,_xlfn.LET(_xlpm.adjust,IF(_xlfn.ISOMITTED(_xlpm.adj),COLUMN()-COLUMN(_xlpm.cells),_xlpm.adj),_xlfn.IFS(_xlpm.adjust=1,_xlfn.TEXTBEFORE(_xlpm.cells,_xlpm.delim,_xlpm.adjust,,,_xlpm.cells),1=1,_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(_xlpm.cells,_xlpm.delim,_xlpm.adjust,,,_xlpm.cells),_xlpm.delim,_xlpm.adjust-1,,,_xlfn.TEXTBEFORE(_xlpm.cells,_xlpm.delim,_xlpm.adjust,,,_xlpm.cells)))))</definedName>
+    <definedName name="TEXTBETWEEN_DIY" localSheetId="3">_xlfn.LAMBDA(_xlpm.cells,_xlpm.delim,_xlop.adj,_xlfn.LET(_xlpm.adjust,IF(_xlfn.ISOMITTED(_xlpm.adj),COLUMN()-COLUMN(_xlpm.cells),_xlpm.adj),_xlfn.IFS(_xlpm.adjust=1,_xlfn.TEXTBEFORE(_xlpm.cells,_xlpm.delim,_xlpm.adjust,,,_xlpm.cells),1=1,_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(_xlpm.cells,_xlpm.delim,_xlpm.adjust,,,_xlpm.cells),_xlpm.delim,_xlpm.adjust-1,,,_xlfn.TEXTBEFORE(_xlpm.cells,_xlpm.delim,_xlpm.adjust,,,_xlpm.cells)))))</definedName>
     <definedName name="TEXTBETWEEN_DIY">_xlfn.LAMBDA(_xlpm.cells,_xlpm.delim,_xlop.adj,_xlfn.LET(_xlpm.adjust,IF(_xlfn.ISOMITTED(_xlpm.adj),COLUMN()-COLUMN(_xlpm.cells),_xlpm.adj),_xlfn.IFS(_xlpm.adjust=1,_xlfn.TEXTBEFORE(_xlpm.cells,_xlpm.delim,_xlpm.adjust,,,_xlpm.cells),1=1,_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(_xlpm.cells,_xlpm.delim,_xlpm.adjust,,,_xlpm.cells),_xlpm.delim,_xlpm.adjust-1,,,_xlfn.TEXTBEFORE(_xlpm.cells,_xlpm.delim,_xlpm.adjust,,,_xlpm.cells)))))</definedName>
     <definedName name="TextSplitArray_DIY" comment="Like TEXTSPLIT but for an array; input cells and then a string to split them by. If the input array is a row, it's split vertically; otherwise, it's split horizontally." localSheetId="1">_xlfn.LAMBDA(_xlpm.cells,_xlop.delimiter,_xlfn.LET(_xlpm.str,'batch-Rabinowitz'!IfBlank_DIY(_xlpm.delimiter," "),_xlpm.n,MAX((LEN(_xlpm.cells)-LEN(SUBSTITUTE(_xlpm.cells,_xlpm.str,""))+1)/LEN(_xlpm.str)),_xlfn.TEXTBEFORE(IFERROR(_xlfn.TEXTAFTER(_xlpm.cells,_xlpm.str,IF(COLUMNS(_xlpm.cells)&gt;1,_xlfn.SEQUENCE(_xlpm.n,1,0),_xlfn.SEQUENCE(1,_xlpm.n,0)),,,""),_xlpm.cells),_xlpm.str,,,1,"")))</definedName>
+    <definedName name="TextSplitArray_DIY" comment="Like TEXTSPLIT but for an array; input cells and then a string to split them by. If the input array is a row, it's split vertically; otherwise, it's split horizontally." localSheetId="3">_xlfn.LAMBDA(_xlpm.cells,_xlop.delimiter,_xlfn.LET(_xlpm.str,'batch-Rabinowitz-MFA'!IfBlank_DIY(_xlpm.delimiter," "),_xlpm.n,MAX((LEN(_xlpm.cells)-LEN(SUBSTITUTE(_xlpm.cells,_xlpm.str,""))+1)/LEN(_xlpm.str)),_xlfn.TEXTBEFORE(IFERROR(_xlfn.TEXTAFTER(_xlpm.cells,_xlpm.str,IF(COLUMNS(_xlpm.cells)&gt;1,_xlfn.SEQUENCE(_xlpm.n,1,0),_xlfn.SEQUENCE(1,_xlpm.n,0)),,,""),_xlpm.cells),_xlpm.str,,,1,"")))</definedName>
     <definedName name="TextSplitArray_DIY" comment="Like TEXTSPLIT but for an array; input cells and then a string to split them by. If the input array is a row, it's split vertically; otherwise, it's split horizontally.">_xlfn.LAMBDA(_xlpm.cells,_xlop.delimiter,_xlfn.LET(_xlpm.str,IfBlank_DIY(_xlpm.delimiter," "),_xlpm.n,MAX((LEN(_xlpm.cells)-LEN(SUBSTITUTE(_xlpm.cells,_xlpm.str,""))+1)/LEN(_xlpm.str)),_xlfn.TEXTBEFORE(IFERROR(_xlfn.TEXTAFTER(_xlpm.cells,_xlpm.str,IF(COLUMNS(_xlpm.cells)&gt;1,_xlfn.SEQUENCE(_xlpm.n,1,0),_xlfn.SEQUENCE(1,_xlpm.n,0)),,,""),_xlpm.cells),_xlpm.str,,,1,"")))</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -85,6 +97,24 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={6478232A-1F11-F547-B400-2AB0C22E1989}</author>
+  </authors>
+  <commentList>
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{6478232A-1F11-F547-B400-2AB0C22E1989}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Currently rounds all coefficients to 6 decimals; in the future, could consider scientific notation (e.g., 1E-6) if I get extra time, since GAMS does support it.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={C3CBE6C1-B68C-D247-BDA0-6F2E4D4CD51B}</author>
   </authors>
   <commentList>
@@ -123,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="584">
   <si>
     <t>rxn_id</t>
   </si>
@@ -4311,6 +4341,1670 @@
   </si>
   <si>
     <t>GSM stoichiometric coefficients:</t>
+  </si>
+  <si>
+    <r>
+      <t>"alatrna_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.460516</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"argtrna_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.181944</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"asntrna_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.218710</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"asptrna_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.218710</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"cystrna_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.006599</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"glntrna_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.364830</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"glutrna_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.364830</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"histrna_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.090972</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"iletrna_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.277629</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"leutrna_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.377557</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"lystrna_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.309682</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"mettrna_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.053735</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"phetrna_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.177230</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"protrna_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.198913</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"sertrna_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.251233</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"thrtrna_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.262546</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"trptrna_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.030638</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"tyrtrna_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.092386</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"valtrna_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.345505</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"mannan_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.384230</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"13BDglucan_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.596242</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"16BDglucan_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.156906</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"chtn_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.014097</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"glycogen_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.287457</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"tre_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.014409</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"ergstest_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.006778</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"ergst_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.026475</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"pail_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.006882</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"pc_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.025678</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"pe_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.006901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"ps_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.005927</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"tag_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.006829</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"ipcbiom_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.003830</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"ffabiom_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.001474</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"ctp_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.093742</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"gtp_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.096469</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"utp_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.125619</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"datp_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.003953</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"dctp_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.002668</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"dgtp_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.002668</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"dttp_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.003953</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"k_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.603650</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"mn2_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.000094</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"zn2_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.001576</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"atp_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-144.262612</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"h2o_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-134.759741</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"amp_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.703201</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"adp_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>139.462942</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"h_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>139.462942</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"pi_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>139.357287</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"ppi_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>5.128742</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"glytrna_c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.419036</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>0.460516 ala__L_c + 0.181944 arg__L_c + 0.218710 asn__L_c + 0.218710 asp__L_c + 0.006599 cys__L_c + 0.364830 gln__L_c + 0.364830 glu__L_c + 0.419036 gly_c + 0.090972 his__L_c + 0.277629 ile__L_c + 0.377557 leu__L_c + 0.309682 lys__L_c + 0.053735 met__L_c + 0.177230 phe__L_c + 0.198913 pro__L_c + 0.251233 ser__L_c + 0.262546 thr__L_c + 0.030638 trp__L_c + 0.092386 tyr__L_c + 0.345505 val__L_c + 0.384230 mannan_c + 0.596242 13BDglucan_c + 0.156906 16BDglucan_c + 0.014097 chtn_c + 0.287457 glycogen_c + 0.014409 tre_c + 0.006778 ergstest_c + 0.026475 ergst_c + 0.006882 pail_c + 0.025678 pc_c + 0.006901 pe_c + 0.005927 ps_c + 0.006829 tag_c + 0.003830 ipcbiom_c + 0.001474 ffabiom_c + 0.093742 ctp_c + 0.096469 gtp_c + 0.125619 utp_c + 0.003953 datp_c + 0.002668 dctp_c + 0.002668 dgtp_c + 0.003953 dttp_c + 0.001286 ca2_c + 0.000114 cu2_c + 0.000664 fe2_c + 0.603650 k_c + 0.063607 mg2_c + 0.000094 mn2_c + 0.001576 zn2_c + 0.031223 so4_c + 144.262612 atp_c + 134.759741 h2o_c --&gt; 4.703201 amp_c + 139.462942 adp_c + 139.462942 h_c + 139.357287 pi_c + 5.128742 ppi_c</t>
+  </si>
+  <si>
+    <t>converted to JSON form:</t>
+  </si>
+  <si>
+    <t>biomass equation from MFA results:</t>
   </si>
 </sst>
 </file>
@@ -4325,7 +6019,7 @@
     <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="169" formatCode="0.000000000000000%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4407,8 +6101,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFA31515"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4487,8 +6187,14 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC1F0C8"/>
+        <bgColor rgb="FFC1F0C8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -4591,6 +6297,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF196B24"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF196B24"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF196B24"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF196B24"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4599,7 +6320,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4753,12 +6474,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="4" applyFill="1" applyBorder="1"/>
@@ -4769,6 +6484,16 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -4777,7 +6502,7 @@
     <cellStyle name="Normal 3" xfId="4" xr:uid="{2758787E-00E6-2749-AF85-401C19BF14C0}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="56">
     <dxf>
       <fill>
         <patternFill>
@@ -4791,6 +6516,205 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -5108,38 +7032,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C0F3E509-47ED-294D-80DD-CFD493369AA3}" name="ExtraRxns2511" displayName="ExtraRxns2511" ref="X5:Z17" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C0F3E509-47ED-294D-80DD-CFD493369AA3}" name="ExtraRxns2511" displayName="ExtraRxns2511" ref="X5:Z17" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="X5:Z17" xr:uid="{FE7B857A-6163-784B-9297-DC54E624BDF2}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F5018EEF-D7DA-5F4D-8739-C1CC54AF082E}" name="rxn description or data (optional)" dataDxfId="25" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{4DBE0BFD-D45C-894F-8934-910CDB550998}" name="name" dataDxfId="24" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{D55D4CED-07A9-3744-818A-42B81B1DCE1A}" name="stoichiometry" dataDxfId="23" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{F5018EEF-D7DA-5F4D-8739-C1CC54AF082E}" name="rxn description or data (optional)" dataDxfId="53" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{4DBE0BFD-D45C-894F-8934-910CDB550998}" name="name" dataDxfId="52" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{D55D4CED-07A9-3744-818A-42B81B1DCE1A}" name="stoichiometry" dataDxfId="51" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{01763AE5-B7A4-C64B-AD56-C7C56568C074}" name="biomassComponents2612" displayName="biomassComponents2612" ref="P5:V14" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" dataCellStyle="Percent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{01763AE5-B7A4-C64B-AD56-C7C56568C074}" name="biomassComponents2612" displayName="biomassComponents2612" ref="P5:V14" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" dataCellStyle="Percent">
   <autoFilter ref="P5:V14" xr:uid="{FF498876-BCFA-DE44-AB80-834F76DB6419}"/>
   <tableColumns count="7">
-    <tableColumn id="4" xr3:uid="{157AF8C9-2BF1-A24F-A008-E2511B8767B2}" name="rxn name" dataDxfId="20" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{157AF8C9-2BF1-A24F-A008-E2511B8767B2}" name="rxn name" dataDxfId="48" dataCellStyle="Percent">
       <calculatedColumnFormula>O6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BCD92397-1C82-8348-A978-05B0CB2AD8EA}" name="product name" dataDxfId="19" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{BCD92397-1C82-8348-A978-05B0CB2AD8EA}" name="product name" dataDxfId="47" dataCellStyle="Percent">
       <calculatedColumnFormula>SUBSTITUTE(LOWER(biomassComponents2612[[#This Row],[rxn name]]),"biosyn-","BIO-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DB4182DF-660B-A749-AABA-40B7F3C720D0}" name="original coeffs from input" dataDxfId="18" dataCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{DB4182DF-660B-A749-AABA-40B7F3C720D0}" name="original coeffs from input" dataDxfId="46" dataCellStyle="Percent">
       <calculatedColumnFormula array="1">SUM(_xlfn._xlws.FILTER(-mets2713[MW for biomass normalization (g/mol)]*mets2713[normalized coeffs]/1000,mets2713[category]=_xlfn.TEXTAFTER(O6,"BIOSYN-"),""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D82D6910-D5D0-A244-8671-03CEE1409563}" name="pre-determined coeffs" dataDxfId="17" dataCellStyle="Percent"/>
-    <tableColumn id="1" xr3:uid="{792B1EC8-637D-AE4B-A1D3-0323A667081C}" name="normalized coeffs" dataDxfId="16" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{D82D6910-D5D0-A244-8671-03CEE1409563}" name="pre-determined coeffs" dataDxfId="45" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{792B1EC8-637D-AE4B-A1D3-0323A667081C}" name="normalized coeffs" dataDxfId="44" dataCellStyle="Percent">
       <calculatedColumnFormula array="1">IF(biomassComponents2612[[#This Row],[pre-determined coeffs]]&lt;&gt;"",biomassComponents2612[[#This Row],[pre-determined coeffs]]*IF(SUM(biomassComponents2612[pre-determined coeffs])&gt;1,1/SUM(biomassComponents2612[pre-determined coeffs]),1)*(1-SUM(_xlfn._xlws.FILTER(biomassComponents2612[original coeffs from input],biomassComponents2612[pre-determined coeffs]=""))),biomassComponents2612[[#This Row],[original coeffs from input]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{223ED0EC-00A9-EA41-90D9-FA9A479A63AF}" name="stoichiometry (if needed)" dataDxfId="15" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{223ED0EC-00A9-EA41-90D9-FA9A479A63AF}" name="stoichiometry (if needed)" dataDxfId="43" dataCellStyle="Percent">
       <calculatedColumnFormula array="1">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-[1]!mets[MW for biomass normalization (g/mol)]*[1]!mets[normalized coeffs]*(biomassComponents2612[[#This Row],[normalized coeffs]]/biomassComponents2612[[#This Row],[original coeffs from input]])/(1000*biomassComponents2612[[#This Row],[normalized coeffs]]),6)&amp;" BIO-"&amp;[1]!mets[name],[1]!mets[category]=_xlfn.TEXTAFTER(O6,"BIOSYN-"),""))&amp;" --&gt; "&amp;biomassComponents2612[[#This Row],[product name]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{38AAF5B7-6799-FA4C-B87A-F81B4CFF12DD}" name="new GSM coeffs" dataDxfId="14" dataCellStyle="Percent">
+    <tableColumn id="7" xr3:uid="{38AAF5B7-6799-FA4C-B87A-F81B4CFF12DD}" name="new GSM coeffs" dataDxfId="42" dataCellStyle="Percent">
       <calculatedColumnFormula array="1">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER((-mets2713[normalized coeffs]*biomassComponents2612[[#This Row],[normalized coeffs]]/biomassComponents2612[[#This Row],[original coeffs from input]])&amp;" BIO-"&amp;mets2713[name],mets2713[category]=_xlfn.TEXTAFTER(P6,"BIOSYN-"),""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5148,47 +7072,47 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2B1B8A99-D019-364E-B479-31FED72F0D28}" name="mets2713" displayName="mets2713" ref="A5:M95" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2B1B8A99-D019-364E-B479-31FED72F0D28}" name="mets2713" displayName="mets2713" ref="A5:M95" totalsRowShown="0" headerRowDxfId="41">
   <autoFilter ref="A5:M95" xr:uid="{A59107F0-EED3-5F4B-9DA5-382606291CC5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:M95">
     <sortCondition ref="D5:D95"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{B2FC23D8-FC54-B041-A858-29396B407CE3}" name="pasted JSON metabolite keys and values from GSM biomass rxn"/>
-    <tableColumn id="2" xr3:uid="{21D10AD7-1D35-2A46-B8EF-79A6D70D5B45}" name="name" dataDxfId="12">
+    <tableColumn id="2" xr3:uid="{21D10AD7-1D35-2A46-B8EF-79A6D70D5B45}" name="name" dataDxfId="40">
       <calculatedColumnFormula>SUBSTITUTE(_xlfn.TEXTBEFORE(mets2713[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4E4026AA-D599-2C4C-92A4-C95CF70C7C1B}" name="name w/o location" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{4E4026AA-D599-2C4C-92A4-C95CF70C7C1B}" name="name w/o location" dataDxfId="39">
       <calculatedColumnFormula>_xlfn.TEXTBEFORE(mets2713[[#This Row],[name]],"_",-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9F7B0518-AC5B-5348-8725-EA09B6FECB7C}" name="category" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{9F7B0518-AC5B-5348-8725-EA09B6FECB7C}" name="category" dataDxfId="38">
       <calculatedColumnFormula>_xlfn.XLOOKUP(mets2713[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8C51D09F-8642-D94D-8BA0-15212C7D5094}" name="MW for biomass normalization (g/mol)" dataDxfId="9">
+    <tableColumn id="5" xr3:uid="{8C51D09F-8642-D94D-8BA0-15212C7D5094}" name="MW for biomass normalization (g/mol)" dataDxfId="37">
       <calculatedColumnFormula>_xlfn.XLOOKUP(mets2713[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{19167507-6454-6F4D-AD6B-6C9AEA7065B5}" name="raw (GSM) coefficient" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{19167507-6454-6F4D-AD6B-6C9AEA7065B5}" name="raw (GSM) coefficient" dataDxfId="36">
       <calculatedColumnFormula>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets2713[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FE61D089-B2D2-914F-A854-C2D395D0A7EC}" name="coeff. w/o GAM" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{FE61D089-B2D2-914F-A854-C2D395D0A7EC}" name="coeff. w/o GAM" dataDxfId="35">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.id,mets2713[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets2713[[#This Row],[raw (GSM) coefficient]])*(ABS(mets2713[[#This Row],[raw (GSM) coefficient]])-$J$2),mets2713[[#This Row],[raw (GSM) coefficient]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6106706A-24A4-B349-BB82-BB3A886479E4}" name="coeffs after extra operations" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{6106706A-24A4-B349-BB82-BB3A886479E4}" name="coeffs after extra operations" dataDxfId="34">
       <calculatedColumnFormula>mets2713[[#This Row],[coeff. w/o GAM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{FEAE8E31-B137-CC46-9CBE-533B680D0D9F}" name="normalized coeffs" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{FEAE8E31-B137-CC46-9CBE-533B680D0D9F}" name="normalized coeffs" dataDxfId="33">
       <calculatedColumnFormula>H6/($H$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{DD0B9EA5-B606-8648-9646-464B4D4B754F}" name="normalized coeff. w/ updated GAM" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{DD0B9EA5-B606-8648-9646-464B4D4B754F}" name="normalized coeff. w/ updated GAM" dataDxfId="32">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.id,mets2713[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets2713[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{584247CA-83EC-444B-8E28-A8A70D1A47F0}" name="biomass equation name">
       <calculatedColumnFormula array="1">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets2713[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets2713[[#This Row],[name]],TRUE,mets2713[[#This Row],[category]]&amp;"-"&amp;mets2713[[#This Row],[name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{8C9C5065-9670-254B-9A52-B076DE6B8F41}" name="biomass equation" dataDxfId="3">
+    <tableColumn id="12" xr3:uid="{8C9C5065-9670-254B-9A52-B076DE6B8F41}" name="biomass equation" dataDxfId="31">
       <calculatedColumnFormula array="1">IF(IsElementOfSet_DIY(mets2713[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets2713[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets2713[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets2713[[#This Row],[category]]="DNA")+(mets2713[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets2713[[#This Row],[name]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{9239BE10-54C3-B341-8336-29E7A083E000}" name="new GSM coeffs" dataDxfId="2">
+    <tableColumn id="13" xr3:uid="{9239BE10-54C3-B341-8336-29E7A083E000}" name="new GSM coeffs" dataDxfId="30">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets2713[[#This Row],[name w/o location]],4)="trna","PROT",mets2713[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents2612[normalized coeffs],biomassComponents2612[original coeffs from input]),(biomassComponents2612[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets2713[[#This Row],[name w/o location]]="ppi",((biomassComponents2612[rxn name]="BIOSYN-DNA"))+((biomassComponents2612[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets2713[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets2713[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets2713[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5197,6 +7121,95 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5B954DCB-5132-B648-A198-72EE875B52E7}" name="ExtraRxns25116" displayName="ExtraRxns25116" ref="X5:Z17" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="X5:Z17" xr:uid="{FE7B857A-6163-784B-9297-DC54E624BDF2}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2C4B838A-88D0-DE43-AF60-25B549AD84DA}" name="rxn description or data (optional)" dataDxfId="27" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{32E3B423-7241-674D-9FFE-53E56624C889}" name="name" dataDxfId="26" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{34934F88-6D43-8C44-8219-B0B6CBEA7CDB}" name="stoichiometry" dataDxfId="25" dataCellStyle="Normal 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4C3E100B-F032-1644-933A-EB6753D3FA0C}" name="biomassComponents26127" displayName="biomassComponents26127" ref="P5:V14" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" dataCellStyle="Percent">
+  <autoFilter ref="P5:V14" xr:uid="{FF498876-BCFA-DE44-AB80-834F76DB6419}"/>
+  <tableColumns count="7">
+    <tableColumn id="4" xr3:uid="{3414F231-978D-C24A-AF8B-F8AD1A6DDEFF}" name="rxn name" dataDxfId="22" dataCellStyle="Percent">
+      <calculatedColumnFormula>O6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{A5C9E29F-A837-F34D-A9FF-F7B4628B7368}" name="product name" dataDxfId="21" dataCellStyle="Percent">
+      <calculatedColumnFormula>SUBSTITUTE(LOWER(biomassComponents26127[[#This Row],[rxn name]]),"biosyn-","BIO-")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{EDE0047C-F965-2543-A331-835F0AF6AFBC}" name="original coeffs from input" dataDxfId="20" dataCellStyle="Percent">
+      <calculatedColumnFormula array="1">SUM(_xlfn._xlws.FILTER(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]/1000,mets27138[category]=_xlfn.TEXTAFTER(O6,"BIOSYN-"),""))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{E6EEE31A-5C8E-6D47-825E-A600442A0976}" name="pre-determined coeffs" dataDxfId="19" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{3A77ECC4-5759-CD4D-AD06-6F7FA214DE96}" name="normalized coeffs" dataDxfId="18" dataCellStyle="Percent">
+      <calculatedColumnFormula array="1">IF(biomassComponents26127[[#This Row],[pre-determined coeffs]]&lt;&gt;"",biomassComponents26127[[#This Row],[pre-determined coeffs]]*IF(SUM(biomassComponents26127[pre-determined coeffs])&gt;1,1/SUM(biomassComponents26127[pre-determined coeffs]),1)*(1-SUM(_xlfn._xlws.FILTER(biomassComponents26127[original coeffs from input],biomassComponents26127[pre-determined coeffs]=""))),biomassComponents26127[[#This Row],[original coeffs from input]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{AD5EDB31-F481-2C42-B2E1-5B146377D912}" name="stoichiometry (if needed)" dataDxfId="17" dataCellStyle="Percent">
+      <calculatedColumnFormula array="1">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-[1]!mets[MW for biomass normalization (g/mol)]*[1]!mets[normalized coeffs]*(biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])/(1000*biomassComponents26127[[#This Row],[normalized coeffs]]),6)&amp;" BIO-"&amp;[1]!mets[name],[1]!mets[category]=_xlfn.TEXTAFTER(O6,"BIOSYN-"),""))&amp;" --&gt; "&amp;biomassComponents26127[[#This Row],[product name]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{14F95955-CFB4-854E-96DE-75DB2BBF73CC}" name="new GSM coeffs" dataDxfId="16" dataCellStyle="Percent">
+      <calculatedColumnFormula array="1">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER((-mets27138[normalized coeffs]*biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(P6,"BIOSYN-"),""))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C74BDE9C-8016-A443-AD19-7E388520C1C1}" name="mets27138" displayName="mets27138" ref="A5:M62" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="A5:M62" xr:uid="{A59107F0-EED3-5F4B-9DA5-382606291CC5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:M62">
+    <sortCondition ref="D5:D62"/>
+  </sortState>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{FC6CADAF-3215-ED45-B07F-54E3401CE993}" name="pasted JSON metabolite keys and values from GSM biomass rxn"/>
+    <tableColumn id="2" xr3:uid="{24489045-E165-CB40-B237-C29AADCE9119}" name="name" dataDxfId="14">
+      <calculatedColumnFormula>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{AC021236-F829-054B-9DF7-F4069C22F6E2}" name="name w/o location" dataDxfId="13">
+      <calculatedColumnFormula>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{684FD1E5-C243-6544-BE3A-390A4F8068FD}" name="category" dataDxfId="12">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{6542B96A-8D4C-8048-A4EB-BFDDC0589254}" name="MW for biomass normalization (g/mol)" dataDxfId="11">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{6025C42B-F817-D848-964D-CAF29F67507C}" name="raw (GSM) coefficient" dataDxfId="10">
+      <calculatedColumnFormula>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{FD3458FE-588F-F847-B26C-F346C19662B3}" name="coeff. w/o GAM" dataDxfId="9">
+      <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{DC080112-FE1D-D44F-8CBC-80B5C15652FC}" name="coeffs after extra operations" dataDxfId="8">
+      <calculatedColumnFormula>mets27138[[#This Row],[coeff. w/o GAM]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{3E0A2606-6B6D-614E-87E0-388E2778043C}" name="normalized coeffs" dataDxfId="7">
+      <calculatedColumnFormula>H6/($H$3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{70294DCC-B6F9-E54C-9EEF-AF16AD343748}" name="normalized coeff. w/ updated GAM" dataDxfId="6">
+      <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{8C29C9BF-A830-D149-8E1B-72A9AF24D72B}" name="biomass equation name">
+      <calculatedColumnFormula array="1">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{1B5962C5-C1C7-1E44-9F27-A6B8DC720069}" name="biomass equation" dataDxfId="5">
+      <calculatedColumnFormula array="1">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{24C86DA1-94D1-8F46-9615-B1C1B2BC5477}" name="new GSM coeffs" dataDxfId="4">
+      <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA2C806C-897B-5147-A380-91890FB6F1D0}" name="metaboliteInfo" displayName="metaboliteInfo" ref="A2:E118" totalsRowShown="0">
   <autoFilter ref="A2:E118" xr:uid="{EB067577-3D81-D244-B73F-3CC89BC642F7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E118">
@@ -5540,6 +7553,14 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="L5" dT="2024-07-01T19:12:55.25" personId="{51CB5DC0-7941-6F46-AD5C-9798DD0A314C}" id="{6478232A-1F11-F547-B400-2AB0C22E1989}">
+    <text>Currently rounds all coefficients to 6 decimals; in the future, could consider scientific notation (e.g., 1E-6) if I get extra time, since GAMS does support it.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A3" dT="2024-03-18T21:25:50.00" personId="{546D743F-4A9A-5B4E-AA42-270DDAA6CCC7}" id="{C3CBE6C1-B68C-D247-BDA0-6F2E4D4CD51B}">
     <text>Calculated from sheet below</text>
   </threadedComment>
@@ -5550,7 +7571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
@@ -6279,8 +8300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F168A7-6B4E-494D-BA75-6693E50B2433}">
   <dimension ref="A1:AG95"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView topLeftCell="A54" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6317,14 +8338,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="58" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="97" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="59" t="s">
         <v>353</v>
       </c>
@@ -6353,12 +8374,12 @@
       <c r="W1" s="59"/>
     </row>
     <row r="2" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
       <c r="G2">
         <v>10.74</v>
       </c>
@@ -6598,11 +8619,11 @@
       <c r="A4" s="57"/>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
-      <c r="D4" s="88" t="str">
+      <c r="D4" s="98" t="str">
         <f>HYPERLINK("[BIOMASS_RBA.xlsx]metaboliteInfo!A1","click here to add new metabolite MWs and categories")</f>
         <v>click here to add new metabolite MWs and categories</v>
       </c>
-      <c r="E4" s="88"/>
+      <c r="E4" s="98"/>
       <c r="F4" s="63"/>
       <c r="H4" s="29" t="s">
         <v>359</v>
@@ -13022,12 +15043,12 @@
     <mergeCell ref="D4:E4"/>
   </mergeCells>
   <conditionalFormatting sqref="S6:S14">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
       <formula>NOT(_xlfn.ISFORMULA(S6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T14">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>NOT(_xlfn.ISFORMULA(T6))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13047,6 +15068,4539 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3FAED1-C5EA-9F4A-A0ED-247582444E87}">
+  <dimension ref="A1:A61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="102" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="100" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="101" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="100" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="101" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="100" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="101" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="100" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="101" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="100" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="101" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="100" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="101" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="100" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="101" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="100" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="101" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="100" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="101" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="100" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="101" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="100" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="101" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="100" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="101" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="100" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="101" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="100" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="101" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="100" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="101" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="100" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="101" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="100" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="101" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="100" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="101" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="100" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="101" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="100" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="101" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="100" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="101" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="100" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="101" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="100" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="101" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="100" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="101" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="100" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="101" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="100" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="101" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="100" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="101" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="100" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="101" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="100" t="s">
+        <v>579</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE6FF3F-114A-7C40-948C-4CCE76A11B92}">
+  <dimension ref="A1:AG62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38:P57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="26.5" customWidth="1"/>
+    <col min="13" max="13" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.1640625" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" customWidth="1"/>
+    <col min="18" max="18" width="25.5" customWidth="1"/>
+    <col min="19" max="20" width="10.5" customWidth="1"/>
+    <col min="21" max="21" width="15.1640625" customWidth="1"/>
+    <col min="22" max="22" width="18.1640625" customWidth="1"/>
+    <col min="24" max="24" width="10.1640625" customWidth="1"/>
+    <col min="25" max="25" width="24.83203125" customWidth="1"/>
+    <col min="26" max="26" width="23.6640625" customWidth="1"/>
+    <col min="27" max="27" width="14.1640625" customWidth="1"/>
+    <col min="28" max="28" width="28" customWidth="1"/>
+    <col min="29" max="29" width="50.33203125" customWidth="1"/>
+    <col min="30" max="31" width="36.5" customWidth="1"/>
+    <col min="32" max="32" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1039" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="58" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="97" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59" t="s">
+        <v>354</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>355</v>
+      </c>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="86" t="s">
+        <v>483</v>
+      </c>
+      <c r="T1" s="86" t="s">
+        <v>484</v>
+      </c>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+    </row>
+    <row r="2" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2">
+        <v>10.74</v>
+      </c>
+      <c r="J2" s="60">
+        <f>_xlfn.XLOOKUP("adp",mets27138[name w/o location],mets27138[raw (GSM) coefficient],0)</f>
+        <v>139.462942</v>
+      </c>
+      <c r="K2" t="str" cm="1">
+        <f t="array" ref="K2">_xlfn.LET(_xlpm.array,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(_xlfn.HSTACK(mets27138[normalized coeff. w/ updated GAM]-mets27138[normalized coeffs],"MET-"&amp;mets27138[name]),(mets27138[category]="GAM")+(mets27138[name w/o location]="atp")+(mets27138[name w/o location]="pi"))),SUBSTITUTE(_xlfn.TEXTJOIN(" + ",TRUE,ABS(_xlfn.CHOOSECOLS(_xlpm.array,1))&amp;" "&amp;_xlfn.CHOOSECOLS(_xlpm.array,2))," + "," --&gt; ",2))</f>
+        <v>128.722942 MET-h2o_c + 128.722942 MET-atp_c --&gt; 128.722942 MET-adp_c + 128.722942 MET-h_c + 128.722942 MET-pi_c</v>
+      </c>
+      <c r="L2" s="60"/>
+      <c r="M2" s="61" t="s">
+        <v>356</v>
+      </c>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2">
+        <f>(0.234247532065353+32.0229+332.718782996797)/1000</f>
+        <v>0.36497593052886235</v>
+      </c>
+      <c r="T2" s="60">
+        <f>0.391*SUM(T6,T12:T13)</f>
+        <v>7.5341019728080508E-2</v>
+      </c>
+      <c r="U2" s="60"/>
+      <c r="V2" s="61" t="s">
+        <v>357</v>
+      </c>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+    </row>
+    <row r="3" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="62" t="s">
+        <v>358</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">_xlfn.LET(_xlpm.coeffs,mets27138[coeff. w/o GAM],-SUM(_xlfn._xlws.FILTER(_xlpm.coeffs*mets27138[MW for biomass normalization (g/mol)],(IFERROR(_xlfn.NUMBERVALUE(_xlpm.coeffs),0)&lt;0)*(_xlfn.IFNA(mets27138[category],"ignore")&lt;&gt;"ignore")))/1000)</f>
+        <v>2.9698864220227361</v>
+      </c>
+      <c r="H3" s="60" cm="1">
+        <f t="array" ref="H3">_xlfn.LET(_xlpm.coeffs,mets27138[coeffs after extra operations],-SUM(_xlfn._xlws.FILTER(_xlpm.coeffs*mets27138[MW for biomass normalization (g/mol)],(IFERROR(_xlfn.NUMBERVALUE(_xlpm.coeffs),0)&lt;0)*(_xlfn.IFNA(mets27138[category],"ignore")&lt;&gt;"ignore")))/1000)</f>
+        <v>2.9698864220227361</v>
+      </c>
+      <c r="I3" s="57" cm="1">
+        <f t="array" ref="I3">_xlfn.LET(_xlpm.coeffs,mets27138[normalized coeffs],-SUM(_xlfn._xlws.FILTER(_xlpm.coeffs*mets27138[MW for biomass normalization (g/mol)],(IFERROR(_xlfn.NUMBERVALUE(_xlpm.coeffs),0)&lt;0)*(_xlfn.IFNA(mets27138[category],"ignore")&lt;&gt;"ignore")))/1000)</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60" t="e" cm="1">
+        <f t="array" ref="M3">_xlfn.TEXTJOIN(","&amp;CHAR(10),TRUE,CHAR(34)&amp;mets27138[name]&amp;CHAR(34)&amp;":"&amp;mets27138[new GSM coeffs])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60" t="e" cm="1">
+        <f t="array" ref="V3">_xlfn.LET(_xlpm.eqn,_xlfn.TEXTJOIN(" + ",TRUE,biomassComponents26127[new GSM coeffs])&amp;" + "&amp;K2,_xlpm.reactants,"-"&amp;SUBSTITUTE(_xlfn.TEXTBEFORE(_xlpm.eqn," --&gt; ")," + "," + -"),_xlpm.products,_xlfn.TEXTAFTER(_xlpm.eqn," --&gt; "),_xlpm.rxnarray,_xlfn.TEXTSPLIT(_xlpm.reactants&amp;" + "&amp;_xlpm.products,," + "),_xlfn.TEXTJOIN(","&amp;CHAR(10),TRUE,_xlfn.UNIQUE(_xlfn.BYROW(_xlfn.TEXTAFTER(_xlfn.TEXTAFTER(_xlpm.rxnarray," "),"-"),_xlfn.LAMBDA(_xlpm.r,CHAR(34)&amp;_xlpm.r&amp;CHAR(34)&amp;":"&amp;SUM(_xlfn._xlws.FILTER(_xlfn.NUMBERVALUE(_xlfn.TEXTBEFORE(_xlpm.rxnarray," ")),_xlfn.TEXTAFTER(_xlfn.TEXTAFTER(_xlpm.rxnarray," "),"-")=_xlpm.r)))))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+    </row>
+    <row r="4" spans="1:33" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="98" t="str">
+        <f>HYPERLINK("[BIOMASS_RBA.xlsx]metaboliteInfo!A1","click here to add new metabolite MWs and categories")</f>
+        <v>click here to add new metabolite MWs and categories</v>
+      </c>
+      <c r="E4" s="98"/>
+      <c r="F4" s="63"/>
+      <c r="H4" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="I4" s="29"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="66"/>
+      <c r="AB4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="70" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A5" s="67" t="s">
+        <v>362</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>363</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>364</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="68" t="s">
+        <v>365</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>366</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>367</v>
+      </c>
+      <c r="I5" s="68" t="s">
+        <v>368</v>
+      </c>
+      <c r="J5" s="68" t="s">
+        <v>369</v>
+      </c>
+      <c r="K5" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="L5" s="68" t="s">
+        <v>371</v>
+      </c>
+      <c r="M5" s="68" t="s">
+        <v>372</v>
+      </c>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68" t="s">
+        <v>373</v>
+      </c>
+      <c r="P5" s="68" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q5" s="68" t="s">
+        <v>375</v>
+      </c>
+      <c r="R5" s="68" t="s">
+        <v>376</v>
+      </c>
+      <c r="S5" s="68" t="s">
+        <v>377</v>
+      </c>
+      <c r="T5" s="68" t="s">
+        <v>368</v>
+      </c>
+      <c r="U5" s="68" t="s">
+        <v>378</v>
+      </c>
+      <c r="V5" s="68" t="s">
+        <v>372</v>
+      </c>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y5" s="69" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z5" s="69" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+    </row>
+    <row r="6" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="99" t="s">
+        <v>579</v>
+      </c>
+      <c r="B6" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>ppi_c</v>
+      </c>
+      <c r="C6" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>ppi</v>
+      </c>
+      <c r="D6">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>174.95126200000001</v>
+      </c>
+      <c r="F6" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>5.1287419999999999</v>
+      </c>
+      <c r="G6" s="37" cm="1">
+        <f t="array" ref="G6">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>5.1287419999999999</v>
+      </c>
+      <c r="H6" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>5.1287419999999999</v>
+      </c>
+      <c r="I6" s="72">
+        <f>H6/($H$3)</f>
+        <v>1.726915198496684</v>
+      </c>
+      <c r="J6" s="37" cm="1">
+        <f t="array" ref="J6">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>1.726915198496684</v>
+      </c>
+      <c r="K6" t="str" cm="1">
+        <f t="array" ref="K6">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-ppi_c</v>
+      </c>
+      <c r="L6" s="73" t="str" cm="1">
+        <f t="array" ref="L6">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-ppi_c --&gt; 0.174951 BIO-ppi_c</v>
+      </c>
+      <c r="M6" s="73" cm="1">
+        <f t="array" ref="M6">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>1.7242617250793584</v>
+      </c>
+      <c r="N6" s="73"/>
+      <c r="O6" s="74" t="str" cm="1">
+        <f t="array" ref="O6:O15">"BIOSYN-"&amp;_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(mets27138[category],(mets27138[category]&lt;&gt;0)*(mets27138[category]&lt;&gt;"GAM")*(mets27138[category]&lt;&gt;"ignore"))))</f>
+        <v>BIOSYN-</v>
+      </c>
+      <c r="P6" s="75" t="str">
+        <f t="shared" ref="P6:P14" si="0">O6</f>
+        <v>BIOSYN-</v>
+      </c>
+      <c r="Q6" s="75" t="str">
+        <f>SUBSTITUTE(LOWER(biomassComponents26127[[#This Row],[rxn name]]),"biosyn-","BIO-")</f>
+        <v>BIO-</v>
+      </c>
+      <c r="R6" s="76" cm="1">
+        <f t="array" ref="R6">SUM(_xlfn._xlws.FILTER(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]/1000,mets27138[category]=_xlfn.TEXTAFTER(O6,"BIOSYN-"),""))</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="83">
+        <v>31.006451467927871</v>
+      </c>
+      <c r="T6" s="76" cm="1">
+        <f t="array" ref="T6">IF(biomassComponents26127[[#This Row],[pre-determined coeffs]]&lt;&gt;"",biomassComponents26127[[#This Row],[pre-determined coeffs]]*IF(SUM(biomassComponents26127[pre-determined coeffs])&gt;1,1/SUM(biomassComponents26127[pre-determined coeffs]),1)*(1-SUM(_xlfn._xlws.FILTER(biomassComponents26127[original coeffs from input],biomassComponents26127[pre-determined coeffs]=""))),biomassComponents26127[[#This Row],[original coeffs from input]])</f>
+        <v>6.1185328855125169E-2</v>
+      </c>
+      <c r="U6" s="75" t="e" cm="1">
+        <f t="array" ref="U6">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]*(biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])/(1000*biomassComponents26127[[#This Row],[normalized coeffs]]),6)&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(O6,"BIOSYN-"),""))&amp;" --&gt; "&amp;biomassComponents26127[[#This Row],[product name]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V6" s="75" t="e" cm="1">
+        <f t="array" ref="V6">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER((-mets27138[normalized coeffs]*biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(P6,"BIOSYN-"),""))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y6" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z6" t="str">
+        <f>SUBSTITUTE(Z7," --&gt; "," + "&amp;K2)</f>
+        <v>0.192688029995091 BIO-varbiom + 0.0804139023515599 BIO-carb + 0.000503949450244104 BIO-dna + 0.00413898220441537 BIO-lipid + 0.00853626099306161 BIO-metal + 0.149625268542784 BIO-other + 0.564093606462844 BIO-rna + 128.722942 MET-h2o_c + 128.722942 MET-atp_c --&gt; 128.722942 MET-adp_c + 128.722942 MET-h_c + 128.722942 MET-pi_c</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="99" t="s">
+        <v>561</v>
+      </c>
+      <c r="B7" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>ipcbiom_c</v>
+      </c>
+      <c r="C7" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>ipcbiom</v>
+      </c>
+      <c r="D7" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v/>
+      </c>
+      <c r="E7" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-3.8300000000000001E-3</v>
+      </c>
+      <c r="G7" s="37" cm="1">
+        <f t="array" ref="G7">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-3.8300000000000001E-3</v>
+      </c>
+      <c r="H7" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-3.8300000000000001E-3</v>
+      </c>
+      <c r="I7" s="72">
+        <f>H7/($H$3)</f>
+        <v>-1.2896116065581578E-3</v>
+      </c>
+      <c r="J7" s="37" cm="1">
+        <f t="array" ref="J7">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-1.2896116065581578E-3</v>
+      </c>
+      <c r="K7" t="str" cm="1">
+        <f t="array" ref="K7">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-ipcbiom_c</v>
+      </c>
+      <c r="L7" s="73" t="str" cm="1">
+        <f t="array" ref="L7">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-ipcbiom_c --&gt; 0 BIO-ipcbiom_c</v>
+      </c>
+      <c r="M7" s="73" t="e" cm="1">
+        <f t="array" ref="M7">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7" s="73"/>
+      <c r="O7" s="74" t="str">
+        <v>BIOSYN-CARB</v>
+      </c>
+      <c r="P7" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>BIOSYN-CARB</v>
+      </c>
+      <c r="Q7" s="75" t="str">
+        <f>SUBSTITUTE(LOWER(biomassComponents26127[[#This Row],[rxn name]]),"biosyn-","BIO-")</f>
+        <v>BIO-carb</v>
+      </c>
+      <c r="R7" s="76" cm="1">
+        <f t="array" ref="R7">SUM(_xlfn._xlws.FILTER(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]/1000,mets27138[category]=_xlfn.TEXTAFTER(O7,"BIOSYN-"),""))</f>
+        <v>8.0413902351559929E-2</v>
+      </c>
+      <c r="S7" s="83"/>
+      <c r="T7" s="76" cm="1">
+        <f t="array" ref="T7">IF(biomassComponents26127[[#This Row],[pre-determined coeffs]]&lt;&gt;"",biomassComponents26127[[#This Row],[pre-determined coeffs]]*IF(SUM(biomassComponents26127[pre-determined coeffs])&gt;1,1/SUM(biomassComponents26127[pre-determined coeffs]),1)*(1-SUM(_xlfn._xlws.FILTER(biomassComponents26127[original coeffs from input],biomassComponents26127[pre-determined coeffs]=""))),biomassComponents26127[[#This Row],[original coeffs from input]])</f>
+        <v>8.0413902351559929E-2</v>
+      </c>
+      <c r="U7" s="75" t="str" cm="1">
+        <f t="array" ref="U7">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]*(biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])/(1000*biomassComponents26127[[#This Row],[normalized coeffs]]),6)&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(O7,"BIOSYN-"),""))&amp;" --&gt; "&amp;biomassComponents26127[[#This Row],[product name]]</f>
+        <v>0.260863 BIO-mannan_c + 0.404803 BIO-13BDglucan_c + 0.106527 BIO-16BDglucan_c + 0.011994 BIO-chtn_c + 0.195161 BIO-glycogen_c + 0.020652 BIO-tre_c --&gt; BIO-carb</v>
+      </c>
+      <c r="V7" s="75" t="str" cm="1">
+        <f t="array" ref="V7">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER((-mets27138[normalized coeffs]*biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(P7,"BIOSYN-"),""))</f>
+        <v>0.129375317908052 BIO-mannan_c + 0.20076255966513 BIO-13BDglucan_c + 0.0528323234304476 BIO-16BDglucan_c + 0.00474664616648834 BIO-chtn_c + 0.0967905701269944 BIO-glycogen_c + 0.00485170068900692 BIO-tre_c</v>
+      </c>
+      <c r="Y7" s="77" t="str">
+        <f>Y6&amp;"-NOGAM"</f>
+        <v>BIOSYN-BIODILAERO-NOGAM</v>
+      </c>
+      <c r="Z7" t="str" cm="1">
+        <f t="array" ref="Z7">_xlfn.LET(_xlpm.varbiom,_xlfn.HSTACK(_xlfn.VSTACK(Q6,Q12:Q13),_xlfn.VSTACK(T6,T12:T13)),_xlpm.non_varbiom,IFERROR(_xlfn.XLOOKUP(biomassComponents26127[product name],_xlfn.CHOOSECOLS(_xlpm.varbiom,1),LEFT(_xlfn.CHOOSECOLS(_xlpm.varbiom,1),0),biomassComponents26127[product name]),_xlfn.HSTACK(biomassComponents26127[product name],biomassComponents26127[normalized coeffs])),_xlpm.old,_xlfn.TEXTJOIN(" + ",TRUE,SUM(_xlfn.CHOOSECOLS(_xlpm.varbiom,2))&amp;" BIO-varbiom",_xlfn._xlws.FILTER(_xlfn.CHOOSECOLS(_xlpm.non_varbiom,2)&amp;" "&amp;_xlfn.CHOOSECOLS(_xlpm.non_varbiom,1),(_xlfn.NUMBERVALUE(_xlfn.CHOOSECOLS(_xlpm.non_varbiom,2))&lt;&gt;0)))&amp;" --&gt; ",_xlpm.old)</f>
+        <v xml:space="preserve">0.192688029995091 BIO-varbiom + 0.0804139023515599 BIO-carb + 0.000503949450244104 BIO-dna + 0.00413898220441537 BIO-lipid + 0.00853626099306161 BIO-metal + 0.149625268542784 BIO-other + 0.564093606462844 BIO-rna --&gt; </v>
+      </c>
+      <c r="AB7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="99" t="s">
+        <v>562</v>
+      </c>
+      <c r="B8" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>ffabiom_c</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>ffabiom</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v/>
+      </c>
+      <c r="E8" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-1.474E-3</v>
+      </c>
+      <c r="G8" s="37" cm="1">
+        <f t="array" ref="G8">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-1.474E-3</v>
+      </c>
+      <c r="H8" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-1.474E-3</v>
+      </c>
+      <c r="I8" s="72">
+        <f>H8/($H$3)</f>
+        <v>-4.9631527625763048E-4</v>
+      </c>
+      <c r="J8" s="37" cm="1">
+        <f t="array" ref="J8">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-4.9631527625763048E-4</v>
+      </c>
+      <c r="K8" t="str" cm="1">
+        <f t="array" ref="K8">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-ffabiom_c</v>
+      </c>
+      <c r="L8" s="73" t="str" cm="1">
+        <f t="array" ref="L8">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-ffabiom_c --&gt; 0 BIO-ffabiom_c</v>
+      </c>
+      <c r="M8" s="73" t="e" cm="1">
+        <f t="array" ref="M8">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" s="73"/>
+      <c r="O8" s="74" t="str">
+        <v>BIOSYN-DNA</v>
+      </c>
+      <c r="P8" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>BIOSYN-DNA</v>
+      </c>
+      <c r="Q8" s="75" t="str">
+        <f>SUBSTITUTE(LOWER(biomassComponents26127[[#This Row],[rxn name]]),"biosyn-","BIO-")</f>
+        <v>BIO-dna</v>
+      </c>
+      <c r="R8" s="76" cm="1">
+        <f t="array" ref="R8">SUM(_xlfn._xlws.FILTER(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]/1000,mets27138[category]=_xlfn.TEXTAFTER(O8,"BIOSYN-"),""))</f>
+        <v>1.372810937054342E-3</v>
+      </c>
+      <c r="S8" s="84">
+        <v>0.25538285833653501</v>
+      </c>
+      <c r="T8" s="76" cm="1">
+        <f t="array" ref="T8">IF(biomassComponents26127[[#This Row],[pre-determined coeffs]]&lt;&gt;"",biomassComponents26127[[#This Row],[pre-determined coeffs]]*IF(SUM(biomassComponents26127[pre-determined coeffs])&gt;1,1/SUM(biomassComponents26127[pre-determined coeffs]),1)*(1-SUM(_xlfn._xlws.FILTER(biomassComponents26127[original coeffs from input],biomassComponents26127[pre-determined coeffs]=""))),biomassComponents26127[[#This Row],[original coeffs from input]])</f>
+        <v>5.0394945024410389E-4</v>
+      </c>
+      <c r="U8" s="75" t="str" cm="1">
+        <f t="array" ref="U8">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]*(biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])/(1000*biomassComponents26127[[#This Row],[normalized coeffs]]),6)&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(O8,"BIOSYN-"),""))&amp;" --&gt; "&amp;biomassComponents26127[[#This Row],[product name]]</f>
+        <v>0.302696 BIO-datp_c + 0.188578 BIO-dctp_c + 0.214769 BIO-dgtp_c + 0.293957 BIO-dttp_c --&gt; BIO-dna</v>
+      </c>
+      <c r="V8" s="75" t="str" cm="1">
+        <f t="array" ref="V8">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER((-mets27138[normalized coeffs]*biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(P8,"BIOSYN-"),""))</f>
+        <v>0.000488610976213964 BIO-datp_c + 0.000329778417540818 BIO-dctp_c + 0.000329778417540818 BIO-dgtp_c + 0.000488610976213964 BIO-dttp_c</v>
+      </c>
+      <c r="X8" s="78" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>385</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="99" t="s">
+        <v>575</v>
+      </c>
+      <c r="B9" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>amp_c</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>amp</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v/>
+      </c>
+      <c r="E9" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>4.703201</v>
+      </c>
+      <c r="G9" s="37" cm="1">
+        <f t="array" ref="G9">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>4.703201</v>
+      </c>
+      <c r="H9" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>4.703201</v>
+      </c>
+      <c r="I9" s="72">
+        <f>H9/($H$3)</f>
+        <v>1.5836299210381031</v>
+      </c>
+      <c r="J9" s="37" cm="1">
+        <f t="array" ref="J9">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>1.5836299210381031</v>
+      </c>
+      <c r="K9" t="str" cm="1">
+        <f t="array" ref="K9">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-amp_c</v>
+      </c>
+      <c r="L9" s="73" t="str" cm="1">
+        <f t="array" ref="L9">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-amp_c --&gt; 0 BIO-amp_c</v>
+      </c>
+      <c r="M9" s="73" t="e" cm="1">
+        <f t="array" ref="M9">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" s="73"/>
+      <c r="O9" s="74" t="str">
+        <v>BIOSYN-LIPID</v>
+      </c>
+      <c r="P9" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>BIOSYN-LIPID</v>
+      </c>
+      <c r="Q9" s="75" t="str">
+        <f>SUBSTITUTE(LOWER(biomassComponents26127[[#This Row],[rxn name]]),"biosyn-","BIO-")</f>
+        <v>BIO-lipid</v>
+      </c>
+      <c r="R9" s="76" cm="1">
+        <f t="array" ref="R9">SUM(_xlfn._xlws.FILTER(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]/1000,mets27138[category]=_xlfn.TEXTAFTER(O9,"BIOSYN-"),""))</f>
+        <v>1.7664962355730614E-2</v>
+      </c>
+      <c r="S9" s="83">
+        <v>2.0974824071256464</v>
+      </c>
+      <c r="T9" s="76" cm="1">
+        <f t="array" ref="T9">IF(biomassComponents26127[[#This Row],[pre-determined coeffs]]&lt;&gt;"",biomassComponents26127[[#This Row],[pre-determined coeffs]]*IF(SUM(biomassComponents26127[pre-determined coeffs])&gt;1,1/SUM(biomassComponents26127[pre-determined coeffs]),1)*(1-SUM(_xlfn._xlws.FILTER(biomassComponents26127[original coeffs from input],biomassComponents26127[pre-determined coeffs]=""))),biomassComponents26127[[#This Row],[original coeffs from input]])</f>
+        <v>4.1389822044153677E-3</v>
+      </c>
+      <c r="U9" s="75" t="str" cm="1">
+        <f t="array" ref="U9">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]*(biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])/(1000*biomassComponents26127[[#This Row],[normalized coeffs]]),6)&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(O9,"BIOSYN-"),""))&amp;" --&gt; "&amp;biomassComponents26127[[#This Row],[product name]]</f>
+        <v>0.200165 BIO-ergst_c + 0.113095 BIO-pail_c + 0.384789 BIO-pc_c + 0.097877 BIO-pe_c + 0.088807 BIO-ps_c + 0.115266 BIO-tag_c --&gt; BIO-lipid</v>
+      </c>
+      <c r="V9" s="75" t="str" cm="1">
+        <f t="array" ref="V9">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER((-mets27138[normalized coeffs]*biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(P9,"BIOSYN-"),""))</f>
+        <v>0.00208870434812752 BIO-ergst_c + 0.00054294479032346 BIO-pail_c + 0.00202582626066925 BIO-pc_c + 0.000544443766059604 BIO-pe_c + 0.000467601536217254 BIO-ps_c + 0.000538763436954215 BIO-tag_c</v>
+      </c>
+      <c r="X9" s="78"/>
+      <c r="Y9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="99" t="s">
+        <v>548</v>
+      </c>
+      <c r="B10" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>mannan_c</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>mannan</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>CARB</v>
+      </c>
+      <c r="E10" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>162.14060000000001</v>
+      </c>
+      <c r="F10" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-0.38423000000000002</v>
+      </c>
+      <c r="G10" s="37" cm="1">
+        <f t="array" ref="G10">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-0.38423000000000002</v>
+      </c>
+      <c r="H10" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-0.38423000000000002</v>
+      </c>
+      <c r="I10" s="72">
+        <f>H10/($H$3)</f>
+        <v>-0.12937531790805248</v>
+      </c>
+      <c r="J10" s="37" cm="1">
+        <f t="array" ref="J10">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-0.12937531790805248</v>
+      </c>
+      <c r="K10" t="str" cm="1">
+        <f t="array" ref="K10">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-CARB-mannan_c</v>
+      </c>
+      <c r="L10" s="73" t="str" cm="1">
+        <f t="array" ref="L10">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-mannan_c --&gt; 0.162141 BIO-mannan_c</v>
+      </c>
+      <c r="M10" s="73" cm="1">
+        <f t="array" ref="M10">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-0.12937531790805248</v>
+      </c>
+      <c r="N10" s="73"/>
+      <c r="O10" s="74" t="str">
+        <v>BIOSYN-METAL</v>
+      </c>
+      <c r="P10" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>BIOSYN-METAL</v>
+      </c>
+      <c r="Q10" s="75" t="str">
+        <f>SUBSTITUTE(LOWER(biomassComponents26127[[#This Row],[rxn name]]),"biosyn-","BIO-")</f>
+        <v>BIO-metal</v>
+      </c>
+      <c r="R10" s="76" cm="1">
+        <f t="array" ref="R10">SUM(_xlfn._xlws.FILTER(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]/1000,mets27138[category]=_xlfn.TEXTAFTER(O10,"BIOSYN-"),""))</f>
+        <v>8.5362609930616125E-3</v>
+      </c>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76" cm="1">
+        <f t="array" ref="T10">IF(biomassComponents26127[[#This Row],[pre-determined coeffs]]&lt;&gt;"",biomassComponents26127[[#This Row],[pre-determined coeffs]]*IF(SUM(biomassComponents26127[pre-determined coeffs])&gt;1,1/SUM(biomassComponents26127[pre-determined coeffs]),1)*(1-SUM(_xlfn._xlws.FILTER(biomassComponents26127[original coeffs from input],biomassComponents26127[pre-determined coeffs]=""))),biomassComponents26127[[#This Row],[original coeffs from input]])</f>
+        <v>8.5362609930616125E-3</v>
+      </c>
+      <c r="U10" s="75" t="str" cm="1">
+        <f t="array" ref="U10">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]*(biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])/(1000*biomassComponents26127[[#This Row],[normalized coeffs]]),6)&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(O10,"BIOSYN-"),""))&amp;" --&gt; "&amp;biomassComponents26127[[#This Row],[product name]]</f>
+        <v>0.002033 BIO-ca2_c + 0.000286 BIO-cu2_c + 0.001463 BIO-fe2_c + 0.93097 BIO-k_c + 0.060981 BIO-mg2_c + 0.000204 BIO-mn2_c + 0.004064 BIO-zn2_c --&gt; BIO-metal</v>
+      </c>
+      <c r="V10" s="75" t="str" cm="1">
+        <f t="array" ref="V10">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER((-mets27138[normalized coeffs]*biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(P10,"BIOSYN-"),""))</f>
+        <v>0.000433013192175925 BIO-ca2_c + 3.83853063048642E-05 BIO-cu2_c + 0.000223577573565174 BIO-fe2_c + 0.20325693114852 BIO-k_c + 0.0214173173520482 BIO-mg2_c + 0.000031651042040853 BIO-mn2_c + 0.000530660024004088 BIO-zn2_c</v>
+      </c>
+      <c r="X10" s="78"/>
+      <c r="Y10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="99" t="s">
+        <v>549</v>
+      </c>
+      <c r="B11" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>13BDglucan_c</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>13BDglucan</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>CARB</v>
+      </c>
+      <c r="E11" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>162.14060000000001</v>
+      </c>
+      <c r="F11" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-0.59624200000000005</v>
+      </c>
+      <c r="G11" s="37" cm="1">
+        <f t="array" ref="G11">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-0.59624200000000005</v>
+      </c>
+      <c r="H11" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-0.59624200000000005</v>
+      </c>
+      <c r="I11" s="72">
+        <f>H11/($H$3)</f>
+        <v>-0.20076255966513035</v>
+      </c>
+      <c r="J11" s="37" cm="1">
+        <f t="array" ref="J11">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-0.20076255966513035</v>
+      </c>
+      <c r="K11" t="str" cm="1">
+        <f t="array" ref="K11">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-CARB-13BDglucan_c</v>
+      </c>
+      <c r="L11" s="73" t="str" cm="1">
+        <f t="array" ref="L11">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-13BDglucan_c --&gt; 0.162141 BIO-13BDglucan_c</v>
+      </c>
+      <c r="M11" s="73" cm="1">
+        <f t="array" ref="M11">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-0.20076255966513035</v>
+      </c>
+      <c r="N11" s="73"/>
+      <c r="O11" s="74" t="str">
+        <v>BIOSYN-other</v>
+      </c>
+      <c r="P11" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>BIOSYN-other</v>
+      </c>
+      <c r="Q11" s="75" t="str">
+        <f>SUBSTITUTE(LOWER(biomassComponents26127[[#This Row],[rxn name]]),"biosyn-","BIO-")</f>
+        <v>BIO-other</v>
+      </c>
+      <c r="R11" s="76" cm="1">
+        <f t="array" ref="R11">SUM(_xlfn._xlws.FILTER(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]/1000,mets27138[category]=_xlfn.TEXTAFTER(O11,"BIOSYN-"),""))</f>
+        <v>0.14962526854278405</v>
+      </c>
+      <c r="S11" s="76"/>
+      <c r="T11" s="76" cm="1">
+        <f t="array" ref="T11">IF(biomassComponents26127[[#This Row],[pre-determined coeffs]]&lt;&gt;"",biomassComponents26127[[#This Row],[pre-determined coeffs]]*IF(SUM(biomassComponents26127[pre-determined coeffs])&gt;1,1/SUM(biomassComponents26127[pre-determined coeffs]),1)*(1-SUM(_xlfn._xlws.FILTER(biomassComponents26127[original coeffs from input],biomassComponents26127[pre-determined coeffs]=""))),biomassComponents26127[[#This Row],[original coeffs from input]])</f>
+        <v>0.14962526854278405</v>
+      </c>
+      <c r="U11" s="75" t="str" cm="1">
+        <f t="array" ref="U11">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]*(biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])/(1000*biomassComponents26127[[#This Row],[normalized coeffs]]),6)&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(O11,"BIOSYN-"),""))&amp;" --&gt; "&amp;biomassComponents26127[[#This Row],[product name]]</f>
+        <v>1 BIO-ergstest_c --&gt; BIO-other</v>
+      </c>
+      <c r="V11" s="75" t="str" cm="1">
+        <f t="array" ref="V11">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER((-mets27138[normalized coeffs]*biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(P11,"BIOSYN-"),""))</f>
+        <v>0.00228224215907342 BIO-ergstest_c</v>
+      </c>
+      <c r="X11" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y11" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z11" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="99" t="s">
+        <v>550</v>
+      </c>
+      <c r="B12" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>16BDglucan_c</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>16BDglucan</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>CARB</v>
+      </c>
+      <c r="E12" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>162.14060000000001</v>
+      </c>
+      <c r="F12" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-0.15690599999999999</v>
+      </c>
+      <c r="G12" s="37" cm="1">
+        <f t="array" ref="G12">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-0.15690599999999999</v>
+      </c>
+      <c r="H12" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-0.15690599999999999</v>
+      </c>
+      <c r="I12" s="72">
+        <f>H12/($H$3)</f>
+        <v>-5.2832323430447602E-2</v>
+      </c>
+      <c r="J12" s="37" cm="1">
+        <f t="array" ref="J12">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-5.2832323430447602E-2</v>
+      </c>
+      <c r="K12" t="str" cm="1">
+        <f t="array" ref="K12">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-CARB-16BDglucan_c</v>
+      </c>
+      <c r="L12" s="73" t="str" cm="1">
+        <f t="array" ref="L12">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-16BDglucan_c --&gt; 0.162141 BIO-16BDglucan_c</v>
+      </c>
+      <c r="M12" s="73" cm="1">
+        <f t="array" ref="M12">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-5.2832323430447602E-2</v>
+      </c>
+      <c r="N12" s="73"/>
+      <c r="O12" s="74" t="str">
+        <v>BIOSYN-PI</v>
+      </c>
+      <c r="P12" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>BIOSYN-PI</v>
+      </c>
+      <c r="Q12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="76" cm="1">
+        <f t="array" ref="R12">SUM(_xlfn._xlws.FILTER(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]/1000,mets27138[category]=_xlfn.TEXTAFTER(O12,"BIOSYN-"),""))</f>
+        <v>3.4145053399876725E-3</v>
+      </c>
+      <c r="S12" s="85">
+        <v>58.068009171159375</v>
+      </c>
+      <c r="T12" s="76" cm="1">
+        <f t="array" ref="T12">IF(biomassComponents26127[[#This Row],[pre-determined coeffs]]&lt;&gt;"",biomassComponents26127[[#This Row],[pre-determined coeffs]]*IF(SUM(biomassComponents26127[pre-determined coeffs])&gt;1,1/SUM(biomassComponents26127[pre-determined coeffs]),1)*(1-SUM(_xlfn._xlws.FILTER(biomassComponents26127[original coeffs from input],biomassComponents26127[pre-determined coeffs]=""))),biomassComponents26127[[#This Row],[original coeffs from input]])</f>
+        <v>0.11458616090831396</v>
+      </c>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75" t="str" cm="1">
+        <f t="array" ref="V12">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER((-mets27138[normalized coeffs]*biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(P12,"BIOSYN-"),""))</f>
+        <v>1.19386325712368 BIO-pi_c</v>
+      </c>
+      <c r="X12" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y12" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z12" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB12" t="e" cm="1">
+        <f t="array" ref="AB12">_xlfn.LET(_xlpm.macros,_xlfn._xlws.FILTER(_xlfn.HSTACK(_xlfn.ANCHORARRAY(O6),biomassComponents26127[stoichiometry (if needed)]),biomassComponents26127[stoichiometry (if needed)]&lt;&gt;""),_xlfn.VSTACK(_xlfn._xlws.FILTER(ExtraRxns25116[[name]:[stoichiometry]],ExtraRxns25116[stoichiometry]&lt;&gt;""),_xlpm.macros,_xlfn._xlws.SORT(_xlfn._xlws.FILTER(mets27138[[biomass equation name]:[biomass equation]],ISNUMBER(MATCH(mets27138[category],_xlfn.TEXTAFTER(biomassComponents26127[rxn name],"BIOSYN-"),0))*(mets27138[biomass equation]&lt;&gt;"")))))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="99" t="s">
+        <v>551</v>
+      </c>
+      <c r="B13" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>chtn_c</v>
+      </c>
+      <c r="C13" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>chtn</v>
+      </c>
+      <c r="D13" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>CARB</v>
+      </c>
+      <c r="E13" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>203.19252</v>
+      </c>
+      <c r="F13" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-1.4097E-2</v>
+      </c>
+      <c r="G13" s="37" cm="1">
+        <f t="array" ref="G13">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-1.4097E-2</v>
+      </c>
+      <c r="H13" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-1.4097E-2</v>
+      </c>
+      <c r="I13" s="72">
+        <f>H13/($H$3)</f>
+        <v>-4.7466461664883424E-3</v>
+      </c>
+      <c r="J13" s="37" cm="1">
+        <f t="array" ref="J13">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-4.7466461664883424E-3</v>
+      </c>
+      <c r="K13" t="str" cm="1">
+        <f t="array" ref="K13">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-CARB-chtn_c</v>
+      </c>
+      <c r="L13" s="73" t="str" cm="1">
+        <f t="array" ref="L13">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-chtn_c --&gt; 0.203193 BIO-chtn_c</v>
+      </c>
+      <c r="M13" s="73" cm="1">
+        <f t="array" ref="M13">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-4.7466461664883424E-3</v>
+      </c>
+      <c r="N13" s="73"/>
+      <c r="O13" s="74" t="str">
+        <v>BIOSYN-PROT</v>
+      </c>
+      <c r="P13" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>BIOSYN-PROT</v>
+      </c>
+      <c r="Q13" s="75" t="str">
+        <f>SUBSTITUTE(LOWER(biomassComponents26127[[#This Row],[rxn name]]),"biosyn-","BIO-")</f>
+        <v>BIO-prot</v>
+      </c>
+      <c r="R13" s="76" cm="1">
+        <f t="array" ref="R13">SUM(_xlfn._xlws.FILTER(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]/1000,mets27138[category]=_xlfn.TEXTAFTER(O13,"BIOSYN-"),""))</f>
+        <v>0.17386875801191395</v>
+      </c>
+      <c r="S13" s="83">
+        <v>8.5726740954505853</v>
+      </c>
+      <c r="T13" s="76" cm="1">
+        <f t="array" ref="T13">IF(biomassComponents26127[[#This Row],[pre-determined coeffs]]&lt;&gt;"",biomassComponents26127[[#This Row],[pre-determined coeffs]]*IF(SUM(biomassComponents26127[pre-determined coeffs])&gt;1,1/SUM(biomassComponents26127[pre-determined coeffs]),1)*(1-SUM(_xlfn._xlws.FILTER(biomassComponents26127[original coeffs from input],biomassComponents26127[pre-determined coeffs]=""))),biomassComponents26127[[#This Row],[original coeffs from input]])</f>
+        <v>1.6916540231651671E-2</v>
+      </c>
+      <c r="U13" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="V13" s="75" t="str" cm="1">
+        <f t="array" ref="V13">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER((-mets27138[normalized coeffs]*biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(P13,"BIOSYN-"),""))</f>
+        <v>0.0150867216271455 BIO-alatrna_c + 0.00596057135849649 BIO-argtrna_c + 0.00716504288031904 BIO-asntrna_c + 0.00716504288031904 BIO-asptrna_c + 0.000216186356212452 BIO-cystrna_c + 0.0119520030818289 BIO-glntrna_c + 0.0119520030818289 BIO-glutrna_c + 0.0137278172392546 BIO-glytrna_c + 0.00298028567924824 BIO-histrna_c + 0.00909525714334093 BIO-iletrna_c + 0.0123689456118358 BIO-leutrna_c + 0.0101453285595673 BIO-lystrna_c + 0.00176038397500774 BIO-mettrna_c + 0.00580613849242807 BIO-phetrna_c + 0.00651648381168168 BIO-protrna_c + 0.00823051171849112 BIO-sertrna_c + 0.00860113094077199 BIO-thrtrna_c + 0.00100371534802805 BIO-trptrna_c + 0.00302660898697433 BIO-tyrtrna_c + 0.0113189069560817 BIO-valtrna_c</v>
+      </c>
+      <c r="X13" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y13" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z13" s="77" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="99" t="s">
+        <v>552</v>
+      </c>
+      <c r="B14" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>glycogen_c</v>
+      </c>
+      <c r="C14" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>glycogen</v>
+      </c>
+      <c r="D14" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>CARB</v>
+      </c>
+      <c r="E14" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>162.14060000000001</v>
+      </c>
+      <c r="F14" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-0.28745700000000002</v>
+      </c>
+      <c r="G14" s="37" cm="1">
+        <f t="array" ref="G14">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-0.28745700000000002</v>
+      </c>
+      <c r="H14" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-0.28745700000000002</v>
+      </c>
+      <c r="I14" s="72">
+        <f>H14/($H$3)</f>
+        <v>-9.6790570126994366E-2</v>
+      </c>
+      <c r="J14" s="37" cm="1">
+        <f t="array" ref="J14">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-9.6790570126994366E-2</v>
+      </c>
+      <c r="K14" t="str" cm="1">
+        <f t="array" ref="K14">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-CARB-glycogen_c</v>
+      </c>
+      <c r="L14" s="73" t="str" cm="1">
+        <f t="array" ref="L14">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-glycogen_c --&gt; 0.162141 BIO-glycogen_c</v>
+      </c>
+      <c r="M14" s="73" cm="1">
+        <f t="array" ref="M14">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-9.6790570126994366E-2</v>
+      </c>
+      <c r="N14" s="73"/>
+      <c r="O14" s="74" t="str">
+        <v>BIOSYN-RNA</v>
+      </c>
+      <c r="P14" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>BIOSYN-RNA</v>
+      </c>
+      <c r="Q14" s="75" t="str">
+        <f>SUBSTITUTE(LOWER(biomassComponents26127[[#This Row],[rxn name]]),"biosyn-","BIO-")</f>
+        <v>BIO-rna</v>
+      </c>
+      <c r="R14" s="76" cm="1">
+        <f t="array" ref="R14">SUM(_xlfn._xlws.FILTER(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]/1000,mets27138[category]=_xlfn.TEXTAFTER(O14,"BIOSYN-"),""))</f>
+        <v>0.56409360646284412</v>
+      </c>
+      <c r="S14" s="83"/>
+      <c r="T14" s="76" cm="1">
+        <f t="array" ref="T14">IF(biomassComponents26127[[#This Row],[pre-determined coeffs]]&lt;&gt;"",biomassComponents26127[[#This Row],[pre-determined coeffs]]*IF(SUM(biomassComponents26127[pre-determined coeffs])&gt;1,1/SUM(biomassComponents26127[pre-determined coeffs]),1)*(1-SUM(_xlfn._xlws.FILTER(biomassComponents26127[original coeffs from input],biomassComponents26127[pre-determined coeffs]=""))),biomassComponents26127[[#This Row],[original coeffs from input]])</f>
+        <v>0.56409360646284412</v>
+      </c>
+      <c r="U14" s="75" t="str" cm="1">
+        <f t="array" ref="U14">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]*(biomassComponents26127[[#This Row],[original coeffs from input]])/(1000*biomassComponents26127[[#This Row],[normalized coeffs]]),6)&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(O14,"BIOSYN-"),""))&amp;" --&gt; "&amp;biomassComponents26127[[#This Row],[product name]]</f>
+        <v>0.009601 BIO-ctp_c + 0.01118 BIO-gtp_c + 0.012907 BIO-utp_c + 0.530405 BIO-atp_c --&gt; BIO-rna</v>
+      </c>
+      <c r="V14" s="75" t="str" cm="1">
+        <f t="array" ref="V14">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER((-mets27138[normalized coeffs]*biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(P14,"BIOSYN-"),""))</f>
+        <v>0.0315641700318472 BIO-ctp_c + 0.0324823869642452 BIO-gtp_c + 0.0422975771290416 BIO-utp_c + 1.61611230800235 BIO-atp_c</v>
+      </c>
+      <c r="X14" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y14" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z14" s="77" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="99" t="s">
+        <v>553</v>
+      </c>
+      <c r="B15" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>tre_c</v>
+      </c>
+      <c r="C15" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>tre</v>
+      </c>
+      <c r="D15" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>CARB</v>
+      </c>
+      <c r="E15" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>342.29647999999997</v>
+      </c>
+      <c r="F15" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-1.4409E-2</v>
+      </c>
+      <c r="G15" s="37" cm="1">
+        <f t="array" ref="G15">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-1.4409E-2</v>
+      </c>
+      <c r="H15" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-1.4409E-2</v>
+      </c>
+      <c r="I15" s="72">
+        <f>H15/($H$3)</f>
+        <v>-4.8517006890069179E-3</v>
+      </c>
+      <c r="J15" s="37" cm="1">
+        <f t="array" ref="J15">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-4.8517006890069179E-3</v>
+      </c>
+      <c r="K15" t="str" cm="1">
+        <f t="array" ref="K15">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-CARB-tre_c</v>
+      </c>
+      <c r="L15" s="73" t="str" cm="1">
+        <f t="array" ref="L15">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-tre_c --&gt; 0.342296 BIO-tre_c</v>
+      </c>
+      <c r="M15" s="73" cm="1">
+        <f t="array" ref="M15">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-4.8517006890069179E-3</v>
+      </c>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73" t="str">
+        <v>BIOSYN-SO4</v>
+      </c>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="75"/>
+      <c r="X15" s="79"/>
+      <c r="Y15" s="77" t="s">
+        <v>395</v>
+      </c>
+      <c r="Z15" s="77" t="str" cm="1">
+        <f t="array" ref="Z15">_xlfn.LET(_xlpm.RNAmass,_xlfn.XLOOKUP("BIOSYN-RNA",biomassComponents26127[rxn name],biomassComponents26127[normalized coeffs],0),_xlpm.coeff,1/_xlpm.RNAmass,_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]/(1000),6)*_xlpm.coeff&amp;" BIO-"&amp;mets27138[name],mets27138[category]="RNA",""))&amp;" --&gt; "&amp;SUBSTITUTE(LOWER(ExtraRxns25116[[#This Row],[name]]),"biosyn-","BIO-"))</f>
+        <v>0.0170202248173015 BIO-ctp_c + 0.0198194056303959 BIO-gtp_c + 0.0228809542461109 BIO-utp_c + 0.940278340195896 BIO-atp_c --&gt; BIO-trna</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="99" t="s">
+        <v>566</v>
+      </c>
+      <c r="B16" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>datp_c</v>
+      </c>
+      <c r="C16" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>datp</v>
+      </c>
+      <c r="D16" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>DNA</v>
+      </c>
+      <c r="E16" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>312.19860099999994</v>
+      </c>
+      <c r="F16" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-3.9529999999999999E-3</v>
+      </c>
+      <c r="G16" s="37" cm="1">
+        <f t="array" ref="G16">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-3.9529999999999999E-3</v>
+      </c>
+      <c r="H16" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-3.9529999999999999E-3</v>
+      </c>
+      <c r="I16" s="72">
+        <f>H16/($H$3)</f>
+        <v>-1.3310273317818271E-3</v>
+      </c>
+      <c r="J16" s="37" cm="1">
+        <f t="array" ref="J16">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-1.3310273317818271E-3</v>
+      </c>
+      <c r="K16" t="str" cm="1">
+        <f t="array" ref="K16">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-DNA-datp_c</v>
+      </c>
+      <c r="L16" s="73" t="str" cm="1">
+        <f t="array" ref="L16">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-datp_c --&gt; MET-ppi_c + 0.312199 BIO-datp_c</v>
+      </c>
+      <c r="M16" s="73" cm="1">
+        <f t="array" ref="M16">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-4.8861097621396361E-4</v>
+      </c>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="73"/>
+      <c r="V16" s="73"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="77" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z16" s="77" t="str" cm="1">
+        <f t="array" ref="Z16">_xlfn.LET(_xlpm.RNAmass,_xlfn.XLOOKUP("BIOSYN-RNA",biomassComponents26127[rxn name],biomassComponents26127[normalized coeffs],0),_xlpm.coeff,1/_xlpm.RNAmass,_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]/(1000),6)*_xlpm.coeff&amp;" BIO-"&amp;mets27138[name],mets27138[category]="RNA",""))&amp;" --&gt; "&amp;SUBSTITUTE(LOWER(ExtraRxns25116[[#This Row],[name]]),"biosyn-","BIO-"))</f>
+        <v>0.0170202248173015 BIO-ctp_c + 0.0198194056303959 BIO-gtp_c + 0.0228809542461109 BIO-utp_c + 0.940278340195896 BIO-atp_c --&gt; BIO-rrna</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="99" t="s">
+        <v>567</v>
+      </c>
+      <c r="B17" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>dctp_c</v>
+      </c>
+      <c r="C17" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>dctp</v>
+      </c>
+      <c r="D17" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>DNA</v>
+      </c>
+      <c r="E17" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>288.173901</v>
+      </c>
+      <c r="F17" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-2.6679999999999998E-3</v>
+      </c>
+      <c r="G17" s="37" cm="1">
+        <f t="array" ref="G17">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-2.6679999999999998E-3</v>
+      </c>
+      <c r="H17" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-2.6679999999999998E-3</v>
+      </c>
+      <c r="I17" s="72">
+        <f>H17/($H$3)</f>
+        <v>-8.9835085281910311E-4</v>
+      </c>
+      <c r="J17" s="37" cm="1">
+        <f t="array" ref="J17">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-8.9835085281910311E-4</v>
+      </c>
+      <c r="K17" t="str" cm="1">
+        <f t="array" ref="K17">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-DNA-dctp_c</v>
+      </c>
+      <c r="L17" s="73" t="str" cm="1">
+        <f t="array" ref="L17">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-dctp_c --&gt; MET-ppi_c + 0.288174 BIO-dctp_c</v>
+      </c>
+      <c r="M17" s="73" cm="1">
+        <f t="array" ref="M17">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-3.2977841754081835E-4</v>
+      </c>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="73"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="77" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z17" s="77" t="str" cm="1">
+        <f t="array" ref="Z17">_xlfn.LET(_xlpm.RNAmass,_xlfn.XLOOKUP("BIOSYN-RNA",biomassComponents26127[rxn name],biomassComponents26127[normalized coeffs],0),_xlpm.coeff,1/_xlpm.RNAmass,_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]/(1000),6)*_xlpm.coeff&amp;" BIO-"&amp;mets27138[name],mets27138[category]="RNA",""))&amp;" --&gt; "&amp;SUBSTITUTE(LOWER(ExtraRxns25116[[#This Row],[name]]),"biosyn-","BIO-"))</f>
+        <v>0.0170202248173015 BIO-ctp_c + 0.0198194056303959 BIO-gtp_c + 0.0228809542461109 BIO-utp_c + 0.940278340195896 BIO-atp_c --&gt; BIO-mrna</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="99" t="s">
+        <v>568</v>
+      </c>
+      <c r="B18" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>dgtp_c</v>
+      </c>
+      <c r="C18" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>dgtp</v>
+      </c>
+      <c r="D18" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>DNA</v>
+      </c>
+      <c r="E18" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>328.19800099999998</v>
+      </c>
+      <c r="F18" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-2.6679999999999998E-3</v>
+      </c>
+      <c r="G18" s="37" cm="1">
+        <f t="array" ref="G18">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-2.6679999999999998E-3</v>
+      </c>
+      <c r="H18" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-2.6679999999999998E-3</v>
+      </c>
+      <c r="I18" s="72">
+        <f>H18/($H$3)</f>
+        <v>-8.9835085281910311E-4</v>
+      </c>
+      <c r="J18" s="37" cm="1">
+        <f t="array" ref="J18">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-8.9835085281910311E-4</v>
+      </c>
+      <c r="K18" t="str" cm="1">
+        <f t="array" ref="K18">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-DNA-dgtp_c</v>
+      </c>
+      <c r="L18" s="73" t="str" cm="1">
+        <f t="array" ref="L18">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-dgtp_c --&gt; MET-ppi_c + 0.328198 BIO-dgtp_c</v>
+      </c>
+      <c r="M18" s="73" cm="1">
+        <f t="array" ref="M18">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-3.2977841754081835E-4</v>
+      </c>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+    </row>
+    <row r="19" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="99" t="s">
+        <v>569</v>
+      </c>
+      <c r="B19" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>dttp_c</v>
+      </c>
+      <c r="C19" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>dttp</v>
+      </c>
+      <c r="D19" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>DNA</v>
+      </c>
+      <c r="E19" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>303.18524100000002</v>
+      </c>
+      <c r="F19" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-3.9529999999999999E-3</v>
+      </c>
+      <c r="G19" s="37" cm="1">
+        <f t="array" ref="G19">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-3.9529999999999999E-3</v>
+      </c>
+      <c r="H19" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-3.9529999999999999E-3</v>
+      </c>
+      <c r="I19" s="72">
+        <f>H19/($H$3)</f>
+        <v>-1.3310273317818271E-3</v>
+      </c>
+      <c r="J19" s="37" cm="1">
+        <f t="array" ref="J19">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-1.3310273317818271E-3</v>
+      </c>
+      <c r="K19" t="str" cm="1">
+        <f t="array" ref="K19">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-DNA-dttp_c</v>
+      </c>
+      <c r="L19" s="73" t="str" cm="1">
+        <f t="array" ref="L19">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-dttp_c --&gt; MET-ppi_c + 0.303185 BIO-dttp_c</v>
+      </c>
+      <c r="M19" s="73" cm="1">
+        <f t="array" ref="M19">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-4.8861097621396361E-4</v>
+      </c>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="73"/>
+    </row>
+    <row r="20" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="99" t="s">
+        <v>574</v>
+      </c>
+      <c r="B20" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>h2o_c</v>
+      </c>
+      <c r="C20" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>h2o</v>
+      </c>
+      <c r="D20" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>GAM</v>
+      </c>
+      <c r="E20" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>18.015280000000001</v>
+      </c>
+      <c r="F20" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-134.75974099999999</v>
+      </c>
+      <c r="G20" s="37" cm="1">
+        <f t="array" ref="G20">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>4.7032010000000071</v>
+      </c>
+      <c r="H20" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>4.7032010000000071</v>
+      </c>
+      <c r="I20" s="72">
+        <f>H20/($H$3)</f>
+        <v>1.5836299210381055</v>
+      </c>
+      <c r="J20" s="37" cm="1">
+        <f t="array" ref="J20">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-127.13931207896188</v>
+      </c>
+      <c r="K20" t="str" cm="1">
+        <f t="array" ref="K20">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-GAM-h2o_c</v>
+      </c>
+      <c r="L20" s="73" t="str" cm="1">
+        <f t="array" ref="L20">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-h2o_c --&gt; 0.018015 BIO-h2o_c</v>
+      </c>
+      <c r="M20" s="73" cm="1">
+        <f t="array" ref="M20">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-137.8793120789619</v>
+      </c>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
+    </row>
+    <row r="21" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="99" t="s">
+        <v>576</v>
+      </c>
+      <c r="B21" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>adp_c</v>
+      </c>
+      <c r="C21" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>adp</v>
+      </c>
+      <c r="D21" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>GAM</v>
+      </c>
+      <c r="E21" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>424.177302</v>
+      </c>
+      <c r="F21" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>139.462942</v>
+      </c>
+      <c r="G21" s="37" cm="1">
+        <f t="array" ref="G21">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="72">
+        <f>H21/($H$3)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="37" cm="1">
+        <f t="array" ref="J21">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>128.72294199999999</v>
+      </c>
+      <c r="K21" t="str" cm="1">
+        <f t="array" ref="K21">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-GAM-adp_c</v>
+      </c>
+      <c r="L21" s="73" t="str" cm="1">
+        <f t="array" ref="L21">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-adp_c --&gt; 0.424177 BIO-adp_c</v>
+      </c>
+      <c r="M21" s="73" cm="1">
+        <f t="array" ref="M21">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>139.462942</v>
+      </c>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="73"/>
+    </row>
+    <row r="22" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="99" t="s">
+        <v>577</v>
+      </c>
+      <c r="B22" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>h_c</v>
+      </c>
+      <c r="C22" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>h</v>
+      </c>
+      <c r="D22" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>GAM</v>
+      </c>
+      <c r="E22" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>1.0079400000000001</v>
+      </c>
+      <c r="F22" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>139.462942</v>
+      </c>
+      <c r="G22" s="37" cm="1">
+        <f t="array" ref="G22">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="72">
+        <f>H22/($H$3)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="37" cm="1">
+        <f t="array" ref="J22">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>128.72294199999999</v>
+      </c>
+      <c r="K22" t="str" cm="1">
+        <f t="array" ref="K22">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-GAM-h_c</v>
+      </c>
+      <c r="L22" s="73" t="str" cm="1">
+        <f t="array" ref="L22">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-h_c --&gt; 0.001008 BIO-h_c</v>
+      </c>
+      <c r="M22" s="73" cm="1">
+        <f t="array" ref="M22">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>139.462942</v>
+      </c>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="73"/>
+    </row>
+    <row r="23" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="99" t="s">
+        <v>555</v>
+      </c>
+      <c r="B23" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>ergst_c</v>
+      </c>
+      <c r="C23" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>ergst</v>
+      </c>
+      <c r="D23" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>LIPID</v>
+      </c>
+      <c r="E23" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>396.648359999999</v>
+      </c>
+      <c r="F23" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-2.6474999999999999E-2</v>
+      </c>
+      <c r="G23" s="37" cm="1">
+        <f t="array" ref="G23">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-2.6474999999999999E-2</v>
+      </c>
+      <c r="H23" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-2.6474999999999999E-2</v>
+      </c>
+      <c r="I23" s="72">
+        <f>H23/($H$3)</f>
+        <v>-8.9144823194849156E-3</v>
+      </c>
+      <c r="J23" s="37" cm="1">
+        <f t="array" ref="J23">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-8.9144823194849156E-3</v>
+      </c>
+      <c r="K23" t="str" cm="1">
+        <f t="array" ref="K23">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-LIPID-ergst_c</v>
+      </c>
+      <c r="L23" s="73" t="str" cm="1">
+        <f t="array" ref="L23">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-ergst_c --&gt; 0.396648 BIO-ergst_c</v>
+      </c>
+      <c r="M23" s="73" cm="1">
+        <f t="array" ref="M23">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-2.0887043481275201E-3</v>
+      </c>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="73"/>
+    </row>
+    <row r="24" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="99" t="s">
+        <v>556</v>
+      </c>
+      <c r="B24" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>pail_c</v>
+      </c>
+      <c r="C24" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>pail</v>
+      </c>
+      <c r="D24" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>LIPID</v>
+      </c>
+      <c r="E24" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>862.14885442176001</v>
+      </c>
+      <c r="F24" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-6.8820000000000001E-3</v>
+      </c>
+      <c r="G24" s="37" cm="1">
+        <f t="array" ref="G24">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-6.8820000000000001E-3</v>
+      </c>
+      <c r="H24" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-6.8820000000000001E-3</v>
+      </c>
+      <c r="I24" s="72">
+        <f>H24/($H$3)</f>
+        <v>-2.3172603332462776E-3</v>
+      </c>
+      <c r="J24" s="37" cm="1">
+        <f t="array" ref="J24">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-2.3172603332462776E-3</v>
+      </c>
+      <c r="K24" t="str" cm="1">
+        <f t="array" ref="K24">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-LIPID-pail_c</v>
+      </c>
+      <c r="L24" s="73" t="str" cm="1">
+        <f t="array" ref="L24">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-pail_c --&gt; 0.862149 BIO-pail_c</v>
+      </c>
+      <c r="M24" s="73" cm="1">
+        <f t="array" ref="M24">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-5.4294479032345974E-4</v>
+      </c>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="73"/>
+    </row>
+    <row r="25" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="99" t="s">
+        <v>557</v>
+      </c>
+      <c r="B25" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>pc_c</v>
+      </c>
+      <c r="C25" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>pc</v>
+      </c>
+      <c r="D25" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>LIPID</v>
+      </c>
+      <c r="E25" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>786.16573442176002</v>
+      </c>
+      <c r="F25" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-2.5677999999999999E-2</v>
+      </c>
+      <c r="G25" s="37" cm="1">
+        <f t="array" ref="G25">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-2.5677999999999999E-2</v>
+      </c>
+      <c r="H25" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-2.5677999999999999E-2</v>
+      </c>
+      <c r="I25" s="72">
+        <f>H25/($H$3)</f>
+        <v>-8.6461218885640675E-3</v>
+      </c>
+      <c r="J25" s="37" cm="1">
+        <f t="array" ref="J25">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-8.6461218885640675E-3</v>
+      </c>
+      <c r="K25" t="str" cm="1">
+        <f t="array" ref="K25">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-LIPID-pc_c</v>
+      </c>
+      <c r="L25" s="73" t="str" cm="1">
+        <f t="array" ref="L25">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-pc_c --&gt; 0.786166 BIO-pc_c</v>
+      </c>
+      <c r="M25" s="73" cm="1">
+        <f t="array" ref="M25">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-2.0258262606692528E-3</v>
+      </c>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
+    </row>
+    <row r="26" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="99" t="s">
+        <v>558</v>
+      </c>
+      <c r="B26" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>pe_c</v>
+      </c>
+      <c r="C26" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>pe</v>
+      </c>
+      <c r="D26" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>LIPID</v>
+      </c>
+      <c r="E26" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>744.08599442176001</v>
+      </c>
+      <c r="F26" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-6.901E-3</v>
+      </c>
+      <c r="G26" s="37" cm="1">
+        <f t="array" ref="G26">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-6.901E-3</v>
+      </c>
+      <c r="H26" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-6.901E-3</v>
+      </c>
+      <c r="I26" s="72">
+        <f>H26/($H$3)</f>
+        <v>-2.3236578842970881E-3</v>
+      </c>
+      <c r="J26" s="37" cm="1">
+        <f t="array" ref="J26">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-2.3236578842970881E-3</v>
+      </c>
+      <c r="K26" t="str" cm="1">
+        <f t="array" ref="K26">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-LIPID-pe_c</v>
+      </c>
+      <c r="L26" s="73" t="str" cm="1">
+        <f t="array" ref="L26">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-pe_c --&gt; 0.744086 BIO-pe_c</v>
+      </c>
+      <c r="M26" s="73" cm="1">
+        <f t="array" ref="M26">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-5.4444376605960402E-4</v>
+      </c>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="73"/>
+    </row>
+    <row r="27" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="99" t="s">
+        <v>559</v>
+      </c>
+      <c r="B27" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>ps_c</v>
+      </c>
+      <c r="C27" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>ps</v>
+      </c>
+      <c r="D27" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>LIPID</v>
+      </c>
+      <c r="E27" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>786.07881442175994</v>
+      </c>
+      <c r="F27" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-5.927E-3</v>
+      </c>
+      <c r="G27" s="37" cm="1">
+        <f t="array" ref="G27">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-5.927E-3</v>
+      </c>
+      <c r="H27" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-5.927E-3</v>
+      </c>
+      <c r="I27" s="72">
+        <f>H27/($H$3)</f>
+        <v>-1.9956992146397392E-3</v>
+      </c>
+      <c r="J27" s="37" cm="1">
+        <f t="array" ref="J27">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-1.9956992146397392E-3</v>
+      </c>
+      <c r="K27" t="str" cm="1">
+        <f t="array" ref="K27">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-LIPID-ps_c</v>
+      </c>
+      <c r="L27" s="73" t="str" cm="1">
+        <f t="array" ref="L27">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-ps_c --&gt; 0.786079 BIO-ps_c</v>
+      </c>
+      <c r="M27" s="73" cm="1">
+        <f t="array" ref="M27">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-4.6760153621725446E-4</v>
+      </c>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+    </row>
+    <row r="28" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="99" t="s">
+        <v>560</v>
+      </c>
+      <c r="B28" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>tag_c</v>
+      </c>
+      <c r="C28" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>tag</v>
+      </c>
+      <c r="D28" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>LIPID</v>
+      </c>
+      <c r="E28" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>885.51292863263996</v>
+      </c>
+      <c r="F28" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-6.829E-3</v>
+      </c>
+      <c r="G28" s="37" cm="1">
+        <f t="array" ref="G28">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-6.829E-3</v>
+      </c>
+      <c r="H28" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-6.829E-3</v>
+      </c>
+      <c r="I28" s="72">
+        <f>H28/($H$3)</f>
+        <v>-2.2994145329466474E-3</v>
+      </c>
+      <c r="J28" s="37" cm="1">
+        <f t="array" ref="J28">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-2.2994145329466474E-3</v>
+      </c>
+      <c r="K28" t="str" cm="1">
+        <f t="array" ref="K28">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-LIPID-tag_c</v>
+      </c>
+      <c r="L28" s="73" t="str" cm="1">
+        <f t="array" ref="L28">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-tag_c --&gt; 0.885513 BIO-tag_c</v>
+      </c>
+      <c r="M28" s="73" cm="1">
+        <f t="array" ref="M28">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-5.3876343695421472E-4</v>
+      </c>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="73"/>
+    </row>
+    <row r="29" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="99" t="s">
+        <v>444</v>
+      </c>
+      <c r="B29" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>ca2_c</v>
+      </c>
+      <c r="C29" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>ca2</v>
+      </c>
+      <c r="D29" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>METAL</v>
+      </c>
+      <c r="E29" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>40.078000000000003</v>
+      </c>
+      <c r="F29" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-1.286E-3</v>
+      </c>
+      <c r="G29" s="37" cm="1">
+        <f t="array" ref="G29">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-1.286E-3</v>
+      </c>
+      <c r="H29" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-1.286E-3</v>
+      </c>
+      <c r="I29" s="72">
+        <f>H29/($H$3)</f>
+        <v>-4.3301319217592458E-4</v>
+      </c>
+      <c r="J29" s="37" cm="1">
+        <f t="array" ref="J29">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-4.3301319217592458E-4</v>
+      </c>
+      <c r="K29" t="str" cm="1">
+        <f t="array" ref="K29">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-METAL-ca2_c</v>
+      </c>
+      <c r="L29" s="73" t="str" cm="1">
+        <f t="array" ref="L29">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-ca2_c --&gt; 0.040078 BIO-ca2_c</v>
+      </c>
+      <c r="M29" s="73" cm="1">
+        <f t="array" ref="M29">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-4.3301319217592458E-4</v>
+      </c>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="73"/>
+    </row>
+    <row r="30" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="99" t="s">
+        <v>445</v>
+      </c>
+      <c r="B30" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>cu2_c</v>
+      </c>
+      <c r="C30" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>cu2</v>
+      </c>
+      <c r="D30" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>METAL</v>
+      </c>
+      <c r="E30" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>63.545999999999999</v>
+      </c>
+      <c r="F30" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-1.1400000000000001E-4</v>
+      </c>
+      <c r="G30" s="37" cm="1">
+        <f t="array" ref="G30">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-1.1400000000000001E-4</v>
+      </c>
+      <c r="H30" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-1.1400000000000001E-4</v>
+      </c>
+      <c r="I30" s="72">
+        <f>H30/($H$3)</f>
+        <v>-3.838530630486423E-5</v>
+      </c>
+      <c r="J30" s="37" cm="1">
+        <f t="array" ref="J30">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-3.838530630486423E-5</v>
+      </c>
+      <c r="K30" t="str" cm="1">
+        <f t="array" ref="K30">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-METAL-cu2_c</v>
+      </c>
+      <c r="L30" s="73" t="str" cm="1">
+        <f t="array" ref="L30">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-cu2_c --&gt; 0.063546 BIO-cu2_c</v>
+      </c>
+      <c r="M30" s="73" cm="1">
+        <f t="array" ref="M30">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-3.838530630486423E-5</v>
+      </c>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="73"/>
+    </row>
+    <row r="31" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="99" t="s">
+        <v>446</v>
+      </c>
+      <c r="B31" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>fe2_c</v>
+      </c>
+      <c r="C31" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>fe2</v>
+      </c>
+      <c r="D31" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>METAL</v>
+      </c>
+      <c r="E31" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>55.844999999999999</v>
+      </c>
+      <c r="F31" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-6.6399999999999999E-4</v>
+      </c>
+      <c r="G31" s="37" cm="1">
+        <f t="array" ref="G31">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-6.6399999999999999E-4</v>
+      </c>
+      <c r="H31" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-6.6399999999999999E-4</v>
+      </c>
+      <c r="I31" s="72">
+        <f>H31/($H$3)</f>
+        <v>-2.2357757356517409E-4</v>
+      </c>
+      <c r="J31" s="37" cm="1">
+        <f t="array" ref="J31">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-2.2357757356517409E-4</v>
+      </c>
+      <c r="K31" t="str" cm="1">
+        <f t="array" ref="K31">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-METAL-fe2_c</v>
+      </c>
+      <c r="L31" s="73" t="str" cm="1">
+        <f t="array" ref="L31">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-fe2_c --&gt; 0.055845 BIO-fe2_c</v>
+      </c>
+      <c r="M31" s="73" cm="1">
+        <f t="array" ref="M31">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-2.2357757356517409E-4</v>
+      </c>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="73"/>
+      <c r="V31" s="73"/>
+    </row>
+    <row r="32" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="99" t="s">
+        <v>570</v>
+      </c>
+      <c r="B32" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>k_c</v>
+      </c>
+      <c r="C32" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>k</v>
+      </c>
+      <c r="D32" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>METAL</v>
+      </c>
+      <c r="E32" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>39.098300000000002</v>
+      </c>
+      <c r="F32" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-0.60365000000000002</v>
+      </c>
+      <c r="G32" s="37" cm="1">
+        <f t="array" ref="G32">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-0.60365000000000002</v>
+      </c>
+      <c r="H32" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-0.60365000000000002</v>
+      </c>
+      <c r="I32" s="72">
+        <f>H32/($H$3)</f>
+        <v>-0.20325693114852011</v>
+      </c>
+      <c r="J32" s="37" cm="1">
+        <f t="array" ref="J32">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-0.20325693114852011</v>
+      </c>
+      <c r="K32" t="str" cm="1">
+        <f t="array" ref="K32">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-METAL-k_c</v>
+      </c>
+      <c r="L32" s="73" t="str" cm="1">
+        <f t="array" ref="L32">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-k_c --&gt; 0.039098 BIO-k_c</v>
+      </c>
+      <c r="M32" s="73" cm="1">
+        <f t="array" ref="M32">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-0.20325693114852011</v>
+      </c>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
+      <c r="U32" s="73"/>
+      <c r="V32" s="73"/>
+    </row>
+    <row r="33" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="99" t="s">
+        <v>448</v>
+      </c>
+      <c r="B33" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>mg2_c</v>
+      </c>
+      <c r="C33" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>mg2</v>
+      </c>
+      <c r="D33" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>METAL</v>
+      </c>
+      <c r="E33" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>24.305</v>
+      </c>
+      <c r="F33" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-6.3606999999999997E-2</v>
+      </c>
+      <c r="G33" s="37" cm="1">
+        <f t="array" ref="G33">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-6.3606999999999997E-2</v>
+      </c>
+      <c r="H33" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-6.3606999999999997E-2</v>
+      </c>
+      <c r="I33" s="72">
+        <f>H33/($H$3)</f>
+        <v>-2.1417317352048236E-2</v>
+      </c>
+      <c r="J33" s="37" cm="1">
+        <f t="array" ref="J33">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-2.1417317352048236E-2</v>
+      </c>
+      <c r="K33" t="str" cm="1">
+        <f t="array" ref="K33">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-METAL-mg2_c</v>
+      </c>
+      <c r="L33" s="73" t="str" cm="1">
+        <f t="array" ref="L33">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-mg2_c --&gt; 0.024305 BIO-mg2_c</v>
+      </c>
+      <c r="M33" s="73" cm="1">
+        <f t="array" ref="M33">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-2.1417317352048236E-2</v>
+      </c>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="73"/>
+    </row>
+    <row r="34" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="99" t="s">
+        <v>571</v>
+      </c>
+      <c r="B34" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>mn2_c</v>
+      </c>
+      <c r="C34" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>mn2</v>
+      </c>
+      <c r="D34" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>METAL</v>
+      </c>
+      <c r="E34" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>54.938043999999998</v>
+      </c>
+      <c r="F34" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-9.3999999999999994E-5</v>
+      </c>
+      <c r="G34" s="37" cm="1">
+        <f t="array" ref="G34">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-9.3999999999999994E-5</v>
+      </c>
+      <c r="H34" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-9.3999999999999994E-5</v>
+      </c>
+      <c r="I34" s="72">
+        <f>H34/($H$3)</f>
+        <v>-3.1651042040852962E-5</v>
+      </c>
+      <c r="J34" s="37" cm="1">
+        <f t="array" ref="J34">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-3.1651042040852962E-5</v>
+      </c>
+      <c r="K34" t="str" cm="1">
+        <f t="array" ref="K34">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-METAL-mn2_c</v>
+      </c>
+      <c r="L34" s="73" t="str" cm="1">
+        <f t="array" ref="L34">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-mn2_c --&gt; 0.054938 BIO-mn2_c</v>
+      </c>
+      <c r="M34" s="73" cm="1">
+        <f t="array" ref="M34">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-3.1651042040852962E-5</v>
+      </c>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="73"/>
+    </row>
+    <row r="35" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="99" t="s">
+        <v>572</v>
+      </c>
+      <c r="B35" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>zn2_c</v>
+      </c>
+      <c r="C35" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>zn2</v>
+      </c>
+      <c r="D35" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>METAL</v>
+      </c>
+      <c r="E35" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>65.38</v>
+      </c>
+      <c r="F35" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-1.5759999999999999E-3</v>
+      </c>
+      <c r="G35" s="37" cm="1">
+        <f t="array" ref="G35">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-1.5759999999999999E-3</v>
+      </c>
+      <c r="H35" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-1.5759999999999999E-3</v>
+      </c>
+      <c r="I35" s="72">
+        <f>H35/($H$3)</f>
+        <v>-5.3066002400408796E-4</v>
+      </c>
+      <c r="J35" s="37" cm="1">
+        <f t="array" ref="J35">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-5.3066002400408796E-4</v>
+      </c>
+      <c r="K35" t="str" cm="1">
+        <f t="array" ref="K35">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-METAL-zn2_c</v>
+      </c>
+      <c r="L35" s="73" t="str" cm="1">
+        <f t="array" ref="L35">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-zn2_c --&gt; 0.06538 BIO-zn2_c</v>
+      </c>
+      <c r="M35" s="73" cm="1">
+        <f t="array" ref="M35">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-5.3066002400408796E-4</v>
+      </c>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="73"/>
+    </row>
+    <row r="36" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="99" t="s">
+        <v>554</v>
+      </c>
+      <c r="B36" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>ergstest_c</v>
+      </c>
+      <c r="C36" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>ergstest</v>
+      </c>
+      <c r="D36" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>other</v>
+      </c>
+      <c r="E36" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>65560.645239999998</v>
+      </c>
+      <c r="F36" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-6.7780000000000002E-3</v>
+      </c>
+      <c r="G36" s="37" cm="1">
+        <f t="array" ref="G36">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-6.7780000000000002E-3</v>
+      </c>
+      <c r="H36" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-6.7780000000000002E-3</v>
+      </c>
+      <c r="I36" s="72">
+        <f>H36/($H$3)</f>
+        <v>-2.2822421590734188E-3</v>
+      </c>
+      <c r="J36" s="37" cm="1">
+        <f t="array" ref="J36">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-2.2822421590734188E-3</v>
+      </c>
+      <c r="K36" t="str" cm="1">
+        <f t="array" ref="K36">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-other-ergstest_c</v>
+      </c>
+      <c r="L36" s="73" t="str" cm="1">
+        <f t="array" ref="L36">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-ergstest_c --&gt; 65.560645 BIO-ergstest_c</v>
+      </c>
+      <c r="M36" s="73" cm="1">
+        <f t="array" ref="M36">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-2.2822421590734188E-3</v>
+      </c>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="73"/>
+      <c r="T36" s="73"/>
+      <c r="U36" s="73"/>
+      <c r="V36" s="73"/>
+    </row>
+    <row r="37" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="99" t="s">
+        <v>578</v>
+      </c>
+      <c r="B37" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>pi_c</v>
+      </c>
+      <c r="C37" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>pi</v>
+      </c>
+      <c r="D37" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>PI</v>
+      </c>
+      <c r="E37" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>95.979301000000007</v>
+      </c>
+      <c r="F37" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>139.35728700000001</v>
+      </c>
+      <c r="G37" s="37" cm="1">
+        <f t="array" ref="G37">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-0.10565499999998451</v>
+      </c>
+      <c r="H37" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-0.10565499999998451</v>
+      </c>
+      <c r="I37" s="72">
+        <f>H37/($H$3)</f>
+        <v>-3.5575434540700314E-2</v>
+      </c>
+      <c r="J37" s="37" cm="1">
+        <f t="array" ref="J37">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>128.68736656545929</v>
+      </c>
+      <c r="K37" t="str" cm="1">
+        <f t="array" ref="K37">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-PI-pi_c</v>
+      </c>
+      <c r="L37" s="73" t="str" cm="1">
+        <f t="array" ref="L37">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-pi_c --&gt; 0.095979 BIO-pi_c</v>
+      </c>
+      <c r="M37" s="73" cm="1">
+        <f t="array" ref="M37">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>138.26907874287633</v>
+      </c>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="73"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="73"/>
+    </row>
+    <row r="38" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="99" t="s">
+        <v>529</v>
+      </c>
+      <c r="B38" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>alatrna_c</v>
+      </c>
+      <c r="C38" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>alatrna</v>
+      </c>
+      <c r="D38" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>PROT</v>
+      </c>
+      <c r="E38" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>72.085840000000005</v>
+      </c>
+      <c r="F38" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-0.46051599999999998</v>
+      </c>
+      <c r="G38" s="37" cm="1">
+        <f t="array" ref="G38">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-0.46051599999999998</v>
+      </c>
+      <c r="H38" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-0.46051599999999998</v>
+      </c>
+      <c r="I38" s="72">
+        <f>H38/($H$3)</f>
+        <v>-0.15506182209027067</v>
+      </c>
+      <c r="J38" s="37" cm="1">
+        <f t="array" ref="J38">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-0.15506182209027067</v>
+      </c>
+      <c r="K38" t="str" cm="1">
+        <f t="array" ref="K38">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-PROT-alatrna_c</v>
+      </c>
+      <c r="L38" s="73" t="str" cm="1">
+        <f t="array" ref="L38">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v/>
+      </c>
+      <c r="M38" s="73" cm="1">
+        <f t="array" ref="M38">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-1.5086721627145545E-2</v>
+      </c>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73" cm="1">
+        <f t="array" ref="P38:P57">E38:E57*F38:F57/1000</f>
+        <v>-3.3196682693440005E-2</v>
+      </c>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="73"/>
+      <c r="U38" s="73"/>
+      <c r="V38" s="73"/>
+    </row>
+    <row r="39" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="99" t="s">
+        <v>530</v>
+      </c>
+      <c r="B39" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>argtrna_c</v>
+      </c>
+      <c r="C39" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>argtrna</v>
+      </c>
+      <c r="D39" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>PROT</v>
+      </c>
+      <c r="E39" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>158.20156</v>
+      </c>
+      <c r="F39" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-0.18194399999999999</v>
+      </c>
+      <c r="G39" s="37" cm="1">
+        <f t="array" ref="G39">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-0.18194399999999999</v>
+      </c>
+      <c r="H39" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-0.18194399999999999</v>
+      </c>
+      <c r="I39" s="72">
+        <f>H39/($H$3)</f>
+        <v>-6.126294886256331E-2</v>
+      </c>
+      <c r="J39" s="37" cm="1">
+        <f t="array" ref="J39">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-6.126294886256331E-2</v>
+      </c>
+      <c r="K39" t="str" cm="1">
+        <f t="array" ref="K39">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-PROT-argtrna_c</v>
+      </c>
+      <c r="L39" s="73" t="str" cm="1">
+        <f t="array" ref="L39">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v/>
+      </c>
+      <c r="M39" s="73" cm="1">
+        <f t="array" ref="M39">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-5.9605713584964881E-3</v>
+      </c>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73">
+        <v>-2.8783824632639999E-2</v>
+      </c>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="73"/>
+      <c r="T39" s="73"/>
+      <c r="U39" s="73"/>
+      <c r="V39" s="73"/>
+    </row>
+    <row r="40" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="99" t="s">
+        <v>531</v>
+      </c>
+      <c r="B40" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>asntrna_c</v>
+      </c>
+      <c r="C40" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>asntrna</v>
+      </c>
+      <c r="D40" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>PROT</v>
+      </c>
+      <c r="E40" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>115.11058</v>
+      </c>
+      <c r="F40" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-0.21870999999999999</v>
+      </c>
+      <c r="G40" s="37" cm="1">
+        <f t="array" ref="G40">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-0.21870999999999999</v>
+      </c>
+      <c r="H40" s="72">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-0.21870999999999999</v>
+      </c>
+      <c r="I40" s="72">
+        <f>H40/($H$3)</f>
+        <v>-7.3642546859095215E-2</v>
+      </c>
+      <c r="J40" s="37" cm="1">
+        <f t="array" ref="J40">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-7.3642546859095215E-2</v>
+      </c>
+      <c r="K40" t="str" cm="1">
+        <f t="array" ref="K40">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-PROT-asntrna_c</v>
+      </c>
+      <c r="L40" s="73" t="str" cm="1">
+        <f t="array" ref="L40">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v/>
+      </c>
+      <c r="M40" s="73" cm="1">
+        <f t="array" ref="M40">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-7.1650428803190364E-3</v>
+      </c>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73">
+        <v>-2.5175834951799998E-2</v>
+      </c>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="73"/>
+      <c r="T40" s="73"/>
+      <c r="U40" s="73"/>
+      <c r="V40" s="73"/>
+    </row>
+    <row r="41" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="99" t="s">
+        <v>532</v>
+      </c>
+      <c r="B41" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>asptrna_c</v>
+      </c>
+      <c r="C41" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>asptrna</v>
+      </c>
+      <c r="D41" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>PROT</v>
+      </c>
+      <c r="E41" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>115.0874</v>
+      </c>
+      <c r="F41" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-0.21870999999999999</v>
+      </c>
+      <c r="G41" s="37" cm="1">
+        <f t="array" ref="G41">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-0.21870999999999999</v>
+      </c>
+      <c r="H41" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-0.21870999999999999</v>
+      </c>
+      <c r="I41" s="72">
+        <f>H41/($H$3)</f>
+        <v>-7.3642546859095215E-2</v>
+      </c>
+      <c r="J41" s="37" cm="1">
+        <f t="array" ref="J41">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-7.3642546859095215E-2</v>
+      </c>
+      <c r="K41" t="str" cm="1">
+        <f t="array" ref="K41">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-PROT-asptrna_c</v>
+      </c>
+      <c r="L41" s="73" t="str" cm="1">
+        <f t="array" ref="L41">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v/>
+      </c>
+      <c r="M41" s="73" cm="1">
+        <f t="array" ref="M41">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-7.1650428803190364E-3</v>
+      </c>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73">
+        <v>-2.5170765253999999E-2</v>
+      </c>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="73"/>
+    </row>
+    <row r="42" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="99" t="s">
+        <v>533</v>
+      </c>
+      <c r="B42" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>cystrna_c</v>
+      </c>
+      <c r="C42" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>cystrna</v>
+      </c>
+      <c r="D42" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>PROT</v>
+      </c>
+      <c r="E42" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>104.15084</v>
+      </c>
+      <c r="F42" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-6.5989999999999998E-3</v>
+      </c>
+      <c r="G42" s="37" cm="1">
+        <f t="array" ref="G42">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-6.5989999999999998E-3</v>
+      </c>
+      <c r="H42" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-6.5989999999999998E-3</v>
+      </c>
+      <c r="I42" s="72">
+        <f>H42/($H$3)</f>
+        <v>-2.2219704939105177E-3</v>
+      </c>
+      <c r="J42" s="37" cm="1">
+        <f t="array" ref="J42">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-2.2219704939105177E-3</v>
+      </c>
+      <c r="K42" t="str" cm="1">
+        <f t="array" ref="K42">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-PROT-cystrna_c</v>
+      </c>
+      <c r="L42" s="73" t="str" cm="1">
+        <f t="array" ref="L42">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v/>
+      </c>
+      <c r="M42" s="73" cm="1">
+        <f t="array" ref="M42">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-2.1618635621245175E-4</v>
+      </c>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73">
+        <v>-6.8729139316000003E-4</v>
+      </c>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="73"/>
+      <c r="S42" s="73"/>
+      <c r="T42" s="73"/>
+      <c r="U42" s="73"/>
+      <c r="V42" s="73"/>
+    </row>
+    <row r="43" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="99" t="s">
+        <v>534</v>
+      </c>
+      <c r="B43" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>glntrna_c</v>
+      </c>
+      <c r="C43" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>glntrna</v>
+      </c>
+      <c r="D43" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>PROT</v>
+      </c>
+      <c r="E43" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>129.13715999999999</v>
+      </c>
+      <c r="F43" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-0.36482999999999999</v>
+      </c>
+      <c r="G43" s="37" cm="1">
+        <f t="array" ref="G43">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-0.36482999999999999</v>
+      </c>
+      <c r="H43" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-0.36482999999999999</v>
+      </c>
+      <c r="I43" s="72">
+        <f>H43/($H$3)</f>
+        <v>-0.12284308157196154</v>
+      </c>
+      <c r="J43" s="37" cm="1">
+        <f t="array" ref="J43">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-0.12284308157196154</v>
+      </c>
+      <c r="K43" t="str" cm="1">
+        <f t="array" ref="K43">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-PROT-glntrna_c</v>
+      </c>
+      <c r="L43" s="73" t="str" cm="1">
+        <f t="array" ref="L43">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v/>
+      </c>
+      <c r="M43" s="73" cm="1">
+        <f t="array" ref="M43">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-1.195200308182888E-2</v>
+      </c>
+      <c r="N43" s="73"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="73">
+        <v>-4.7113110082799996E-2</v>
+      </c>
+      <c r="Q43" s="73"/>
+      <c r="R43" s="73"/>
+      <c r="S43" s="73"/>
+      <c r="T43" s="73"/>
+      <c r="U43" s="73"/>
+      <c r="V43" s="73"/>
+    </row>
+    <row r="44" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="99" t="s">
+        <v>535</v>
+      </c>
+      <c r="B44" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>glutrna_c</v>
+      </c>
+      <c r="C44" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>glutrna</v>
+      </c>
+      <c r="D44" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>PROT</v>
+      </c>
+      <c r="E44" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>129.11398</v>
+      </c>
+      <c r="F44" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-0.36482999999999999</v>
+      </c>
+      <c r="G44" s="37" cm="1">
+        <f t="array" ref="G44">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-0.36482999999999999</v>
+      </c>
+      <c r="H44" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-0.36482999999999999</v>
+      </c>
+      <c r="I44" s="72">
+        <f>H44/($H$3)</f>
+        <v>-0.12284308157196154</v>
+      </c>
+      <c r="J44" s="37" cm="1">
+        <f t="array" ref="J44">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-0.12284308157196154</v>
+      </c>
+      <c r="K44" t="str" cm="1">
+        <f t="array" ref="K44">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-PROT-glutrna_c</v>
+      </c>
+      <c r="L44" s="73" t="str" cm="1">
+        <f t="array" ref="L44">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v/>
+      </c>
+      <c r="M44" s="73" cm="1">
+        <f t="array" ref="M44">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-1.195200308182888E-2</v>
+      </c>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73">
+        <v>-4.7104653323399998E-2</v>
+      </c>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="73"/>
+      <c r="S44" s="73"/>
+      <c r="T44" s="73"/>
+      <c r="U44" s="73"/>
+      <c r="V44" s="73"/>
+    </row>
+    <row r="45" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="99" t="s">
+        <v>580</v>
+      </c>
+      <c r="B45" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>glytrna_c</v>
+      </c>
+      <c r="C45" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>glytrna</v>
+      </c>
+      <c r="D45" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>PROT</v>
+      </c>
+      <c r="E45" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>58.059260000000002</v>
+      </c>
+      <c r="F45" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-0.41903600000000002</v>
+      </c>
+      <c r="G45" s="37" cm="1">
+        <f t="array" ref="G45">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-0.41903600000000002</v>
+      </c>
+      <c r="H45" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-0.41903600000000002</v>
+      </c>
+      <c r="I45" s="72">
+        <f>H45/($H$3)</f>
+        <v>-0.14109495800671129</v>
+      </c>
+      <c r="J45" s="37" cm="1">
+        <f t="array" ref="J45">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-0.14109495800671129</v>
+      </c>
+      <c r="K45" t="str" cm="1">
+        <f t="array" ref="K45">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-PROT-glytrna_c</v>
+      </c>
+      <c r="L45" s="73" t="str" cm="1">
+        <f t="array" ref="L45">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v/>
+      </c>
+      <c r="M45" s="73" cm="1">
+        <f t="array" ref="M45">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-1.3727817239254576E-2</v>
+      </c>
+      <c r="N45" s="73"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="73">
+        <v>-2.4328920073360003E-2</v>
+      </c>
+      <c r="Q45" s="73"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="73"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="73"/>
+    </row>
+    <row r="46" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="99" t="s">
+        <v>536</v>
+      </c>
+      <c r="B46" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>histrna_c</v>
+      </c>
+      <c r="C46" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>histrna</v>
+      </c>
+      <c r="D46" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>PROT</v>
+      </c>
+      <c r="E46" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>138.14722</v>
+      </c>
+      <c r="F46" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-9.0971999999999997E-2</v>
+      </c>
+      <c r="G46" s="37" cm="1">
+        <f t="array" ref="G46">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-9.0971999999999997E-2</v>
+      </c>
+      <c r="H46" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-9.0971999999999997E-2</v>
+      </c>
+      <c r="I46" s="72">
+        <f>H46/($H$3)</f>
+        <v>-3.0631474431281655E-2</v>
+      </c>
+      <c r="J46" s="37" cm="1">
+        <f t="array" ref="J46">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-3.0631474431281655E-2</v>
+      </c>
+      <c r="K46" t="str" cm="1">
+        <f t="array" ref="K46">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-PROT-histrna_c</v>
+      </c>
+      <c r="L46" s="73" t="str" cm="1">
+        <f t="array" ref="L46">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v/>
+      </c>
+      <c r="M46" s="73" cm="1">
+        <f t="array" ref="M46">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-2.9802856792482441E-3</v>
+      </c>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="73">
+        <v>-1.2567528897840002E-2</v>
+      </c>
+      <c r="Q46" s="73"/>
+      <c r="R46" s="73"/>
+      <c r="S46" s="73"/>
+      <c r="T46" s="73"/>
+      <c r="U46" s="73"/>
+      <c r="V46" s="73"/>
+    </row>
+    <row r="47" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="99" t="s">
+        <v>537</v>
+      </c>
+      <c r="B47" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>iletrna_c</v>
+      </c>
+      <c r="C47" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>iletrna</v>
+      </c>
+      <c r="D47" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>PROT</v>
+      </c>
+      <c r="E47" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>114.16558000000001</v>
+      </c>
+      <c r="F47" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-0.27762900000000001</v>
+      </c>
+      <c r="G47" s="37" cm="1">
+        <f t="array" ref="G47">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-0.27762900000000001</v>
+      </c>
+      <c r="H47" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-0.27762900000000001</v>
+      </c>
+      <c r="I47" s="72">
+        <f>H47/($H$3)</f>
+        <v>-9.3481352667659223E-2</v>
+      </c>
+      <c r="J47" s="37" cm="1">
+        <f t="array" ref="J47">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-9.3481352667659223E-2</v>
+      </c>
+      <c r="K47" t="str" cm="1">
+        <f t="array" ref="K47">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-PROT-iletrna_c</v>
+      </c>
+      <c r="L47" s="73" t="str" cm="1">
+        <f t="array" ref="L47">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v/>
+      </c>
+      <c r="M47" s="73" cm="1">
+        <f t="array" ref="M47">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-9.0952571433409266E-3</v>
+      </c>
+      <c r="N47" s="73"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="73">
+        <v>-3.1695675809820002E-2</v>
+      </c>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="73"/>
+      <c r="S47" s="73"/>
+      <c r="T47" s="73"/>
+      <c r="U47" s="73"/>
+      <c r="V47" s="73"/>
+    </row>
+    <row r="48" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="99" t="s">
+        <v>538</v>
+      </c>
+      <c r="B48" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>leutrna_c</v>
+      </c>
+      <c r="C48" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>leutrna</v>
+      </c>
+      <c r="D48" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>PROT</v>
+      </c>
+      <c r="E48" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>114.16558000000001</v>
+      </c>
+      <c r="F48" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-0.37755699999999998</v>
+      </c>
+      <c r="G48" s="37" cm="1">
+        <f t="array" ref="G48">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-0.37755699999999998</v>
+      </c>
+      <c r="H48" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-0.37755699999999998</v>
+      </c>
+      <c r="I48" s="72">
+        <f>H48/($H$3)</f>
+        <v>-0.12712843063636511</v>
+      </c>
+      <c r="J48" s="37" cm="1">
+        <f t="array" ref="J48">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-0.12712843063636511</v>
+      </c>
+      <c r="K48" t="str" cm="1">
+        <f t="array" ref="K48">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-PROT-leutrna_c</v>
+      </c>
+      <c r="L48" s="73" t="str" cm="1">
+        <f t="array" ref="L48">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v/>
+      </c>
+      <c r="M48" s="73" cm="1">
+        <f t="array" ref="M48">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-1.2368945611835831E-2</v>
+      </c>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="73">
+        <v>-4.3104013888060004E-2</v>
+      </c>
+      <c r="Q48" s="73"/>
+      <c r="R48" s="73"/>
+      <c r="S48" s="73"/>
+      <c r="T48" s="73"/>
+      <c r="U48" s="73"/>
+      <c r="V48" s="73"/>
+    </row>
+    <row r="49" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="99" t="s">
+        <v>539</v>
+      </c>
+      <c r="B49" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>lystrna_c</v>
+      </c>
+      <c r="C49" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>lystrna</v>
+      </c>
+      <c r="D49" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>PROT</v>
+      </c>
+      <c r="E49" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>130.18816000000001</v>
+      </c>
+      <c r="F49" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-0.30968200000000001</v>
+      </c>
+      <c r="G49" s="37" cm="1">
+        <f t="array" ref="G49">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-0.30968200000000001</v>
+      </c>
+      <c r="H49" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-0.30968200000000001</v>
+      </c>
+      <c r="I49" s="72">
+        <f>H49/($H$3)</f>
+        <v>-0.10427402129037688</v>
+      </c>
+      <c r="J49" s="37" cm="1">
+        <f t="array" ref="J49">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-0.10427402129037688</v>
+      </c>
+      <c r="K49" t="str" cm="1">
+        <f t="array" ref="K49">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-PROT-lystrna_c</v>
+      </c>
+      <c r="L49" s="73" t="str" cm="1">
+        <f t="array" ref="L49">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v/>
+      </c>
+      <c r="M49" s="73" cm="1">
+        <f t="array" ref="M49">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-1.0145328559567282E-2</v>
+      </c>
+      <c r="N49" s="73"/>
+      <c r="O49" s="73"/>
+      <c r="P49" s="73">
+        <v>-4.031692976512001E-2</v>
+      </c>
+      <c r="Q49" s="73"/>
+      <c r="R49" s="73"/>
+      <c r="S49" s="73"/>
+      <c r="T49" s="73"/>
+      <c r="U49" s="73"/>
+      <c r="V49" s="73"/>
+    </row>
+    <row r="50" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="99" t="s">
+        <v>540</v>
+      </c>
+      <c r="B50" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>mettrna_c</v>
+      </c>
+      <c r="C50" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>mettrna</v>
+      </c>
+      <c r="D50" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>PROT</v>
+      </c>
+      <c r="E50" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>132.20400000000001</v>
+      </c>
+      <c r="F50" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-5.3734999999999998E-2</v>
+      </c>
+      <c r="G50" s="37" cm="1">
+        <f t="array" ref="G50">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-5.3734999999999998E-2</v>
+      </c>
+      <c r="H50" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-5.3734999999999998E-2</v>
+      </c>
+      <c r="I50" s="72">
+        <f>H50/($H$3)</f>
+        <v>-1.8093284511332273E-2</v>
+      </c>
+      <c r="J50" s="37" cm="1">
+        <f t="array" ref="J50">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-1.8093284511332273E-2</v>
+      </c>
+      <c r="K50" t="str" cm="1">
+        <f t="array" ref="K50">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-PROT-mettrna_c</v>
+      </c>
+      <c r="L50" s="73" t="str" cm="1">
+        <f t="array" ref="L50">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v/>
+      </c>
+      <c r="M50" s="73" cm="1">
+        <f t="array" ref="M50">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-1.7603839750077429E-3</v>
+      </c>
+      <c r="N50" s="73"/>
+      <c r="O50" s="73"/>
+      <c r="P50" s="73">
+        <v>-7.1039819399999994E-3</v>
+      </c>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="73"/>
+      <c r="S50" s="73"/>
+      <c r="T50" s="73"/>
+      <c r="U50" s="73"/>
+      <c r="V50" s="73"/>
+    </row>
+    <row r="51" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="99" t="s">
+        <v>541</v>
+      </c>
+      <c r="B51" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>phetrna_c</v>
+      </c>
+      <c r="C51" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>phetrna</v>
+      </c>
+      <c r="D51" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>PROT</v>
+      </c>
+      <c r="E51" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>148.18180000000001</v>
+      </c>
+      <c r="F51" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-0.17723</v>
+      </c>
+      <c r="G51" s="37" cm="1">
+        <f t="array" ref="G51">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-0.17723</v>
+      </c>
+      <c r="H51" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-0.17723</v>
+      </c>
+      <c r="I51" s="72">
+        <f>H51/($H$3)</f>
+        <v>-5.9675682775535852E-2</v>
+      </c>
+      <c r="J51" s="37" cm="1">
+        <f t="array" ref="J51">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-5.9675682775535852E-2</v>
+      </c>
+      <c r="K51" t="str" cm="1">
+        <f t="array" ref="K51">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-PROT-phetrna_c</v>
+      </c>
+      <c r="L51" s="73" t="str" cm="1">
+        <f t="array" ref="L51">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v/>
+      </c>
+      <c r="M51" s="73" cm="1">
+        <f t="array" ref="M51">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-5.8061384924280686E-3</v>
+      </c>
+      <c r="N51" s="73"/>
+      <c r="O51" s="73"/>
+      <c r="P51" s="73">
+        <v>-2.6262260414E-2</v>
+      </c>
+      <c r="Q51" s="73"/>
+      <c r="R51" s="73"/>
+      <c r="S51" s="73"/>
+      <c r="T51" s="73"/>
+      <c r="U51" s="73"/>
+      <c r="V51" s="73"/>
+    </row>
+    <row r="52" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="99" t="s">
+        <v>542</v>
+      </c>
+      <c r="B52" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>protrna_c</v>
+      </c>
+      <c r="C52" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>protrna</v>
+      </c>
+      <c r="D52" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>PROT</v>
+      </c>
+      <c r="E52" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>97.115179999999995</v>
+      </c>
+      <c r="F52" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-0.19891300000000001</v>
+      </c>
+      <c r="G52" s="37" cm="1">
+        <f t="array" ref="G52">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-0.19891300000000001</v>
+      </c>
+      <c r="H52" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-0.19891300000000001</v>
+      </c>
+      <c r="I52" s="72">
+        <f>H52/($H$3)</f>
+        <v>-6.6976635377363675E-2</v>
+      </c>
+      <c r="J52" s="37" cm="1">
+        <f t="array" ref="J52">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-6.6976635377363675E-2</v>
+      </c>
+      <c r="K52" t="str" cm="1">
+        <f t="array" ref="K52">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-PROT-protrna_c</v>
+      </c>
+      <c r="L52" s="73" t="str" cm="1">
+        <f t="array" ref="L52">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v/>
+      </c>
+      <c r="M52" s="73" cm="1">
+        <f t="array" ref="M52">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-6.5164838116816828E-3</v>
+      </c>
+      <c r="N52" s="73"/>
+      <c r="O52" s="73"/>
+      <c r="P52" s="73">
+        <v>-1.931747179934E-2</v>
+      </c>
+      <c r="Q52" s="73"/>
+      <c r="R52" s="73"/>
+      <c r="S52" s="73"/>
+      <c r="T52" s="73"/>
+      <c r="U52" s="73"/>
+      <c r="V52" s="73"/>
+    </row>
+    <row r="53" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="99" t="s">
+        <v>543</v>
+      </c>
+      <c r="B53" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>sertrna_c</v>
+      </c>
+      <c r="C53" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>sertrna</v>
+      </c>
+      <c r="D53" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>PROT</v>
+      </c>
+      <c r="E53" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>88.085239999999999</v>
+      </c>
+      <c r="F53" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-0.25123299999999998</v>
+      </c>
+      <c r="G53" s="37" cm="1">
+        <f t="array" ref="G53">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-0.25123299999999998</v>
+      </c>
+      <c r="H53" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-0.25123299999999998</v>
+      </c>
+      <c r="I53" s="72">
+        <f>H53/($H$3)</f>
+        <v>-8.4593470692017142E-2</v>
+      </c>
+      <c r="J53" s="37" cm="1">
+        <f t="array" ref="J53">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-8.4593470692017142E-2</v>
+      </c>
+      <c r="K53" t="str" cm="1">
+        <f t="array" ref="K53">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-PROT-sertrna_c</v>
+      </c>
+      <c r="L53" s="73" t="str" cm="1">
+        <f t="array" ref="L53">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v/>
+      </c>
+      <c r="M53" s="73" cm="1">
+        <f t="array" ref="M53">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-8.2305117184911184E-3</v>
+      </c>
+      <c r="N53" s="73"/>
+      <c r="O53" s="73"/>
+      <c r="P53" s="73">
+        <v>-2.2129919100919999E-2</v>
+      </c>
+      <c r="Q53" s="73"/>
+      <c r="R53" s="73"/>
+      <c r="S53" s="73"/>
+      <c r="T53" s="73"/>
+      <c r="U53" s="73"/>
+      <c r="V53" s="73"/>
+    </row>
+    <row r="54" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="99" t="s">
+        <v>544</v>
+      </c>
+      <c r="B54" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>thrtrna_c</v>
+      </c>
+      <c r="C54" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>thrtrna</v>
+      </c>
+      <c r="D54" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>PROT</v>
+      </c>
+      <c r="E54" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>102.11181999999999</v>
+      </c>
+      <c r="F54" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-0.262546</v>
+      </c>
+      <c r="G54" s="37" cm="1">
+        <f t="array" ref="G54">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-0.262546</v>
+      </c>
+      <c r="H54" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-0.262546</v>
+      </c>
+      <c r="I54" s="72">
+        <f>H54/($H$3)</f>
+        <v>-8.8402707272955128E-2</v>
+      </c>
+      <c r="J54" s="37" cm="1">
+        <f t="array" ref="J54">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-8.8402707272955128E-2</v>
+      </c>
+      <c r="K54" t="str" cm="1">
+        <f t="array" ref="K54">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-PROT-thrtrna_c</v>
+      </c>
+      <c r="L54" s="73" t="str" cm="1">
+        <f t="array" ref="L54">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v/>
+      </c>
+      <c r="M54" s="73" cm="1">
+        <f t="array" ref="M54">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-8.6011309407719901E-3</v>
+      </c>
+      <c r="N54" s="73"/>
+      <c r="O54" s="73"/>
+      <c r="P54" s="73">
+        <v>-2.6809049893719999E-2</v>
+      </c>
+      <c r="Q54" s="73"/>
+      <c r="R54" s="73"/>
+      <c r="S54" s="73"/>
+      <c r="T54" s="73"/>
+      <c r="U54" s="73"/>
+      <c r="V54" s="73"/>
+    </row>
+    <row r="55" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="99" t="s">
+        <v>545</v>
+      </c>
+      <c r="B55" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>trptrna_c</v>
+      </c>
+      <c r="C55" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>trptrna</v>
+      </c>
+      <c r="D55" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>PROT</v>
+      </c>
+      <c r="E55" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>187.21784</v>
+      </c>
+      <c r="F55" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-3.0637999999999999E-2</v>
+      </c>
+      <c r="G55" s="37" cm="1">
+        <f t="array" ref="G55">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-3.0637999999999999E-2</v>
+      </c>
+      <c r="H55" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-3.0637999999999999E-2</v>
+      </c>
+      <c r="I55" s="72">
+        <f>H55/($H$3)</f>
+        <v>-1.0316219426038862E-2</v>
+      </c>
+      <c r="J55" s="37" cm="1">
+        <f t="array" ref="J55">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-1.0316219426038862E-2</v>
+      </c>
+      <c r="K55" t="str" cm="1">
+        <f t="array" ref="K55">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-PROT-trptrna_c</v>
+      </c>
+      <c r="L55" s="73" t="str" cm="1">
+        <f t="array" ref="L55">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v/>
+      </c>
+      <c r="M55" s="73" cm="1">
+        <f t="array" ref="M55">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-1.0037153480280494E-3</v>
+      </c>
+      <c r="N55" s="73"/>
+      <c r="O55" s="73"/>
+      <c r="P55" s="73">
+        <v>-5.7359801819199998E-3</v>
+      </c>
+      <c r="Q55" s="73"/>
+      <c r="R55" s="73"/>
+      <c r="S55" s="73"/>
+      <c r="T55" s="73"/>
+      <c r="U55" s="73"/>
+      <c r="V55" s="73"/>
+    </row>
+    <row r="56" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="99" t="s">
+        <v>546</v>
+      </c>
+      <c r="B56" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>tyrtrna_c</v>
+      </c>
+      <c r="C56" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>tyrtrna</v>
+      </c>
+      <c r="D56" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>PROT</v>
+      </c>
+      <c r="E56" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>164.18119999999999</v>
+      </c>
+      <c r="F56" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-9.2385999999999996E-2</v>
+      </c>
+      <c r="G56" s="37" cm="1">
+        <f t="array" ref="G56">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-9.2385999999999996E-2</v>
+      </c>
+      <c r="H56" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-9.2385999999999996E-2</v>
+      </c>
+      <c r="I56" s="72">
+        <f>H56/($H$3)</f>
+        <v>-3.110758691474725E-2</v>
+      </c>
+      <c r="J56" s="37" cm="1">
+        <f t="array" ref="J56">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-3.110758691474725E-2</v>
+      </c>
+      <c r="K56" t="str" cm="1">
+        <f t="array" ref="K56">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-PROT-tyrtrna_c</v>
+      </c>
+      <c r="L56" s="73" t="str" cm="1">
+        <f t="array" ref="L56">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v/>
+      </c>
+      <c r="M56" s="73" cm="1">
+        <f t="array" ref="M56">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-3.0266089869743248E-3</v>
+      </c>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73">
+        <v>-1.5168044343199998E-2</v>
+      </c>
+      <c r="Q56" s="73"/>
+      <c r="R56" s="73"/>
+      <c r="S56" s="73"/>
+      <c r="T56" s="73"/>
+      <c r="U56" s="73"/>
+      <c r="V56" s="73"/>
+    </row>
+    <row r="57" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="99" t="s">
+        <v>547</v>
+      </c>
+      <c r="B57" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>valtrna_c</v>
+      </c>
+      <c r="C57" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>valtrna</v>
+      </c>
+      <c r="D57" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>PROT</v>
+      </c>
+      <c r="E57" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>100.139</v>
+      </c>
+      <c r="F57" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-0.34550500000000001</v>
+      </c>
+      <c r="G57" s="37" cm="1">
+        <f t="array" ref="G57">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-0.34550500000000001</v>
+      </c>
+      <c r="H57" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-0.34550500000000001</v>
+      </c>
+      <c r="I57" s="72">
+        <f>H57/($H$3)</f>
+        <v>-0.11633609872686067</v>
+      </c>
+      <c r="J57" s="37" cm="1">
+        <f t="array" ref="J57">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-0.11633609872686067</v>
+      </c>
+      <c r="K57" t="str" cm="1">
+        <f t="array" ref="K57">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-PROT-valtrna_c</v>
+      </c>
+      <c r="L57" s="73" t="str" cm="1">
+        <f t="array" ref="L57">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v/>
+      </c>
+      <c r="M57" s="73" cm="1">
+        <f t="array" ref="M57">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-1.1318906956081702E-2</v>
+      </c>
+      <c r="N57" s="73"/>
+      <c r="O57" s="73"/>
+      <c r="P57" s="73">
+        <v>-3.4598525195E-2</v>
+      </c>
+      <c r="Q57" s="73"/>
+      <c r="R57" s="73"/>
+      <c r="S57" s="73"/>
+      <c r="T57" s="73"/>
+      <c r="U57" s="73"/>
+      <c r="V57" s="73"/>
+    </row>
+    <row r="58" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="99" t="s">
+        <v>563</v>
+      </c>
+      <c r="B58" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>ctp_c</v>
+      </c>
+      <c r="C58" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>ctp</v>
+      </c>
+      <c r="D58" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>RNA</v>
+      </c>
+      <c r="E58" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>304.17330100000004</v>
+      </c>
+      <c r="F58" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-9.3742000000000006E-2</v>
+      </c>
+      <c r="G58" s="37" cm="1">
+        <f t="array" ref="G58">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-9.3742000000000006E-2</v>
+      </c>
+      <c r="H58" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-9.3742000000000006E-2</v>
+      </c>
+      <c r="I58" s="72">
+        <f>H58/($H$3)</f>
+        <v>-3.1564170031847215E-2</v>
+      </c>
+      <c r="J58" s="37" cm="1">
+        <f t="array" ref="J58">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-3.1564170031847215E-2</v>
+      </c>
+      <c r="K58" t="str" cm="1">
+        <f t="array" ref="K58">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-RNA-ctp_c</v>
+      </c>
+      <c r="L58" s="73" t="str" cm="1">
+        <f t="array" ref="L58">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-ctp_c --&gt; MET-ppi_c + 0.304173 BIO-ctp_c</v>
+      </c>
+      <c r="M58" s="73" cm="1">
+        <f t="array" ref="M58">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-3.1564170031847215E-2</v>
+      </c>
+      <c r="N58" s="73"/>
+      <c r="O58" s="73"/>
+      <c r="P58" s="73"/>
+      <c r="Q58" s="73"/>
+      <c r="R58" s="73"/>
+      <c r="S58" s="73"/>
+      <c r="T58" s="73"/>
+      <c r="U58" s="73"/>
+      <c r="V58" s="73"/>
+    </row>
+    <row r="59" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="99" t="s">
+        <v>564</v>
+      </c>
+      <c r="B59" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>gtp_c</v>
+      </c>
+      <c r="C59" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>gtp</v>
+      </c>
+      <c r="D59" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>RNA</v>
+      </c>
+      <c r="E59" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>344.19740100000001</v>
+      </c>
+      <c r="F59" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-9.6468999999999999E-2</v>
+      </c>
+      <c r="G59" s="37" cm="1">
+        <f t="array" ref="G59">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-9.6468999999999999E-2</v>
+      </c>
+      <c r="H59" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-9.6468999999999999E-2</v>
+      </c>
+      <c r="I59" s="72">
+        <f>H59/($H$3)</f>
+        <v>-3.2482386964245151E-2</v>
+      </c>
+      <c r="J59" s="37" cm="1">
+        <f t="array" ref="J59">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-3.2482386964245151E-2</v>
+      </c>
+      <c r="K59" t="str" cm="1">
+        <f t="array" ref="K59">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-RNA-gtp_c</v>
+      </c>
+      <c r="L59" s="73" t="str" cm="1">
+        <f t="array" ref="L59">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-gtp_c --&gt; MET-ppi_c + 0.344197 BIO-gtp_c</v>
+      </c>
+      <c r="M59" s="73" cm="1">
+        <f t="array" ref="M59">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-3.2482386964245151E-2</v>
+      </c>
+      <c r="N59" s="73"/>
+      <c r="O59" s="73"/>
+      <c r="P59" s="73"/>
+      <c r="Q59" s="73"/>
+      <c r="R59" s="73"/>
+      <c r="S59" s="73"/>
+      <c r="T59" s="73"/>
+      <c r="U59" s="73"/>
+      <c r="V59" s="73"/>
+    </row>
+    <row r="60" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="99" t="s">
+        <v>565</v>
+      </c>
+      <c r="B60" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>utp_c</v>
+      </c>
+      <c r="C60" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>utp</v>
+      </c>
+      <c r="D60" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>RNA</v>
+      </c>
+      <c r="E60" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>305.15806099999998</v>
+      </c>
+      <c r="F60" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-0.12561900000000001</v>
+      </c>
+      <c r="G60" s="37" cm="1">
+        <f t="array" ref="G60">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-0.12561900000000001</v>
+      </c>
+      <c r="H60" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-0.12561900000000001</v>
+      </c>
+      <c r="I60" s="72">
+        <f>H60/($H$3)</f>
+        <v>-4.2297577129041579E-2</v>
+      </c>
+      <c r="J60" s="37" cm="1">
+        <f t="array" ref="J60">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-4.2297577129041579E-2</v>
+      </c>
+      <c r="K60" t="str" cm="1">
+        <f t="array" ref="K60">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-RNA-utp_c</v>
+      </c>
+      <c r="L60" s="73" t="str" cm="1">
+        <f t="array" ref="L60">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-utp_c --&gt; MET-ppi_c + 0.305158 BIO-utp_c</v>
+      </c>
+      <c r="M60" s="73" cm="1">
+        <f t="array" ref="M60">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-4.2297577129041579E-2</v>
+      </c>
+      <c r="N60" s="73"/>
+      <c r="O60" s="73"/>
+      <c r="P60" s="73"/>
+      <c r="Q60" s="73"/>
+      <c r="R60" s="73"/>
+      <c r="S60" s="73"/>
+      <c r="T60" s="73"/>
+      <c r="U60" s="73"/>
+      <c r="V60" s="73"/>
+    </row>
+    <row r="61" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="99" t="s">
+        <v>573</v>
+      </c>
+      <c r="B61" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>atp_c</v>
+      </c>
+      <c r="C61" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>atp</v>
+      </c>
+      <c r="D61" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>RNA</v>
+      </c>
+      <c r="E61" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>328.19800099999998</v>
+      </c>
+      <c r="F61" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-144.26261199999999</v>
+      </c>
+      <c r="G61" s="37" cm="1">
+        <f t="array" ref="G61">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-4.7996699999999919</v>
+      </c>
+      <c r="H61" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-4.7996699999999919</v>
+      </c>
+      <c r="I61" s="72">
+        <f>H61/($H$3)</f>
+        <v>-1.6161123080023454</v>
+      </c>
+      <c r="J61" s="37" cm="1">
+        <f t="array" ref="J61">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-130.33905430800235</v>
+      </c>
+      <c r="K61" t="str" cm="1">
+        <f t="array" ref="K61">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-RNA-atp_c</v>
+      </c>
+      <c r="L61" s="73" t="str" cm="1">
+        <f t="array" ref="L61">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-atp_c --&gt; MET-ppi_c + 0.328198 BIO-atp_c</v>
+      </c>
+      <c r="M61" s="73" cm="1">
+        <f t="array" ref="M61">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-141.07905430800236</v>
+      </c>
+      <c r="N61" s="73"/>
+      <c r="O61" s="73"/>
+      <c r="P61" s="73"/>
+      <c r="Q61" s="73"/>
+      <c r="R61" s="73"/>
+      <c r="S61" s="73"/>
+      <c r="T61" s="73"/>
+      <c r="U61" s="73"/>
+      <c r="V61" s="73"/>
+    </row>
+    <row r="62" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="99" t="s">
+        <v>477</v>
+      </c>
+      <c r="B62" t="str">
+        <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
+        <v>so4_c</v>
+      </c>
+      <c r="C62" t="str">
+        <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
+        <v>so4</v>
+      </c>
+      <c r="D62" t="str">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
+        <v>SO4</v>
+      </c>
+      <c r="E62" s="37">
+        <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
+        <v>96.062600000000003</v>
+      </c>
+      <c r="F62" s="37">
+        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
+        <v>-3.1223000000000001E-2</v>
+      </c>
+      <c r="G62" s="37" cm="1">
+        <f t="array" ref="G62">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],IF(IsElementOfSet_DIY(_xlpm.id,{"atp","adp","h","pi","h2o"}),SIGN(mets27138[[#This Row],[raw (GSM) coefficient]])*(ABS(mets27138[[#This Row],[raw (GSM) coefficient]])-$J$2),mets27138[[#This Row],[raw (GSM) coefficient]]))</f>
+        <v>-3.1223000000000001E-2</v>
+      </c>
+      <c r="H62" s="37">
+        <f>mets27138[[#This Row],[coeff. w/o GAM]]</f>
+        <v>-3.1223000000000001E-2</v>
+      </c>
+      <c r="I62" s="72">
+        <f>H62/($H$3)</f>
+        <v>-1.0513196655761193E-2</v>
+      </c>
+      <c r="J62" s="37" cm="1">
+        <f t="array" ref="J62">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
+        <v>-1.0513196655761193E-2</v>
+      </c>
+      <c r="K62" t="str" cm="1">
+        <f t="array" ref="K62">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
+        <v>BIOSYN-SO4-so4_c</v>
+      </c>
+      <c r="L62" s="73" t="str" cm="1">
+        <f t="array" ref="L62">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
+        <v>MET-so4_c --&gt; 0.096063 BIO-so4_c</v>
+      </c>
+      <c r="M62" s="73" cm="1">
+        <f t="array" ref="M62">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
+        <v>-1.0513196655761193E-2</v>
+      </c>
+      <c r="N62" s="73"/>
+      <c r="O62" s="73"/>
+      <c r="P62" s="73"/>
+      <c r="Q62" s="73"/>
+      <c r="R62" s="73"/>
+      <c r="S62" s="73"/>
+      <c r="T62" s="73"/>
+      <c r="U62" s="73"/>
+      <c r="V62" s="73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="D4:E4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="S6:S14">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>NOT(_xlfn.ISFORMULA(S6))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T6:T14">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>NOT(_xlfn.ISFORMULA(T6))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042FF932-C48A-D446-979E-E5F082761A47}">
   <dimension ref="A1:E118"/>
   <sheetViews>
@@ -13057,11 +19611,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" ht="77" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="97" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
       <c r="D1" t="s">
         <v>224</v>
       </c>
@@ -14865,12 +21419,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5455B0F7-CD7B-1440-98EA-12626AC5D91D}">
   <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G116" sqref="G116:G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14902,7 +21456,7 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="96" t="s">
         <v>528</v>
       </c>
       <c r="B3" t="str" cm="1">
@@ -17017,19 +23571,19 @@
         <f t="shared" ref="B116:B135" si="12">"MET-" &amp; C116 &amp; " --&gt; " &amp; ROUND(F116/1000,6) &amp; " BIO-" &amp;C116</f>
         <v>MET-alatrna_c --&gt; 0.072086 BIO-alatrna_c</v>
       </c>
-      <c r="C116" s="89" t="s">
+      <c r="C116" s="87" t="s">
         <v>489</v>
       </c>
-      <c r="D116" s="90">
+      <c r="D116" s="88">
         <v>-0.37040699999999999</v>
       </c>
-      <c r="E116" s="90" t="s">
+      <c r="E116" s="88" t="s">
         <v>490</v>
       </c>
-      <c r="F116" s="91">
+      <c r="F116" s="89">
         <v>72.085840000000005</v>
       </c>
-      <c r="G116" s="92">
+      <c r="G116" s="90">
         <f>F116*D116/SUMPRODUCT($D$121:$D$140,$F$121:$F$140)</f>
         <v>8.2301208600424405E-2</v>
       </c>
@@ -17043,19 +23597,19 @@
         <f t="shared" si="12"/>
         <v>MET-argtrna_c --&gt; 0.158202 BIO-argtrna_c</v>
       </c>
-      <c r="C117" s="93" t="s">
+      <c r="C117" s="91" t="s">
         <v>491</v>
       </c>
-      <c r="D117" s="92">
+      <c r="D117" s="90">
         <v>-0.146343</v>
       </c>
-      <c r="E117" s="92" t="s">
+      <c r="E117" s="90" t="s">
         <v>492</v>
       </c>
-      <c r="F117" s="94">
+      <c r="F117" s="92">
         <v>158.20156</v>
       </c>
-      <c r="G117" s="92">
+      <c r="G117" s="90">
         <f t="shared" ref="G117:G135" si="14">F117*D117/SUMPRODUCT($D$121:$D$140,$F$121:$F$140)</f>
         <v>7.1360811374249836E-2</v>
       </c>
@@ -17069,19 +23623,19 @@
         <f t="shared" si="12"/>
         <v>MET-asntrna_c --&gt; 0.115111 BIO-asntrna_c</v>
       </c>
-      <c r="C118" s="93" t="s">
+      <c r="C118" s="91" t="s">
         <v>493</v>
       </c>
-      <c r="D118" s="92">
+      <c r="D118" s="90">
         <v>-0.17591499999999999</v>
       </c>
-      <c r="E118" s="92" t="s">
+      <c r="E118" s="90" t="s">
         <v>494</v>
       </c>
-      <c r="F118" s="94">
+      <c r="F118" s="92">
         <v>115.11058</v>
       </c>
-      <c r="G118" s="92">
+      <c r="G118" s="90">
         <f t="shared" si="14"/>
         <v>6.2415891604222985E-2</v>
       </c>
@@ -17095,19 +23649,19 @@
         <f t="shared" si="12"/>
         <v>MET-asptrna_c --&gt; 0.115087 BIO-asptrna_c</v>
       </c>
-      <c r="C119" s="93" t="s">
+      <c r="C119" s="91" t="s">
         <v>495</v>
       </c>
-      <c r="D119" s="92">
+      <c r="D119" s="90">
         <v>-0.17591499999999999</v>
       </c>
-      <c r="E119" s="92" t="s">
+      <c r="E119" s="90" t="s">
         <v>496</v>
       </c>
-      <c r="F119" s="94">
+      <c r="F119" s="92">
         <v>115.0874</v>
       </c>
-      <c r="G119" s="92">
+      <c r="G119" s="90">
         <f t="shared" si="14"/>
         <v>6.2403322817171564E-2</v>
       </c>
@@ -17121,19 +23675,19 @@
         <f t="shared" si="12"/>
         <v>MET-cystrna_c --&gt; 0.104151 BIO-cystrna_c</v>
       </c>
-      <c r="C120" s="93" t="s">
+      <c r="C120" s="91" t="s">
         <v>497</v>
       </c>
-      <c r="D120" s="92">
+      <c r="D120" s="90">
         <v>-5.3080000000000002E-3</v>
       </c>
-      <c r="E120" s="92" t="s">
+      <c r="E120" s="90" t="s">
         <v>498</v>
       </c>
-      <c r="F120" s="94">
+      <c r="F120" s="92">
         <v>104.15084</v>
       </c>
-      <c r="G120" s="92">
+      <c r="G120" s="90">
         <f t="shared" si="14"/>
         <v>1.7040045696544201E-3</v>
       </c>
@@ -17147,19 +23701,19 @@
         <f t="shared" si="12"/>
         <v>MET-glntrna_c --&gt; 0.129137 BIO-glntrna_c</v>
       </c>
-      <c r="C121" s="93" t="s">
+      <c r="C121" s="91" t="s">
         <v>499</v>
       </c>
-      <c r="D121" s="92">
+      <c r="D121" s="90">
         <v>-0.29344399999999998</v>
       </c>
-      <c r="E121" s="92" t="s">
+      <c r="E121" s="90" t="s">
         <v>500</v>
       </c>
-      <c r="F121" s="94">
+      <c r="F121" s="92">
         <v>129.13715999999999</v>
       </c>
-      <c r="G121" s="92">
+      <c r="G121" s="90">
         <f t="shared" si="14"/>
         <v>0.11680287401593546</v>
       </c>
@@ -17173,19 +23727,19 @@
         <f t="shared" si="12"/>
         <v>MET-glutrna_c --&gt; 0.129114 BIO-glutrna_c</v>
       </c>
-      <c r="C122" s="93" t="s">
+      <c r="C122" s="91" t="s">
         <v>501</v>
       </c>
-      <c r="D122" s="92">
+      <c r="D122" s="90">
         <v>-0.29344399999999998</v>
       </c>
-      <c r="E122" s="92" t="s">
+      <c r="E122" s="90" t="s">
         <v>502</v>
       </c>
-      <c r="F122" s="94">
+      <c r="F122" s="92">
         <v>129.11398</v>
       </c>
-      <c r="G122" s="92">
+      <c r="G122" s="90">
         <f t="shared" si="14"/>
         <v>0.11678190800878702</v>
       </c>
@@ -17199,19 +23753,19 @@
         <f t="shared" si="12"/>
         <v>MET-glytrna_c --&gt; 0.058059 BIO-glytrna_c</v>
       </c>
-      <c r="C123" s="93" t="s">
+      <c r="C123" s="91" t="s">
         <v>503</v>
       </c>
-      <c r="D123" s="92">
+      <c r="D123" s="90">
         <v>-0.33704400000000001</v>
       </c>
-      <c r="E123" s="92" t="s">
+      <c r="E123" s="90" t="s">
         <v>504</v>
       </c>
-      <c r="F123" s="94">
+      <c r="F123" s="92">
         <v>58.059260000000002</v>
       </c>
-      <c r="G123" s="92">
+      <c r="G123" s="90">
         <f t="shared" si="14"/>
         <v>6.031636496686088E-2</v>
       </c>
@@ -17225,19 +23779,19 @@
         <f t="shared" si="12"/>
         <v>MET-histrna_c --&gt; 0.138147 BIO-histrna_c</v>
       </c>
-      <c r="C124" s="93" t="s">
+      <c r="C124" s="91" t="s">
         <v>505</v>
       </c>
-      <c r="D124" s="92">
+      <c r="D124" s="90">
         <v>-7.3171E-2</v>
       </c>
-      <c r="E124" s="92" t="s">
+      <c r="E124" s="90" t="s">
         <v>506</v>
       </c>
-      <c r="F124" s="94">
+      <c r="F124" s="92">
         <v>138.14722</v>
       </c>
-      <c r="G124" s="92">
+      <c r="G124" s="90">
         <f t="shared" si="14"/>
         <v>3.115718436648153E-2</v>
       </c>
@@ -17251,19 +23805,19 @@
         <f t="shared" si="12"/>
         <v>MET-iletrna_c --&gt; 0.114166 BIO-iletrna_c</v>
       </c>
-      <c r="C125" s="93" t="s">
+      <c r="C125" s="91" t="s">
         <v>507</v>
       </c>
-      <c r="D125" s="92">
+      <c r="D125" s="90">
         <v>-0.223306</v>
       </c>
-      <c r="E125" s="92" t="s">
+      <c r="E125" s="90" t="s">
         <v>508</v>
       </c>
-      <c r="F125" s="94">
+      <c r="F125" s="92">
         <v>114.16558000000001</v>
       </c>
-      <c r="G125" s="92">
+      <c r="G125" s="90">
         <f t="shared" si="14"/>
         <v>7.8580112013378445E-2</v>
       </c>
@@ -17277,19 +23831,19 @@
         <f t="shared" si="12"/>
         <v>MET-leutrna_c --&gt; 0.114166 BIO-leutrna_c</v>
       </c>
-      <c r="C126" s="93" t="s">
+      <c r="C126" s="91" t="s">
         <v>509</v>
       </c>
-      <c r="D126" s="92">
+      <c r="D126" s="90">
         <v>-0.30368000000000001</v>
       </c>
-      <c r="E126" s="92" t="s">
+      <c r="E126" s="90" t="s">
         <v>508</v>
       </c>
-      <c r="F126" s="94">
+      <c r="F126" s="92">
         <v>114.16558000000001</v>
       </c>
-      <c r="G126" s="92">
+      <c r="G126" s="90">
         <f t="shared" si="14"/>
         <v>0.10686326572605648</v>
       </c>
@@ -17303,19 +23857,19 @@
         <f t="shared" si="12"/>
         <v>MET-lystrna_c --&gt; 0.130188 BIO-lystrna_c</v>
       </c>
-      <c r="C127" s="93" t="s">
+      <c r="C127" s="91" t="s">
         <v>510</v>
       </c>
-      <c r="D127" s="92">
+      <c r="D127" s="90">
         <v>-0.249086</v>
       </c>
-      <c r="E127" s="92" t="s">
+      <c r="E127" s="90" t="s">
         <v>511</v>
       </c>
-      <c r="F127" s="94">
+      <c r="F127" s="92">
         <v>130.18816000000001</v>
       </c>
-      <c r="G127" s="92">
+      <c r="G127" s="90">
         <f t="shared" si="14"/>
         <v>9.9953468997277528E-2</v>
       </c>
@@ -17329,19 +23883,19 @@
         <f t="shared" si="12"/>
         <v>MET-mettrna_c --&gt; 0.132204 BIO-mettrna_c</v>
       </c>
-      <c r="C128" s="93" t="s">
+      <c r="C128" s="91" t="s">
         <v>512</v>
       </c>
-      <c r="D128" s="92">
+      <c r="D128" s="90">
         <v>-4.3220000000000001E-2</v>
       </c>
-      <c r="E128" s="92" t="s">
+      <c r="E128" s="90" t="s">
         <v>513</v>
       </c>
-      <c r="F128" s="94">
+      <c r="F128" s="92">
         <v>132.20400000000001</v>
       </c>
-      <c r="G128" s="92">
+      <c r="G128" s="90">
         <f t="shared" si="14"/>
         <v>1.7611908559119122E-2</v>
       </c>
@@ -17355,19 +23909,19 @@
         <f t="shared" si="12"/>
         <v>MET-phetrna_c --&gt; 0.148182 BIO-phetrna_c</v>
       </c>
-      <c r="C129" s="93" t="s">
+      <c r="C129" s="91" t="s">
         <v>514</v>
       </c>
-      <c r="D129" s="92">
+      <c r="D129" s="90">
         <v>-0.14255200000000001</v>
       </c>
-      <c r="E129" s="92" t="s">
+      <c r="E129" s="90" t="s">
         <v>515</v>
       </c>
-      <c r="F129" s="94">
+      <c r="F129" s="92">
         <v>148.18180000000001</v>
       </c>
-      <c r="G129" s="92">
+      <c r="G129" s="90">
         <f t="shared" si="14"/>
         <v>6.5109632596383638E-2</v>
       </c>
@@ -17381,19 +23935,19 @@
         <f t="shared" si="12"/>
         <v>MET-protrna_c --&gt; 0.097115 BIO-protrna_c</v>
       </c>
-      <c r="C130" s="93" t="s">
+      <c r="C130" s="91" t="s">
         <v>516</v>
       </c>
-      <c r="D130" s="92">
+      <c r="D130" s="90">
         <v>-0.15999099999999999</v>
       </c>
-      <c r="E130" s="92" t="s">
+      <c r="E130" s="90" t="s">
         <v>517</v>
       </c>
-      <c r="F130" s="94">
+      <c r="F130" s="92">
         <v>97.115179999999995</v>
       </c>
-      <c r="G130" s="92">
+      <c r="G130" s="90">
         <f t="shared" si="14"/>
         <v>4.7891642978105928E-2</v>
       </c>
@@ -17407,19 +23961,19 @@
         <f t="shared" si="12"/>
         <v>MET-sertrna_c --&gt; 0.088085 BIO-sertrna_c</v>
       </c>
-      <c r="C131" s="93" t="s">
+      <c r="C131" s="91" t="s">
         <v>518</v>
       </c>
-      <c r="D131" s="92">
+      <c r="D131" s="90">
         <v>-0.202075</v>
       </c>
-      <c r="E131" s="92" t="s">
+      <c r="E131" s="90" t="s">
         <v>519</v>
       </c>
-      <c r="F131" s="94">
+      <c r="F131" s="92">
         <v>88.085239999999999</v>
       </c>
-      <c r="G131" s="92">
+      <c r="G131" s="90">
         <f t="shared" si="14"/>
         <v>5.4864672779765193E-2</v>
       </c>
@@ -17433,19 +23987,19 @@
         <f t="shared" si="12"/>
         <v>MET-thrtrna_c --&gt; 0.102112 BIO-thrtrna_c</v>
       </c>
-      <c r="C132" s="93" t="s">
+      <c r="C132" s="91" t="s">
         <v>520</v>
       </c>
-      <c r="D132" s="92">
+      <c r="D132" s="90">
         <v>-0.211174</v>
       </c>
-      <c r="E132" s="92" t="s">
+      <c r="E132" s="90" t="s">
         <v>521</v>
       </c>
-      <c r="F132" s="94">
+      <c r="F132" s="92">
         <v>102.11181999999999</v>
       </c>
-      <c r="G132" s="92">
+      <c r="G132" s="90">
         <f t="shared" si="14"/>
         <v>6.6465079285381035E-2</v>
       </c>
@@ -17459,19 +24013,19 @@
         <f t="shared" si="12"/>
         <v>MET-trptrna_c --&gt; 0.187218 BIO-trptrna_c</v>
       </c>
-      <c r="C133" s="93" t="s">
+      <c r="C133" s="91" t="s">
         <v>522</v>
       </c>
-      <c r="D133" s="92">
+      <c r="D133" s="90">
         <v>-2.4643000000000002E-2</v>
       </c>
-      <c r="E133" s="92" t="s">
+      <c r="E133" s="90" t="s">
         <v>523</v>
       </c>
-      <c r="F133" s="94">
+      <c r="F133" s="92">
         <v>187.21784</v>
       </c>
-      <c r="G133" s="92">
+      <c r="G133" s="90">
         <f t="shared" si="14"/>
         <v>1.4220598382575047E-2</v>
       </c>
@@ -17485,19 +24039,19 @@
         <f t="shared" si="12"/>
         <v>MET-tyrtrna_c --&gt; 0.164181 BIO-tyrtrna_c</v>
       </c>
-      <c r="C134" s="93" t="s">
+      <c r="C134" s="91" t="s">
         <v>524</v>
       </c>
-      <c r="D134" s="92">
+      <c r="D134" s="90">
         <v>-7.4309E-2</v>
       </c>
-      <c r="E134" s="92" t="s">
+      <c r="E134" s="90" t="s">
         <v>525</v>
       </c>
-      <c r="F134" s="94">
+      <c r="F134" s="92">
         <v>164.18119999999999</v>
       </c>
-      <c r="G134" s="92">
+      <c r="G134" s="90">
         <f t="shared" si="14"/>
         <v>3.7604680783665134E-2</v>
       </c>
@@ -17511,19 +24065,19 @@
         <f t="shared" si="12"/>
         <v>MET-valtrna_c --&gt; 0.100139 BIO-valtrna_c</v>
       </c>
-      <c r="C135" s="95" t="s">
+      <c r="C135" s="93" t="s">
         <v>526</v>
       </c>
-      <c r="D135" s="96">
+      <c r="D135" s="94">
         <v>-0.27789999999999998</v>
       </c>
-      <c r="E135" s="96" t="s">
+      <c r="E135" s="94" t="s">
         <v>527</v>
       </c>
-      <c r="F135" s="97">
+      <c r="F135" s="95">
         <v>100.139</v>
       </c>
-      <c r="G135" s="92">
+      <c r="G135" s="90">
         <f t="shared" si="14"/>
         <v>8.577660654022766E-2</v>
       </c>
@@ -17543,7 +24097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C96FC5D-487C-4448-9947-73226B174E09}">
   <dimension ref="A1:K111"/>
   <sheetViews>

--- a/build_model/input/BIOMASS_RBA.xlsx
+++ b/build_model/input/BIOMASS_RBA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejm6426/Documents/scRBA/build_model/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDE142A-74B0-0643-A0C9-57302C8598C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD708837-2EC1-C445-A313-43806BA858C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBABioRxns" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="586">
   <si>
     <t>rxn_id</t>
   </si>
@@ -6005,6 +6005,41 @@
   </si>
   <si>
     <t>biomass equation from MFA results:</t>
+  </si>
+  <si>
+    <r>
+      <t>"ipc_g"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-0.003830</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>carb</t>
   </si>
 </sst>
 </file>
@@ -6320,7 +6355,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6494,6 +6529,9 @@
     <xf numFmtId="0" fontId="13" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -7571,7 +7609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
@@ -8300,8 +8338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F168A7-6B4E-494D-BA75-6693E50B2433}">
   <dimension ref="A1:AG95"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="O1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -15386,8 +15424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE6FF3F-114A-7C40-948C-4CCE76A11B92}">
   <dimension ref="A1:AG62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38:P57"/>
+    <sheetView topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -15492,7 +15530,7 @@
       </c>
       <c r="T2" s="60">
         <f>0.391*SUM(T6,T12:T13)</f>
-        <v>7.5341019728080508E-2</v>
+        <v>7.5702317689710544E-2</v>
       </c>
       <c r="U2" s="60"/>
       <c r="V2" s="61" t="s">
@@ -15513,15 +15551,15 @@
       </c>
       <c r="G3" cm="1">
         <f t="array" ref="G3">_xlfn.LET(_xlpm.coeffs,mets27138[coeff. w/o GAM],-SUM(_xlfn._xlws.FILTER(_xlpm.coeffs*mets27138[MW for biomass normalization (g/mol)],(IFERROR(_xlfn.NUMBERVALUE(_xlpm.coeffs),0)&lt;0)*(_xlfn.IFNA(mets27138[category],"ignore")&lt;&gt;"ignore")))/1000)</f>
-        <v>2.9698864220227361</v>
+        <v>2.9733918810055959</v>
       </c>
       <c r="H3" s="60" cm="1">
         <f t="array" ref="H3">_xlfn.LET(_xlpm.coeffs,mets27138[coeffs after extra operations],-SUM(_xlfn._xlws.FILTER(_xlpm.coeffs*mets27138[MW for biomass normalization (g/mol)],(IFERROR(_xlfn.NUMBERVALUE(_xlpm.coeffs),0)&lt;0)*(_xlfn.IFNA(mets27138[category],"ignore")&lt;&gt;"ignore")))/1000)</f>
-        <v>2.9698864220227361</v>
+        <v>2.9733918810055959</v>
       </c>
       <c r="I3" s="57" cm="1">
         <f t="array" ref="I3">_xlfn.LET(_xlpm.coeffs,mets27138[normalized coeffs],-SUM(_xlfn._xlws.FILTER(_xlpm.coeffs*mets27138[MW for biomass normalization (g/mol)],(IFERROR(_xlfn.NUMBERVALUE(_xlpm.coeffs),0)&lt;0)*(_xlfn.IFNA(mets27138[category],"ignore")&lt;&gt;"ignore")))/1000)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="J3" s="60"/>
       <c r="L3" s="60"/>
@@ -15702,11 +15740,11 @@
       </c>
       <c r="I6" s="72">
         <f>H6/($H$3)</f>
-        <v>1.726915198496684</v>
+        <v>1.7248792642379411</v>
       </c>
       <c r="J6" s="37" cm="1">
         <f t="array" ref="J6">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>1.726915198496684</v>
+        <v>1.7248792642379411</v>
       </c>
       <c r="K6" t="str" cm="1">
         <f t="array" ref="K6">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -15718,7 +15756,7 @@
       </c>
       <c r="M6" s="73" cm="1">
         <f t="array" ref="M6">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>1.7242617250793584</v>
+        <v>1.7222381140492926</v>
       </c>
       <c r="N6" s="73"/>
       <c r="O6" s="74" t="str" cm="1">
@@ -15742,7 +15780,7 @@
       </c>
       <c r="T6" s="76" cm="1">
         <f t="array" ref="T6">IF(biomassComponents26127[[#This Row],[pre-determined coeffs]]&lt;&gt;"",biomassComponents26127[[#This Row],[pre-determined coeffs]]*IF(SUM(biomassComponents26127[pre-determined coeffs])&gt;1,1/SUM(biomassComponents26127[pre-determined coeffs]),1)*(1-SUM(_xlfn._xlws.FILTER(biomassComponents26127[original coeffs from input],biomassComponents26127[pre-determined coeffs]=""))),biomassComponents26127[[#This Row],[original coeffs from input]])</f>
-        <v>6.1185328855125169E-2</v>
+        <v>6.147874318209879E-2</v>
       </c>
       <c r="U6" s="75" t="e" cm="1">
         <f t="array" ref="U6">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]*(biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])/(1000*biomassComponents26127[[#This Row],[normalized coeffs]]),6)&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(O6,"BIOSYN-"),""))&amp;" --&gt; "&amp;biomassComponents26127[[#This Row],[product name]]</f>
@@ -15757,7 +15795,7 @@
       </c>
       <c r="Z6" t="str">
         <f>SUBSTITUTE(Z7," --&gt; "," + "&amp;K2)</f>
-        <v>0.192688029995091 BIO-varbiom + 0.0804139023515599 BIO-carb + 0.000503949450244104 BIO-dna + 0.00413898220441537 BIO-lipid + 0.00853626099306161 BIO-metal + 0.149625268542784 BIO-other + 0.564093606462844 BIO-rna + 128.722942 MET-h2o_c + 128.722942 MET-atp_c --&gt; 128.722942 MET-adp_c + 128.722942 MET-h_c + 128.722942 MET-pi_c</v>
+        <v>0.193612065702585 BIO-varbiom + 0.0803190989594656 BIO-carb + 0.000506366140511835 BIO-dna + 0.00415883069915403 BIO-lipid + 0.00852619722952969 BIO-metal + 0.149448868908068 BIO-other + 0.563428572360686 BIO-rna + 128.722942 MET-h2o_c + 128.722942 MET-atp_c --&gt; 128.722942 MET-adp_c + 128.722942 MET-h_c + 128.722942 MET-pi_c</v>
       </c>
       <c r="AB6" t="s">
         <v>2</v>
@@ -15768,23 +15806,23 @@
     </row>
     <row r="7" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="99" t="s">
-        <v>561</v>
+        <v>584</v>
       </c>
       <c r="B7" t="str">
         <f>SUBSTITUTE(_xlfn.TEXTBEFORE(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),CHAR(34),"")</f>
-        <v>ipcbiom_c</v>
+        <v>ipc_g</v>
       </c>
       <c r="C7" t="str">
         <f>_xlfn.TEXTBEFORE(mets27138[[#This Row],[name]],"_",-1)</f>
-        <v>ipcbiom</v>
+        <v>ipc</v>
       </c>
       <c r="D7" t="str">
         <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[suggested category],"")</f>
-        <v/>
+        <v>LIPID</v>
       </c>
       <c r="E7" s="37">
         <f>_xlfn.XLOOKUP(mets27138[[#This Row],[name w/o location]],metaboliteInfo[name w/o location],metaboliteInfo[MW for biomass normalization (g/mol)],0)</f>
-        <v>0</v>
+        <v>915.26344200000005</v>
       </c>
       <c r="F7" s="37">
         <f>_xlfn.NUMBERVALUE(SUBSTITUTE(_xlfn.TEXTAFTER(mets27138[[#This Row],[pasted JSON metabolite keys and values from GSM biomass rxn]],":"),",",""))</f>
@@ -15800,23 +15838,23 @@
       </c>
       <c r="I7" s="72">
         <f>H7/($H$3)</f>
-        <v>-1.2896116065581578E-3</v>
+        <v>-1.2880912282254235E-3</v>
       </c>
       <c r="J7" s="37" cm="1">
         <f t="array" ref="J7">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-1.2896116065581578E-3</v>
+        <v>-1.2880912282254235E-3</v>
       </c>
       <c r="K7" t="str" cm="1">
         <f t="array" ref="K7">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
-        <v>BIOSYN-ipcbiom_c</v>
+        <v>BIOSYN-LIPID-ipc_g</v>
       </c>
       <c r="L7" s="73" t="str" cm="1">
         <f t="array" ref="L7">IF(IsElementOfSet_DIY(mets27138[[#This Row],[category]],{"ignore","PROT"}),"",_xlfn.LET(_xlpm.mw,mets27138[[#This Row],[MW for biomass normalization (g/mol)]],"MET-"&amp;mets27138[[#This Row],[name]]&amp;" --&gt; "&amp;IF((mets27138[[#This Row],[category]]="DNA")+(mets27138[[#This Row],[category]]="RNA"),"MET-ppi_c + ","")&amp;ROUND(ABS(_xlpm.mw/1000),6)&amp;" BIO-"&amp;mets27138[[#This Row],[name]]))</f>
-        <v>MET-ipcbiom_c --&gt; 0 BIO-ipcbiom_c</v>
-      </c>
-      <c r="M7" s="73" t="e" cm="1">
+        <v>MET-ipc_g --&gt; 0.915263 BIO-ipc_g</v>
+      </c>
+      <c r="M7" s="73" cm="1">
         <f t="array" ref="M7">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>#DIV/0!</v>
+        <v>-2.8459495336420734E-4</v>
       </c>
       <c r="N7" s="73"/>
       <c r="O7" s="74" t="str">
@@ -15832,12 +15870,12 @@
       </c>
       <c r="R7" s="76" cm="1">
         <f t="array" ref="R7">SUM(_xlfn._xlws.FILTER(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]/1000,mets27138[category]=_xlfn.TEXTAFTER(O7,"BIOSYN-"),""))</f>
-        <v>8.0413902351559929E-2</v>
+        <v>8.031909895946561E-2</v>
       </c>
       <c r="S7" s="83"/>
       <c r="T7" s="76" cm="1">
         <f t="array" ref="T7">IF(biomassComponents26127[[#This Row],[pre-determined coeffs]]&lt;&gt;"",biomassComponents26127[[#This Row],[pre-determined coeffs]]*IF(SUM(biomassComponents26127[pre-determined coeffs])&gt;1,1/SUM(biomassComponents26127[pre-determined coeffs]),1)*(1-SUM(_xlfn._xlws.FILTER(biomassComponents26127[original coeffs from input],biomassComponents26127[pre-determined coeffs]=""))),biomassComponents26127[[#This Row],[original coeffs from input]])</f>
-        <v>8.0413902351559929E-2</v>
+        <v>8.031909895946561E-2</v>
       </c>
       <c r="U7" s="75" t="str" cm="1">
         <f t="array" ref="U7">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]*(biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])/(1000*biomassComponents26127[[#This Row],[normalized coeffs]]),6)&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(O7,"BIOSYN-"),""))&amp;" --&gt; "&amp;biomassComponents26127[[#This Row],[product name]]</f>
@@ -15845,7 +15883,7 @@
       </c>
       <c r="V7" s="75" t="str" cm="1">
         <f t="array" ref="V7">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER((-mets27138[normalized coeffs]*biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(P7,"BIOSYN-"),""))</f>
-        <v>0.129375317908052 BIO-mannan_c + 0.20076255966513 BIO-13BDglucan_c + 0.0528323234304476 BIO-16BDglucan_c + 0.00474664616648834 BIO-chtn_c + 0.0967905701269944 BIO-glycogen_c + 0.00485170068900692 BIO-tre_c</v>
+        <v>0.129222791807064 BIO-mannan_c + 0.200525872088664 BIO-13BDglucan_c + 0.0527700371425426 BIO-16BDglucan_c + 0.00474105014211326 BIO-chtn_c + 0.0966764595801555 BIO-glycogen_c + 0.00484598081135774 BIO-tre_c</v>
       </c>
       <c r="Y7" s="77" t="str">
         <f>Y6&amp;"-NOGAM"</f>
@@ -15853,7 +15891,7 @@
       </c>
       <c r="Z7" t="str" cm="1">
         <f t="array" ref="Z7">_xlfn.LET(_xlpm.varbiom,_xlfn.HSTACK(_xlfn.VSTACK(Q6,Q12:Q13),_xlfn.VSTACK(T6,T12:T13)),_xlpm.non_varbiom,IFERROR(_xlfn.XLOOKUP(biomassComponents26127[product name],_xlfn.CHOOSECOLS(_xlpm.varbiom,1),LEFT(_xlfn.CHOOSECOLS(_xlpm.varbiom,1),0),biomassComponents26127[product name]),_xlfn.HSTACK(biomassComponents26127[product name],biomassComponents26127[normalized coeffs])),_xlpm.old,_xlfn.TEXTJOIN(" + ",TRUE,SUM(_xlfn.CHOOSECOLS(_xlpm.varbiom,2))&amp;" BIO-varbiom",_xlfn._xlws.FILTER(_xlfn.CHOOSECOLS(_xlpm.non_varbiom,2)&amp;" "&amp;_xlfn.CHOOSECOLS(_xlpm.non_varbiom,1),(_xlfn.NUMBERVALUE(_xlfn.CHOOSECOLS(_xlpm.non_varbiom,2))&lt;&gt;0)))&amp;" --&gt; ",_xlpm.old)</f>
-        <v xml:space="preserve">0.192688029995091 BIO-varbiom + 0.0804139023515599 BIO-carb + 0.000503949450244104 BIO-dna + 0.00413898220441537 BIO-lipid + 0.00853626099306161 BIO-metal + 0.149625268542784 BIO-other + 0.564093606462844 BIO-rna --&gt; </v>
+        <v xml:space="preserve">0.193612065702585 BIO-varbiom + 0.0803190989594656 BIO-carb + 0.000506366140511835 BIO-dna + 0.00415883069915403 BIO-lipid + 0.00852619722952969 BIO-metal + 0.149448868908068 BIO-other + 0.563428572360686 BIO-rna --&gt; </v>
       </c>
       <c r="AB7" t="s">
         <v>4</v>
@@ -15896,11 +15934,11 @@
       </c>
       <c r="I8" s="72">
         <f>H8/($H$3)</f>
-        <v>-4.9631527625763048E-4</v>
+        <v>-4.957301489306199E-4</v>
       </c>
       <c r="J8" s="37" cm="1">
         <f t="array" ref="J8">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-4.9631527625763048E-4</v>
+        <v>-4.957301489306199E-4</v>
       </c>
       <c r="K8" t="str" cm="1">
         <f t="array" ref="K8">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -15928,14 +15966,14 @@
       </c>
       <c r="R8" s="76" cm="1">
         <f t="array" ref="R8">SUM(_xlfn._xlws.FILTER(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]/1000,mets27138[category]=_xlfn.TEXTAFTER(O8,"BIOSYN-"),""))</f>
-        <v>1.372810937054342E-3</v>
+        <v>1.3711924714690262E-3</v>
       </c>
       <c r="S8" s="84">
         <v>0.25538285833653501</v>
       </c>
       <c r="T8" s="76" cm="1">
         <f t="array" ref="T8">IF(biomassComponents26127[[#This Row],[pre-determined coeffs]]&lt;&gt;"",biomassComponents26127[[#This Row],[pre-determined coeffs]]*IF(SUM(biomassComponents26127[pre-determined coeffs])&gt;1,1/SUM(biomassComponents26127[pre-determined coeffs]),1)*(1-SUM(_xlfn._xlws.FILTER(biomassComponents26127[original coeffs from input],biomassComponents26127[pre-determined coeffs]=""))),biomassComponents26127[[#This Row],[original coeffs from input]])</f>
-        <v>5.0394945024410389E-4</v>
+        <v>5.0636614051183487E-4</v>
       </c>
       <c r="U8" s="75" t="str" cm="1">
         <f t="array" ref="U8">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]*(biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])/(1000*biomassComponents26127[[#This Row],[normalized coeffs]]),6)&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(O8,"BIOSYN-"),""))&amp;" --&gt; "&amp;biomassComponents26127[[#This Row],[product name]]</f>
@@ -15943,7 +15981,7 @@
       </c>
       <c r="V8" s="75" t="str" cm="1">
         <f t="array" ref="V8">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER((-mets27138[normalized coeffs]*biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(P8,"BIOSYN-"),""))</f>
-        <v>0.000488610976213964 BIO-datp_c + 0.000329778417540818 BIO-dctp_c + 0.000329778417540818 BIO-dgtp_c + 0.000488610976213964 BIO-dttp_c</v>
+        <v>0.000490954110808814 BIO-datp_c + 0.000331359870386521 BIO-dctp_c + 0.000331359870386521 BIO-dgtp_c + 0.000490954110808814 BIO-dttp_c</v>
       </c>
       <c r="X8" s="78" t="s">
         <v>384</v>
@@ -15995,11 +16033,11 @@
       </c>
       <c r="I9" s="72">
         <f>H9/($H$3)</f>
-        <v>1.5836299210381031</v>
+        <v>1.5817629119271643</v>
       </c>
       <c r="J9" s="37" cm="1">
         <f t="array" ref="J9">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>1.5836299210381031</v>
+        <v>1.5817629119271643</v>
       </c>
       <c r="K9" t="str" cm="1">
         <f t="array" ref="K9">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -16027,22 +16065,22 @@
       </c>
       <c r="R9" s="76" cm="1">
         <f t="array" ref="R9">SUM(_xlfn._xlws.FILTER(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]/1000,mets27138[category]=_xlfn.TEXTAFTER(O9,"BIOSYN-"),""))</f>
-        <v>1.7664962355730614E-2</v>
+        <v>1.8823079186507601E-2</v>
       </c>
       <c r="S9" s="83">
         <v>2.0974824071256464</v>
       </c>
       <c r="T9" s="76" cm="1">
         <f t="array" ref="T9">IF(biomassComponents26127[[#This Row],[pre-determined coeffs]]&lt;&gt;"",biomassComponents26127[[#This Row],[pre-determined coeffs]]*IF(SUM(biomassComponents26127[pre-determined coeffs])&gt;1,1/SUM(biomassComponents26127[pre-determined coeffs]),1)*(1-SUM(_xlfn._xlws.FILTER(biomassComponents26127[original coeffs from input],biomassComponents26127[pre-determined coeffs]=""))),biomassComponents26127[[#This Row],[original coeffs from input]])</f>
-        <v>4.1389822044153677E-3</v>
+        <v>4.1588306991540312E-3</v>
       </c>
       <c r="U9" s="75" t="str" cm="1">
         <f t="array" ref="U9">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]*(biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])/(1000*biomassComponents26127[[#This Row],[normalized coeffs]]),6)&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(O9,"BIOSYN-"),""))&amp;" --&gt; "&amp;biomassComponents26127[[#This Row],[product name]]</f>
-        <v>0.200165 BIO-ergst_c + 0.113095 BIO-pail_c + 0.384789 BIO-pc_c + 0.097877 BIO-pe_c + 0.088807 BIO-ps_c + 0.115266 BIO-tag_c --&gt; BIO-lipid</v>
+        <v>0.062633 BIO-ipc_g + 0.187629 BIO-ergst_c + 0.106012 BIO-pail_c + 0.360689 BIO-pc_c + 0.091747 BIO-pe_c + 0.083245 BIO-ps_c + 0.108046 BIO-tag_c --&gt; BIO-lipid</v>
       </c>
       <c r="V9" s="75" t="str" cm="1">
         <f t="array" ref="V9">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER((-mets27138[normalized coeffs]*biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(P9,"BIOSYN-"),""))</f>
-        <v>0.00208870434812752 BIO-ergst_c + 0.00054294479032346 BIO-pail_c + 0.00202582626066925 BIO-pc_c + 0.000544443766059604 BIO-pe_c + 0.000467601536217254 BIO-ps_c + 0.000538763436954215 BIO-tag_c</v>
+        <v>0.000284594953364207 BIO-ipc_g + 0.00196727190347713 BIO-ergst_c + 0.00051137923473955 BIO-pail_c + 0.00190804940273789 BIO-pc_c + 0.00051279106348992 BIO-pe_c + 0.000440416263339336 BIO-ps_c + 0.000507440975593779 BIO-tag_c</v>
       </c>
       <c r="X9" s="78"/>
       <c r="Y9" t="s">
@@ -16092,11 +16130,11 @@
       </c>
       <c r="I10" s="72">
         <f>H10/($H$3)</f>
-        <v>-0.12937531790805248</v>
+        <v>-0.12922279180706384</v>
       </c>
       <c r="J10" s="37" cm="1">
         <f t="array" ref="J10">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-0.12937531790805248</v>
+        <v>-0.12922279180706384</v>
       </c>
       <c r="K10" t="str" cm="1">
         <f t="array" ref="K10">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -16108,7 +16146,7 @@
       </c>
       <c r="M10" s="73" cm="1">
         <f t="array" ref="M10">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-0.12937531790805248</v>
+        <v>-0.12922279180706384</v>
       </c>
       <c r="N10" s="73"/>
       <c r="O10" s="74" t="str">
@@ -16124,12 +16162,12 @@
       </c>
       <c r="R10" s="76" cm="1">
         <f t="array" ref="R10">SUM(_xlfn._xlws.FILTER(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]/1000,mets27138[category]=_xlfn.TEXTAFTER(O10,"BIOSYN-"),""))</f>
-        <v>8.5362609930616125E-3</v>
+        <v>8.5261972295296931E-3</v>
       </c>
       <c r="S10" s="76"/>
       <c r="T10" s="76" cm="1">
         <f t="array" ref="T10">IF(biomassComponents26127[[#This Row],[pre-determined coeffs]]&lt;&gt;"",biomassComponents26127[[#This Row],[pre-determined coeffs]]*IF(SUM(biomassComponents26127[pre-determined coeffs])&gt;1,1/SUM(biomassComponents26127[pre-determined coeffs]),1)*(1-SUM(_xlfn._xlws.FILTER(biomassComponents26127[original coeffs from input],biomassComponents26127[pre-determined coeffs]=""))),biomassComponents26127[[#This Row],[original coeffs from input]])</f>
-        <v>8.5362609930616125E-3</v>
+        <v>8.5261972295296931E-3</v>
       </c>
       <c r="U10" s="75" t="str" cm="1">
         <f t="array" ref="U10">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]*(biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])/(1000*biomassComponents26127[[#This Row],[normalized coeffs]]),6)&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(O10,"BIOSYN-"),""))&amp;" --&gt; "&amp;biomassComponents26127[[#This Row],[product name]]</f>
@@ -16137,7 +16175,7 @@
       </c>
       <c r="V10" s="75" t="str" cm="1">
         <f t="array" ref="V10">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER((-mets27138[normalized coeffs]*biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(P10,"BIOSYN-"),""))</f>
-        <v>0.000433013192175925 BIO-ca2_c + 3.83853063048642E-05 BIO-cu2_c + 0.000223577573565174 BIO-fe2_c + 0.20325693114852 BIO-k_c + 0.0214173173520482 BIO-mg2_c + 0.000031651042040853 BIO-mn2_c + 0.000530660024004088 BIO-zn2_c</v>
+        <v>0.000432502694385873 BIO-ca2_c + 3.83400522239421E-05 BIO-cu2_c + 0.000223313988392084 BIO-fe2_c + 0.203017302850725 BIO-k_c + 0.0213920675597218 BIO-mg2_c + 3.16137272723733E-05 BIO-mn2_c + 0.000530034406183621 BIO-zn2_c</v>
       </c>
       <c r="X10" s="78"/>
       <c r="Y10" t="s">
@@ -16187,11 +16225,11 @@
       </c>
       <c r="I11" s="72">
         <f>H11/($H$3)</f>
-        <v>-0.20076255966513035</v>
+        <v>-0.20052587208866396</v>
       </c>
       <c r="J11" s="37" cm="1">
         <f t="array" ref="J11">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-0.20076255966513035</v>
+        <v>-0.20052587208866396</v>
       </c>
       <c r="K11" t="str" cm="1">
         <f t="array" ref="K11">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -16203,7 +16241,7 @@
       </c>
       <c r="M11" s="73" cm="1">
         <f t="array" ref="M11">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-0.20076255966513035</v>
+        <v>-0.20052587208866396</v>
       </c>
       <c r="N11" s="73"/>
       <c r="O11" s="74" t="str">
@@ -16219,12 +16257,12 @@
       </c>
       <c r="R11" s="76" cm="1">
         <f t="array" ref="R11">SUM(_xlfn._xlws.FILTER(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]/1000,mets27138[category]=_xlfn.TEXTAFTER(O11,"BIOSYN-"),""))</f>
-        <v>0.14962526854278405</v>
+        <v>0.14944886890806833</v>
       </c>
       <c r="S11" s="76"/>
       <c r="T11" s="76" cm="1">
         <f t="array" ref="T11">IF(biomassComponents26127[[#This Row],[pre-determined coeffs]]&lt;&gt;"",biomassComponents26127[[#This Row],[pre-determined coeffs]]*IF(SUM(biomassComponents26127[pre-determined coeffs])&gt;1,1/SUM(biomassComponents26127[pre-determined coeffs]),1)*(1-SUM(_xlfn._xlws.FILTER(biomassComponents26127[original coeffs from input],biomassComponents26127[pre-determined coeffs]=""))),biomassComponents26127[[#This Row],[original coeffs from input]])</f>
-        <v>0.14962526854278405</v>
+        <v>0.14944886890806833</v>
       </c>
       <c r="U11" s="75" t="str" cm="1">
         <f t="array" ref="U11">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]*(biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])/(1000*biomassComponents26127[[#This Row],[normalized coeffs]]),6)&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(O11,"BIOSYN-"),""))&amp;" --&gt; "&amp;biomassComponents26127[[#This Row],[product name]]</f>
@@ -16232,7 +16270,7 @@
       </c>
       <c r="V11" s="75" t="str" cm="1">
         <f t="array" ref="V11">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER((-mets27138[normalized coeffs]*biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(P11,"BIOSYN-"),""))</f>
-        <v>0.00228224215907342 BIO-ergstest_c</v>
+        <v>0.00227955152608666 BIO-ergstest_c</v>
       </c>
       <c r="X11" s="79" t="s">
         <v>54</v>
@@ -16284,11 +16322,11 @@
       </c>
       <c r="I12" s="72">
         <f>H12/($H$3)</f>
-        <v>-5.2832323430447602E-2</v>
+        <v>-5.2770037142542629E-2</v>
       </c>
       <c r="J12" s="37" cm="1">
         <f t="array" ref="J12">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-5.2832323430447602E-2</v>
+        <v>-5.2770037142542629E-2</v>
       </c>
       <c r="K12" t="str" cm="1">
         <f t="array" ref="K12">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -16300,7 +16338,7 @@
       </c>
       <c r="M12" s="73" cm="1">
         <f t="array" ref="M12">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-5.2832323430447602E-2</v>
+        <v>-5.2770037142542629E-2</v>
       </c>
       <c r="N12" s="73"/>
       <c r="O12" s="74" t="str">
@@ -16315,19 +16353,19 @@
       </c>
       <c r="R12" s="76" cm="1">
         <f t="array" ref="R12">SUM(_xlfn._xlws.FILTER(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]/1000,mets27138[category]=_xlfn.TEXTAFTER(O12,"BIOSYN-"),""))</f>
-        <v>3.4145053399876725E-3</v>
+        <v>3.410479833463442E-3</v>
       </c>
       <c r="S12" s="85">
         <v>58.068009171159375</v>
       </c>
       <c r="T12" s="76" cm="1">
         <f t="array" ref="T12">IF(biomassComponents26127[[#This Row],[pre-determined coeffs]]&lt;&gt;"",biomassComponents26127[[#This Row],[pre-determined coeffs]]*IF(SUM(biomassComponents26127[pre-determined coeffs])&gt;1,1/SUM(biomassComponents26127[pre-determined coeffs]),1)*(1-SUM(_xlfn._xlws.FILTER(biomassComponents26127[original coeffs from input],biomassComponents26127[pre-determined coeffs]=""))),biomassComponents26127[[#This Row],[original coeffs from input]])</f>
-        <v>0.11458616090831396</v>
+        <v>0.1151356589973577</v>
       </c>
       <c r="U12" s="75"/>
       <c r="V12" s="75" t="str" cm="1">
         <f t="array" ref="V12">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER((-mets27138[normalized coeffs]*biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(P12,"BIOSYN-"),""))</f>
-        <v>1.19386325712368 BIO-pi_c</v>
+        <v>1.19958842998198 BIO-pi_c</v>
       </c>
       <c r="X12" s="79" t="s">
         <v>54</v>
@@ -16377,11 +16415,11 @@
       </c>
       <c r="I13" s="72">
         <f>H13/($H$3)</f>
-        <v>-4.7466461664883424E-3</v>
+        <v>-4.7410501421132623E-3</v>
       </c>
       <c r="J13" s="37" cm="1">
         <f t="array" ref="J13">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-4.7466461664883424E-3</v>
+        <v>-4.7410501421132623E-3</v>
       </c>
       <c r="K13" t="str" cm="1">
         <f t="array" ref="K13">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -16393,7 +16431,7 @@
       </c>
       <c r="M13" s="73" cm="1">
         <f t="array" ref="M13">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-4.7466461664883424E-3</v>
+        <v>-4.7410501421132623E-3</v>
       </c>
       <c r="N13" s="73"/>
       <c r="O13" s="74" t="str">
@@ -16409,21 +16447,21 @@
       </c>
       <c r="R13" s="76" cm="1">
         <f t="array" ref="R13">SUM(_xlfn._xlws.FILTER(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]/1000,mets27138[category]=_xlfn.TEXTAFTER(O13,"BIOSYN-"),""))</f>
-        <v>0.17386875801191395</v>
+        <v>0.17366377668957125</v>
       </c>
       <c r="S13" s="83">
         <v>8.5726740954505853</v>
       </c>
       <c r="T13" s="76" cm="1">
         <f t="array" ref="T13">IF(biomassComponents26127[[#This Row],[pre-determined coeffs]]&lt;&gt;"",biomassComponents26127[[#This Row],[pre-determined coeffs]]*IF(SUM(biomassComponents26127[pre-determined coeffs])&gt;1,1/SUM(biomassComponents26127[pre-determined coeffs]),1)*(1-SUM(_xlfn._xlws.FILTER(biomassComponents26127[original coeffs from input],biomassComponents26127[pre-determined coeffs]=""))),biomassComponents26127[[#This Row],[original coeffs from input]])</f>
-        <v>1.6916540231651671E-2</v>
+        <v>1.6997663523128047E-2</v>
       </c>
       <c r="U13" s="80" t="s">
         <v>89</v>
       </c>
       <c r="V13" s="75" t="str" cm="1">
         <f t="array" ref="V13">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER((-mets27138[normalized coeffs]*biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(P13,"BIOSYN-"),""))</f>
-        <v>0.0150867216271455 BIO-alatrna_c + 0.00596057135849649 BIO-argtrna_c + 0.00716504288031904 BIO-asntrna_c + 0.00716504288031904 BIO-asptrna_c + 0.000216186356212452 BIO-cystrna_c + 0.0119520030818289 BIO-glntrna_c + 0.0119520030818289 BIO-glutrna_c + 0.0137278172392546 BIO-glytrna_c + 0.00298028567924824 BIO-histrna_c + 0.00909525714334093 BIO-iletrna_c + 0.0123689456118358 BIO-leutrna_c + 0.0101453285595673 BIO-lystrna_c + 0.00176038397500774 BIO-mettrna_c + 0.00580613849242807 BIO-phetrna_c + 0.00651648381168168 BIO-protrna_c + 0.00823051171849112 BIO-sertrna_c + 0.00860113094077199 BIO-thrtrna_c + 0.00100371534802805 BIO-trptrna_c + 0.00302660898697433 BIO-tyrtrna_c + 0.0113189069560817 BIO-valtrna_c</v>
+        <v>0.0151590700210383 BIO-alatrna_c + 0.00598915528647819 BIO-argtrna_c + 0.0071994028531067 BIO-asntrna_c + 0.0071994028531067 BIO-asptrna_c + 0.000217223078174986 BIO-cystrna_c + 0.0120093189287134 BIO-glntrna_c + 0.0120093189287134 BIO-glutrna_c + 0.013793649005324 BIO-glytrna_c + 0.00299457764323909 BIO-histrna_c + 0.00913887346122792 BIO-iletrna_c + 0.0124282609071849 BIO-leutrna_c + 0.0101939804963458 BIO-lystrna_c + 0.00176882589873206 BIO-mettrna_c + 0.00583398183739244 BIO-phetrna_c + 0.00654773361858174 BIO-protrna_c + 0.00826998114852798 BIO-sertrna_c + 0.00864237767578872 BIO-thrtrna_c + 0.00100852866633205 BIO-trptrna_c + 0.0030411230944498 BIO-tyrtrna_c + 0.0113731867896421 BIO-valtrna_c</v>
       </c>
       <c r="X13" s="79" t="s">
         <v>54</v>
@@ -16469,11 +16507,11 @@
       </c>
       <c r="I14" s="72">
         <f>H14/($H$3)</f>
-        <v>-9.6790570126994366E-2</v>
+        <v>-9.6676459580155499E-2</v>
       </c>
       <c r="J14" s="37" cm="1">
         <f t="array" ref="J14">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-9.6790570126994366E-2</v>
+        <v>-9.6676459580155499E-2</v>
       </c>
       <c r="K14" t="str" cm="1">
         <f t="array" ref="K14">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -16485,7 +16523,7 @@
       </c>
       <c r="M14" s="73" cm="1">
         <f t="array" ref="M14">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-9.6790570126994366E-2</v>
+        <v>-9.6676459580155499E-2</v>
       </c>
       <c r="N14" s="73"/>
       <c r="O14" s="74" t="str">
@@ -16501,20 +16539,20 @@
       </c>
       <c r="R14" s="76" cm="1">
         <f t="array" ref="R14">SUM(_xlfn._xlws.FILTER(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]/1000,mets27138[category]=_xlfn.TEXTAFTER(O14,"BIOSYN-"),""))</f>
-        <v>0.56409360646284412</v>
+        <v>0.56342857236068589</v>
       </c>
       <c r="S14" s="83"/>
       <c r="T14" s="76" cm="1">
         <f t="array" ref="T14">IF(biomassComponents26127[[#This Row],[pre-determined coeffs]]&lt;&gt;"",biomassComponents26127[[#This Row],[pre-determined coeffs]]*IF(SUM(biomassComponents26127[pre-determined coeffs])&gt;1,1/SUM(biomassComponents26127[pre-determined coeffs]),1)*(1-SUM(_xlfn._xlws.FILTER(biomassComponents26127[original coeffs from input],biomassComponents26127[pre-determined coeffs]=""))),biomassComponents26127[[#This Row],[original coeffs from input]])</f>
-        <v>0.56409360646284412</v>
+        <v>0.56342857236068589</v>
       </c>
       <c r="U14" s="75" t="str" cm="1">
         <f t="array" ref="U14">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]*(biomassComponents26127[[#This Row],[original coeffs from input]])/(1000*biomassComponents26127[[#This Row],[normalized coeffs]]),6)&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(O14,"BIOSYN-"),""))&amp;" --&gt; "&amp;biomassComponents26127[[#This Row],[product name]]</f>
-        <v>0.009601 BIO-ctp_c + 0.01118 BIO-gtp_c + 0.012907 BIO-utp_c + 0.530405 BIO-atp_c --&gt; BIO-rna</v>
+        <v>0.00959 BIO-ctp_c + 0.011167 BIO-gtp_c + 0.012892 BIO-utp_c + 0.52978 BIO-atp_c --&gt; BIO-rna</v>
       </c>
       <c r="V14" s="75" t="str" cm="1">
         <f t="array" ref="V14">_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER((-mets27138[normalized coeffs]*biomassComponents26127[[#This Row],[normalized coeffs]]/biomassComponents26127[[#This Row],[original coeffs from input]])&amp;" BIO-"&amp;mets27138[name],mets27138[category]=_xlfn.TEXTAFTER(P14,"BIOSYN-"),""))</f>
-        <v>0.0315641700318472 BIO-ctp_c + 0.0324823869642452 BIO-gtp_c + 0.0422975771290416 BIO-utp_c + 1.61611230800235 BIO-atp_c</v>
+        <v>0.0315269576804981 BIO-ctp_c + 0.0324440920876445 BIO-gtp_c + 0.042247710704556 BIO-utp_c + 1.61420700401481 BIO-atp_c</v>
       </c>
       <c r="X14" s="79" t="s">
         <v>54</v>
@@ -16560,11 +16598,11 @@
       </c>
       <c r="I15" s="72">
         <f>H15/($H$3)</f>
-        <v>-4.8517006890069179E-3</v>
+        <v>-4.8459808113577351E-3</v>
       </c>
       <c r="J15" s="37" cm="1">
         <f t="array" ref="J15">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-4.8517006890069179E-3</v>
+        <v>-4.8459808113577351E-3</v>
       </c>
       <c r="K15" t="str" cm="1">
         <f t="array" ref="K15">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -16576,7 +16614,7 @@
       </c>
       <c r="M15" s="73" cm="1">
         <f t="array" ref="M15">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-4.8517006890069179E-3</v>
+        <v>-4.8459808113577351E-3</v>
       </c>
       <c r="N15" s="73"/>
       <c r="O15" s="73" t="str">
@@ -16595,7 +16633,7 @@
       </c>
       <c r="Z15" s="77" t="str" cm="1">
         <f t="array" ref="Z15">_xlfn.LET(_xlpm.RNAmass,_xlfn.XLOOKUP("BIOSYN-RNA",biomassComponents26127[rxn name],biomassComponents26127[normalized coeffs],0),_xlpm.coeff,1/_xlpm.RNAmass,_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]/(1000),6)*_xlpm.coeff&amp;" BIO-"&amp;mets27138[name],mets27138[category]="RNA",""))&amp;" --&gt; "&amp;SUBSTITUTE(LOWER(ExtraRxns25116[[#This Row],[name]]),"biosyn-","BIO-"))</f>
-        <v>0.0170202248173015 BIO-ctp_c + 0.0198194056303959 BIO-gtp_c + 0.0228809542461109 BIO-utp_c + 0.940278340195896 BIO-atp_c --&gt; BIO-trna</v>
+        <v>0.0170207910468922 BIO-ctp_c + 0.0198197261335396 BIO-gtp_c + 0.0228813387045395 BIO-utp_c + 0.940278903109753 BIO-atp_c --&gt; BIO-trna</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="16" x14ac:dyDescent="0.2">
@@ -16632,11 +16670,11 @@
       </c>
       <c r="I16" s="72">
         <f>H16/($H$3)</f>
-        <v>-1.3310273317818271E-3</v>
+        <v>-1.3294581266775714E-3</v>
       </c>
       <c r="J16" s="37" cm="1">
         <f t="array" ref="J16">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-1.3310273317818271E-3</v>
+        <v>-1.3294581266775714E-3</v>
       </c>
       <c r="K16" t="str" cm="1">
         <f t="array" ref="K16">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -16648,11 +16686,14 @@
       </c>
       <c r="M16" s="73" cm="1">
         <f t="array" ref="M16">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-4.8861097621396361E-4</v>
+        <v>-4.909541108088141E-4</v>
       </c>
       <c r="N16" s="73"/>
       <c r="O16" s="73"/>
-      <c r="P16" s="60"/>
+      <c r="P16" s="60" cm="1">
+        <f t="array" ref="P16:P19">E16:E19*F16:F19/1000</f>
+        <v>-1.2341210697529999E-3</v>
+      </c>
       <c r="Q16" s="81"/>
       <c r="R16" s="29"/>
       <c r="S16" s="73"/>
@@ -16665,7 +16706,7 @@
       </c>
       <c r="Z16" s="77" t="str" cm="1">
         <f t="array" ref="Z16">_xlfn.LET(_xlpm.RNAmass,_xlfn.XLOOKUP("BIOSYN-RNA",biomassComponents26127[rxn name],biomassComponents26127[normalized coeffs],0),_xlpm.coeff,1/_xlpm.RNAmass,_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]/(1000),6)*_xlpm.coeff&amp;" BIO-"&amp;mets27138[name],mets27138[category]="RNA",""))&amp;" --&gt; "&amp;SUBSTITUTE(LOWER(ExtraRxns25116[[#This Row],[name]]),"biosyn-","BIO-"))</f>
-        <v>0.0170202248173015 BIO-ctp_c + 0.0198194056303959 BIO-gtp_c + 0.0228809542461109 BIO-utp_c + 0.940278340195896 BIO-atp_c --&gt; BIO-rrna</v>
+        <v>0.0170207910468922 BIO-ctp_c + 0.0198197261335396 BIO-gtp_c + 0.0228813387045395 BIO-utp_c + 0.940278903109753 BIO-atp_c --&gt; BIO-rrna</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -16702,11 +16743,11 @@
       </c>
       <c r="I17" s="72">
         <f>H17/($H$3)</f>
-        <v>-8.9835085281910311E-4</v>
+        <v>-8.9729174853927661E-4</v>
       </c>
       <c r="J17" s="37" cm="1">
         <f t="array" ref="J17">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-8.9835085281910311E-4</v>
+        <v>-8.9729174853927661E-4</v>
       </c>
       <c r="K17" t="str" cm="1">
         <f t="array" ref="K17">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -16718,11 +16759,13 @@
       </c>
       <c r="M17" s="73" cm="1">
         <f t="array" ref="M17">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-3.2977841754081835E-4</v>
+        <v>-3.313598703865206E-4</v>
       </c>
       <c r="N17" s="73"/>
       <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
+      <c r="P17" s="73">
+        <v>-7.6884796786799996E-4</v>
+      </c>
       <c r="Q17" s="82"/>
       <c r="R17" s="73"/>
       <c r="S17" s="73"/>
@@ -16735,7 +16778,7 @@
       </c>
       <c r="Z17" s="77" t="str" cm="1">
         <f t="array" ref="Z17">_xlfn.LET(_xlpm.RNAmass,_xlfn.XLOOKUP("BIOSYN-RNA",biomassComponents26127[rxn name],biomassComponents26127[normalized coeffs],0),_xlpm.coeff,1/_xlpm.RNAmass,_xlfn.TEXTJOIN(" + ",TRUE,_xlfn._xlws.FILTER(ROUND(-mets27138[MW for biomass normalization (g/mol)]*mets27138[normalized coeffs]/(1000),6)*_xlpm.coeff&amp;" BIO-"&amp;mets27138[name],mets27138[category]="RNA",""))&amp;" --&gt; "&amp;SUBSTITUTE(LOWER(ExtraRxns25116[[#This Row],[name]]),"biosyn-","BIO-"))</f>
-        <v>0.0170202248173015 BIO-ctp_c + 0.0198194056303959 BIO-gtp_c + 0.0228809542461109 BIO-utp_c + 0.940278340195896 BIO-atp_c --&gt; BIO-mrna</v>
+        <v>0.0170207910468922 BIO-ctp_c + 0.0198197261335396 BIO-gtp_c + 0.0228813387045395 BIO-utp_c + 0.940278903109753 BIO-atp_c --&gt; BIO-mrna</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -16772,11 +16815,11 @@
       </c>
       <c r="I18" s="72">
         <f>H18/($H$3)</f>
-        <v>-8.9835085281910311E-4</v>
+        <v>-8.9729174853927661E-4</v>
       </c>
       <c r="J18" s="37" cm="1">
         <f t="array" ref="J18">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-8.9835085281910311E-4</v>
+        <v>-8.9729174853927661E-4</v>
       </c>
       <c r="K18" t="str" cm="1">
         <f t="array" ref="K18">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -16788,11 +16831,13 @@
       </c>
       <c r="M18" s="73" cm="1">
         <f t="array" ref="M18">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-3.2977841754081835E-4</v>
+        <v>-3.313598703865206E-4</v>
       </c>
       <c r="N18" s="73"/>
       <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
+      <c r="P18" s="73">
+        <v>-8.7563226666799985E-4</v>
+      </c>
       <c r="Q18" s="73"/>
       <c r="R18" s="82"/>
       <c r="S18" s="73"/>
@@ -16834,11 +16879,11 @@
       </c>
       <c r="I19" s="72">
         <f>H19/($H$3)</f>
-        <v>-1.3310273317818271E-3</v>
+        <v>-1.3294581266775714E-3</v>
       </c>
       <c r="J19" s="37" cm="1">
         <f t="array" ref="J19">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-1.3310273317818271E-3</v>
+        <v>-1.3294581266775714E-3</v>
       </c>
       <c r="K19" t="str" cm="1">
         <f t="array" ref="K19">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -16850,11 +16895,13 @@
       </c>
       <c r="M19" s="73" cm="1">
         <f t="array" ref="M19">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-4.8861097621396361E-4</v>
+        <v>-4.909541108088141E-4</v>
       </c>
       <c r="N19" s="73"/>
       <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
+      <c r="P19" s="73">
+        <v>-1.198491257673E-3</v>
+      </c>
       <c r="Q19" s="73"/>
       <c r="R19" s="73"/>
       <c r="S19" s="73"/>
@@ -16896,11 +16943,11 @@
       </c>
       <c r="I20" s="72">
         <f>H20/($H$3)</f>
-        <v>1.5836299210381055</v>
+        <v>1.5817629119271668</v>
       </c>
       <c r="J20" s="37" cm="1">
         <f t="array" ref="J20">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-127.13931207896188</v>
+        <v>-127.14117908807282</v>
       </c>
       <c r="K20" t="str" cm="1">
         <f t="array" ref="K20">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -16912,7 +16959,7 @@
       </c>
       <c r="M20" s="73" cm="1">
         <f t="array" ref="M20">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-137.8793120789619</v>
+        <v>-137.88117908807283</v>
       </c>
       <c r="N20" s="73"/>
       <c r="O20" s="73"/>
@@ -16978,7 +17025,9 @@
       </c>
       <c r="N21" s="73"/>
       <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
+      <c r="P21" s="73" t="s">
+        <v>585</v>
+      </c>
       <c r="Q21" s="73"/>
       <c r="R21" s="73"/>
       <c r="S21" s="73"/>
@@ -17040,7 +17089,10 @@
       </c>
       <c r="N22" s="73"/>
       <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
+      <c r="P22" s="73" cm="1">
+        <f t="array" ref="P22:P27">E10:E15*F10:F15/1000</f>
+        <v>-6.2299282737999999E-2</v>
+      </c>
       <c r="Q22" s="73"/>
       <c r="R22" s="73"/>
       <c r="S22" s="73"/>
@@ -17082,11 +17134,11 @@
       </c>
       <c r="I23" s="72">
         <f>H23/($H$3)</f>
-        <v>-8.9144823194849156E-3</v>
+        <v>-8.9039726546391862E-3</v>
       </c>
       <c r="J23" s="37" cm="1">
         <f t="array" ref="J23">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-8.9144823194849156E-3</v>
+        <v>-8.9039726546391862E-3</v>
       </c>
       <c r="K23" t="str" cm="1">
         <f t="array" ref="K23">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -17098,11 +17150,13 @@
       </c>
       <c r="M23" s="73" cm="1">
         <f t="array" ref="M23">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-2.0887043481275201E-3</v>
+        <v>-1.9672719034771252E-3</v>
       </c>
       <c r="N23" s="73"/>
       <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
+      <c r="P23" s="73">
+        <v>-9.6675035625200009E-2</v>
+      </c>
       <c r="Q23" s="73"/>
       <c r="R23" s="73"/>
       <c r="S23" s="73"/>
@@ -17144,11 +17198,11 @@
       </c>
       <c r="I24" s="72">
         <f>H24/($H$3)</f>
-        <v>-2.3172603332462776E-3</v>
+        <v>-2.3145284158348207E-3</v>
       </c>
       <c r="J24" s="37" cm="1">
         <f t="array" ref="J24">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-2.3172603332462776E-3</v>
+        <v>-2.3145284158348207E-3</v>
       </c>
       <c r="K24" t="str" cm="1">
         <f t="array" ref="K24">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -17160,11 +17214,13 @@
       </c>
       <c r="M24" s="73" cm="1">
         <f t="array" ref="M24">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-5.4294479032345974E-4</v>
+        <v>-5.1137923473954959E-4</v>
       </c>
       <c r="N24" s="73"/>
       <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
+      <c r="P24" s="73">
+        <v>-2.54408329836E-2</v>
+      </c>
       <c r="Q24" s="73"/>
       <c r="R24" s="73"/>
       <c r="S24" s="73"/>
@@ -17206,11 +17262,11 @@
       </c>
       <c r="I25" s="72">
         <f>H25/($H$3)</f>
-        <v>-8.6461218885640675E-3</v>
+        <v>-8.6359286053191708E-3</v>
       </c>
       <c r="J25" s="37" cm="1">
         <f t="array" ref="J25">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-8.6461218885640675E-3</v>
+        <v>-8.6359286053191708E-3</v>
       </c>
       <c r="K25" t="str" cm="1">
         <f t="array" ref="K25">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -17222,11 +17278,13 @@
       </c>
       <c r="M25" s="73" cm="1">
         <f t="array" ref="M25">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-2.0258262606692528E-3</v>
+        <v>-1.9080494027378895E-3</v>
       </c>
       <c r="N25" s="73"/>
       <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
+      <c r="P25" s="73">
+        <v>-2.8644049544399998E-3</v>
+      </c>
       <c r="Q25" s="73"/>
       <c r="R25" s="73"/>
       <c r="S25" s="73"/>
@@ -17268,11 +17326,11 @@
       </c>
       <c r="I26" s="72">
         <f>H26/($H$3)</f>
-        <v>-2.3236578842970881E-3</v>
+        <v>-2.3209184245388112E-3</v>
       </c>
       <c r="J26" s="37" cm="1">
         <f t="array" ref="J26">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-2.3236578842970881E-3</v>
+        <v>-2.3209184245388112E-3</v>
       </c>
       <c r="K26" t="str" cm="1">
         <f t="array" ref="K26">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -17284,11 +17342,13 @@
       </c>
       <c r="M26" s="73" cm="1">
         <f t="array" ref="M26">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-5.4444376605960402E-4</v>
+        <v>-5.1279106348992032E-4</v>
       </c>
       <c r="N26" s="73"/>
       <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
+      <c r="P26" s="73">
+        <v>-4.6608450454200007E-2</v>
+      </c>
       <c r="Q26" s="73"/>
       <c r="R26" s="73"/>
       <c r="S26" s="73"/>
@@ -17330,11 +17390,11 @@
       </c>
       <c r="I27" s="72">
         <f>H27/($H$3)</f>
-        <v>-1.9956992146397392E-3</v>
+        <v>-1.993346399397411E-3</v>
       </c>
       <c r="J27" s="37" cm="1">
         <f t="array" ref="J27">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-1.9956992146397392E-3</v>
+        <v>-1.993346399397411E-3</v>
       </c>
       <c r="K27" t="str" cm="1">
         <f t="array" ref="K27">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -17346,11 +17406,13 @@
       </c>
       <c r="M27" s="73" cm="1">
         <f t="array" ref="M27">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-4.6760153621725446E-4</v>
+        <v>-4.4041626333933597E-4</v>
       </c>
       <c r="N27" s="73"/>
       <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
+      <c r="P27" s="73">
+        <v>-4.932149980319999E-3</v>
+      </c>
       <c r="Q27" s="73"/>
       <c r="R27" s="73"/>
       <c r="S27" s="73"/>
@@ -17392,11 +17454,11 @@
       </c>
       <c r="I28" s="72">
         <f>H28/($H$3)</f>
-        <v>-2.2994145329466474E-3</v>
+        <v>-2.2967036547131637E-3</v>
       </c>
       <c r="J28" s="37" cm="1">
         <f t="array" ref="J28">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-2.2994145329466474E-3</v>
+        <v>-2.2967036547131637E-3</v>
       </c>
       <c r="K28" t="str" cm="1">
         <f t="array" ref="K28">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -17408,7 +17470,7 @@
       </c>
       <c r="M28" s="73" cm="1">
         <f t="array" ref="M28">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-5.3876343695421472E-4</v>
+        <v>-5.0744097559377857E-4</v>
       </c>
       <c r="N28" s="73"/>
       <c r="O28" s="73"/>
@@ -17454,11 +17516,11 @@
       </c>
       <c r="I29" s="72">
         <f>H29/($H$3)</f>
-        <v>-4.3301319217592458E-4</v>
+        <v>-4.3250269438587326E-4</v>
       </c>
       <c r="J29" s="37" cm="1">
         <f t="array" ref="J29">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-4.3301319217592458E-4</v>
+        <v>-4.3250269438587326E-4</v>
       </c>
       <c r="K29" t="str" cm="1">
         <f t="array" ref="K29">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -17470,7 +17532,7 @@
       </c>
       <c r="M29" s="73" cm="1">
         <f t="array" ref="M29">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-4.3301319217592458E-4</v>
+        <v>-4.3250269438587326E-4</v>
       </c>
       <c r="N29" s="73"/>
       <c r="O29" s="73"/>
@@ -17516,11 +17578,11 @@
       </c>
       <c r="I30" s="72">
         <f>H30/($H$3)</f>
-        <v>-3.838530630486423E-5</v>
+        <v>-3.8340052223942106E-5</v>
       </c>
       <c r="J30" s="37" cm="1">
         <f t="array" ref="J30">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-3.838530630486423E-5</v>
+        <v>-3.8340052223942106E-5</v>
       </c>
       <c r="K30" t="str" cm="1">
         <f t="array" ref="K30">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -17532,7 +17594,7 @@
       </c>
       <c r="M30" s="73" cm="1">
         <f t="array" ref="M30">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-3.838530630486423E-5</v>
+        <v>-3.8340052223942106E-5</v>
       </c>
       <c r="N30" s="73"/>
       <c r="O30" s="73"/>
@@ -17578,11 +17640,11 @@
       </c>
       <c r="I31" s="72">
         <f>H31/($H$3)</f>
-        <v>-2.2357757356517409E-4</v>
+        <v>-2.2331398839208383E-4</v>
       </c>
       <c r="J31" s="37" cm="1">
         <f t="array" ref="J31">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-2.2357757356517409E-4</v>
+        <v>-2.2331398839208383E-4</v>
       </c>
       <c r="K31" t="str" cm="1">
         <f t="array" ref="K31">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -17594,7 +17656,7 @@
       </c>
       <c r="M31" s="73" cm="1">
         <f t="array" ref="M31">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-2.2357757356517409E-4</v>
+        <v>-2.2331398839208383E-4</v>
       </c>
       <c r="N31" s="73"/>
       <c r="O31" s="73"/>
@@ -17640,11 +17702,11 @@
       </c>
       <c r="I32" s="72">
         <f>H32/($H$3)</f>
-        <v>-0.20325693114852011</v>
+        <v>-0.20301730285072503</v>
       </c>
       <c r="J32" s="37" cm="1">
         <f t="array" ref="J32">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-0.20325693114852011</v>
+        <v>-0.20301730285072503</v>
       </c>
       <c r="K32" t="str" cm="1">
         <f t="array" ref="K32">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -17656,7 +17718,7 @@
       </c>
       <c r="M32" s="73" cm="1">
         <f t="array" ref="M32">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-0.20325693114852011</v>
+        <v>-0.20301730285072503</v>
       </c>
       <c r="N32" s="73"/>
       <c r="O32" s="73"/>
@@ -17702,11 +17764,11 @@
       </c>
       <c r="I33" s="72">
         <f>H33/($H$3)</f>
-        <v>-2.1417317352048236E-2</v>
+        <v>-2.1392067559721801E-2</v>
       </c>
       <c r="J33" s="37" cm="1">
         <f t="array" ref="J33">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-2.1417317352048236E-2</v>
+        <v>-2.1392067559721801E-2</v>
       </c>
       <c r="K33" t="str" cm="1">
         <f t="array" ref="K33">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -17718,7 +17780,7 @@
       </c>
       <c r="M33" s="73" cm="1">
         <f t="array" ref="M33">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-2.1417317352048236E-2</v>
+        <v>-2.1392067559721801E-2</v>
       </c>
       <c r="N33" s="73"/>
       <c r="O33" s="73"/>
@@ -17764,11 +17826,11 @@
       </c>
       <c r="I34" s="72">
         <f>H34/($H$3)</f>
-        <v>-3.1651042040852962E-5</v>
+        <v>-3.1613727272373316E-5</v>
       </c>
       <c r="J34" s="37" cm="1">
         <f t="array" ref="J34">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-3.1651042040852962E-5</v>
+        <v>-3.1613727272373316E-5</v>
       </c>
       <c r="K34" t="str" cm="1">
         <f t="array" ref="K34">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -17780,7 +17842,7 @@
       </c>
       <c r="M34" s="73" cm="1">
         <f t="array" ref="M34">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-3.1651042040852962E-5</v>
+        <v>-3.1613727272373316E-5</v>
       </c>
       <c r="N34" s="73"/>
       <c r="O34" s="73"/>
@@ -17826,11 +17888,11 @@
       </c>
       <c r="I35" s="72">
         <f>H35/($H$3)</f>
-        <v>-5.3066002400408796E-4</v>
+        <v>-5.3003440618362067E-4</v>
       </c>
       <c r="J35" s="37" cm="1">
         <f t="array" ref="J35">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-5.3066002400408796E-4</v>
+        <v>-5.3003440618362067E-4</v>
       </c>
       <c r="K35" t="str" cm="1">
         <f t="array" ref="K35">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -17842,7 +17904,7 @@
       </c>
       <c r="M35" s="73" cm="1">
         <f t="array" ref="M35">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-5.3066002400408796E-4</v>
+        <v>-5.3003440618362067E-4</v>
       </c>
       <c r="N35" s="73"/>
       <c r="O35" s="73"/>
@@ -17888,11 +17950,11 @@
       </c>
       <c r="I36" s="72">
         <f>H36/($H$3)</f>
-        <v>-2.2822421590734188E-3</v>
+        <v>-2.2795515260866633E-3</v>
       </c>
       <c r="J36" s="37" cm="1">
         <f t="array" ref="J36">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-2.2822421590734188E-3</v>
+        <v>-2.2795515260866633E-3</v>
       </c>
       <c r="K36" t="str" cm="1">
         <f t="array" ref="K36">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -17904,7 +17966,7 @@
       </c>
       <c r="M36" s="73" cm="1">
         <f t="array" ref="M36">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-2.2822421590734188E-3</v>
+        <v>-2.2795515260866633E-3</v>
       </c>
       <c r="N36" s="73"/>
       <c r="O36" s="73"/>
@@ -17950,11 +18012,11 @@
       </c>
       <c r="I37" s="72">
         <f>H37/($H$3)</f>
-        <v>-3.5575434540700314E-2</v>
+        <v>-3.553349313789482E-2</v>
       </c>
       <c r="J37" s="37" cm="1">
         <f t="array" ref="J37">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>128.68736656545929</v>
+        <v>128.68740850686208</v>
       </c>
       <c r="K37" t="str" cm="1">
         <f t="array" ref="K37">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -17966,7 +18028,7 @@
       </c>
       <c r="M37" s="73" cm="1">
         <f t="array" ref="M37">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>138.26907874287633</v>
+        <v>138.26335357001801</v>
       </c>
       <c r="N37" s="73"/>
       <c r="O37" s="73"/>
@@ -18012,11 +18074,11 @@
       </c>
       <c r="I38" s="72">
         <f>H38/($H$3)</f>
-        <v>-0.15506182209027067</v>
+        <v>-0.15487901306983265</v>
       </c>
       <c r="J38" s="37" cm="1">
         <f t="array" ref="J38">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-0.15506182209027067</v>
+        <v>-0.15487901306983265</v>
       </c>
       <c r="K38" t="str" cm="1">
         <f t="array" ref="K38">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -18028,7 +18090,7 @@
       </c>
       <c r="M38" s="73" cm="1">
         <f t="array" ref="M38">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-1.5086721627145545E-2</v>
+        <v>-1.5159070021038282E-2</v>
       </c>
       <c r="N38" s="73"/>
       <c r="O38" s="73"/>
@@ -18077,11 +18139,11 @@
       </c>
       <c r="I39" s="72">
         <f>H39/($H$3)</f>
-        <v>-6.126294886256331E-2</v>
+        <v>-6.1190723349411599E-2</v>
       </c>
       <c r="J39" s="37" cm="1">
         <f t="array" ref="J39">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-6.126294886256331E-2</v>
+        <v>-6.1190723349411599E-2</v>
       </c>
       <c r="K39" t="str" cm="1">
         <f t="array" ref="K39">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -18093,7 +18155,7 @@
       </c>
       <c r="M39" s="73" cm="1">
         <f t="array" ref="M39">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-5.9605713584964881E-3</v>
+        <v>-5.9891552864781887E-3</v>
       </c>
       <c r="N39" s="73"/>
       <c r="O39" s="73"/>
@@ -18141,11 +18203,11 @@
       </c>
       <c r="I40" s="72">
         <f>H40/($H$3)</f>
-        <v>-7.3642546859095215E-2</v>
+        <v>-7.3555726507880503E-2</v>
       </c>
       <c r="J40" s="37" cm="1">
         <f t="array" ref="J40">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-7.3642546859095215E-2</v>
+        <v>-7.3555726507880503E-2</v>
       </c>
       <c r="K40" t="str" cm="1">
         <f t="array" ref="K40">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -18157,7 +18219,7 @@
       </c>
       <c r="M40" s="73" cm="1">
         <f t="array" ref="M40">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-7.1650428803190364E-3</v>
+        <v>-7.1994028531066952E-3</v>
       </c>
       <c r="N40" s="73"/>
       <c r="O40" s="73"/>
@@ -18205,11 +18267,11 @@
       </c>
       <c r="I41" s="72">
         <f>H41/($H$3)</f>
-        <v>-7.3642546859095215E-2</v>
+        <v>-7.3555726507880503E-2</v>
       </c>
       <c r="J41" s="37" cm="1">
         <f t="array" ref="J41">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-7.3642546859095215E-2</v>
+        <v>-7.3555726507880503E-2</v>
       </c>
       <c r="K41" t="str" cm="1">
         <f t="array" ref="K41">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -18221,7 +18283,7 @@
       </c>
       <c r="M41" s="73" cm="1">
         <f t="array" ref="M41">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-7.1650428803190364E-3</v>
+        <v>-7.1994028531066952E-3</v>
       </c>
       <c r="N41" s="73"/>
       <c r="O41" s="73"/>
@@ -18269,11 +18331,11 @@
       </c>
       <c r="I42" s="72">
         <f>H42/($H$3)</f>
-        <v>-2.2219704939105177E-3</v>
+        <v>-2.2193509177701222E-3</v>
       </c>
       <c r="J42" s="37" cm="1">
         <f t="array" ref="J42">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-2.2219704939105177E-3</v>
+        <v>-2.2193509177701222E-3</v>
       </c>
       <c r="K42" t="str" cm="1">
         <f t="array" ref="K42">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -18285,7 +18347,7 @@
       </c>
       <c r="M42" s="73" cm="1">
         <f t="array" ref="M42">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-2.1618635621245175E-4</v>
+        <v>-2.172230781749855E-4</v>
       </c>
       <c r="N42" s="73"/>
       <c r="O42" s="73"/>
@@ -18333,11 +18395,11 @@
       </c>
       <c r="I43" s="72">
         <f>H43/($H$3)</f>
-        <v>-0.12284308157196154</v>
+        <v>-0.12269825660404209</v>
       </c>
       <c r="J43" s="37" cm="1">
         <f t="array" ref="J43">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-0.12284308157196154</v>
+        <v>-0.12269825660404209</v>
       </c>
       <c r="K43" t="str" cm="1">
         <f t="array" ref="K43">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -18349,7 +18411,7 @@
       </c>
       <c r="M43" s="73" cm="1">
         <f t="array" ref="M43">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-1.195200308182888E-2</v>
+        <v>-1.2009318928713436E-2</v>
       </c>
       <c r="N43" s="73"/>
       <c r="O43" s="73"/>
@@ -18397,11 +18459,11 @@
       </c>
       <c r="I44" s="72">
         <f>H44/($H$3)</f>
-        <v>-0.12284308157196154</v>
+        <v>-0.12269825660404209</v>
       </c>
       <c r="J44" s="37" cm="1">
         <f t="array" ref="J44">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-0.12284308157196154</v>
+        <v>-0.12269825660404209</v>
       </c>
       <c r="K44" t="str" cm="1">
         <f t="array" ref="K44">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -18413,7 +18475,7 @@
       </c>
       <c r="M44" s="73" cm="1">
         <f t="array" ref="M44">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-1.195200308182888E-2</v>
+        <v>-1.2009318928713436E-2</v>
       </c>
       <c r="N44" s="73"/>
       <c r="O44" s="73"/>
@@ -18461,11 +18523,11 @@
       </c>
       <c r="I45" s="72">
         <f>H45/($H$3)</f>
-        <v>-0.14109495800671129</v>
+        <v>-0.14092861512027899</v>
       </c>
       <c r="J45" s="37" cm="1">
         <f t="array" ref="J45">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-0.14109495800671129</v>
+        <v>-0.14092861512027899</v>
       </c>
       <c r="K45" t="str" cm="1">
         <f t="array" ref="K45">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -18477,7 +18539,7 @@
       </c>
       <c r="M45" s="73" cm="1">
         <f t="array" ref="M45">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-1.3727817239254576E-2</v>
+        <v>-1.3793649005324024E-2</v>
       </c>
       <c r="N45" s="73"/>
       <c r="O45" s="73"/>
@@ -18525,11 +18587,11 @@
       </c>
       <c r="I46" s="72">
         <f>H46/($H$3)</f>
-        <v>-3.0631474431281655E-2</v>
+        <v>-3.05953616747058E-2</v>
       </c>
       <c r="J46" s="37" cm="1">
         <f t="array" ref="J46">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-3.0631474431281655E-2</v>
+        <v>-3.05953616747058E-2</v>
       </c>
       <c r="K46" t="str" cm="1">
         <f t="array" ref="K46">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -18541,7 +18603,7 @@
       </c>
       <c r="M46" s="73" cm="1">
         <f t="array" ref="M46">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-2.9802856792482441E-3</v>
+        <v>-2.9945776432390944E-3</v>
       </c>
       <c r="N46" s="73"/>
       <c r="O46" s="73"/>
@@ -18589,11 +18651,11 @@
       </c>
       <c r="I47" s="72">
         <f>H47/($H$3)</f>
-        <v>-9.3481352667659223E-2</v>
+        <v>-9.337114349895459E-2</v>
       </c>
       <c r="J47" s="37" cm="1">
         <f t="array" ref="J47">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-9.3481352667659223E-2</v>
+        <v>-9.337114349895459E-2</v>
       </c>
       <c r="K47" t="str" cm="1">
         <f t="array" ref="K47">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -18605,7 +18667,7 @@
       </c>
       <c r="M47" s="73" cm="1">
         <f t="array" ref="M47">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-9.0952571433409266E-3</v>
+        <v>-9.1388734612279227E-3</v>
       </c>
       <c r="N47" s="73"/>
       <c r="O47" s="73"/>
@@ -18653,11 +18715,11 @@
       </c>
       <c r="I48" s="72">
         <f>H48/($H$3)</f>
-        <v>-0.12712843063636511</v>
+        <v>-0.12697855348697287</v>
       </c>
       <c r="J48" s="37" cm="1">
         <f t="array" ref="J48">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-0.12712843063636511</v>
+        <v>-0.12697855348697287</v>
       </c>
       <c r="K48" t="str" cm="1">
         <f t="array" ref="K48">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -18669,7 +18731,7 @@
       </c>
       <c r="M48" s="73" cm="1">
         <f t="array" ref="M48">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-1.2368945611835831E-2</v>
+        <v>-1.2428260907184876E-2</v>
       </c>
       <c r="N48" s="73"/>
       <c r="O48" s="73"/>
@@ -18717,11 +18779,11 @@
       </c>
       <c r="I49" s="72">
         <f>H49/($H$3)</f>
-        <v>-0.10427402129037688</v>
+        <v>-0.10415108818258631</v>
       </c>
       <c r="J49" s="37" cm="1">
         <f t="array" ref="J49">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-0.10427402129037688</v>
+        <v>-0.10415108818258631</v>
       </c>
       <c r="K49" t="str" cm="1">
         <f t="array" ref="K49">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -18733,7 +18795,7 @@
       </c>
       <c r="M49" s="73" cm="1">
         <f t="array" ref="M49">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-1.0145328559567282E-2</v>
+        <v>-1.0193980496345791E-2</v>
       </c>
       <c r="N49" s="73"/>
       <c r="O49" s="73"/>
@@ -18781,11 +18843,11 @@
       </c>
       <c r="I50" s="72">
         <f>H50/($H$3)</f>
-        <v>-1.8093284511332273E-2</v>
+        <v>-1.8071953563627449E-2</v>
       </c>
       <c r="J50" s="37" cm="1">
         <f t="array" ref="J50">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-1.8093284511332273E-2</v>
+        <v>-1.8071953563627449E-2</v>
       </c>
       <c r="K50" t="str" cm="1">
         <f t="array" ref="K50">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -18797,7 +18859,7 @@
       </c>
       <c r="M50" s="73" cm="1">
         <f t="array" ref="M50">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-1.7603839750077429E-3</v>
+        <v>-1.7688258987320577E-3</v>
       </c>
       <c r="N50" s="73"/>
       <c r="O50" s="73"/>
@@ -18845,11 +18907,11 @@
       </c>
       <c r="I51" s="72">
         <f>H51/($H$3)</f>
-        <v>-5.9675682775535852E-2</v>
+        <v>-5.9605328558326835E-2</v>
       </c>
       <c r="J51" s="37" cm="1">
         <f t="array" ref="J51">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-5.9675682775535852E-2</v>
+        <v>-5.9605328558326835E-2</v>
       </c>
       <c r="K51" t="str" cm="1">
         <f t="array" ref="K51">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -18861,7 +18923,7 @@
       </c>
       <c r="M51" s="73" cm="1">
         <f t="array" ref="M51">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-5.8061384924280686E-3</v>
+        <v>-5.833981837392436E-3</v>
       </c>
       <c r="N51" s="73"/>
       <c r="O51" s="73"/>
@@ -18909,11 +18971,11 @@
       </c>
       <c r="I52" s="72">
         <f>H52/($H$3)</f>
-        <v>-6.6976635377363675E-2</v>
+        <v>-6.6897673754570147E-2</v>
       </c>
       <c r="J52" s="37" cm="1">
         <f t="array" ref="J52">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-6.6976635377363675E-2</v>
+        <v>-6.6897673754570147E-2</v>
       </c>
       <c r="K52" t="str" cm="1">
         <f t="array" ref="K52">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -18925,7 +18987,7 @@
       </c>
       <c r="M52" s="73" cm="1">
         <f t="array" ref="M52">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-6.5164838116816828E-3</v>
+        <v>-6.5477336185817397E-3</v>
       </c>
       <c r="N52" s="73"/>
       <c r="O52" s="73"/>
@@ -18973,11 +19035,11 @@
       </c>
       <c r="I53" s="72">
         <f>H53/($H$3)</f>
-        <v>-8.4593470692017142E-2</v>
+        <v>-8.4493739827874087E-2</v>
       </c>
       <c r="J53" s="37" cm="1">
         <f t="array" ref="J53">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-8.4593470692017142E-2</v>
+        <v>-8.4493739827874087E-2</v>
       </c>
       <c r="K53" t="str" cm="1">
         <f t="array" ref="K53">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -18989,7 +19051,7 @@
       </c>
       <c r="M53" s="73" cm="1">
         <f t="array" ref="M53">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-8.2305117184911184E-3</v>
+        <v>-8.269981148527979E-3</v>
       </c>
       <c r="N53" s="73"/>
       <c r="O53" s="73"/>
@@ -19037,11 +19099,11 @@
       </c>
       <c r="I54" s="72">
         <f>H54/($H$3)</f>
-        <v>-8.8402707272955128E-2</v>
+        <v>-8.8298485536728991E-2</v>
       </c>
       <c r="J54" s="37" cm="1">
         <f t="array" ref="J54">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-8.8402707272955128E-2</v>
+        <v>-8.8298485536728991E-2</v>
       </c>
       <c r="K54" t="str" cm="1">
         <f t="array" ref="K54">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -19053,7 +19115,7 @@
       </c>
       <c r="M54" s="73" cm="1">
         <f t="array" ref="M54">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-8.6011309407719901E-3</v>
+        <v>-8.6423776757887181E-3</v>
       </c>
       <c r="N54" s="73"/>
       <c r="O54" s="73"/>
@@ -19101,11 +19163,11 @@
       </c>
       <c r="I55" s="72">
         <f>H55/($H$3)</f>
-        <v>-1.0316219426038862E-2</v>
+        <v>-1.0304057193308229E-2</v>
       </c>
       <c r="J55" s="37" cm="1">
         <f t="array" ref="J55">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-1.0316219426038862E-2</v>
+        <v>-1.0304057193308229E-2</v>
       </c>
       <c r="K55" t="str" cm="1">
         <f t="array" ref="K55">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -19117,7 +19179,7 @@
       </c>
       <c r="M55" s="73" cm="1">
         <f t="array" ref="M55">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-1.0037153480280494E-3</v>
+        <v>-1.0085286663320512E-3</v>
       </c>
       <c r="N55" s="73"/>
       <c r="O55" s="73"/>
@@ -19165,11 +19227,11 @@
       </c>
       <c r="I56" s="72">
         <f>H56/($H$3)</f>
-        <v>-3.110758691474725E-2</v>
+        <v>-3.1070912848781714E-2</v>
       </c>
       <c r="J56" s="37" cm="1">
         <f t="array" ref="J56">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-3.110758691474725E-2</v>
+        <v>-3.1070912848781714E-2</v>
       </c>
       <c r="K56" t="str" cm="1">
         <f t="array" ref="K56">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -19181,7 +19243,7 @@
       </c>
       <c r="M56" s="73" cm="1">
         <f t="array" ref="M56">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-3.0266089869743248E-3</v>
+        <v>-3.0411230944497976E-3</v>
       </c>
       <c r="N56" s="73"/>
       <c r="O56" s="73"/>
@@ -19229,11 +19291,11 @@
       </c>
       <c r="I57" s="72">
         <f>H57/($H$3)</f>
-        <v>-0.11633609872686067</v>
+        <v>-0.11619894511958875</v>
       </c>
       <c r="J57" s="37" cm="1">
         <f t="array" ref="J57">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-0.11633609872686067</v>
+        <v>-0.11619894511958875</v>
       </c>
       <c r="K57" t="str" cm="1">
         <f t="array" ref="K57">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -19245,7 +19307,7 @@
       </c>
       <c r="M57" s="73" cm="1">
         <f t="array" ref="M57">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-1.1318906956081702E-2</v>
+        <v>-1.1373186789642125E-2</v>
       </c>
       <c r="N57" s="73"/>
       <c r="O57" s="73"/>
@@ -19293,11 +19355,11 @@
       </c>
       <c r="I58" s="72">
         <f>H58/($H$3)</f>
-        <v>-3.1564170031847215E-2</v>
+        <v>-3.1526957680498083E-2</v>
       </c>
       <c r="J58" s="37" cm="1">
         <f t="array" ref="J58">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-3.1564170031847215E-2</v>
+        <v>-3.1526957680498083E-2</v>
       </c>
       <c r="K58" t="str" cm="1">
         <f t="array" ref="K58">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -19309,13 +19371,22 @@
       </c>
       <c r="M58" s="73" cm="1">
         <f t="array" ref="M58">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-3.1564170031847215E-2</v>
+        <v>-3.1526957680498083E-2</v>
       </c>
       <c r="N58" s="73"/>
       <c r="O58" s="73"/>
-      <c r="P58" s="73"/>
-      <c r="Q58" s="73"/>
-      <c r="R58" s="73"/>
+      <c r="P58" s="73" t="str" cm="1">
+        <f t="array" ref="P58:P61">B58:B61</f>
+        <v>ctp_c</v>
+      </c>
+      <c r="Q58" s="103" cm="1">
+        <f t="array" ref="Q58:Q60">F58:F60</f>
+        <v>-9.3742000000000006E-2</v>
+      </c>
+      <c r="R58" s="73" cm="1">
+        <f t="array" ref="R58:R61">Q58:Q61*E58:E61/1000</f>
+        <v>-2.8513813582342007E-2</v>
+      </c>
       <c r="S58" s="73"/>
       <c r="T58" s="73"/>
       <c r="U58" s="73"/>
@@ -19355,11 +19426,11 @@
       </c>
       <c r="I59" s="72">
         <f>H59/($H$3)</f>
-        <v>-3.2482386964245151E-2</v>
+        <v>-3.2444092087644483E-2</v>
       </c>
       <c r="J59" s="37" cm="1">
         <f t="array" ref="J59">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-3.2482386964245151E-2</v>
+        <v>-3.2444092087644483E-2</v>
       </c>
       <c r="K59" t="str" cm="1">
         <f t="array" ref="K59">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -19371,13 +19442,19 @@
       </c>
       <c r="M59" s="73" cm="1">
         <f t="array" ref="M59">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-3.2482386964245151E-2</v>
+        <v>-3.2444092087644483E-2</v>
       </c>
       <c r="N59" s="73"/>
       <c r="O59" s="73"/>
-      <c r="P59" s="73"/>
-      <c r="Q59" s="73"/>
-      <c r="R59" s="73"/>
+      <c r="P59" s="73" t="str">
+        <v>gtp_c</v>
+      </c>
+      <c r="Q59" s="73">
+        <v>-9.6468999999999999E-2</v>
+      </c>
+      <c r="R59" s="73">
+        <v>-3.3204379077068996E-2</v>
+      </c>
       <c r="S59" s="73"/>
       <c r="T59" s="73"/>
       <c r="U59" s="73"/>
@@ -19417,11 +19494,11 @@
       </c>
       <c r="I60" s="72">
         <f>H60/($H$3)</f>
-        <v>-4.2297577129041579E-2</v>
+        <v>-4.2247710704555998E-2</v>
       </c>
       <c r="J60" s="37" cm="1">
         <f t="array" ref="J60">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-4.2297577129041579E-2</v>
+        <v>-4.2247710704555998E-2</v>
       </c>
       <c r="K60" t="str" cm="1">
         <f t="array" ref="K60">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -19433,13 +19510,19 @@
       </c>
       <c r="M60" s="73" cm="1">
         <f t="array" ref="M60">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-4.2297577129041579E-2</v>
+        <v>-4.2247710704555998E-2</v>
       </c>
       <c r="N60" s="73"/>
       <c r="O60" s="73"/>
-      <c r="P60" s="73"/>
-      <c r="Q60" s="73"/>
-      <c r="R60" s="73"/>
+      <c r="P60" s="73" t="str">
+        <v>utp_c</v>
+      </c>
+      <c r="Q60" s="73">
+        <v>-0.12561900000000001</v>
+      </c>
+      <c r="R60" s="73">
+        <v>-3.8333650464758999E-2</v>
+      </c>
       <c r="S60" s="73"/>
       <c r="T60" s="73"/>
       <c r="U60" s="73"/>
@@ -19479,11 +19562,11 @@
       </c>
       <c r="I61" s="72">
         <f>H61/($H$3)</f>
-        <v>-1.6161123080023454</v>
+        <v>-1.6142070040148062</v>
       </c>
       <c r="J61" s="37" cm="1">
         <f t="array" ref="J61">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-130.33905430800235</v>
+        <v>-130.3371490040148</v>
       </c>
       <c r="K61" t="str" cm="1">
         <f t="array" ref="K61">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -19495,13 +19578,20 @@
       </c>
       <c r="M61" s="73" cm="1">
         <f t="array" ref="M61">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-141.07905430800236</v>
+        <v>-141.07714900401481</v>
       </c>
       <c r="N61" s="73"/>
       <c r="O61" s="73"/>
-      <c r="P61" s="73"/>
-      <c r="Q61" s="73"/>
-      <c r="R61" s="73"/>
+      <c r="P61" s="73" t="str">
+        <v>atp_c</v>
+      </c>
+      <c r="Q61" s="73">
+        <f>Q60</f>
+        <v>-0.12561900000000001</v>
+      </c>
+      <c r="R61" s="73">
+        <v>-4.1227904687618999E-2</v>
+      </c>
       <c r="S61" s="73"/>
       <c r="T61" s="73"/>
       <c r="U61" s="73"/>
@@ -19541,11 +19631,11 @@
       </c>
       <c r="I62" s="72">
         <f>H62/($H$3)</f>
-        <v>-1.0513196655761193E-2</v>
+        <v>-1.0500802198141618E-2</v>
       </c>
       <c r="J62" s="37" cm="1">
         <f t="array" ref="J62">_xlfn.LET(_xlpm.id,mets27138[[#This Row],[name w/o location]],_xlpm.oldcoeff,mets27138[[#This Row],[normalized coeffs]],_xlpm.gam,$J$2-$G$2,_xlfn.IFS(IFERROR(MATCH(_xlpm.id,{"atp","h2o"},0),0)&gt;0,_xlpm.oldcoeff-_xlpm.gam,IFERROR(MATCH(_xlpm.id,{"adp","h","pi"},0),0)&gt;0,_xlpm.oldcoeff+_xlpm.gam,TRUE,_xlpm.oldcoeff))</f>
-        <v>-1.0513196655761193E-2</v>
+        <v>-1.0500802198141618E-2</v>
       </c>
       <c r="K62" t="str" cm="1">
         <f t="array" ref="K62">"BIOSYN-"&amp;_xlfn.IFS(IFERROR(MATCH(mets27138[[#This Row],[category]],{0,"0",""},0),0)&gt;0,mets27138[[#This Row],[name]],TRUE,mets27138[[#This Row],[category]]&amp;"-"&amp;mets27138[[#This Row],[name]])</f>
@@ -19557,7 +19647,7 @@
       </c>
       <c r="M62" s="73" cm="1">
         <f t="array" ref="M62">_xlfn.LET(_xlpm.gam,$J$2,_xlpm.cat,IF(LEFT(mets27138[[#This Row],[name w/o location]],4)="trna","PROT",mets27138[[#This Row],[category]]),_xlpm.multipliers,_xlfn._xlws.FILTER(_xlfn.HSTACK(biomassComponents26127[normalized coeffs],biomassComponents26127[original coeffs from input]),(biomassComponents26127[rxn name]="BIOSYN-"&amp;_xlpm.cat)+IF(mets27138[[#This Row],[name w/o location]]="ppi",((biomassComponents26127[rxn name]="BIOSYN-DNA"))+((biomassComponents26127[rxn name]="BIOSYN-RNA"))&gt;0,FALSE),{1,1}),mets27138[[#This Row],[normalized coeffs]]*(SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,1))/SUM(_xlfn.CHOOSECOLS(_xlpm.multipliers,2)))+_xlfn.IFS(OR(mets27138[[#This Row],[name w/o location]]={"atp","h2o"}),-_xlpm.gam,OR(mets27138[[#This Row],[name w/o location]]={"adp","h","pi"}),_xlpm.gam,TRUE,0))</f>
-        <v>-1.0513196655761193E-2</v>
+        <v>-1.0500802198141618E-2</v>
       </c>
       <c r="N62" s="73"/>
       <c r="O62" s="73"/>
@@ -19604,7 +19694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042FF932-C48A-D446-979E-E5F082761A47}">
   <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A84" workbookViewId="0">
       <selection activeCell="A71" sqref="A54:D71"/>
     </sheetView>
   </sheetViews>
@@ -21423,8 +21513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5455B0F7-CD7B-1440-98EA-12626AC5D91D}">
   <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G116" sqref="G116:G135"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
